--- a/data/transport_record.xlsx
+++ b/data/transport_record.xlsx
@@ -8,18 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/winston/mygitrep/transportations/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17B6D2CF-B59E-C246-B7E2-3B76652E1FF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{392B39F8-E995-D648-8E33-A83095158DC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8280" yWindow="2560" windowWidth="28640" windowHeight="18820" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6900" yWindow="5220" windowWidth="30020" windowHeight="16160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$P$150</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$P$151</definedName>
   </definedNames>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1491" uniqueCount="830">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="842">
   <si>
     <t>17:00-23:00</t>
   </si>
@@ -2450,49 +2449,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>Kansai Airport-JR Namba</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>铁路</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>大阪关西</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>大阪</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -9666,7 +9622,16 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>Nankai-Limited Express; Yamatoji Line</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>铁路</t>
+    </r>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -9678,25 +9643,8 @@
         <family val="1"/>
         <charset val="134"/>
       </rPr>
-      <t>铁路</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="SimSun"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
       <t>奈良</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>17:35-18:27</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -9704,18 +9652,10 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>Nankai Electric Railway; West Japan Railway</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>Kintetsu Railway</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>Nankai-Limited Express Rapit Beta 70Toll Limited ExpressNankai-Namba; LocalJR-Namba</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>飞机</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -9987,22 +9927,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>52</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>分</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>13:37-14:04</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -10578,47 +10502,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="SimSun"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>返程</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>491</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="SimSun"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>扣</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>140</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>大巴</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -10688,6 +10571,249 @@
       </rPr>
       <t>新城汽车客运站</t>
     </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>大阪关西</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>神户</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>水路</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>30</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>分</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>18:00-18:30</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kobe-Kansai Airpot Bay Shuttle</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kansai Airport-Kobe Airport</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>09:03-11:15</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>8044</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>舟山汽运</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>时</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>空客</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>320-200·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>窄体机</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>波音</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>737·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>窄体机</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>返程</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>491</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>退票费</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>140</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>；东进1时</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>西退</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>时</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Limited Express Osaka-Umeda,Osaka-Umeda</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hankyu-Kobe Kosoku Line,Kobe Line</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>18:17-18:48</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hanakuma-Osaka Umeda</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kobekosoku Tetsudo</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>淘宝代购</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -10914,12 +11040,6 @@
     <xf numFmtId="178" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -10927,6 +11047,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -11312,10 +11438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMJ154"/>
+  <dimension ref="A1:AMJ155"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -11341,81 +11467,83 @@
   <sheetData>
     <row r="1" spans="1:16" s="6" customFormat="1" ht="14">
       <c r="A1" s="19" t="s">
+        <v>734</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>735</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>736</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>737</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>738</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>739</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>740</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>741</v>
+      </c>
+      <c r="I1" s="20" t="s">
         <v>742</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="J1" s="20" t="s">
         <v>743</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="K1" s="22" t="s">
         <v>744</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="L1" s="21" t="s">
         <v>745</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="M1" s="20" t="s">
         <v>746</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="N1" s="23" t="s">
         <v>747</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="O1" s="20" t="s">
         <v>748</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="P1" s="20" t="s">
         <v>749</v>
-      </c>
-      <c r="I1" s="20" t="s">
-        <v>750</v>
-      </c>
-      <c r="J1" s="20" t="s">
-        <v>751</v>
-      </c>
-      <c r="K1" s="22" t="s">
-        <v>752</v>
-      </c>
-      <c r="L1" s="21" t="s">
-        <v>753</v>
-      </c>
-      <c r="M1" s="20" t="s">
-        <v>754</v>
-      </c>
-      <c r="N1" s="23" t="s">
-        <v>755</v>
-      </c>
-      <c r="O1" s="20" t="s">
-        <v>756</v>
-      </c>
-      <c r="P1" s="20" t="s">
-        <v>757</v>
       </c>
     </row>
     <row r="2" spans="1:16" s="2" customFormat="1" ht="14">
       <c r="A2" s="7">
         <v>45793</v>
       </c>
-      <c r="B2" s="26" t="s">
-        <v>779</v>
+      <c r="B2" s="24" t="s">
+        <v>770</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="9"/>
-      <c r="E2" s="27" t="s">
-        <v>741</v>
-      </c>
-      <c r="F2" s="27" t="s">
-        <v>827</v>
-      </c>
-      <c r="G2" s="27" t="s">
-        <v>826</v>
+      <c r="E2" s="25" t="s">
+        <v>733</v>
+      </c>
+      <c r="F2" s="25" t="s">
+        <v>817</v>
+      </c>
+      <c r="G2" s="25" t="s">
+        <v>816</v>
       </c>
       <c r="H2" s="8"/>
-      <c r="I2" s="28" t="s">
-        <v>829</v>
+      <c r="I2" s="26" t="s">
+        <v>819</v>
       </c>
       <c r="J2" s="8"/>
       <c r="K2" s="10"/>
       <c r="L2" s="9"/>
       <c r="M2" s="8"/>
-      <c r="N2" s="11"/>
+      <c r="N2" s="11">
+        <v>70</v>
+      </c>
       <c r="O2" s="8"/>
       <c r="P2" s="8"/>
     </row>
@@ -11423,65 +11551,73 @@
       <c r="A3" s="7">
         <v>45793</v>
       </c>
-      <c r="B3" s="26" t="s">
-        <v>740</v>
+      <c r="B3" s="24" t="s">
+        <v>732</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>822</v>
+        <v>813</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>823</v>
-      </c>
-      <c r="E3" s="27" t="s">
-        <v>816</v>
-      </c>
-      <c r="F3" s="27" t="s">
-        <v>741</v>
-      </c>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="28" t="s">
-        <v>824</v>
-      </c>
-      <c r="J3" s="8"/>
-      <c r="K3" s="10"/>
+        <v>814</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>807</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>733</v>
+      </c>
+      <c r="G3" s="26" t="s">
+        <v>833</v>
+      </c>
+      <c r="H3" s="8">
+        <v>1886</v>
+      </c>
+      <c r="I3" s="26" t="s">
+        <v>815</v>
+      </c>
+      <c r="J3" s="8">
+        <v>1886</v>
+      </c>
+      <c r="K3" s="10">
+        <v>0.14583333333333334</v>
+      </c>
       <c r="L3" s="9"/>
       <c r="M3" s="8"/>
       <c r="N3" s="11">
         <v>728</v>
       </c>
       <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
+      <c r="P3" s="26" t="s">
+        <v>835</v>
+      </c>
     </row>
     <row r="4" spans="1:16" s="2" customFormat="1" ht="17">
       <c r="A4" s="7">
         <v>45793</v>
       </c>
-      <c r="B4" s="26" t="s">
-        <v>729</v>
+      <c r="B4" s="24" t="s">
+        <v>725</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>815</v>
+        <v>806</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>819</v>
-      </c>
-      <c r="E4" s="27" t="s">
-        <v>797</v>
-      </c>
-      <c r="F4" s="27" t="s">
-        <v>816</v>
+        <v>810</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>788</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>807</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>818</v>
-      </c>
-      <c r="H4" s="8"/>
+        <v>809</v>
+      </c>
       <c r="I4" s="8" t="s">
-        <v>817</v>
-      </c>
-      <c r="J4" s="8"/>
+        <v>808</v>
+      </c>
       <c r="K4" s="10" t="s">
-        <v>820</v>
+        <v>811</v>
       </c>
       <c r="L4" s="9"/>
       <c r="M4" s="8"/>
@@ -11490,7 +11626,7 @@
         <v>121.5</v>
       </c>
       <c r="O4" s="8" t="s">
-        <v>821</v>
+        <v>812</v>
       </c>
       <c r="P4" s="8"/>
     </row>
@@ -11499,26 +11635,26 @@
         <v>45790</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>802</v>
+        <v>793</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>800</v>
+        <v>791</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>805</v>
+        <v>796</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>806</v>
+        <v>797</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>799</v>
+        <v>790</v>
       </c>
       <c r="H5" s="8"/>
       <c r="I5" s="8" t="s">
-        <v>796</v>
+        <v>787</v>
       </c>
       <c r="J5" s="8"/>
       <c r="K5" s="10">
@@ -11531,7 +11667,7 @@
         <v>52</v>
       </c>
       <c r="O5" s="8" t="s">
-        <v>801</v>
+        <v>792</v>
       </c>
       <c r="P5" s="8"/>
     </row>
@@ -11540,30 +11676,30 @@
         <v>45790</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>804</v>
+        <v>795</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>792</v>
+        <v>783</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>807</v>
+        <v>798</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>805</v>
+        <v>796</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>793</v>
+        <v>784</v>
       </c>
       <c r="H6" s="8"/>
       <c r="I6" s="8" t="s">
-        <v>798</v>
+        <v>789</v>
       </c>
       <c r="J6" s="8"/>
       <c r="K6" s="10" t="s">
-        <v>803</v>
+        <v>794</v>
       </c>
       <c r="L6" s="9"/>
       <c r="M6" s="8"/>
@@ -11572,7 +11708,7 @@
         <v>13</v>
       </c>
       <c r="O6" s="8" t="s">
-        <v>795</v>
+        <v>786</v>
       </c>
       <c r="P6" s="8"/>
     </row>
@@ -11581,30 +11717,30 @@
         <v>45789</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>791</v>
+        <v>782</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>792</v>
+        <v>783</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>808</v>
+        <v>799</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>807</v>
+        <v>798</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>793</v>
+        <v>784</v>
       </c>
       <c r="H7" s="8"/>
       <c r="I7" s="8" t="s">
-        <v>790</v>
+        <v>781</v>
       </c>
       <c r="J7" s="8"/>
       <c r="K7" s="10" t="s">
-        <v>794</v>
+        <v>785</v>
       </c>
       <c r="L7" s="9"/>
       <c r="M7" s="8"/>
@@ -11613,7 +11749,7 @@
         <v>11</v>
       </c>
       <c r="O7" s="8" t="s">
-        <v>795</v>
+        <v>786</v>
       </c>
       <c r="P7" s="8"/>
     </row>
@@ -11622,26 +11758,26 @@
         <v>45789</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>809</v>
+        <v>800</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>786</v>
+        <v>777</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>787</v>
+        <v>778</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>810</v>
+        <v>801</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>808</v>
+        <v>799</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>789</v>
+        <v>780</v>
       </c>
       <c r="H8" s="8"/>
       <c r="I8" s="8" t="s">
-        <v>788</v>
+        <v>779</v>
       </c>
       <c r="J8" s="8"/>
       <c r="K8" s="10">
@@ -11654,7 +11790,7 @@
         <v>125</v>
       </c>
       <c r="O8" s="8" t="s">
-        <v>811</v>
+        <v>802</v>
       </c>
       <c r="P8" s="8"/>
     </row>
@@ -11663,26 +11799,26 @@
         <v>45787</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>809</v>
+        <v>800</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>782</v>
+        <v>773</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>785</v>
+        <v>776</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>812</v>
+        <v>803</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>810</v>
+        <v>801</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>784</v>
+        <v>775</v>
       </c>
       <c r="H9" s="8"/>
       <c r="I9" s="8" t="s">
-        <v>780</v>
+        <v>771</v>
       </c>
       <c r="J9" s="8">
         <v>59</v>
@@ -11693,46 +11829,47 @@
       <c r="L9" s="9"/>
       <c r="M9" s="8"/>
       <c r="N9" s="11">
-        <f>2300/20</f>
-        <v>115</v>
+        <v>136.80000000000001</v>
       </c>
       <c r="O9" s="8" t="s">
-        <v>783</v>
-      </c>
-      <c r="P9" s="8"/>
+        <v>774</v>
+      </c>
+      <c r="P9" s="25" t="s">
+        <v>841</v>
+      </c>
     </row>
     <row r="10" spans="1:16" s="2" customFormat="1" ht="14">
       <c r="A10" s="7">
         <v>45787</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>774</v>
+        <v>765</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>775</v>
+        <v>766</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>813</v>
+        <v>804</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>812</v>
+        <v>803</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>776</v>
+        <v>767</v>
       </c>
       <c r="H10" s="8"/>
       <c r="I10" s="8" t="s">
-        <v>777</v>
+        <v>768</v>
       </c>
       <c r="J10" s="8"/>
       <c r="K10" s="10">
         <v>7.5694444444444439E-2</v>
       </c>
       <c r="L10" s="9" t="s">
-        <v>778</v>
+        <v>769</v>
       </c>
       <c r="M10" s="8"/>
       <c r="N10" s="11">
@@ -11740,7 +11877,7 @@
         <v>539</v>
       </c>
       <c r="O10" s="8" t="s">
-        <v>781</v>
+        <v>772</v>
       </c>
       <c r="P10" s="8"/>
     </row>
@@ -11749,30 +11886,30 @@
         <v>45784</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>758</v>
+        <v>750</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>770</v>
+        <v>761</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>771</v>
+        <v>762</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>814</v>
+        <v>805</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>764</v>
+        <v>755</v>
       </c>
       <c r="H11" s="8"/>
       <c r="I11" s="8" t="s">
-        <v>772</v>
+        <v>763</v>
       </c>
       <c r="J11" s="8"/>
       <c r="K11" s="10" t="s">
-        <v>773</v>
+        <v>764</v>
       </c>
       <c r="L11" s="9"/>
       <c r="M11" s="8"/>
@@ -11781,7 +11918,7 @@
         <v>12</v>
       </c>
       <c r="O11" s="8" t="s">
-        <v>767</v>
+        <v>758</v>
       </c>
       <c r="P11" s="8"/>
     </row>
@@ -11790,30 +11927,30 @@
         <v>45784</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>758</v>
+        <v>750</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>763</v>
+        <v>754</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>769</v>
+        <v>760</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>760</v>
+        <v>752</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>814</v>
+        <v>805</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>764</v>
+        <v>755</v>
       </c>
       <c r="H12" s="8"/>
       <c r="I12" s="8" t="s">
-        <v>765</v>
+        <v>756</v>
       </c>
       <c r="J12" s="8"/>
       <c r="K12" s="10" t="s">
-        <v>766</v>
+        <v>757</v>
       </c>
       <c r="L12" s="9"/>
       <c r="M12" s="8"/>
@@ -11822,7 +11959,7 @@
         <v>25.5</v>
       </c>
       <c r="O12" s="8" t="s">
-        <v>767</v>
+        <v>758</v>
       </c>
       <c r="P12" s="8"/>
     </row>
@@ -11831,30 +11968,30 @@
         <v>45784</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>758</v>
+        <v>750</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>768</v>
+        <v>759</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>759</v>
+        <v>751</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>760</v>
+        <v>752</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="H13" s="8"/>
       <c r="I13" s="8" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="J13" s="8"/>
       <c r="K13" s="10" t="s">
-        <v>761</v>
+        <v>753</v>
       </c>
       <c r="L13" s="9"/>
       <c r="M13" s="8"/>
@@ -11863,627 +12000,642 @@
         <v>34</v>
       </c>
       <c r="O13" s="8" t="s">
-        <v>738</v>
+        <v>731</v>
       </c>
       <c r="P13" s="13"/>
     </row>
-    <row r="14" spans="1:16">
-      <c r="A14" s="12">
-        <v>45781</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>385</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>735</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>739</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>386</v>
-      </c>
-      <c r="F14" s="13" t="s">
-        <v>387</v>
-      </c>
-      <c r="G14" s="13" t="s">
-        <v>732</v>
-      </c>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13" t="s">
-        <v>384</v>
-      </c>
-      <c r="J14" s="13"/>
-      <c r="K14" s="14" t="s">
-        <v>762</v>
-      </c>
-      <c r="L14" s="15"/>
-      <c r="M14" s="13"/>
+    <row r="14" spans="1:16" s="2" customFormat="1" ht="14">
+      <c r="A14" s="7">
+        <v>45782</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>725</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>838</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>836</v>
+      </c>
+      <c r="E14" s="25" t="s">
+        <v>821</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>751</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>837</v>
+      </c>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8" t="s">
+        <v>839</v>
+      </c>
+      <c r="J14" s="8"/>
+      <c r="K14" s="10" t="s">
+        <v>823</v>
+      </c>
+      <c r="L14" s="9"/>
+      <c r="M14" s="8"/>
       <c r="N14" s="16">
-        <f>1640/20</f>
-        <v>82</v>
-      </c>
-      <c r="O14" s="13" t="s">
-        <v>737</v>
+        <f>470/20</f>
+        <v>23.5</v>
+      </c>
+      <c r="O14" s="8" t="s">
+        <v>840</v>
       </c>
       <c r="P14" s="13"/>
     </row>
     <row r="15" spans="1:16" s="2" customFormat="1" ht="14">
-      <c r="A15" s="7">
+      <c r="A15" s="12">
         <v>45781</v>
       </c>
-      <c r="B15" s="7" t="s">
-        <v>388</v>
+      <c r="B15" s="24" t="s">
+        <v>822</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>382</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>383</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>389</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>390</v>
-      </c>
-      <c r="G15" s="8"/>
+        <v>824</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>825</v>
+      </c>
+      <c r="E15" s="25" t="s">
+        <v>820</v>
+      </c>
+      <c r="F15" s="25" t="s">
+        <v>821</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>825</v>
+      </c>
       <c r="H15" s="8"/>
       <c r="I15" s="8" t="s">
-        <v>391</v>
+        <v>826</v>
       </c>
       <c r="J15" s="8"/>
-      <c r="K15" s="10"/>
+      <c r="K15" s="10" t="s">
+        <v>823</v>
+      </c>
       <c r="L15" s="9"/>
       <c r="M15" s="8"/>
-      <c r="N15" s="11">
-        <v>590</v>
-      </c>
-      <c r="O15" s="8" t="s">
-        <v>392</v>
-      </c>
-      <c r="P15" s="28" t="s">
-        <v>825</v>
-      </c>
+      <c r="N15" s="16">
+        <f>500/20</f>
+        <v>25</v>
+      </c>
+      <c r="O15" s="8"/>
+      <c r="P15" s="13"/>
     </row>
     <row r="16" spans="1:16" s="2" customFormat="1" ht="14">
       <c r="A16" s="7">
         <v>45781</v>
       </c>
-      <c r="B16" s="26" t="s">
-        <v>779</v>
-      </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="27" t="s">
-        <v>827</v>
-      </c>
-      <c r="F16" s="27" t="s">
-        <v>741</v>
-      </c>
-      <c r="G16" s="27" t="s">
-        <v>826</v>
-      </c>
-      <c r="H16" s="8"/>
-      <c r="I16" s="28" t="s">
-        <v>828</v>
-      </c>
-      <c r="J16" s="8"/>
-      <c r="K16" s="10"/>
+      <c r="B16" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>383</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="G16" s="26" t="s">
+        <v>832</v>
+      </c>
+      <c r="H16" s="8">
+        <v>1395</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>387</v>
+      </c>
+      <c r="J16" s="8">
+        <v>1395</v>
+      </c>
+      <c r="K16" s="10">
+        <v>0.10416666666666667</v>
+      </c>
       <c r="L16" s="9"/>
       <c r="M16" s="8"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="28"/>
+      <c r="N16" s="11">
+        <v>590</v>
+      </c>
+      <c r="O16" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="P16" s="26" t="s">
+        <v>834</v>
+      </c>
     </row>
-    <row r="17" spans="1:16">
-      <c r="A17" s="12">
-        <v>45758</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>294</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>295</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>296</v>
-      </c>
-      <c r="F17" s="13" t="s">
-        <v>297</v>
-      </c>
-      <c r="G17" s="13" t="s">
-        <v>295</v>
-      </c>
-      <c r="H17" s="13">
-        <v>233</v>
-      </c>
-      <c r="I17" s="13" t="s">
-        <v>298</v>
-      </c>
-      <c r="J17" s="13">
-        <v>233</v>
-      </c>
-      <c r="K17" s="14"/>
-      <c r="L17" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="M17" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="N17" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="O17" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="P17" s="13" t="s">
-        <v>299</v>
-      </c>
+    <row r="17" spans="1:16" s="2" customFormat="1" ht="14">
+      <c r="A17" s="7">
+        <v>45781</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>770</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>827</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>828</v>
+      </c>
+      <c r="E17" s="25" t="s">
+        <v>817</v>
+      </c>
+      <c r="F17" s="25" t="s">
+        <v>733</v>
+      </c>
+      <c r="G17" s="25" t="s">
+        <v>816</v>
+      </c>
+      <c r="H17" s="8">
+        <v>104</v>
+      </c>
+      <c r="I17" s="26" t="s">
+        <v>818</v>
+      </c>
+      <c r="J17" s="8">
+        <v>104</v>
+      </c>
+      <c r="K17" s="10" t="s">
+        <v>831</v>
+      </c>
+      <c r="L17" s="9" t="s">
+        <v>829</v>
+      </c>
+      <c r="M17" s="8">
+        <v>3</v>
+      </c>
+      <c r="N17" s="11">
+        <v>64</v>
+      </c>
+      <c r="O17" s="25" t="s">
+        <v>830</v>
+      </c>
+      <c r="P17" s="26"/>
     </row>
     <row r="18" spans="1:16">
       <c r="A18" s="12">
-        <v>45749</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>393</v>
+        <v>45758</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>294</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>394</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>395</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>396</v>
+        <v>0</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>296</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>297</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>295</v>
       </c>
       <c r="H18" s="13">
-        <v>1438</v>
-      </c>
-      <c r="I18" s="8" t="s">
-        <v>397</v>
+        <v>233</v>
+      </c>
+      <c r="I18" s="13" t="s">
+        <v>298</v>
       </c>
       <c r="J18" s="13">
-        <v>155</v>
-      </c>
-      <c r="K18" s="14">
-        <v>4.4444444444444398E-2</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="K18" s="14"/>
       <c r="L18" s="15" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M18" s="13" t="s">
-        <v>398</v>
-      </c>
-      <c r="N18" s="16">
-        <v>57</v>
-      </c>
-      <c r="O18" s="8" t="s">
-        <v>399</v>
-      </c>
-      <c r="P18" s="8" t="s">
-        <v>400</v>
+        <v>1</v>
+      </c>
+      <c r="N18" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="O18" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="P18" s="13" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="19" spans="1:16">
       <c r="A19" s="12">
         <v>45749</v>
       </c>
-      <c r="B19" s="12" t="s">
-        <v>300</v>
+      <c r="B19" s="7" t="s">
+        <v>389</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>301</v>
-      </c>
-      <c r="F19" s="13" t="s">
-        <v>302</v>
-      </c>
-      <c r="G19" s="13" t="s">
-        <v>6</v>
+        <v>2</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>391</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>392</v>
       </c>
       <c r="H19" s="13">
-        <v>150.72999999999999</v>
-      </c>
-      <c r="I19" s="13" t="s">
-        <v>303</v>
+        <v>1438</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>393</v>
       </c>
       <c r="J19" s="13">
-        <v>150.72999999999999</v>
+        <v>155</v>
       </c>
       <c r="K19" s="14">
-        <v>0.26554398148148101</v>
+        <v>4.4444444444444398E-2</v>
       </c>
       <c r="L19" s="15" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M19" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="N19" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="O19" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="P19" s="13" t="s">
-        <v>304</v>
+        <v>394</v>
+      </c>
+      <c r="N19" s="16">
+        <v>57</v>
+      </c>
+      <c r="O19" s="8" t="s">
+        <v>395</v>
+      </c>
+      <c r="P19" s="8" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="12">
-        <v>45711</v>
+        <v>45749</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="15" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>6</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>307</v>
+        <v>6</v>
       </c>
       <c r="H20" s="13">
-        <v>1179</v>
-      </c>
-      <c r="I20" s="8" t="s">
-        <v>401</v>
+        <v>150.72999999999999</v>
+      </c>
+      <c r="I20" s="13" t="s">
+        <v>303</v>
       </c>
       <c r="J20" s="13">
-        <v>1179</v>
+        <v>150.72999999999999</v>
       </c>
       <c r="K20" s="14">
-        <v>6.6666666666666693E-2</v>
+        <v>0.26554398148148101</v>
       </c>
       <c r="L20" s="15" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="M20" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="N20" s="16">
-        <v>490</v>
+        <v>1</v>
+      </c>
+      <c r="N20" s="16" t="s">
+        <v>1</v>
       </c>
       <c r="O20" s="13" t="s">
-        <v>308</v>
+        <v>1</v>
       </c>
       <c r="P20" s="13" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
     </row>
     <row r="21" spans="1:16">
       <c r="A21" s="12">
-        <v>45709</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="C21" s="17" t="s">
-        <v>11</v>
+        <v>45711</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>7</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>395</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>402</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>403</v>
+        <v>8</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>306</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>301</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>307</v>
       </c>
       <c r="H21" s="13">
-        <v>1662</v>
+        <v>1179</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="J21" s="13">
-        <v>1503</v>
+        <v>1179</v>
       </c>
       <c r="K21" s="14">
-        <v>0.422916666666667</v>
+        <v>6.6666666666666693E-2</v>
       </c>
       <c r="L21" s="15" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="M21" s="13" t="s">
-        <v>405</v>
+        <v>10</v>
       </c>
       <c r="N21" s="16">
-        <v>770</v>
-      </c>
-      <c r="O21" s="8" t="s">
-        <v>406</v>
+        <v>490</v>
+      </c>
+      <c r="O21" s="13" t="s">
+        <v>308</v>
       </c>
       <c r="P21" s="13" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="22" spans="1:16">
       <c r="A22" s="12">
-        <v>45627</v>
+        <v>45709</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>14</v>
+        <v>389</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>11</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="H22" s="13">
-        <v>891</v>
+        <v>1662</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="J22" s="13">
-        <v>159</v>
+        <v>1503</v>
       </c>
       <c r="K22" s="14">
-        <v>4.8611111111111098E-2</v>
+        <v>0.422916666666667</v>
       </c>
       <c r="L22" s="15" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M22" s="13" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="N22" s="16">
-        <v>59</v>
+        <v>770</v>
       </c>
       <c r="O22" s="8" t="s">
-        <v>399</v>
-      </c>
-      <c r="P22" s="8" t="s">
-        <v>410</v>
+        <v>402</v>
+      </c>
+      <c r="P22" s="13" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="23" spans="1:16">
       <c r="A23" s="12">
-        <v>45625</v>
+        <v>45627</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>411</v>
+        <v>391</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>412</v>
+        <v>392</v>
       </c>
       <c r="H23" s="13">
-        <v>159</v>
+        <v>891</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="J23" s="13">
         <v>159</v>
       </c>
-      <c r="K23" s="14" t="s">
-        <v>348</v>
+      <c r="K23" s="14">
+        <v>4.8611111111111098E-2</v>
       </c>
       <c r="L23" s="15" t="s">
-        <v>414</v>
+        <v>16</v>
       </c>
       <c r="M23" s="13" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="N23" s="16">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="O23" s="8" t="s">
-        <v>416</v>
-      </c>
-      <c r="P23" s="13" t="s">
-        <v>311</v>
+        <v>395</v>
+      </c>
+      <c r="P23" s="8" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="24" spans="1:16">
       <c r="A24" s="12">
-        <v>45606</v>
+        <v>45625</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>395</v>
+        <v>407</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>407</v>
+        <v>391</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>396</v>
+        <v>408</v>
       </c>
       <c r="H24" s="13">
-        <v>891</v>
+        <v>159</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="J24" s="13">
         <v>159</v>
       </c>
-      <c r="K24" s="14">
-        <v>4.8611111111111098E-2</v>
+      <c r="K24" s="14" t="s">
+        <v>348</v>
       </c>
       <c r="L24" s="15" t="s">
-        <v>16</v>
+        <v>410</v>
       </c>
       <c r="M24" s="13" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="N24" s="16">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="O24" s="8" t="s">
-        <v>399</v>
-      </c>
-      <c r="P24" s="13"/>
+        <v>412</v>
+      </c>
+      <c r="P24" s="13" t="s">
+        <v>311</v>
+      </c>
     </row>
     <row r="25" spans="1:16">
       <c r="A25" s="12">
-        <v>45605</v>
+        <v>45606</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="C25" s="17" t="s">
-        <v>19</v>
+        <v>389</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>14</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>418</v>
+        <v>391</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>419</v>
+        <v>403</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="H25" s="13">
-        <v>1084</v>
+        <v>891</v>
       </c>
       <c r="I25" s="8" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="J25" s="13">
         <v>159</v>
       </c>
-      <c r="K25" s="14" t="s">
-        <v>348</v>
+      <c r="K25" s="14">
+        <v>4.8611111111111098E-2</v>
       </c>
       <c r="L25" s="15" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="M25" s="13" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="N25" s="16">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="O25" s="8" t="s">
-        <v>416</v>
-      </c>
-      <c r="P25" s="8" t="s">
-        <v>421</v>
-      </c>
+        <v>395</v>
+      </c>
+      <c r="P25" s="13"/>
     </row>
     <row r="26" spans="1:16">
       <c r="A26" s="12">
         <v>45605</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>22</v>
+        <v>389</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>19</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
       <c r="H26" s="13">
-        <v>780</v>
+        <v>1084</v>
       </c>
       <c r="I26" s="8" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="J26" s="13">
         <v>159</v>
       </c>
-      <c r="K26" s="14">
-        <v>4.1666666666666699E-2</v>
+      <c r="K26" s="14" t="s">
+        <v>348</v>
       </c>
       <c r="L26" s="15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="M26" s="13" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="N26" s="16">
-        <v>73</v>
+        <v>9</v>
       </c>
       <c r="O26" s="8" t="s">
-        <v>416</v>
-      </c>
-      <c r="P26" s="13" t="s">
-        <v>312</v>
+        <v>412</v>
+      </c>
+      <c r="P26" s="8" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="27" spans="1:16">
       <c r="A27" s="12">
-        <v>45591</v>
+        <v>45605</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E27" s="8" t="s">
         <v>418</v>
@@ -12492,61 +12644,63 @@
         <v>419</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="H27" s="13">
-        <v>1084</v>
+        <v>780</v>
       </c>
       <c r="I27" s="8" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="J27" s="13">
         <v>159</v>
       </c>
-      <c r="K27" s="14" t="s">
-        <v>348</v>
+      <c r="K27" s="14">
+        <v>4.1666666666666699E-2</v>
       </c>
       <c r="L27" s="15" t="s">
-        <v>425</v>
+        <v>24</v>
       </c>
       <c r="M27" s="13" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="N27" s="16">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="O27" s="8" t="s">
-        <v>416</v>
-      </c>
-      <c r="P27" s="13"/>
+        <v>412</v>
+      </c>
+      <c r="P27" s="13" t="s">
+        <v>312</v>
+      </c>
     </row>
     <row r="28" spans="1:16">
       <c r="A28" s="12">
-        <v>45590</v>
+        <v>45591</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>395</v>
+        <v>415</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>412</v>
+        <v>392</v>
       </c>
       <c r="H28" s="13">
-        <v>159</v>
+        <v>1084</v>
       </c>
       <c r="I28" s="8" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="J28" s="13">
         <v>159</v>
@@ -12555,275 +12709,289 @@
         <v>348</v>
       </c>
       <c r="L28" s="15" t="s">
-        <v>414</v>
+        <v>421</v>
       </c>
       <c r="M28" s="13" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="N28" s="16">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="O28" s="8" t="s">
-        <v>416</v>
-      </c>
-      <c r="P28" s="13" t="s">
-        <v>313</v>
-      </c>
+        <v>412</v>
+      </c>
+      <c r="P28" s="13"/>
     </row>
     <row r="29" spans="1:16">
       <c r="A29" s="12">
-        <v>45508</v>
+        <v>45590</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>428</v>
+        <v>389</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>429</v>
+        <v>407</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>430</v>
+        <v>391</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>431</v>
+        <v>408</v>
       </c>
       <c r="H29" s="13">
-        <v>1538</v>
+        <v>159</v>
       </c>
       <c r="I29" s="8" t="s">
-        <v>432</v>
+        <v>409</v>
       </c>
       <c r="J29" s="13">
-        <v>1538</v>
-      </c>
-      <c r="K29" s="14">
-        <v>8.6111111111111097E-2</v>
+        <v>159</v>
+      </c>
+      <c r="K29" s="14" t="s">
+        <v>348</v>
       </c>
       <c r="L29" s="15" t="s">
-        <v>27</v>
+        <v>410</v>
       </c>
       <c r="M29" s="13" t="s">
-        <v>28</v>
+        <v>423</v>
       </c>
       <c r="N29" s="16">
-        <v>1330</v>
+        <v>80</v>
       </c>
       <c r="O29" s="8" t="s">
-        <v>433</v>
-      </c>
-      <c r="P29" s="13"/>
+        <v>412</v>
+      </c>
+      <c r="P29" s="13" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="30" spans="1:16">
       <c r="A30" s="12">
-        <v>45505</v>
+        <v>45508</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D30" s="15" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="H30" s="13">
         <v>1538</v>
       </c>
       <c r="I30" s="8" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="J30" s="13">
         <v>1538</v>
       </c>
       <c r="K30" s="14">
-        <v>8.4722222222222199E-2</v>
+        <v>8.6111111111111097E-2</v>
       </c>
       <c r="L30" s="15" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="M30" s="13" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="N30" s="16">
-        <v>1510</v>
+        <v>1330</v>
       </c>
       <c r="O30" s="8" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="P30" s="13"/>
     </row>
     <row r="31" spans="1:16">
       <c r="A31" s="12">
-        <v>45481</v>
+        <v>45505</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>437</v>
+        <v>426</v>
       </c>
       <c r="F31" s="8" t="s">
+        <v>425</v>
+      </c>
+      <c r="G31" s="8" t="s">
         <v>430</v>
       </c>
-      <c r="G31" s="8" t="s">
-        <v>438</v>
-      </c>
       <c r="H31" s="13">
-        <v>3649</v>
+        <v>1538</v>
       </c>
       <c r="I31" s="8" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="J31" s="13">
-        <v>3649</v>
+        <v>1538</v>
       </c>
       <c r="K31" s="14">
-        <v>0.204166666666667</v>
+        <v>8.4722222222222199E-2</v>
       </c>
       <c r="L31" s="15" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="M31" s="13" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="N31" s="16">
-        <v>1043</v>
-      </c>
-      <c r="O31" s="13" t="s">
-        <v>37</v>
+        <v>1510</v>
+      </c>
+      <c r="O31" s="8" t="s">
+        <v>432</v>
       </c>
       <c r="P31" s="13"/>
     </row>
     <row r="32" spans="1:16">
       <c r="A32" s="12">
-        <v>45479</v>
+        <v>45481</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>440</v>
+        <v>424</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="E32" s="13" t="s">
-        <v>40</v>
+        <v>34</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>433</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="G32" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="H32" s="13"/>
+        <v>426</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>434</v>
+      </c>
+      <c r="H32" s="13">
+        <v>3649</v>
+      </c>
       <c r="I32" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="J32" s="13"/>
-      <c r="K32" s="14"/>
-      <c r="L32" s="15"/>
-      <c r="M32" s="13"/>
-      <c r="N32" s="16"/>
-      <c r="O32" s="15" t="s">
-        <v>44</v>
+        <v>435</v>
+      </c>
+      <c r="J32" s="13">
+        <v>3649</v>
+      </c>
+      <c r="K32" s="14">
+        <v>0.204166666666667</v>
+      </c>
+      <c r="L32" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="M32" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="N32" s="16">
+        <v>1043</v>
+      </c>
+      <c r="O32" s="13" t="s">
+        <v>37</v>
       </c>
       <c r="P32" s="13"/>
     </row>
     <row r="33" spans="1:16">
       <c r="A33" s="12">
-        <v>45476</v>
+        <v>45479</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>440</v>
-      </c>
-      <c r="C33" s="17" t="s">
-        <v>45</v>
+        <v>436</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>38</v>
       </c>
       <c r="D33" s="15" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E33" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="F33" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="G33" s="13" t="s">
-        <v>48</v>
+      <c r="F33" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G33" s="15" t="s">
+        <v>42</v>
       </c>
       <c r="H33" s="13"/>
       <c r="I33" s="8" t="s">
-        <v>314</v>
+        <v>43</v>
       </c>
       <c r="J33" s="13"/>
       <c r="K33" s="14"/>
-      <c r="L33" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="M33" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="N33" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="O33" s="13" t="s">
-        <v>52</v>
+      <c r="L33" s="15"/>
+      <c r="M33" s="13"/>
+      <c r="N33" s="16"/>
+      <c r="O33" s="15" t="s">
+        <v>44</v>
       </c>
       <c r="P33" s="13"/>
     </row>
     <row r="34" spans="1:16">
       <c r="A34" s="12">
-        <v>45474</v>
+        <v>45476</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>393</v>
+        <v>436</v>
       </c>
       <c r="C34" s="17" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D34" s="15" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="E34" s="13" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="F34" s="13" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="G34" s="13" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="H34" s="13"/>
-      <c r="I34" s="13" t="s">
-        <v>58</v>
+      <c r="I34" s="8" t="s">
+        <v>314</v>
       </c>
       <c r="J34" s="13"/>
       <c r="K34" s="14"/>
-      <c r="L34" s="15"/>
-      <c r="M34" s="13"/>
-      <c r="N34" s="16"/>
-      <c r="O34" s="13"/>
+      <c r="L34" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="M34" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="N34" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="O34" s="13" t="s">
+        <v>52</v>
+      </c>
       <c r="P34" s="13"/>
     </row>
     <row r="35" spans="1:16">
@@ -12831,32 +12999,30 @@
         <v>45474</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="C35" s="13" t="s">
-        <v>59</v>
+        <v>389</v>
+      </c>
+      <c r="C35" s="17" t="s">
+        <v>53</v>
       </c>
       <c r="D35" s="15" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="E35" s="13" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F35" s="13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G35" s="13" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="H35" s="13"/>
       <c r="I35" s="13" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="J35" s="13"/>
       <c r="K35" s="14"/>
-      <c r="L35" s="15" t="s">
-        <v>64</v>
-      </c>
+      <c r="L35" s="15"/>
       <c r="M35" s="13"/>
       <c r="N35" s="16"/>
       <c r="O35" s="13"/>
@@ -12864,274 +13030,264 @@
     </row>
     <row r="36" spans="1:16">
       <c r="A36" s="12">
-        <v>45471</v>
+        <v>45474</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="C36" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="D36" s="13" t="s">
-        <v>66</v>
+        <v>389</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D36" s="15" t="s">
+        <v>60</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="H36" s="13"/>
       <c r="I36" s="13" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="J36" s="13"/>
       <c r="K36" s="14"/>
-      <c r="L36" s="15"/>
+      <c r="L36" s="15" t="s">
+        <v>64</v>
+      </c>
       <c r="M36" s="13"/>
-      <c r="N36" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="O36" s="13" t="s">
-        <v>70</v>
-      </c>
+      <c r="N36" s="16"/>
+      <c r="O36" s="13"/>
       <c r="P36" s="13"/>
     </row>
     <row r="37" spans="1:16">
       <c r="A37" s="12">
-        <v>45470</v>
+        <v>45471</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="C37" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="D37" s="15" t="s">
-        <v>72</v>
+        <v>389</v>
+      </c>
+      <c r="C37" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="D37" s="13" t="s">
+        <v>66</v>
       </c>
       <c r="E37" s="13" t="s">
-        <v>293</v>
+        <v>67</v>
       </c>
       <c r="F37" s="13" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="G37" s="13" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="H37" s="13"/>
       <c r="I37" s="13" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J37" s="13"/>
       <c r="K37" s="14"/>
       <c r="L37" s="15"/>
       <c r="M37" s="13"/>
-      <c r="N37" s="16"/>
-      <c r="O37" s="13"/>
+      <c r="N37" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="O37" s="13" t="s">
+        <v>70</v>
+      </c>
       <c r="P37" s="13"/>
     </row>
     <row r="38" spans="1:16">
       <c r="A38" s="12">
-        <v>45466</v>
+        <v>45470</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D38" s="15" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E38" s="13" t="s">
-        <v>78</v>
+        <v>293</v>
       </c>
       <c r="F38" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="G38" s="15" t="s">
-        <v>79</v>
+        <v>67</v>
+      </c>
+      <c r="G38" s="13" t="s">
+        <v>74</v>
       </c>
       <c r="H38" s="13"/>
-      <c r="I38" s="8" t="s">
-        <v>315</v>
+      <c r="I38" s="13" t="s">
+        <v>75</v>
       </c>
       <c r="J38" s="13"/>
-      <c r="K38" s="14">
-        <v>0.53472222222222199</v>
-      </c>
-      <c r="L38" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="M38" s="13" t="s">
-        <v>441</v>
-      </c>
-      <c r="N38" s="16">
-        <v>188</v>
-      </c>
-      <c r="O38" s="13" t="s">
-        <v>80</v>
-      </c>
+      <c r="K38" s="14"/>
+      <c r="L38" s="15"/>
+      <c r="M38" s="13"/>
+      <c r="N38" s="16"/>
+      <c r="O38" s="13"/>
       <c r="P38" s="13"/>
     </row>
     <row r="39" spans="1:16">
       <c r="A39" s="12">
-        <v>45463</v>
+        <v>45466</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>440</v>
+        <v>389</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D39" s="15" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E39" s="13" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="F39" s="13" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="G39" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="H39" s="13">
-        <v>182</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="H39" s="13"/>
       <c r="I39" s="8" t="s">
-        <v>316</v>
-      </c>
-      <c r="J39" s="13">
-        <v>182</v>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="J39" s="13"/>
       <c r="K39" s="14">
-        <v>0.13888888888888901</v>
+        <v>0.53472222222222199</v>
       </c>
       <c r="L39" s="15" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="M39" s="13" t="s">
-        <v>87</v>
+        <v>437</v>
       </c>
       <c r="N39" s="16">
-        <v>61</v>
+        <v>188</v>
       </c>
       <c r="O39" s="13" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="P39" s="13"/>
     </row>
     <row r="40" spans="1:16">
       <c r="A40" s="12">
-        <v>45462</v>
-      </c>
-      <c r="B40" s="12" t="s">
-        <v>294</v>
-      </c>
-      <c r="C40" s="17" t="s">
-        <v>89</v>
+        <v>45463</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>81</v>
       </c>
       <c r="D40" s="15" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="E40" s="13" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="F40" s="13" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G40" s="15" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="H40" s="13">
-        <v>103</v>
-      </c>
-      <c r="I40" s="13" t="s">
-        <v>92</v>
+        <v>182</v>
+      </c>
+      <c r="I40" s="8" t="s">
+        <v>316</v>
       </c>
       <c r="J40" s="13">
-        <v>103</v>
-      </c>
-      <c r="K40" s="14" t="s">
-        <v>349</v>
-      </c>
-      <c r="L40" s="15"/>
-      <c r="M40" s="13"/>
-      <c r="N40" s="16"/>
-      <c r="O40" s="13"/>
-      <c r="P40" s="13" t="s">
-        <v>317</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="K40" s="14">
+        <v>0.13888888888888901</v>
+      </c>
+      <c r="L40" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="M40" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="N40" s="16">
+        <v>61</v>
+      </c>
+      <c r="O40" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="P40" s="13"/>
     </row>
     <row r="41" spans="1:16">
       <c r="A41" s="12">
         <v>45462</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>318</v>
+        <v>294</v>
       </c>
       <c r="C41" s="17" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D41" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="E41" s="18" t="s">
-        <v>95</v>
+        <v>90</v>
+      </c>
+      <c r="E41" s="13" t="s">
+        <v>91</v>
       </c>
       <c r="F41" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="G41" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="H41" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="I41" s="8" t="s">
-        <v>319</v>
-      </c>
-      <c r="J41" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="K41" s="14"/>
-      <c r="L41" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="M41" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="N41" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="O41" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="P41" s="13"/>
+        <v>83</v>
+      </c>
+      <c r="G41" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="H41" s="13">
+        <v>103</v>
+      </c>
+      <c r="I41" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="J41" s="13">
+        <v>103</v>
+      </c>
+      <c r="K41" s="14" t="s">
+        <v>349</v>
+      </c>
+      <c r="L41" s="15"/>
+      <c r="M41" s="13"/>
+      <c r="N41" s="16"/>
+      <c r="O41" s="13"/>
+      <c r="P41" s="13" t="s">
+        <v>317</v>
+      </c>
     </row>
     <row r="42" spans="1:16">
       <c r="A42" s="12">
-        <v>45461</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>442</v>
+        <v>45462</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>318</v>
       </c>
       <c r="C42" s="17" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D42" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="E42" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="F42" s="18" t="s">
+      <c r="E42" s="18" t="s">
         <v>95</v>
+      </c>
+      <c r="F42" s="13" t="s">
+        <v>96</v>
       </c>
       <c r="G42" s="13" t="s">
         <v>97</v>
@@ -13140,7 +13296,7 @@
         <v>1</v>
       </c>
       <c r="I42" s="8" t="s">
-        <v>101</v>
+        <v>319</v>
       </c>
       <c r="J42" s="13" t="s">
         <v>1</v>
@@ -13152,212 +13308,208 @@
       <c r="M42" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="N42" s="16">
-        <v>122</v>
+      <c r="N42" s="16" t="s">
+        <v>1</v>
       </c>
       <c r="O42" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="P42" s="8" t="s">
-        <v>443</v>
-      </c>
+      <c r="P42" s="13"/>
     </row>
     <row r="43" spans="1:16">
       <c r="A43" s="12">
-        <v>45458</v>
+        <v>45461</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="C43" s="13" t="s">
-        <v>102</v>
+        <v>438</v>
+      </c>
+      <c r="C43" s="17" t="s">
+        <v>99</v>
       </c>
       <c r="D43" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="E43" s="8" t="s">
-        <v>444</v>
-      </c>
-      <c r="F43" s="8" t="s">
-        <v>445</v>
-      </c>
-      <c r="G43" s="8" t="s">
-        <v>446</v>
-      </c>
-      <c r="H43" s="13">
-        <v>316</v>
+        <v>94</v>
+      </c>
+      <c r="E43" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="F43" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="G43" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="H43" s="13" t="s">
+        <v>1</v>
       </c>
       <c r="I43" s="8" t="s">
-        <v>447</v>
-      </c>
-      <c r="J43" s="13">
-        <v>316</v>
-      </c>
-      <c r="K43" s="14">
-        <v>0.209722222222222</v>
-      </c>
-      <c r="L43" s="9" t="s">
-        <v>448</v>
+        <v>101</v>
+      </c>
+      <c r="J43" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="K43" s="14"/>
+      <c r="L43" s="15" t="s">
+        <v>1</v>
       </c>
       <c r="M43" s="13" t="s">
-        <v>449</v>
+        <v>1</v>
       </c>
       <c r="N43" s="16">
-        <v>174</v>
-      </c>
-      <c r="O43" s="8" t="s">
-        <v>450</v>
-      </c>
-      <c r="P43" s="13"/>
+        <v>122</v>
+      </c>
+      <c r="O43" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="P43" s="8" t="s">
+        <v>439</v>
+      </c>
     </row>
     <row r="44" spans="1:16">
       <c r="A44" s="12">
-        <v>45453</v>
+        <v>45458</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="C44" s="17" t="s">
-        <v>104</v>
+        <v>389</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>102</v>
       </c>
       <c r="D44" s="15" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>430</v>
+        <v>440</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="G44" s="8" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="H44" s="13">
-        <v>2310</v>
+        <v>316</v>
       </c>
       <c r="I44" s="8" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="J44" s="13">
-        <v>2310</v>
+        <v>316</v>
       </c>
       <c r="K44" s="14">
-        <v>0.19097222222222199</v>
-      </c>
-      <c r="L44" s="15" t="s">
-        <v>106</v>
+        <v>0.209722222222222</v>
+      </c>
+      <c r="L44" s="9" t="s">
+        <v>444</v>
       </c>
       <c r="M44" s="13" t="s">
-        <v>107</v>
+        <v>445</v>
       </c>
       <c r="N44" s="16">
-        <v>400</v>
+        <v>174</v>
       </c>
       <c r="O44" s="8" t="s">
-        <v>454</v>
-      </c>
-      <c r="P44" s="8" t="s">
-        <v>455</v>
-      </c>
+        <v>446</v>
+      </c>
+      <c r="P44" s="13"/>
     </row>
     <row r="45" spans="1:16">
       <c r="A45" s="12">
-        <v>45439</v>
+        <v>45453</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="C45" s="13" t="s">
-        <v>108</v>
+        <v>424</v>
+      </c>
+      <c r="C45" s="17" t="s">
+        <v>104</v>
       </c>
       <c r="D45" s="15" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>456</v>
+        <v>426</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>457</v>
-      </c>
-      <c r="G45" s="13" t="s">
-        <v>320</v>
+        <v>447</v>
+      </c>
+      <c r="G45" s="8" t="s">
+        <v>448</v>
       </c>
       <c r="H45" s="13">
-        <v>1586</v>
+        <v>2310</v>
       </c>
       <c r="I45" s="8" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="J45" s="13">
-        <v>1279</v>
+        <v>2310</v>
       </c>
       <c r="K45" s="14">
-        <v>0.25277777777777799</v>
+        <v>0.19097222222222199</v>
       </c>
       <c r="L45" s="15" t="s">
-        <v>459</v>
+        <v>106</v>
       </c>
       <c r="M45" s="13" t="s">
-        <v>460</v>
+        <v>107</v>
       </c>
       <c r="N45" s="16">
-        <v>623</v>
+        <v>400</v>
       </c>
       <c r="O45" s="8" t="s">
-        <v>416</v>
+        <v>450</v>
       </c>
       <c r="P45" s="8" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
     </row>
     <row r="46" spans="1:16">
       <c r="A46" s="12">
-        <v>45438</v>
+        <v>45439</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D46" s="15" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E46" s="8" t="s">
+        <v>452</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>453</v>
+      </c>
+      <c r="G46" s="13" t="s">
+        <v>320</v>
+      </c>
+      <c r="H46" s="13">
+        <v>1586</v>
+      </c>
+      <c r="I46" s="8" t="s">
+        <v>454</v>
+      </c>
+      <c r="J46" s="13">
+        <v>1279</v>
+      </c>
+      <c r="K46" s="14">
+        <v>0.25277777777777799</v>
+      </c>
+      <c r="L46" s="15" t="s">
+        <v>455</v>
+      </c>
+      <c r="M46" s="13" t="s">
         <v>456</v>
       </c>
-      <c r="F46" s="8" t="s">
-        <v>462</v>
-      </c>
-      <c r="G46" s="8" t="s">
-        <v>463</v>
-      </c>
-      <c r="H46" s="13">
-        <v>1416</v>
-      </c>
-      <c r="I46" s="8" t="s">
-        <v>464</v>
-      </c>
-      <c r="J46" s="13">
-        <v>1277</v>
-      </c>
-      <c r="K46" s="14">
-        <v>0.2</v>
-      </c>
-      <c r="L46" s="15" t="s">
-        <v>465</v>
-      </c>
-      <c r="M46" s="13" t="s">
-        <v>466</v>
-      </c>
       <c r="N46" s="16">
-        <v>10</v>
+        <v>623</v>
       </c>
       <c r="O46" s="8" t="s">
-        <v>467</v>
+        <v>412</v>
       </c>
       <c r="P46" s="8" t="s">
-        <v>468</v>
+        <v>457</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -13365,7 +13517,7 @@
         <v>45438</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C47" s="13" t="s">
         <v>110</v>
@@ -13374,19 +13526,19 @@
         <v>111</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="G47" s="8" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="H47" s="13">
         <v>1416</v>
       </c>
       <c r="I47" s="8" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="J47" s="13">
         <v>1277</v>
@@ -13395,661 +13547,661 @@
         <v>0.2</v>
       </c>
       <c r="L47" s="15" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="M47" s="13" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="N47" s="16">
-        <v>93.5</v>
+        <v>10</v>
       </c>
       <c r="O47" s="8" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="P47" s="8" t="s">
-        <v>421</v>
+        <v>464</v>
       </c>
     </row>
     <row r="48" spans="1:16">
       <c r="A48" s="12">
-        <v>45434</v>
+        <v>45438</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>428</v>
+        <v>389</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D48" s="15" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>430</v>
+        <v>452</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>469</v>
+        <v>458</v>
       </c>
       <c r="G48" s="8" t="s">
-        <v>470</v>
+        <v>459</v>
       </c>
       <c r="H48" s="13">
-        <v>1200</v>
+        <v>1416</v>
       </c>
       <c r="I48" s="8" t="s">
-        <v>471</v>
+        <v>460</v>
       </c>
       <c r="J48" s="13">
-        <v>1200</v>
+        <v>1277</v>
       </c>
       <c r="K48" s="14">
-        <v>7.7083333333333295E-2</v>
+        <v>0.2</v>
       </c>
       <c r="L48" s="15" t="s">
-        <v>114</v>
+        <v>461</v>
       </c>
       <c r="M48" s="13" t="s">
-        <v>115</v>
+        <v>462</v>
       </c>
       <c r="N48" s="16">
-        <v>460</v>
+        <v>93.5</v>
       </c>
       <c r="O48" s="8" t="s">
-        <v>472</v>
-      </c>
-      <c r="P48" s="13" t="s">
-        <v>350</v>
+        <v>463</v>
+      </c>
+      <c r="P48" s="8" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="49" spans="1:16">
       <c r="A49" s="12">
-        <v>45341</v>
+        <v>45434</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>393</v>
+        <v>424</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D49" s="15" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>456</v>
+        <v>426</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>411</v>
+        <v>465</v>
       </c>
       <c r="G49" s="8" t="s">
-        <v>403</v>
+        <v>466</v>
       </c>
       <c r="H49" s="13">
-        <v>1279</v>
+        <v>1200</v>
       </c>
       <c r="I49" s="8" t="s">
-        <v>458</v>
+        <v>467</v>
       </c>
       <c r="J49" s="13">
-        <v>1279</v>
+        <v>1200</v>
       </c>
       <c r="K49" s="14">
-        <v>0.179166666666667</v>
+        <v>7.7083333333333295E-2</v>
       </c>
       <c r="L49" s="15" t="s">
-        <v>473</v>
+        <v>114</v>
       </c>
       <c r="M49" s="13" t="s">
-        <v>474</v>
+        <v>115</v>
       </c>
       <c r="N49" s="16">
-        <v>506</v>
+        <v>460</v>
       </c>
       <c r="O49" s="8" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="P49" s="13" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="50" spans="1:16">
       <c r="A50" s="12">
-        <v>45340</v>
+        <v>45341</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D50" s="15" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>411</v>
+        <v>452</v>
       </c>
       <c r="F50" s="8" t="s">
-        <v>456</v>
+        <v>407</v>
       </c>
       <c r="G50" s="8" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="H50" s="13">
         <v>1279</v>
       </c>
       <c r="I50" s="8" t="s">
-        <v>475</v>
+        <v>454</v>
       </c>
       <c r="J50" s="13">
         <v>1279</v>
       </c>
       <c r="K50" s="14">
-        <v>0.23958333333333301</v>
+        <v>0.179166666666667</v>
       </c>
       <c r="L50" s="15" t="s">
-        <v>120</v>
+        <v>469</v>
       </c>
       <c r="M50" s="13" t="s">
-        <v>398</v>
+        <v>470</v>
       </c>
       <c r="N50" s="16">
         <v>506</v>
       </c>
       <c r="O50" s="8" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="P50" s="13" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="51" spans="1:16">
       <c r="A51" s="12">
-        <v>45271</v>
+        <v>45340</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>428</v>
+        <v>389</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D51" s="15" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>476</v>
+        <v>407</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>430</v>
+        <v>452</v>
       </c>
       <c r="G51" s="8" t="s">
-        <v>470</v>
+        <v>399</v>
       </c>
       <c r="H51" s="13">
-        <v>1099</v>
+        <v>1279</v>
       </c>
       <c r="I51" s="8" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="J51" s="13">
-        <v>1099</v>
+        <v>1279</v>
       </c>
       <c r="K51" s="14">
-        <v>7.0833333333333304E-2</v>
+        <v>0.23958333333333301</v>
       </c>
       <c r="L51" s="15" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="M51" s="13" t="s">
-        <v>124</v>
+        <v>394</v>
       </c>
       <c r="N51" s="16">
-        <v>536</v>
+        <v>506</v>
       </c>
       <c r="O51" s="8" t="s">
-        <v>478</v>
-      </c>
-      <c r="P51" s="8" t="s">
-        <v>479</v>
+        <v>463</v>
+      </c>
+      <c r="P51" s="13" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="52" spans="1:16">
       <c r="A52" s="12">
-        <v>45268</v>
+        <v>45271</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>393</v>
+        <v>424</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D52" s="15" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>481</v>
+        <v>426</v>
       </c>
       <c r="G52" s="8" t="s">
-        <v>482</v>
+        <v>466</v>
       </c>
       <c r="H52" s="13">
-        <v>1598</v>
+        <v>1099</v>
       </c>
       <c r="I52" s="8" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="J52" s="13">
-        <v>1410</v>
-      </c>
-      <c r="K52" s="14" t="s">
-        <v>484</v>
+        <v>1099</v>
+      </c>
+      <c r="K52" s="14">
+        <v>7.0833333333333304E-2</v>
       </c>
       <c r="L52" s="15" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="M52" s="13" t="s">
-        <v>485</v>
+        <v>124</v>
       </c>
       <c r="N52" s="16">
-        <v>296.5</v>
+        <v>536</v>
       </c>
       <c r="O52" s="8" t="s">
-        <v>406</v>
+        <v>474</v>
       </c>
       <c r="P52" s="8" t="s">
-        <v>486</v>
+        <v>475</v>
       </c>
     </row>
     <row r="53" spans="1:16">
       <c r="A53" s="12">
-        <v>45252</v>
+        <v>45268</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D53" s="15" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>456</v>
+        <v>476</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
       <c r="G53" s="8" t="s">
-        <v>412</v>
+        <v>478</v>
       </c>
       <c r="H53" s="13">
-        <v>1506</v>
+        <v>1598</v>
       </c>
       <c r="I53" s="8" t="s">
-        <v>458</v>
+        <v>479</v>
       </c>
       <c r="J53" s="13">
-        <v>1279</v>
-      </c>
-      <c r="K53" s="14">
-        <v>0.24722222222222201</v>
+        <v>1410</v>
+      </c>
+      <c r="K53" s="14" t="s">
+        <v>480</v>
       </c>
       <c r="L53" s="15" t="s">
-        <v>488</v>
+        <v>107</v>
       </c>
       <c r="M53" s="13" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="N53" s="16">
-        <v>506</v>
+        <v>296.5</v>
       </c>
       <c r="O53" s="8" t="s">
-        <v>416</v>
-      </c>
-      <c r="P53" s="13" t="s">
-        <v>353</v>
+        <v>402</v>
+      </c>
+      <c r="P53" s="8" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="54" spans="1:16">
       <c r="A54" s="12">
-        <v>45236</v>
+        <v>45252</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D54" s="15" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>395</v>
+        <v>452</v>
       </c>
       <c r="F54" s="8" t="s">
-        <v>456</v>
+        <v>483</v>
       </c>
       <c r="G54" s="8" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="H54" s="13">
-        <v>1318</v>
+        <v>1506</v>
       </c>
       <c r="I54" s="8" t="s">
-        <v>490</v>
+        <v>454</v>
       </c>
       <c r="J54" s="13">
-        <v>692</v>
+        <v>1279</v>
       </c>
       <c r="K54" s="14">
-        <v>0.125694444444444</v>
+        <v>0.24722222222222201</v>
       </c>
       <c r="L54" s="15" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="M54" s="13" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="N54" s="16">
-        <v>322</v>
+        <v>506</v>
       </c>
       <c r="O54" s="8" t="s">
-        <v>416</v>
-      </c>
-      <c r="P54" s="8" t="s">
-        <v>493</v>
+        <v>412</v>
+      </c>
+      <c r="P54" s="13" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="55" spans="1:16">
       <c r="A55" s="12">
-        <v>45234</v>
+        <v>45236</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D55" s="15" t="s">
-        <v>111</v>
+        <v>130</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>456</v>
+        <v>391</v>
       </c>
       <c r="F55" s="8" t="s">
-        <v>494</v>
+        <v>452</v>
       </c>
       <c r="G55" s="8" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="H55" s="13">
-        <v>1416</v>
+        <v>1318</v>
       </c>
       <c r="I55" s="8" t="s">
-        <v>495</v>
+        <v>486</v>
       </c>
       <c r="J55" s="13">
         <v>692</v>
       </c>
       <c r="K55" s="14">
-        <v>9.7916666666666693E-2</v>
+        <v>0.125694444444444</v>
       </c>
       <c r="L55" s="15" t="s">
-        <v>465</v>
+        <v>487</v>
       </c>
       <c r="M55" s="13" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="N55" s="16">
-        <v>350</v>
+        <v>322</v>
       </c>
       <c r="O55" s="8" t="s">
-        <v>467</v>
+        <v>412</v>
       </c>
       <c r="P55" s="8" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
     </row>
     <row r="56" spans="1:16">
       <c r="A56" s="12">
-        <v>45207</v>
+        <v>45234</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D56" s="15" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>419</v>
+        <v>452</v>
       </c>
       <c r="F56" s="8" t="s">
-        <v>456</v>
+        <v>490</v>
       </c>
       <c r="G56" s="8" t="s">
-        <v>498</v>
+        <v>399</v>
       </c>
       <c r="H56" s="13">
-        <v>1434</v>
+        <v>1416</v>
       </c>
       <c r="I56" s="8" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="J56" s="13">
-        <v>1434</v>
+        <v>692</v>
       </c>
       <c r="K56" s="14">
-        <v>0.27638888888888902</v>
+        <v>9.7916666666666693E-2</v>
       </c>
       <c r="L56" s="15" t="s">
-        <v>134</v>
+        <v>461</v>
       </c>
       <c r="M56" s="13" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="N56" s="16">
-        <v>559</v>
+        <v>350</v>
       </c>
       <c r="O56" s="8" t="s">
-        <v>416</v>
-      </c>
-      <c r="P56" s="13" t="s">
-        <v>354</v>
+        <v>463</v>
+      </c>
+      <c r="P56" s="8" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="57" spans="1:16">
       <c r="A57" s="12">
-        <v>45200</v>
+        <v>45207</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>440</v>
+        <v>389</v>
       </c>
       <c r="C57" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="D57" s="8" t="s">
-        <v>501</v>
+        <v>132</v>
+      </c>
+      <c r="D57" s="15" t="s">
+        <v>133</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>502</v>
+        <v>415</v>
       </c>
       <c r="F57" s="8" t="s">
-        <v>503</v>
+        <v>452</v>
       </c>
       <c r="G57" s="8" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="H57" s="13">
-        <v>246</v>
+        <v>1434</v>
       </c>
       <c r="I57" s="8" t="s">
-        <v>504</v>
+        <v>495</v>
       </c>
       <c r="J57" s="13">
-        <v>246</v>
-      </c>
-      <c r="K57" s="14"/>
-      <c r="L57" s="15"/>
-      <c r="M57" s="13"/>
+        <v>1434</v>
+      </c>
+      <c r="K57" s="14">
+        <v>0.27638888888888902</v>
+      </c>
+      <c r="L57" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="M57" s="13" t="s">
+        <v>496</v>
+      </c>
       <c r="N57" s="16">
-        <v>150</v>
-      </c>
-      <c r="O57" s="8"/>
+        <v>559</v>
+      </c>
+      <c r="O57" s="8" t="s">
+        <v>412</v>
+      </c>
       <c r="P57" s="13" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="58" spans="1:16">
       <c r="A58" s="12">
-        <v>45199</v>
+        <v>45200</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>393</v>
+        <v>436</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="D58" s="15" t="s">
-        <v>137</v>
+        <v>135</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>497</v>
       </c>
       <c r="E58" s="8" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="F58" s="8" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G58" s="8" t="s">
-        <v>506</v>
+        <v>497</v>
       </c>
       <c r="H58" s="13">
-        <v>1463</v>
+        <v>246</v>
       </c>
       <c r="I58" s="8" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="J58" s="13">
-        <v>1463</v>
-      </c>
-      <c r="K58" s="14">
-        <v>0.78402777777777799</v>
-      </c>
-      <c r="L58" s="15" t="s">
-        <v>356</v>
-      </c>
-      <c r="M58" s="13" t="s">
-        <v>508</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="K58" s="14"/>
+      <c r="L58" s="15"/>
+      <c r="M58" s="13"/>
       <c r="N58" s="16">
-        <v>226.5</v>
-      </c>
-      <c r="O58" s="8" t="s">
-        <v>416</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="O58" s="8"/>
       <c r="P58" s="13" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="59" spans="1:16">
       <c r="A59" s="12">
-        <v>45179</v>
+        <v>45199</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C59" s="13" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D59" s="15" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E59" s="8" t="s">
+        <v>501</v>
+      </c>
+      <c r="F59" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="G59" s="8" t="s">
         <v>502</v>
-      </c>
-      <c r="F59" s="8" t="s">
-        <v>505</v>
-      </c>
-      <c r="G59" s="8" t="s">
-        <v>509</v>
       </c>
       <c r="H59" s="13">
         <v>1463</v>
       </c>
       <c r="I59" s="8" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="J59" s="13">
         <v>1463</v>
       </c>
       <c r="K59" s="14">
-        <v>0.66805555555555496</v>
+        <v>0.78402777777777799</v>
       </c>
       <c r="L59" s="15" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="M59" s="13" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="N59" s="16">
-        <v>476.5</v>
+        <v>226.5</v>
       </c>
       <c r="O59" s="8" t="s">
-        <v>467</v>
+        <v>412</v>
       </c>
       <c r="P59" s="13" t="s">
-        <v>512</v>
+        <v>355</v>
       </c>
     </row>
     <row r="60" spans="1:16">
       <c r="A60" s="12">
-        <v>45152</v>
+        <v>45179</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D60" s="15" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E60" s="8" t="s">
-        <v>456</v>
+        <v>498</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>395</v>
+        <v>501</v>
       </c>
       <c r="G60" s="8" t="s">
-        <v>403</v>
+        <v>505</v>
       </c>
       <c r="H60" s="13">
-        <v>1318</v>
+        <v>1463</v>
       </c>
       <c r="I60" s="8" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="J60" s="13">
-        <v>295</v>
+        <v>1463</v>
       </c>
       <c r="K60" s="14">
-        <v>4.7916666666666698E-2</v>
+        <v>0.66805555555555496</v>
       </c>
       <c r="L60" s="15" t="s">
-        <v>142</v>
+        <v>357</v>
       </c>
       <c r="M60" s="13" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="N60" s="16">
-        <v>153</v>
+        <v>476.5</v>
       </c>
       <c r="O60" s="8" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="P60" s="13" t="s">
-        <v>358</v>
+        <v>508</v>
       </c>
     </row>
     <row r="61" spans="1:16">
@@ -14057,96 +14209,96 @@
         <v>45152</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C61" s="13" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D61" s="15" t="s">
         <v>141</v>
       </c>
       <c r="E61" s="8" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="F61" s="8" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="G61" s="8" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="H61" s="13">
         <v>1318</v>
       </c>
       <c r="I61" s="8" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="J61" s="13">
-        <v>1023</v>
+        <v>295</v>
       </c>
       <c r="K61" s="14">
-        <v>0.18333333333333299</v>
+        <v>4.7916666666666698E-2</v>
       </c>
       <c r="L61" s="15" t="s">
-        <v>473</v>
+        <v>142</v>
       </c>
       <c r="M61" s="13" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="N61" s="16">
-        <v>400</v>
+        <v>153</v>
       </c>
       <c r="O61" s="8" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="P61" s="13" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="62" spans="1:16">
       <c r="A62" s="12">
-        <v>45143</v>
+        <v>45152</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D62" s="15" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E62" s="8" t="s">
-        <v>419</v>
+        <v>452</v>
       </c>
       <c r="F62" s="8" t="s">
-        <v>456</v>
+        <v>391</v>
       </c>
       <c r="G62" s="8" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="H62" s="13">
-        <v>1434</v>
+        <v>1318</v>
       </c>
       <c r="I62" s="8" t="s">
-        <v>499</v>
+        <v>511</v>
       </c>
       <c r="J62" s="13">
-        <v>1434</v>
+        <v>1023</v>
       </c>
       <c r="K62" s="14">
-        <v>0.22430555555555601</v>
+        <v>0.18333333333333299</v>
       </c>
       <c r="L62" s="15" t="s">
-        <v>146</v>
+        <v>469</v>
       </c>
       <c r="M62" s="13" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="N62" s="16">
-        <v>559</v>
+        <v>400</v>
       </c>
       <c r="O62" s="8" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="P62" s="13" t="s">
         <v>359</v>
@@ -14154,773 +14306,791 @@
     </row>
     <row r="63" spans="1:16">
       <c r="A63" s="12">
-        <v>45130</v>
+        <v>45143</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C63" s="13" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D63" s="15" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E63" s="8" t="s">
-        <v>518</v>
+        <v>415</v>
       </c>
       <c r="F63" s="8" t="s">
-        <v>519</v>
+        <v>452</v>
       </c>
       <c r="G63" s="8" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="H63" s="13">
-        <v>1549</v>
+        <v>1434</v>
       </c>
       <c r="I63" s="8" t="s">
-        <v>520</v>
+        <v>495</v>
       </c>
       <c r="J63" s="13">
-        <v>314</v>
+        <v>1434</v>
       </c>
       <c r="K63" s="14">
-        <v>8.8194444444444395E-2</v>
+        <v>0.22430555555555601</v>
       </c>
       <c r="L63" s="15" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="M63" s="13" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="N63" s="16">
-        <v>116</v>
+        <v>559</v>
       </c>
       <c r="O63" s="8" t="s">
-        <v>416</v>
+        <v>463</v>
       </c>
       <c r="P63" s="13" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="64" spans="1:16">
       <c r="A64" s="12">
-        <v>45088</v>
+        <v>45130</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C64" s="13" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D64" s="15" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E64" s="8" t="s">
-        <v>456</v>
+        <v>514</v>
       </c>
       <c r="F64" s="8" t="s">
-        <v>395</v>
+        <v>515</v>
       </c>
       <c r="G64" s="8" t="s">
-        <v>463</v>
+        <v>392</v>
       </c>
       <c r="H64" s="13">
-        <v>1318</v>
+        <v>1549</v>
       </c>
       <c r="I64" s="8" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="J64" s="13">
-        <v>1318</v>
+        <v>314</v>
       </c>
       <c r="K64" s="14">
-        <v>0.19305555555555601</v>
+        <v>8.8194444444444395E-2</v>
       </c>
       <c r="L64" s="15" t="s">
-        <v>523</v>
+        <v>149</v>
       </c>
       <c r="M64" s="13" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="N64" s="16">
-        <v>662</v>
-      </c>
-      <c r="O64" s="13"/>
+        <v>116</v>
+      </c>
+      <c r="O64" s="8" t="s">
+        <v>412</v>
+      </c>
       <c r="P64" s="13" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="65" spans="1:16">
       <c r="A65" s="12">
-        <v>45045</v>
+        <v>45088</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C65" s="13" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D65" s="15" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>525</v>
+        <v>452</v>
       </c>
       <c r="F65" s="8" t="s">
-        <v>526</v>
+        <v>391</v>
       </c>
       <c r="G65" s="8" t="s">
-        <v>527</v>
+        <v>459</v>
       </c>
       <c r="H65" s="13">
-        <v>338</v>
+        <v>1318</v>
       </c>
       <c r="I65" s="8" t="s">
-        <v>528</v>
+        <v>518</v>
       </c>
       <c r="J65" s="13">
-        <v>338</v>
+        <v>1318</v>
       </c>
       <c r="K65" s="14">
-        <v>7.2916666666666699E-2</v>
+        <v>0.19305555555555601</v>
       </c>
       <c r="L65" s="15" t="s">
-        <v>154</v>
+        <v>519</v>
       </c>
       <c r="M65" s="13" t="s">
-        <v>529</v>
+        <v>520</v>
       </c>
       <c r="N65" s="16">
-        <v>156</v>
+        <v>662</v>
       </c>
       <c r="O65" s="13"/>
-      <c r="P65" s="8" t="s">
-        <v>530</v>
+      <c r="P65" s="13" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="66" spans="1:16">
       <c r="A66" s="12">
-        <v>45044</v>
+        <v>45045</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C66" s="13" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D66" s="15" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E66" s="8" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="F66" s="8" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="G66" s="8" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="H66" s="13">
         <v>338</v>
       </c>
       <c r="I66" s="8" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="J66" s="13">
         <v>338</v>
       </c>
       <c r="K66" s="14">
-        <v>9.2361111111111102E-2</v>
-      </c>
-      <c r="L66" s="9" t="s">
-        <v>532</v>
+        <v>7.2916666666666699E-2</v>
+      </c>
+      <c r="L66" s="15" t="s">
+        <v>154</v>
       </c>
       <c r="M66" s="13" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="N66" s="16">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="O66" s="13"/>
       <c r="P66" s="8" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
     </row>
     <row r="67" spans="1:16">
       <c r="A67" s="12">
-        <v>45004</v>
+        <v>45044</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C67" s="13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D67" s="15" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E67" s="8" t="s">
-        <v>418</v>
+        <v>522</v>
       </c>
       <c r="F67" s="8" t="s">
-        <v>456</v>
+        <v>521</v>
       </c>
       <c r="G67" s="8" t="s">
-        <v>463</v>
+        <v>523</v>
       </c>
       <c r="H67" s="13">
-        <v>804</v>
+        <v>338</v>
       </c>
       <c r="I67" s="8" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="J67" s="13">
-        <v>804</v>
+        <v>338</v>
       </c>
       <c r="K67" s="14">
-        <v>0.140972222222222</v>
-      </c>
-      <c r="L67" s="15" t="s">
-        <v>536</v>
+        <v>9.2361111111111102E-2</v>
+      </c>
+      <c r="L67" s="9" t="s">
+        <v>528</v>
       </c>
       <c r="M67" s="13" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="N67" s="16">
-        <v>336</v>
+        <v>170</v>
       </c>
       <c r="O67" s="13"/>
       <c r="P67" s="8" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
     </row>
     <row r="68" spans="1:16">
       <c r="A68" s="12">
-        <v>45003</v>
+        <v>45004</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C68" s="13" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D68" s="15" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E68" s="8" t="s">
-        <v>456</v>
+        <v>414</v>
       </c>
       <c r="F68" s="8" t="s">
-        <v>539</v>
+        <v>452</v>
       </c>
       <c r="G68" s="8" t="s">
-        <v>540</v>
+        <v>459</v>
       </c>
       <c r="H68" s="13">
-        <v>819</v>
+        <v>804</v>
       </c>
       <c r="I68" s="8" t="s">
-        <v>541</v>
+        <v>531</v>
       </c>
       <c r="J68" s="13">
-        <v>819</v>
+        <v>804</v>
       </c>
       <c r="K68" s="14">
-        <v>0.15902777777777799</v>
+        <v>0.140972222222222</v>
       </c>
       <c r="L68" s="15" t="s">
-        <v>488</v>
+        <v>532</v>
       </c>
       <c r="M68" s="13" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
       <c r="N68" s="16">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="O68" s="13"/>
       <c r="P68" s="8" t="s">
-        <v>543</v>
+        <v>534</v>
       </c>
     </row>
     <row r="69" spans="1:16">
       <c r="A69" s="12">
+        <v>45003</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="C69" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="D69" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="E69" s="8" t="s">
+        <v>452</v>
+      </c>
+      <c r="F69" s="8" t="s">
+        <v>535</v>
+      </c>
+      <c r="G69" s="8" t="s">
+        <v>536</v>
+      </c>
+      <c r="H69" s="13">
+        <v>819</v>
+      </c>
+      <c r="I69" s="8" t="s">
+        <v>537</v>
+      </c>
+      <c r="J69" s="13">
+        <v>819</v>
+      </c>
+      <c r="K69" s="14">
+        <v>0.15902777777777799</v>
+      </c>
+      <c r="L69" s="15" t="s">
+        <v>484</v>
+      </c>
+      <c r="M69" s="13" t="s">
+        <v>538</v>
+      </c>
+      <c r="N69" s="16">
+        <v>349</v>
+      </c>
+      <c r="O69" s="13"/>
+      <c r="P69" s="8" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16">
+      <c r="A70" s="12">
         <v>44964</v>
       </c>
-      <c r="B69" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="C69" s="13" t="s">
+      <c r="B70" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="C70" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="D69" s="15" t="s">
+      <c r="D70" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="E69" s="8" t="s">
-        <v>419</v>
-      </c>
-      <c r="F69" s="8" t="s">
-        <v>456</v>
-      </c>
-      <c r="G69" s="8" t="s">
-        <v>463</v>
-      </c>
-      <c r="H69" s="13">
+      <c r="E70" s="8" t="s">
+        <v>415</v>
+      </c>
+      <c r="F70" s="8" t="s">
+        <v>452</v>
+      </c>
+      <c r="G70" s="8" t="s">
+        <v>459</v>
+      </c>
+      <c r="H70" s="13">
         <v>1434</v>
       </c>
-      <c r="I69" s="8" t="s">
-        <v>499</v>
-      </c>
-      <c r="J69" s="13">
+      <c r="I70" s="8" t="s">
+        <v>495</v>
+      </c>
+      <c r="J70" s="13">
         <v>1434</v>
       </c>
-      <c r="K69" s="14">
+      <c r="K70" s="14">
         <v>0.22430555555555601</v>
       </c>
-      <c r="L69" s="15" t="s">
+      <c r="L70" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="M69" s="13" t="s">
-        <v>544</v>
-      </c>
-      <c r="N69" s="16">
+      <c r="M70" s="13" t="s">
+        <v>540</v>
+      </c>
+      <c r="N70" s="16">
         <v>541</v>
       </c>
-      <c r="O69" s="13"/>
-      <c r="P69" s="13" t="s">
+      <c r="O70" s="13"/>
+      <c r="P70" s="13" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="70" spans="1:16" ht="13.5" customHeight="1">
-      <c r="A70" s="12">
+    <row r="71" spans="1:16" ht="13.5" customHeight="1">
+      <c r="A71" s="12">
         <v>44944</v>
       </c>
-      <c r="B70" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="C70" s="13" t="s">
+      <c r="B71" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="C71" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="D70" s="15" t="s">
+      <c r="D71" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="E70" s="8" t="s">
-        <v>469</v>
-      </c>
-      <c r="F70" s="8" t="s">
-        <v>545</v>
-      </c>
-      <c r="G70" s="8" t="s">
-        <v>452</v>
-      </c>
-      <c r="H70" s="13">
+      <c r="E71" s="8" t="s">
+        <v>465</v>
+      </c>
+      <c r="F71" s="8" t="s">
+        <v>541</v>
+      </c>
+      <c r="G71" s="8" t="s">
+        <v>448</v>
+      </c>
+      <c r="H71" s="13">
         <v>1338</v>
       </c>
-      <c r="I70" s="8" t="s">
-        <v>546</v>
-      </c>
-      <c r="J70" s="13">
+      <c r="I71" s="8" t="s">
+        <v>542</v>
+      </c>
+      <c r="J71" s="13">
         <v>1338</v>
       </c>
-      <c r="K70" s="14">
+      <c r="K71" s="14">
         <v>8.9583333333333307E-2</v>
       </c>
-      <c r="L70" s="15" t="s">
+      <c r="L71" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="M70" s="13" t="s">
+      <c r="M71" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="N70" s="16">
+      <c r="N71" s="16">
         <v>362</v>
       </c>
-      <c r="O70" s="8" t="s">
-        <v>547</v>
-      </c>
-      <c r="P70" s="13" t="s">
+      <c r="O71" s="8" t="s">
+        <v>543</v>
+      </c>
+      <c r="P71" s="13" t="s">
         <v>362</v>
-      </c>
-    </row>
-    <row r="71" spans="1:16">
-      <c r="A71" s="12">
-        <v>44796</v>
-      </c>
-      <c r="B71" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="C71" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="D71" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="E71" s="8" t="s">
-        <v>419</v>
-      </c>
-      <c r="F71" s="8" t="s">
-        <v>456</v>
-      </c>
-      <c r="G71" s="8" t="s">
-        <v>540</v>
-      </c>
-      <c r="H71" s="13">
-        <v>1434</v>
-      </c>
-      <c r="I71" s="8" t="s">
-        <v>499</v>
-      </c>
-      <c r="J71" s="13">
-        <v>1434</v>
-      </c>
-      <c r="K71" s="14">
-        <v>0.27638888888888902</v>
-      </c>
-      <c r="L71" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="M71" s="13" t="s">
-        <v>548</v>
-      </c>
-      <c r="N71" s="16">
-        <v>541</v>
-      </c>
-      <c r="O71" s="13"/>
-      <c r="P71" s="13" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="72" spans="1:16">
       <c r="A72" s="12">
-        <v>44771</v>
+        <v>44796</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C72" s="13" t="s">
-        <v>165</v>
+        <v>132</v>
       </c>
       <c r="D72" s="15" t="s">
-        <v>166</v>
+        <v>133</v>
       </c>
       <c r="E72" s="8" t="s">
-        <v>549</v>
+        <v>415</v>
       </c>
       <c r="F72" s="8" t="s">
-        <v>487</v>
+        <v>452</v>
       </c>
       <c r="G72" s="8" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="H72" s="13">
-        <v>1857</v>
+        <v>1434</v>
       </c>
       <c r="I72" s="8" t="s">
-        <v>550</v>
+        <v>495</v>
       </c>
       <c r="J72" s="13">
-        <v>316</v>
+        <v>1434</v>
       </c>
       <c r="K72" s="14">
-        <v>0.100694444444444</v>
+        <v>0.27638888888888902</v>
       </c>
       <c r="L72" s="15" t="s">
-        <v>167</v>
+        <v>120</v>
       </c>
       <c r="M72" s="13" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="N72" s="16">
-        <v>130.5</v>
+        <v>541</v>
       </c>
       <c r="O72" s="13"/>
-      <c r="P72" s="8" t="s">
-        <v>552</v>
+      <c r="P72" s="13" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="73" spans="1:16">
       <c r="A73" s="12">
-        <v>44770</v>
+        <v>44771</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C73" s="13" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D73" s="15" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E73" s="8" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="F73" s="8" t="s">
-        <v>395</v>
+        <v>483</v>
       </c>
       <c r="G73" s="8" t="s">
-        <v>463</v>
+        <v>536</v>
       </c>
       <c r="H73" s="13">
-        <v>1083</v>
+        <v>1857</v>
       </c>
       <c r="I73" s="8" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="J73" s="13">
-        <v>763</v>
+        <v>316</v>
       </c>
       <c r="K73" s="14">
-        <v>0.14236111111111099</v>
+        <v>0.100694444444444</v>
       </c>
       <c r="L73" s="15" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="M73" s="13" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="N73" s="16">
-        <v>338</v>
+        <v>130.5</v>
       </c>
       <c r="O73" s="13"/>
       <c r="P73" s="8" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
     </row>
     <row r="74" spans="1:16">
       <c r="A74" s="12">
-        <v>44769</v>
+        <v>44770</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D74" s="15" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E74" s="8" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
       <c r="F74" s="8" t="s">
-        <v>407</v>
+        <v>391</v>
       </c>
       <c r="G74" s="8" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="H74" s="13">
-        <v>2092</v>
+        <v>1083</v>
       </c>
       <c r="I74" s="8" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
       <c r="J74" s="13">
-        <v>1169</v>
+        <v>763</v>
       </c>
       <c r="K74" s="14">
-        <v>0.26041666666666702</v>
-      </c>
-      <c r="L74" s="9" t="s">
-        <v>559</v>
+        <v>0.14236111111111099</v>
+      </c>
+      <c r="L74" s="15" t="s">
+        <v>170</v>
       </c>
       <c r="M74" s="13" t="s">
-        <v>560</v>
+        <v>551</v>
       </c>
       <c r="N74" s="16">
-        <v>498.5</v>
+        <v>338</v>
       </c>
       <c r="O74" s="13"/>
       <c r="P74" s="8" t="s">
-        <v>561</v>
+        <v>552</v>
       </c>
     </row>
     <row r="75" spans="1:16">
       <c r="A75" s="12">
-        <v>44767</v>
+        <v>44769</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C75" s="13" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D75" s="15" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E75" s="8" t="s">
-        <v>562</v>
+        <v>553</v>
       </c>
       <c r="F75" s="8" t="s">
-        <v>557</v>
+        <v>403</v>
       </c>
       <c r="G75" s="8" t="s">
-        <v>527</v>
-      </c>
-      <c r="H75" s="13"/>
+        <v>459</v>
+      </c>
+      <c r="H75" s="13">
+        <v>2092</v>
+      </c>
       <c r="I75" s="8" t="s">
-        <v>563</v>
-      </c>
-      <c r="J75" s="13"/>
+        <v>554</v>
+      </c>
+      <c r="J75" s="13">
+        <v>1169</v>
+      </c>
       <c r="K75" s="14">
-        <v>8.6111111111111097E-2</v>
-      </c>
-      <c r="L75" s="15" t="s">
-        <v>175</v>
+        <v>0.26041666666666702</v>
+      </c>
+      <c r="L75" s="9" t="s">
+        <v>555</v>
       </c>
       <c r="M75" s="13" t="s">
-        <v>564</v>
+        <v>556</v>
       </c>
       <c r="N75" s="16">
-        <v>212.5</v>
+        <v>498.5</v>
       </c>
       <c r="O75" s="13"/>
       <c r="P75" s="8" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
     </row>
     <row r="76" spans="1:16">
       <c r="A76" s="12">
-        <v>44765</v>
+        <v>44767</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C76" s="13" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D76" s="15" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E76" s="8" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
       <c r="F76" s="8" t="s">
-        <v>567</v>
+        <v>553</v>
       </c>
       <c r="G76" s="8" t="s">
-        <v>568</v>
+        <v>523</v>
       </c>
       <c r="H76" s="13"/>
       <c r="I76" s="8" t="s">
-        <v>569</v>
+        <v>559</v>
       </c>
       <c r="J76" s="13"/>
       <c r="K76" s="14">
-        <v>9.2361111111111102E-2</v>
+        <v>8.6111111111111097E-2</v>
       </c>
       <c r="L76" s="15" t="s">
-        <v>1</v>
+        <v>175</v>
       </c>
       <c r="M76" s="13" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="N76" s="16">
-        <v>139</v>
+        <v>212.5</v>
       </c>
       <c r="O76" s="13"/>
       <c r="P76" s="8" t="s">
-        <v>571</v>
+        <v>561</v>
       </c>
     </row>
     <row r="77" spans="1:16">
       <c r="A77" s="12">
-        <v>44763</v>
+        <v>44765</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="C77" s="17" t="s">
-        <v>178</v>
+        <v>389</v>
+      </c>
+      <c r="C77" s="13" t="s">
+        <v>176</v>
       </c>
       <c r="D77" s="15" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E77" s="8" t="s">
         <v>562</v>
       </c>
       <c r="F77" s="8" t="s">
-        <v>572</v>
+        <v>563</v>
       </c>
       <c r="G77" s="8" t="s">
-        <v>540</v>
-      </c>
-      <c r="H77" s="13">
-        <v>299</v>
-      </c>
+        <v>564</v>
+      </c>
+      <c r="H77" s="13"/>
       <c r="I77" s="8" t="s">
-        <v>573</v>
-      </c>
-      <c r="J77" s="13">
-        <v>299</v>
-      </c>
+        <v>565</v>
+      </c>
+      <c r="J77" s="13"/>
       <c r="K77" s="14">
-        <v>5.4166666666666703E-2</v>
+        <v>9.2361111111111102E-2</v>
       </c>
       <c r="L77" s="15" t="s">
-        <v>180</v>
+        <v>1</v>
       </c>
       <c r="M77" s="13" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="N77" s="16">
-        <v>164</v>
+        <v>139</v>
       </c>
       <c r="O77" s="13"/>
       <c r="P77" s="8" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
     </row>
     <row r="78" spans="1:16">
       <c r="A78" s="12">
-        <v>44762</v>
+        <v>44763</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>440</v>
-      </c>
-      <c r="C78" s="17"/>
+        <v>389</v>
+      </c>
+      <c r="C78" s="17" t="s">
+        <v>178</v>
+      </c>
       <c r="D78" s="15" t="s">
-        <v>321</v>
+        <v>179</v>
       </c>
       <c r="E78" s="8" t="s">
-        <v>576</v>
+        <v>558</v>
       </c>
       <c r="F78" s="8" t="s">
-        <v>577</v>
-      </c>
-      <c r="G78" s="8"/>
-      <c r="H78" s="13"/>
+        <v>568</v>
+      </c>
+      <c r="G78" s="8" t="s">
+        <v>536</v>
+      </c>
+      <c r="H78" s="13">
+        <v>299</v>
+      </c>
       <c r="I78" s="8" t="s">
-        <v>578</v>
-      </c>
-      <c r="J78" s="13"/>
-      <c r="K78" s="14"/>
-      <c r="L78" s="15"/>
-      <c r="M78" s="13"/>
-      <c r="N78" s="16"/>
+        <v>569</v>
+      </c>
+      <c r="J78" s="13">
+        <v>299</v>
+      </c>
+      <c r="K78" s="14">
+        <v>5.4166666666666703E-2</v>
+      </c>
+      <c r="L78" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="M78" s="13" t="s">
+        <v>570</v>
+      </c>
+      <c r="N78" s="16">
+        <v>164</v>
+      </c>
       <c r="O78" s="13"/>
       <c r="P78" s="8" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
     </row>
     <row r="79" spans="1:16">
       <c r="A79" s="12">
-        <v>44761</v>
+        <v>44762</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="C79" s="17"/>
       <c r="D79" s="15" t="s">
         <v>321</v>
       </c>
       <c r="E79" s="8" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="F79" s="8" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="G79" s="8"/>
       <c r="H79" s="13"/>
       <c r="I79" s="8" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="J79" s="13"/>
       <c r="K79" s="14"/>
@@ -14929,30 +15099,30 @@
       <c r="N79" s="16"/>
       <c r="O79" s="13"/>
       <c r="P79" s="8" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
     </row>
     <row r="80" spans="1:16">
       <c r="A80" s="12">
-        <v>44760</v>
+        <v>44761</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="C80" s="17"/>
       <c r="D80" s="15" t="s">
         <v>321</v>
       </c>
       <c r="E80" s="8" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="F80" s="8" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="G80" s="8"/>
       <c r="H80" s="13"/>
       <c r="I80" s="8" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="J80" s="13"/>
       <c r="K80" s="14"/>
@@ -14961,7 +15131,7 @@
       <c r="N80" s="16"/>
       <c r="O80" s="13"/>
       <c r="P80" s="8" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
     </row>
     <row r="81" spans="1:16">
@@ -14969,22 +15139,22 @@
         <v>44760</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="C81" s="17"/>
       <c r="D81" s="15" t="s">
         <v>321</v>
       </c>
       <c r="E81" s="8" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="F81" s="8" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="G81" s="8"/>
       <c r="H81" s="13"/>
       <c r="I81" s="8" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="J81" s="13"/>
       <c r="K81" s="14"/>
@@ -14993,30 +15163,30 @@
       <c r="N81" s="16"/>
       <c r="O81" s="13"/>
       <c r="P81" s="8" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
     </row>
     <row r="82" spans="1:16">
       <c r="A82" s="12">
-        <v>44759</v>
+        <v>44760</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="C82" s="17"/>
       <c r="D82" s="15" t="s">
         <v>321</v>
       </c>
       <c r="E82" s="8" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="F82" s="8" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="G82" s="8"/>
       <c r="H82" s="13"/>
       <c r="I82" s="8" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="J82" s="13"/>
       <c r="K82" s="14"/>
@@ -15024,31 +15194,31 @@
       <c r="M82" s="13"/>
       <c r="N82" s="16"/>
       <c r="O82" s="13"/>
-      <c r="P82" s="18" t="s">
-        <v>587</v>
+      <c r="P82" s="8" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="83" spans="1:16">
       <c r="A83" s="12">
-        <v>44758</v>
+        <v>44759</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="C83" s="17"/>
       <c r="D83" s="15" t="s">
         <v>321</v>
       </c>
       <c r="E83" s="8" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="F83" s="8" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="G83" s="8"/>
       <c r="H83" s="13"/>
       <c r="I83" s="8" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="J83" s="13"/>
       <c r="K83" s="14"/>
@@ -15056,31 +15226,31 @@
       <c r="M83" s="13"/>
       <c r="N83" s="16"/>
       <c r="O83" s="13"/>
-      <c r="P83" s="8" t="s">
-        <v>589</v>
+      <c r="P83" s="18" t="s">
+        <v>583</v>
       </c>
     </row>
     <row r="84" spans="1:16">
       <c r="A84" s="12">
-        <v>44757</v>
+        <v>44758</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="C84" s="17"/>
       <c r="D84" s="15" t="s">
         <v>321</v>
       </c>
       <c r="E84" s="8" t="s">
-        <v>590</v>
+        <v>573</v>
       </c>
       <c r="F84" s="8" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="G84" s="8"/>
       <c r="H84" s="13"/>
       <c r="I84" s="8" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
       <c r="J84" s="13"/>
       <c r="K84" s="14"/>
@@ -15089,30 +15259,30 @@
       <c r="N84" s="16"/>
       <c r="O84" s="13"/>
       <c r="P84" s="8" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
     </row>
     <row r="85" spans="1:16">
       <c r="A85" s="12">
-        <v>44755</v>
+        <v>44757</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="C85" s="17"/>
       <c r="D85" s="15" t="s">
         <v>321</v>
       </c>
       <c r="E85" s="8" t="s">
-        <v>577</v>
+        <v>586</v>
       </c>
       <c r="F85" s="8" t="s">
-        <v>590</v>
+        <v>573</v>
       </c>
       <c r="G85" s="8"/>
       <c r="H85" s="13"/>
       <c r="I85" s="8" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="J85" s="13"/>
       <c r="K85" s="14"/>
@@ -15121,365 +15291,355 @@
       <c r="N85" s="16"/>
       <c r="O85" s="13"/>
       <c r="P85" s="8" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
     </row>
     <row r="86" spans="1:16">
       <c r="A86" s="12">
-        <v>44751</v>
+        <v>44755</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="C86" s="13" t="s">
-        <v>181</v>
-      </c>
+        <v>436</v>
+      </c>
+      <c r="C86" s="17"/>
       <c r="D86" s="15" t="s">
-        <v>182</v>
+        <v>321</v>
       </c>
       <c r="E86" s="8" t="s">
-        <v>545</v>
+        <v>573</v>
       </c>
       <c r="F86" s="8" t="s">
-        <v>595</v>
-      </c>
-      <c r="G86" s="8" t="s">
-        <v>596</v>
-      </c>
-      <c r="H86" s="13">
-        <v>1803</v>
-      </c>
+        <v>586</v>
+      </c>
+      <c r="G86" s="8"/>
+      <c r="H86" s="13"/>
       <c r="I86" s="8" t="s">
-        <v>597</v>
-      </c>
-      <c r="J86" s="13">
-        <v>1803</v>
-      </c>
-      <c r="K86" s="14">
-        <v>0.101388888888889</v>
-      </c>
-      <c r="L86" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="M86" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="N86" s="16">
-        <v>920</v>
-      </c>
-      <c r="O86" s="8" t="s">
-        <v>598</v>
-      </c>
+        <v>589</v>
+      </c>
+      <c r="J86" s="13"/>
+      <c r="K86" s="14"/>
+      <c r="L86" s="15"/>
+      <c r="M86" s="13"/>
+      <c r="N86" s="16"/>
+      <c r="O86" s="13"/>
       <c r="P86" s="8" t="s">
-        <v>599</v>
+        <v>590</v>
       </c>
     </row>
     <row r="87" spans="1:16">
       <c r="A87" s="12">
-        <v>44744</v>
+        <v>44751</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>393</v>
+        <v>424</v>
       </c>
       <c r="C87" s="13" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D87" s="15" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="E87" s="8" t="s">
-        <v>456</v>
+        <v>541</v>
       </c>
       <c r="F87" s="8" t="s">
-        <v>419</v>
+        <v>591</v>
       </c>
       <c r="G87" s="8" t="s">
-        <v>463</v>
+        <v>592</v>
       </c>
       <c r="H87" s="13">
-        <v>1434</v>
+        <v>1803</v>
       </c>
       <c r="I87" s="8" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
       <c r="J87" s="13">
-        <v>1434</v>
+        <v>1803</v>
       </c>
       <c r="K87" s="14">
-        <v>0.22083333333333299</v>
+        <v>0.101388888888889</v>
       </c>
       <c r="L87" s="15" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="M87" s="13" t="s">
-        <v>601</v>
+        <v>184</v>
       </c>
       <c r="N87" s="16">
-        <v>541</v>
-      </c>
-      <c r="O87" s="13"/>
-      <c r="P87" s="13" t="s">
-        <v>364</v>
+        <v>920</v>
+      </c>
+      <c r="O87" s="8" t="s">
+        <v>594</v>
+      </c>
+      <c r="P87" s="8" t="s">
+        <v>595</v>
       </c>
     </row>
     <row r="88" spans="1:16">
       <c r="A88" s="12">
-        <v>44598</v>
+        <v>44744</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="C88" s="17" t="s">
-        <v>188</v>
+        <v>389</v>
+      </c>
+      <c r="C88" s="13" t="s">
+        <v>185</v>
       </c>
       <c r="D88" s="15" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E88" s="8" t="s">
-        <v>602</v>
+        <v>452</v>
       </c>
       <c r="F88" s="8" t="s">
-        <v>469</v>
+        <v>415</v>
       </c>
       <c r="G88" s="8" t="s">
-        <v>470</v>
+        <v>459</v>
       </c>
       <c r="H88" s="13">
-        <v>1178</v>
+        <v>1434</v>
       </c>
       <c r="I88" s="8" t="s">
-        <v>603</v>
+        <v>596</v>
       </c>
       <c r="J88" s="13">
-        <v>1178</v>
+        <v>1434</v>
       </c>
       <c r="K88" s="14">
-        <v>7.7083333333333295E-2</v>
+        <v>0.22083333333333299</v>
       </c>
       <c r="L88" s="15" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="M88" s="13" t="s">
-        <v>191</v>
+        <v>597</v>
       </c>
       <c r="N88" s="16">
-        <v>380</v>
-      </c>
-      <c r="O88" s="8" t="s">
-        <v>433</v>
-      </c>
+        <v>541</v>
+      </c>
+      <c r="O88" s="13"/>
       <c r="P88" s="13" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="89" spans="1:16">
       <c r="A89" s="12">
-        <v>44590</v>
+        <v>44598</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="C89" s="17" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D89" s="15" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="E89" s="8" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="F89" s="8" t="s">
-        <v>545</v>
+        <v>465</v>
       </c>
       <c r="G89" s="8" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="H89" s="13">
-        <v>1338</v>
+        <v>1178</v>
       </c>
       <c r="I89" s="8" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="J89" s="13">
-        <v>1338</v>
+        <v>1178</v>
       </c>
       <c r="K89" s="14">
-        <v>8.1944444444444403E-2</v>
+        <v>7.7083333333333295E-2</v>
       </c>
       <c r="L89" s="15" t="s">
-        <v>194</v>
-      </c>
-      <c r="M89" s="15" t="s">
-        <v>195</v>
+        <v>190</v>
+      </c>
+      <c r="M89" s="13" t="s">
+        <v>191</v>
       </c>
       <c r="N89" s="16">
-        <v>470</v>
+        <v>380</v>
       </c>
       <c r="O89" s="8" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="P89" s="13" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
     </row>
     <row r="90" spans="1:16">
       <c r="A90" s="12">
-        <v>44389</v>
+        <v>44590</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="C90" s="17" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D90" s="15" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="E90" s="8" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="F90" s="8" t="s">
-        <v>604</v>
+        <v>541</v>
       </c>
       <c r="G90" s="8" t="s">
-        <v>607</v>
+        <v>466</v>
       </c>
       <c r="H90" s="13">
-        <v>2842</v>
+        <v>1338</v>
       </c>
       <c r="I90" s="8" t="s">
-        <v>608</v>
+        <v>601</v>
       </c>
       <c r="J90" s="13">
-        <v>2842</v>
+        <v>1338</v>
       </c>
       <c r="K90" s="14">
-        <v>0.13472222222222199</v>
+        <v>8.1944444444444403E-2</v>
       </c>
       <c r="L90" s="15" t="s">
-        <v>198</v>
-      </c>
-      <c r="M90" s="13" t="s">
-        <v>199</v>
+        <v>194</v>
+      </c>
+      <c r="M90" s="15" t="s">
+        <v>195</v>
       </c>
       <c r="N90" s="16">
-        <v>860</v>
+        <v>470</v>
       </c>
       <c r="O90" s="8" t="s">
-        <v>478</v>
-      </c>
-      <c r="P90" s="8" t="s">
-        <v>609</v>
+        <v>432</v>
+      </c>
+      <c r="P90" s="13" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="91" spans="1:16">
       <c r="A91" s="12">
-        <v>44387</v>
+        <v>44389</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="C91" s="17" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="D91" s="15" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="E91" s="8" t="s">
-        <v>610</v>
+        <v>602</v>
       </c>
       <c r="F91" s="8" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="G91" s="8" t="s">
-        <v>470</v>
+        <v>603</v>
       </c>
       <c r="H91" s="13">
-        <v>1311</v>
+        <v>2842</v>
       </c>
       <c r="I91" s="8" t="s">
-        <v>611</v>
+        <v>604</v>
       </c>
       <c r="J91" s="13">
-        <v>1311</v>
+        <v>2842</v>
       </c>
       <c r="K91" s="14">
-        <v>7.4305555555555597E-2</v>
+        <v>0.13472222222222199</v>
       </c>
       <c r="L91" s="15" t="s">
-        <v>64</v>
+        <v>198</v>
       </c>
       <c r="M91" s="13" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="N91" s="16">
-        <v>420</v>
+        <v>860</v>
       </c>
       <c r="O91" s="8" t="s">
-        <v>436</v>
+        <v>474</v>
       </c>
       <c r="P91" s="8" t="s">
-        <v>612</v>
+        <v>605</v>
       </c>
     </row>
     <row r="92" spans="1:16">
       <c r="A92" s="12">
-        <v>44385</v>
+        <v>44387</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>440</v>
-      </c>
-      <c r="C92" s="17"/>
+        <v>424</v>
+      </c>
+      <c r="C92" s="17" t="s">
+        <v>200</v>
+      </c>
       <c r="D92" s="15" t="s">
-        <v>321</v>
+        <v>201</v>
       </c>
       <c r="E92" s="8" t="s">
-        <v>613</v>
+        <v>606</v>
       </c>
       <c r="F92" s="8" t="s">
-        <v>614</v>
+        <v>602</v>
       </c>
       <c r="G92" s="8" t="s">
-        <v>1</v>
+        <v>466</v>
       </c>
       <c r="H92" s="13">
-        <v>292</v>
+        <v>1311</v>
       </c>
       <c r="I92" s="8" t="s">
-        <v>615</v>
+        <v>607</v>
       </c>
       <c r="J92" s="13">
-        <v>292</v>
-      </c>
-      <c r="K92" s="14"/>
+        <v>1311</v>
+      </c>
+      <c r="K92" s="14">
+        <v>7.4305555555555597E-2</v>
+      </c>
       <c r="L92" s="15" t="s">
-        <v>1</v>
+        <v>64</v>
       </c>
       <c r="M92" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="N92" s="16"/>
+        <v>202</v>
+      </c>
+      <c r="N92" s="16">
+        <v>420</v>
+      </c>
       <c r="O92" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="P92" s="8"/>
+        <v>432</v>
+      </c>
+      <c r="P92" s="8" t="s">
+        <v>608</v>
+      </c>
     </row>
     <row r="93" spans="1:16">
       <c r="A93" s="12">
-        <v>44384</v>
+        <v>44385</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="C93" s="17"/>
       <c r="D93" s="15" t="s">
         <v>321</v>
       </c>
       <c r="E93" s="8" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="F93" s="8" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="G93" s="8" t="s">
         <v>1</v>
@@ -15488,7 +15648,7 @@
         <v>292</v>
       </c>
       <c r="I93" s="8" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="J93" s="13">
         <v>292</v>
@@ -15508,460 +15668,454 @@
     </row>
     <row r="94" spans="1:16">
       <c r="A94" s="12">
-        <v>44382</v>
+        <v>44384</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="C94" s="17" t="s">
-        <v>203</v>
-      </c>
+        <v>436</v>
+      </c>
+      <c r="C94" s="17"/>
       <c r="D94" s="15" t="s">
-        <v>204</v>
+        <v>321</v>
       </c>
       <c r="E94" s="8" t="s">
-        <v>604</v>
+        <v>610</v>
       </c>
       <c r="F94" s="8" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="G94" s="8" t="s">
-        <v>470</v>
+        <v>1</v>
       </c>
       <c r="H94" s="13">
-        <v>3752</v>
+        <v>292</v>
       </c>
       <c r="I94" s="8" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="J94" s="13">
-        <v>3752</v>
-      </c>
-      <c r="K94" s="14">
-        <v>0.28402777777777799</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="K94" s="14"/>
       <c r="L94" s="15" t="s">
-        <v>205</v>
+        <v>1</v>
       </c>
       <c r="M94" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="N94" s="16">
-        <v>1740</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N94" s="16"/>
       <c r="O94" s="8" t="s">
-        <v>436</v>
-      </c>
-      <c r="P94" s="8" t="s">
-        <v>618</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="P94" s="8"/>
     </row>
     <row r="95" spans="1:16">
       <c r="A95" s="12">
-        <v>44376</v>
+        <v>44382</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>393</v>
+        <v>424</v>
       </c>
       <c r="C95" s="17" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D95" s="15" t="s">
-        <v>133</v>
+        <v>204</v>
       </c>
       <c r="E95" s="8" t="s">
-        <v>419</v>
+        <v>600</v>
       </c>
       <c r="F95" s="8" t="s">
-        <v>456</v>
+        <v>606</v>
       </c>
       <c r="G95" s="8" t="s">
-        <v>540</v>
+        <v>466</v>
       </c>
       <c r="H95" s="13">
-        <v>1434</v>
+        <v>3752</v>
       </c>
       <c r="I95" s="8" t="s">
-        <v>499</v>
+        <v>613</v>
       </c>
       <c r="J95" s="13">
-        <v>1434</v>
+        <v>3752</v>
       </c>
       <c r="K95" s="14">
-        <v>0.27638888888888902</v>
+        <v>0.28402777777777799</v>
       </c>
       <c r="L95" s="15" t="s">
-        <v>134</v>
+        <v>205</v>
       </c>
       <c r="M95" s="13" t="s">
-        <v>619</v>
+        <v>206</v>
       </c>
       <c r="N95" s="16">
-        <v>541</v>
-      </c>
-      <c r="O95" s="13"/>
-      <c r="P95" s="13" t="s">
-        <v>366</v>
+        <v>1740</v>
+      </c>
+      <c r="O95" s="8" t="s">
+        <v>432</v>
+      </c>
+      <c r="P95" s="8" t="s">
+        <v>614</v>
       </c>
     </row>
     <row r="96" spans="1:16">
       <c r="A96" s="12">
-        <v>44368</v>
+        <v>44376</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>620</v>
-      </c>
-      <c r="C96" s="17"/>
-      <c r="D96" s="8" t="s">
-        <v>621</v>
+        <v>389</v>
+      </c>
+      <c r="C96" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="D96" s="15" t="s">
+        <v>133</v>
       </c>
       <c r="E96" s="8" t="s">
-        <v>622</v>
+        <v>415</v>
       </c>
       <c r="F96" s="8" t="s">
-        <v>623</v>
+        <v>452</v>
       </c>
       <c r="G96" s="8" t="s">
-        <v>621</v>
-      </c>
-      <c r="H96" s="13"/>
+        <v>536</v>
+      </c>
+      <c r="H96" s="13">
+        <v>1434</v>
+      </c>
       <c r="I96" s="8" t="s">
-        <v>624</v>
-      </c>
-      <c r="J96" s="13"/>
-      <c r="K96" s="14"/>
-      <c r="L96" s="15"/>
-      <c r="M96" s="13"/>
-      <c r="N96" s="16"/>
+        <v>495</v>
+      </c>
+      <c r="J96" s="13">
+        <v>1434</v>
+      </c>
+      <c r="K96" s="14">
+        <v>0.27638888888888902</v>
+      </c>
+      <c r="L96" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="M96" s="13" t="s">
+        <v>615</v>
+      </c>
+      <c r="N96" s="16">
+        <v>541</v>
+      </c>
       <c r="O96" s="13"/>
-      <c r="P96" s="13"/>
+      <c r="P96" s="13" t="s">
+        <v>366</v>
+      </c>
     </row>
     <row r="97" spans="1:16">
       <c r="A97" s="12">
-        <v>44364</v>
+        <v>44368</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="C97" s="13" t="s">
-        <v>208</v>
-      </c>
-      <c r="D97" s="15" t="s">
-        <v>209</v>
+        <v>616</v>
+      </c>
+      <c r="C97" s="17"/>
+      <c r="D97" s="8" t="s">
+        <v>617</v>
       </c>
       <c r="E97" s="8" t="s">
-        <v>456</v>
+        <v>618</v>
       </c>
       <c r="F97" s="8" t="s">
-        <v>395</v>
+        <v>619</v>
       </c>
       <c r="G97" s="8" t="s">
-        <v>463</v>
-      </c>
-      <c r="H97" s="13">
-        <v>1318</v>
-      </c>
+        <v>617</v>
+      </c>
+      <c r="H97" s="13"/>
       <c r="I97" s="8" t="s">
-        <v>522</v>
-      </c>
-      <c r="J97" s="13">
-        <v>1318</v>
-      </c>
-      <c r="K97" s="14">
-        <v>0.24861111111111101</v>
-      </c>
-      <c r="L97" s="15" t="s">
-        <v>187</v>
-      </c>
-      <c r="M97" s="13" t="s">
-        <v>625</v>
-      </c>
-      <c r="N97" s="16">
-        <v>526</v>
-      </c>
+        <v>620</v>
+      </c>
+      <c r="J97" s="13"/>
+      <c r="K97" s="14"/>
+      <c r="L97" s="15"/>
+      <c r="M97" s="13"/>
+      <c r="N97" s="16"/>
       <c r="O97" s="13"/>
-      <c r="P97" s="8" t="s">
-        <v>626</v>
-      </c>
+      <c r="P97" s="13"/>
     </row>
     <row r="98" spans="1:16">
       <c r="A98" s="12">
-        <v>44261</v>
+        <v>44364</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C98" s="13" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D98" s="15" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E98" s="8" t="s">
-        <v>419</v>
+        <v>452</v>
       </c>
       <c r="F98" s="8" t="s">
-        <v>456</v>
-      </c>
-      <c r="G98" s="13"/>
+        <v>391</v>
+      </c>
+      <c r="G98" s="8" t="s">
+        <v>459</v>
+      </c>
       <c r="H98" s="13">
-        <v>1434</v>
+        <v>1318</v>
       </c>
       <c r="I98" s="8" t="s">
-        <v>499</v>
+        <v>518</v>
       </c>
       <c r="J98" s="13">
-        <v>1434</v>
-      </c>
-      <c r="K98" s="14"/>
+        <v>1318</v>
+      </c>
+      <c r="K98" s="14">
+        <v>0.24861111111111101</v>
+      </c>
       <c r="L98" s="15" t="s">
-        <v>212</v>
+        <v>187</v>
       </c>
       <c r="M98" s="13" t="s">
-        <v>322</v>
+        <v>621</v>
       </c>
       <c r="N98" s="16">
-        <v>541</v>
+        <v>526</v>
       </c>
       <c r="O98" s="13"/>
-      <c r="P98" s="13" t="s">
-        <v>367</v>
+      <c r="P98" s="8" t="s">
+        <v>622</v>
       </c>
     </row>
     <row r="99" spans="1:16">
       <c r="A99" s="12">
-        <v>44231</v>
+        <v>44261</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>428</v>
+        <v>389</v>
       </c>
       <c r="C99" s="13" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D99" s="15" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E99" s="8" t="s">
-        <v>604</v>
+        <v>415</v>
       </c>
       <c r="F99" s="8" t="s">
-        <v>545</v>
-      </c>
-      <c r="G99" s="8" t="s">
         <v>452</v>
       </c>
+      <c r="G99" s="13"/>
       <c r="H99" s="13">
-        <v>1338</v>
+        <v>1434</v>
       </c>
       <c r="I99" s="8" t="s">
-        <v>627</v>
+        <v>495</v>
       </c>
       <c r="J99" s="13">
-        <v>1338</v>
-      </c>
-      <c r="K99" s="14">
-        <v>8.4722222222222199E-2</v>
-      </c>
+        <v>1434</v>
+      </c>
+      <c r="K99" s="14"/>
       <c r="L99" s="15" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="M99" s="13" t="s">
-        <v>216</v>
+        <v>322</v>
       </c>
       <c r="N99" s="16">
-        <v>370</v>
-      </c>
-      <c r="O99" s="8" t="s">
-        <v>547</v>
-      </c>
+        <v>541</v>
+      </c>
+      <c r="O99" s="13"/>
       <c r="P99" s="13" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="100" spans="1:16">
       <c r="A100" s="12">
-        <v>44087</v>
+        <v>44231</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>393</v>
+        <v>424</v>
       </c>
       <c r="C100" s="13" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D100" s="15" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="E100" s="8" t="s">
-        <v>419</v>
+        <v>600</v>
       </c>
       <c r="F100" s="8" t="s">
-        <v>456</v>
-      </c>
-      <c r="G100" s="13"/>
+        <v>541</v>
+      </c>
+      <c r="G100" s="8" t="s">
+        <v>448</v>
+      </c>
       <c r="H100" s="13">
-        <v>1434</v>
+        <v>1338</v>
       </c>
       <c r="I100" s="8" t="s">
-        <v>499</v>
+        <v>623</v>
       </c>
       <c r="J100" s="13">
-        <v>1434</v>
+        <v>1338</v>
       </c>
       <c r="K100" s="14">
-        <v>0.27916666666666701</v>
+        <v>8.4722222222222199E-2</v>
       </c>
       <c r="L100" s="15" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="M100" s="13" t="s">
-        <v>601</v>
+        <v>216</v>
       </c>
       <c r="N100" s="16">
-        <v>446.5</v>
-      </c>
-      <c r="O100" s="13"/>
+        <v>370</v>
+      </c>
+      <c r="O100" s="8" t="s">
+        <v>543</v>
+      </c>
       <c r="P100" s="13" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="101" spans="1:16">
       <c r="A101" s="12">
-        <v>44080</v>
+        <v>44087</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>428</v>
+        <v>389</v>
       </c>
       <c r="C101" s="13" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D101" s="15" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="E101" s="8" t="s">
-        <v>595</v>
+        <v>415</v>
       </c>
       <c r="F101" s="8" t="s">
-        <v>545</v>
-      </c>
-      <c r="G101" s="8" t="s">
-        <v>628</v>
-      </c>
-      <c r="H101" s="13"/>
+        <v>452</v>
+      </c>
+      <c r="G101" s="13"/>
+      <c r="H101" s="13">
+        <v>1434</v>
+      </c>
       <c r="I101" s="8" t="s">
-        <v>629</v>
-      </c>
-      <c r="J101" s="13"/>
+        <v>495</v>
+      </c>
+      <c r="J101" s="13">
+        <v>1434</v>
+      </c>
       <c r="K101" s="14">
-        <v>0.121527777777778</v>
-      </c>
-      <c r="L101" s="15"/>
-      <c r="M101" s="13"/>
+        <v>0.27916666666666701</v>
+      </c>
+      <c r="L101" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="M101" s="13" t="s">
+        <v>597</v>
+      </c>
       <c r="N101" s="16">
-        <v>560</v>
-      </c>
-      <c r="O101" s="8" t="s">
-        <v>630</v>
-      </c>
-      <c r="P101" s="8" t="s">
-        <v>631</v>
+        <v>446.5</v>
+      </c>
+      <c r="O101" s="13"/>
+      <c r="P101" s="13" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="102" spans="1:16">
       <c r="A102" s="12">
-        <v>44077</v>
+        <v>44080</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="C102" s="13" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D102" s="15" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E102" s="8" t="s">
-        <v>632</v>
+        <v>591</v>
       </c>
       <c r="F102" s="8" t="s">
-        <v>595</v>
+        <v>541</v>
       </c>
       <c r="G102" s="8" t="s">
-        <v>431</v>
-      </c>
-      <c r="H102" s="13">
-        <v>1334</v>
-      </c>
+        <v>624</v>
+      </c>
+      <c r="H102" s="13"/>
       <c r="I102" s="8" t="s">
-        <v>633</v>
-      </c>
-      <c r="J102" s="13">
-        <v>1334</v>
-      </c>
+        <v>625</v>
+      </c>
+      <c r="J102" s="13"/>
       <c r="K102" s="14">
-        <v>8.0555555555555602E-2</v>
-      </c>
-      <c r="L102" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="M102" s="13" t="s">
-        <v>224</v>
-      </c>
+        <v>0.121527777777778</v>
+      </c>
+      <c r="L102" s="15"/>
+      <c r="M102" s="13"/>
       <c r="N102" s="16">
-        <v>1020</v>
+        <v>560</v>
       </c>
       <c r="O102" s="8" t="s">
-        <v>634</v>
+        <v>626</v>
       </c>
       <c r="P102" s="8" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
     </row>
     <row r="103" spans="1:16">
       <c r="A103" s="12">
-        <v>44075</v>
+        <v>44077</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>393</v>
+        <v>424</v>
       </c>
       <c r="C103" s="13" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D103" s="15" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="E103" s="8" t="s">
-        <v>636</v>
+        <v>628</v>
       </c>
       <c r="F103" s="8" t="s">
-        <v>637</v>
+        <v>591</v>
       </c>
       <c r="G103" s="8" t="s">
-        <v>638</v>
+        <v>427</v>
       </c>
       <c r="H103" s="13">
-        <v>248</v>
+        <v>1334</v>
       </c>
       <c r="I103" s="8" t="s">
-        <v>639</v>
+        <v>629</v>
       </c>
       <c r="J103" s="13">
-        <v>248</v>
+        <v>1334</v>
       </c>
       <c r="K103" s="14">
-        <v>0.120138888888889</v>
+        <v>8.0555555555555602E-2</v>
       </c>
       <c r="L103" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="M103" s="8" t="s">
-        <v>640</v>
+        <v>223</v>
+      </c>
+      <c r="M103" s="13" t="s">
+        <v>224</v>
       </c>
       <c r="N103" s="16">
-        <v>40.5</v>
-      </c>
-      <c r="O103" s="13"/>
+        <v>1020</v>
+      </c>
+      <c r="O103" s="8" t="s">
+        <v>630</v>
+      </c>
       <c r="P103" s="8" t="s">
-        <v>641</v>
+        <v>631</v>
       </c>
     </row>
     <row r="104" spans="1:16">
@@ -15969,62 +16123,72 @@
         <v>44075</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>440</v>
-      </c>
-      <c r="C104" s="13"/>
-      <c r="D104" s="8" t="s">
-        <v>642</v>
+        <v>389</v>
+      </c>
+      <c r="C104" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="D104" s="15" t="s">
+        <v>226</v>
       </c>
       <c r="E104" s="8" t="s">
-        <v>643</v>
+        <v>632</v>
       </c>
       <c r="F104" s="8" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="G104" s="8" t="s">
-        <v>642</v>
-      </c>
-      <c r="H104" s="13"/>
+        <v>634</v>
+      </c>
+      <c r="H104" s="13">
+        <v>248</v>
+      </c>
       <c r="I104" s="8" t="s">
-        <v>644</v>
-      </c>
-      <c r="J104" s="13"/>
-      <c r="K104" s="14"/>
+        <v>635</v>
+      </c>
+      <c r="J104" s="13">
+        <v>248</v>
+      </c>
+      <c r="K104" s="14">
+        <v>0.120138888888889</v>
+      </c>
       <c r="L104" s="15" t="s">
         <v>1</v>
       </c>
       <c r="M104" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="N104" s="16"/>
-      <c r="O104" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="P104" s="8"/>
+        <v>636</v>
+      </c>
+      <c r="N104" s="16">
+        <v>40.5</v>
+      </c>
+      <c r="O104" s="13"/>
+      <c r="P104" s="8" t="s">
+        <v>637</v>
+      </c>
     </row>
     <row r="105" spans="1:16">
       <c r="A105" s="12">
-        <v>44074</v>
+        <v>44075</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="C105" s="13"/>
       <c r="D105" s="8" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="E105" s="8" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="F105" s="8" t="s">
-        <v>643</v>
+        <v>632</v>
       </c>
       <c r="G105" s="8" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="H105" s="13"/>
       <c r="I105" s="8" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="J105" s="13"/>
       <c r="K105" s="14"/>
@@ -16038,33 +16202,31 @@
       <c r="O105" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="P105" s="8" t="s">
-        <v>646</v>
-      </c>
+      <c r="P105" s="8"/>
     </row>
     <row r="106" spans="1:16">
       <c r="A106" s="12">
-        <v>44073</v>
+        <v>44074</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="C106" s="13"/>
       <c r="D106" s="8" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="E106" s="8" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="F106" s="8" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="G106" s="8" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="H106" s="13"/>
       <c r="I106" s="8" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="J106" s="13"/>
       <c r="K106" s="14"/>
@@ -16079,32 +16241,32 @@
         <v>1</v>
       </c>
       <c r="P106" s="8" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
     </row>
     <row r="107" spans="1:16">
       <c r="A107" s="12">
-        <v>44072</v>
+        <v>44073</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="C107" s="13"/>
       <c r="D107" s="8" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="E107" s="8" t="s">
-        <v>649</v>
+        <v>633</v>
       </c>
       <c r="F107" s="8" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="G107" s="8" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="H107" s="13"/>
       <c r="I107" s="8" t="s">
-        <v>650</v>
+        <v>643</v>
       </c>
       <c r="J107" s="13"/>
       <c r="K107" s="14"/>
@@ -16119,32 +16281,32 @@
         <v>1</v>
       </c>
       <c r="P107" s="8" t="s">
-        <v>651</v>
+        <v>644</v>
       </c>
     </row>
     <row r="108" spans="1:16">
       <c r="A108" s="12">
-        <v>44071</v>
+        <v>44072</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="C108" s="13"/>
       <c r="D108" s="8" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="E108" s="8" t="s">
-        <v>637</v>
+        <v>645</v>
       </c>
       <c r="F108" s="8" t="s">
-        <v>649</v>
+        <v>633</v>
       </c>
       <c r="G108" s="8" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="H108" s="13"/>
       <c r="I108" s="8" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="J108" s="13"/>
       <c r="K108" s="14"/>
@@ -16159,55 +16321,47 @@
         <v>1</v>
       </c>
       <c r="P108" s="8" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
     </row>
     <row r="109" spans="1:16">
       <c r="A109" s="12">
-        <v>44066</v>
+        <v>44071</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="C109" s="13" t="s">
-        <v>227</v>
-      </c>
-      <c r="D109" s="15" t="s">
-        <v>228</v>
+        <v>436</v>
+      </c>
+      <c r="C109" s="13"/>
+      <c r="D109" s="8" t="s">
+        <v>638</v>
       </c>
       <c r="E109" s="8" t="s">
-        <v>502</v>
+        <v>633</v>
       </c>
       <c r="F109" s="8" t="s">
-        <v>637</v>
+        <v>645</v>
       </c>
       <c r="G109" s="8" t="s">
-        <v>654</v>
-      </c>
-      <c r="H109" s="13">
-        <v>4373</v>
-      </c>
+        <v>638</v>
+      </c>
+      <c r="H109" s="13"/>
       <c r="I109" s="8" t="s">
-        <v>655</v>
-      </c>
-      <c r="J109" s="13">
-        <v>4373</v>
-      </c>
-      <c r="K109" s="14" t="s">
-        <v>656</v>
-      </c>
-      <c r="L109" s="9" t="s">
-        <v>657</v>
-      </c>
-      <c r="M109" s="13" t="s">
-        <v>658</v>
-      </c>
-      <c r="N109" s="16">
-        <v>793.5</v>
-      </c>
-      <c r="O109" s="13"/>
+        <v>648</v>
+      </c>
+      <c r="J109" s="13"/>
+      <c r="K109" s="14"/>
+      <c r="L109" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="M109" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="N109" s="16"/>
+      <c r="O109" s="13" t="s">
+        <v>1</v>
+      </c>
       <c r="P109" s="8" t="s">
-        <v>659</v>
+        <v>649</v>
       </c>
     </row>
     <row r="110" spans="1:16">
@@ -16215,542 +16369,542 @@
         <v>44066</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C110" s="13" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D110" s="15" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E110" s="8" t="s">
-        <v>660</v>
+        <v>498</v>
       </c>
       <c r="F110" s="8" t="s">
-        <v>395</v>
+        <v>633</v>
       </c>
       <c r="G110" s="8" t="s">
-        <v>463</v>
+        <v>650</v>
       </c>
       <c r="H110" s="13">
-        <v>490</v>
+        <v>4373</v>
       </c>
       <c r="I110" s="8" t="s">
-        <v>661</v>
+        <v>651</v>
       </c>
       <c r="J110" s="13">
-        <v>314</v>
-      </c>
-      <c r="K110" s="14">
-        <v>7.9166666666666705E-2</v>
-      </c>
-      <c r="L110" s="15" t="s">
-        <v>107</v>
+        <v>4373</v>
+      </c>
+      <c r="K110" s="14" t="s">
+        <v>652</v>
+      </c>
+      <c r="L110" s="9" t="s">
+        <v>653</v>
       </c>
       <c r="M110" s="13" t="s">
-        <v>662</v>
+        <v>654</v>
       </c>
       <c r="N110" s="16">
-        <v>144</v>
+        <v>793.5</v>
       </c>
       <c r="O110" s="13"/>
       <c r="P110" s="8" t="s">
-        <v>663</v>
+        <v>655</v>
       </c>
     </row>
     <row r="111" spans="1:16">
       <c r="A111" s="12">
-        <v>44038</v>
+        <v>44066</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="C111" s="17" t="s">
-        <v>231</v>
+        <v>389</v>
+      </c>
+      <c r="C111" s="13" t="s">
+        <v>229</v>
       </c>
       <c r="D111" s="15" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E111" s="8" t="s">
-        <v>664</v>
+        <v>656</v>
       </c>
       <c r="F111" s="8" t="s">
-        <v>419</v>
+        <v>391</v>
       </c>
       <c r="G111" s="8" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="H111" s="13">
-        <v>479</v>
+        <v>490</v>
       </c>
       <c r="I111" s="8" t="s">
-        <v>665</v>
+        <v>657</v>
       </c>
       <c r="J111" s="13">
-        <v>202</v>
+        <v>314</v>
       </c>
       <c r="K111" s="14">
-        <v>5.1388888888888901E-2</v>
+        <v>7.9166666666666705E-2</v>
       </c>
       <c r="L111" s="15" t="s">
-        <v>1</v>
+        <v>107</v>
       </c>
       <c r="M111" s="13" t="s">
-        <v>666</v>
+        <v>658</v>
       </c>
       <c r="N111" s="16">
-        <v>92.5</v>
+        <v>144</v>
       </c>
       <c r="O111" s="13"/>
       <c r="P111" s="8" t="s">
-        <v>667</v>
+        <v>659</v>
       </c>
     </row>
     <row r="112" spans="1:16">
       <c r="A112" s="12">
-        <v>44037</v>
+        <v>44038</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C112" s="17" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D112" s="15" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E112" s="8" t="s">
-        <v>668</v>
+        <v>660</v>
       </c>
       <c r="F112" s="8" t="s">
-        <v>395</v>
+        <v>415</v>
       </c>
       <c r="G112" s="8" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="H112" s="13">
-        <v>466</v>
+        <v>479</v>
       </c>
       <c r="I112" s="8" t="s">
-        <v>669</v>
+        <v>661</v>
       </c>
       <c r="J112" s="13">
         <v>202</v>
       </c>
       <c r="K112" s="14">
-        <v>5.5555555555555601E-2</v>
+        <v>5.1388888888888901E-2</v>
       </c>
       <c r="L112" s="15" t="s">
-        <v>235</v>
+        <v>1</v>
       </c>
       <c r="M112" s="13" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="N112" s="16">
         <v>92.5</v>
       </c>
       <c r="O112" s="13"/>
       <c r="P112" s="8" t="s">
-        <v>671</v>
+        <v>663</v>
       </c>
     </row>
     <row r="113" spans="1:16">
       <c r="A113" s="12">
-        <v>43845</v>
+        <v>44037</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C113" s="17" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D113" s="15" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E113" s="8" t="s">
-        <v>456</v>
+        <v>664</v>
       </c>
       <c r="F113" s="8" t="s">
-        <v>672</v>
+        <v>391</v>
       </c>
       <c r="G113" s="8" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="H113" s="13">
-        <v>1709</v>
+        <v>466</v>
       </c>
       <c r="I113" s="8" t="s">
-        <v>600</v>
+        <v>665</v>
       </c>
       <c r="J113" s="13">
-        <v>1434</v>
+        <v>202</v>
       </c>
       <c r="K113" s="14">
-        <v>0.28819444444444398</v>
-      </c>
-      <c r="L113" s="15">
-        <v>8</v>
+        <v>5.5555555555555601E-2</v>
+      </c>
+      <c r="L113" s="15" t="s">
+        <v>235</v>
       </c>
       <c r="M113" s="13" t="s">
-        <v>673</v>
+        <v>666</v>
       </c>
       <c r="N113" s="16">
-        <v>446.5</v>
+        <v>92.5</v>
       </c>
       <c r="O113" s="13"/>
-      <c r="P113" s="13" t="s">
-        <v>674</v>
+      <c r="P113" s="8" t="s">
+        <v>667</v>
       </c>
     </row>
     <row r="114" spans="1:16">
       <c r="A114" s="12">
-        <v>43744</v>
+        <v>43845</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C114" s="17" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D114" s="15" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E114" s="8" t="s">
-        <v>675</v>
+        <v>452</v>
       </c>
       <c r="F114" s="8" t="s">
-        <v>456</v>
+        <v>668</v>
       </c>
       <c r="G114" s="8" t="s">
-        <v>676</v>
+        <v>459</v>
       </c>
       <c r="H114" s="13">
-        <v>120</v>
+        <v>1709</v>
       </c>
       <c r="I114" s="8" t="s">
-        <v>677</v>
+        <v>596</v>
       </c>
       <c r="J114" s="13">
-        <v>120</v>
-      </c>
-      <c r="K114" s="14" t="s">
-        <v>370</v>
-      </c>
-      <c r="L114" s="15" t="s">
-        <v>240</v>
+        <v>1434</v>
+      </c>
+      <c r="K114" s="14">
+        <v>0.28819444444444398</v>
+      </c>
+      <c r="L114" s="15">
+        <v>8</v>
       </c>
       <c r="M114" s="13" t="s">
-        <v>678</v>
+        <v>669</v>
       </c>
       <c r="N114" s="16">
-        <v>54.5</v>
+        <v>446.5</v>
       </c>
       <c r="O114" s="13"/>
       <c r="P114" s="13" t="s">
-        <v>371</v>
+        <v>670</v>
       </c>
     </row>
     <row r="115" spans="1:16">
       <c r="A115" s="12">
-        <v>43742</v>
+        <v>43744</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>679</v>
+        <v>389</v>
       </c>
       <c r="C115" s="17" t="s">
-        <v>241</v>
-      </c>
-      <c r="D115" s="8" t="s">
-        <v>680</v>
+        <v>238</v>
+      </c>
+      <c r="D115" s="15" t="s">
+        <v>239</v>
       </c>
       <c r="E115" s="8" t="s">
-        <v>505</v>
+        <v>671</v>
       </c>
       <c r="F115" s="8" t="s">
-        <v>675</v>
+        <v>452</v>
       </c>
       <c r="G115" s="8" t="s">
-        <v>680</v>
+        <v>672</v>
       </c>
       <c r="H115" s="13">
-        <v>163.74</v>
+        <v>120</v>
       </c>
       <c r="I115" s="8" t="s">
-        <v>681</v>
+        <v>673</v>
       </c>
       <c r="J115" s="13">
-        <v>163.74</v>
-      </c>
-      <c r="K115" s="14">
-        <v>0.466018518518519</v>
+        <v>120</v>
+      </c>
+      <c r="K115" s="14" t="s">
+        <v>370</v>
       </c>
       <c r="L115" s="15" t="s">
-        <v>1</v>
+        <v>240</v>
       </c>
       <c r="M115" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="N115" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="O115" s="13" t="s">
-        <v>1</v>
-      </c>
+        <v>674</v>
+      </c>
+      <c r="N115" s="16">
+        <v>54.5</v>
+      </c>
+      <c r="O115" s="13"/>
       <c r="P115" s="13" t="s">
-        <v>323</v>
+        <v>371</v>
       </c>
     </row>
     <row r="116" spans="1:16">
       <c r="A116" s="12">
-        <v>43741</v>
+        <v>43742</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>428</v>
+        <v>675</v>
       </c>
       <c r="C116" s="17" t="s">
-        <v>242</v>
-      </c>
-      <c r="D116" s="15" t="s">
-        <v>243</v>
+        <v>241</v>
+      </c>
+      <c r="D116" s="8" t="s">
+        <v>676</v>
       </c>
       <c r="E116" s="8" t="s">
-        <v>430</v>
+        <v>501</v>
       </c>
       <c r="F116" s="8" t="s">
-        <v>604</v>
-      </c>
-      <c r="G116" s="9" t="s">
-        <v>434</v>
+        <v>671</v>
+      </c>
+      <c r="G116" s="8" t="s">
+        <v>676</v>
       </c>
       <c r="H116" s="13">
-        <v>1200</v>
+        <v>163.74</v>
       </c>
       <c r="I116" s="8" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="J116" s="13">
-        <v>1200</v>
+        <v>163.74</v>
       </c>
       <c r="K116" s="14">
-        <v>7.5694444444444398E-2</v>
+        <v>0.466018518518519</v>
       </c>
       <c r="L116" s="15" t="s">
-        <v>244</v>
+        <v>1</v>
       </c>
       <c r="M116" s="13" t="s">
-        <v>245</v>
-      </c>
-      <c r="N116" s="16">
-        <v>410</v>
-      </c>
-      <c r="O116" s="8" t="s">
-        <v>436</v>
-      </c>
-      <c r="P116" s="8" t="s">
-        <v>683</v>
+        <v>1</v>
+      </c>
+      <c r="N116" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="O116" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="P116" s="13" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="117" spans="1:16">
       <c r="A117" s="12">
-        <v>43739</v>
+        <v>43741</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>393</v>
+        <v>424</v>
       </c>
       <c r="C117" s="17" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D117" s="15" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="E117" s="8" t="s">
-        <v>480</v>
+        <v>426</v>
       </c>
       <c r="F117" s="8" t="s">
-        <v>684</v>
-      </c>
-      <c r="G117" s="8" t="s">
-        <v>685</v>
+        <v>600</v>
+      </c>
+      <c r="G117" s="9" t="s">
+        <v>430</v>
       </c>
       <c r="H117" s="13">
-        <v>2510</v>
+        <v>1200</v>
       </c>
       <c r="I117" s="8" t="s">
-        <v>686</v>
+        <v>678</v>
       </c>
       <c r="J117" s="13">
-        <v>167</v>
+        <v>1200</v>
       </c>
       <c r="K117" s="14">
-        <v>9.7222222222222196E-2</v>
+        <v>7.5694444444444398E-2</v>
       </c>
       <c r="L117" s="15" t="s">
-        <v>372</v>
+        <v>244</v>
       </c>
       <c r="M117" s="13" t="s">
-        <v>687</v>
+        <v>245</v>
       </c>
       <c r="N117" s="16">
-        <v>24.5</v>
-      </c>
-      <c r="O117" s="13"/>
+        <v>410</v>
+      </c>
+      <c r="O117" s="8" t="s">
+        <v>432</v>
+      </c>
       <c r="P117" s="8" t="s">
-        <v>688</v>
+        <v>679</v>
       </c>
     </row>
     <row r="118" spans="1:16">
       <c r="A118" s="12">
-        <v>43735</v>
+        <v>43739</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C118" s="17" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D118" s="15" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E118" s="8" t="s">
-        <v>505</v>
+        <v>476</v>
       </c>
       <c r="F118" s="8" t="s">
-        <v>502</v>
+        <v>680</v>
       </c>
       <c r="G118" s="8" t="s">
-        <v>689</v>
+        <v>681</v>
       </c>
       <c r="H118" s="13">
-        <v>1463</v>
+        <v>2510</v>
       </c>
       <c r="I118" s="8" t="s">
-        <v>507</v>
+        <v>682</v>
       </c>
       <c r="J118" s="13">
-        <v>1463</v>
+        <v>167</v>
       </c>
       <c r="K118" s="14">
-        <v>0.50277777777777799</v>
+        <v>9.7222222222222196E-2</v>
       </c>
       <c r="L118" s="15" t="s">
-        <v>1</v>
+        <v>372</v>
       </c>
       <c r="M118" s="13" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="N118" s="16">
-        <v>440</v>
+        <v>24.5</v>
       </c>
       <c r="O118" s="13"/>
       <c r="P118" s="8" t="s">
-        <v>691</v>
+        <v>684</v>
       </c>
     </row>
     <row r="119" spans="1:16">
       <c r="A119" s="12">
-        <v>43690</v>
+        <v>43735</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C119" s="17" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D119" s="15" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E119" s="8" t="s">
-        <v>692</v>
+        <v>501</v>
       </c>
       <c r="F119" s="8" t="s">
-        <v>456</v>
+        <v>498</v>
       </c>
       <c r="G119" s="8" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="H119" s="13">
-        <v>774</v>
+        <v>1463</v>
       </c>
       <c r="I119" s="8" t="s">
-        <v>693</v>
+        <v>503</v>
       </c>
       <c r="J119" s="13">
-        <v>774</v>
+        <v>1463</v>
       </c>
       <c r="K119" s="14">
-        <v>0.27500000000000002</v>
+        <v>0.50277777777777799</v>
       </c>
       <c r="L119" s="15" t="s">
-        <v>252</v>
+        <v>1</v>
       </c>
       <c r="M119" s="13" t="s">
-        <v>694</v>
+        <v>686</v>
       </c>
       <c r="N119" s="16">
-        <v>261</v>
+        <v>440</v>
       </c>
       <c r="O119" s="13"/>
-      <c r="P119" s="13" t="s">
-        <v>324</v>
+      <c r="P119" s="8" t="s">
+        <v>687</v>
       </c>
     </row>
     <row r="120" spans="1:16">
       <c r="A120" s="12">
-        <v>43687</v>
-      </c>
-      <c r="B120" s="12" t="s">
-        <v>300</v>
+        <v>43690</v>
+      </c>
+      <c r="B120" s="7" t="s">
+        <v>389</v>
       </c>
       <c r="C120" s="17" t="s">
-        <v>253</v>
-      </c>
-      <c r="D120" s="13" t="s">
-        <v>325</v>
-      </c>
-      <c r="E120" s="13" t="s">
-        <v>326</v>
-      </c>
-      <c r="F120" s="13" t="s">
-        <v>327</v>
-      </c>
-      <c r="G120" s="13" t="s">
-        <v>325</v>
+        <v>250</v>
+      </c>
+      <c r="D120" s="15" t="s">
+        <v>251</v>
+      </c>
+      <c r="E120" s="8" t="s">
+        <v>688</v>
+      </c>
+      <c r="F120" s="8" t="s">
+        <v>452</v>
+      </c>
+      <c r="G120" s="8" t="s">
+        <v>685</v>
       </c>
       <c r="H120" s="13">
-        <v>1712.52</v>
-      </c>
-      <c r="I120" s="13" t="s">
-        <v>328</v>
+        <v>774</v>
+      </c>
+      <c r="I120" s="8" t="s">
+        <v>689</v>
       </c>
       <c r="J120" s="13">
-        <v>145.19999999999999</v>
+        <v>774</v>
       </c>
       <c r="K120" s="14">
-        <v>0.37678240740740698</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="L120" s="15" t="s">
-        <v>1</v>
+        <v>252</v>
       </c>
       <c r="M120" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="N120" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="O120" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="P120" s="13"/>
+        <v>690</v>
+      </c>
+      <c r="N120" s="16">
+        <v>261</v>
+      </c>
+      <c r="O120" s="13"/>
+      <c r="P120" s="13" t="s">
+        <v>324</v>
+      </c>
     </row>
     <row r="121" spans="1:16">
       <c r="A121" s="12">
-        <v>43686</v>
+        <v>43687</v>
       </c>
       <c r="B121" s="12" t="s">
         <v>300</v>
       </c>
       <c r="C121" s="17" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D121" s="13" t="s">
         <v>325</v>
@@ -16768,13 +16922,13 @@
         <v>1712.52</v>
       </c>
       <c r="I121" s="13" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="J121" s="13">
-        <v>153.85</v>
+        <v>145.19999999999999</v>
       </c>
       <c r="K121" s="14">
-        <v>0.36333333333333301</v>
+        <v>0.37678240740740698</v>
       </c>
       <c r="L121" s="15" t="s">
         <v>1</v>
@@ -16792,13 +16946,13 @@
     </row>
     <row r="122" spans="1:16">
       <c r="A122" s="12">
-        <v>43684</v>
+        <v>43686</v>
       </c>
       <c r="B122" s="12" t="s">
         <v>300</v>
       </c>
       <c r="C122" s="17" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D122" s="13" t="s">
         <v>325</v>
@@ -16816,13 +16970,13 @@
         <v>1712.52</v>
       </c>
       <c r="I122" s="13" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="J122" s="13">
-        <v>122.95</v>
+        <v>153.85</v>
       </c>
       <c r="K122" s="14">
-        <v>0.33018518518518503</v>
+        <v>0.36333333333333301</v>
       </c>
       <c r="L122" s="15" t="s">
         <v>1</v>
@@ -16840,13 +16994,13 @@
     </row>
     <row r="123" spans="1:16">
       <c r="A123" s="12">
-        <v>43683</v>
+        <v>43684</v>
       </c>
       <c r="B123" s="12" t="s">
         <v>300</v>
       </c>
       <c r="C123" s="17" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D123" s="13" t="s">
         <v>325</v>
@@ -16864,13 +17018,13 @@
         <v>1712.52</v>
       </c>
       <c r="I123" s="13" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="J123" s="13">
-        <v>122.1</v>
+        <v>122.95</v>
       </c>
       <c r="K123" s="14">
-        <v>0.30446759259259298</v>
+        <v>0.33018518518518503</v>
       </c>
       <c r="L123" s="15" t="s">
         <v>1</v>
@@ -16888,13 +17042,13 @@
     </row>
     <row r="124" spans="1:16">
       <c r="A124" s="12">
-        <v>43682</v>
+        <v>43683</v>
       </c>
       <c r="B124" s="12" t="s">
         <v>300</v>
       </c>
       <c r="C124" s="17" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D124" s="13" t="s">
         <v>325</v>
@@ -16912,12 +17066,14 @@
         <v>1712.52</v>
       </c>
       <c r="I124" s="13" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="J124" s="13">
-        <v>95.1</v>
-      </c>
-      <c r="K124" s="14"/>
+        <v>122.1</v>
+      </c>
+      <c r="K124" s="14">
+        <v>0.30446759259259298</v>
+      </c>
       <c r="L124" s="15" t="s">
         <v>1</v>
       </c>
@@ -16934,13 +17090,13 @@
     </row>
     <row r="125" spans="1:16">
       <c r="A125" s="12">
-        <v>43680</v>
+        <v>43682</v>
       </c>
       <c r="B125" s="12" t="s">
         <v>300</v>
       </c>
       <c r="C125" s="17" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D125" s="13" t="s">
         <v>325</v>
@@ -16958,14 +17114,12 @@
         <v>1712.52</v>
       </c>
       <c r="I125" s="13" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="J125" s="13">
-        <v>116.42</v>
-      </c>
-      <c r="K125" s="14">
-        <v>0.28943287037037002</v>
-      </c>
+        <v>95.1</v>
+      </c>
+      <c r="K125" s="14"/>
       <c r="L125" s="15" t="s">
         <v>1</v>
       </c>
@@ -16982,13 +17136,13 @@
     </row>
     <row r="126" spans="1:16">
       <c r="A126" s="12">
-        <v>43679</v>
+        <v>43680</v>
       </c>
       <c r="B126" s="12" t="s">
         <v>300</v>
       </c>
       <c r="C126" s="17" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D126" s="13" t="s">
         <v>325</v>
@@ -17006,13 +17160,13 @@
         <v>1712.52</v>
       </c>
       <c r="I126" s="13" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="J126" s="13">
-        <v>91.79</v>
+        <v>116.42</v>
       </c>
       <c r="K126" s="14">
-        <v>0.222615740740741</v>
+        <v>0.28943287037037002</v>
       </c>
       <c r="L126" s="15" t="s">
         <v>1</v>
@@ -17030,13 +17184,13 @@
     </row>
     <row r="127" spans="1:16">
       <c r="A127" s="12">
-        <v>43676</v>
+        <v>43679</v>
       </c>
       <c r="B127" s="12" t="s">
         <v>300</v>
       </c>
       <c r="C127" s="17" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D127" s="13" t="s">
         <v>325</v>
@@ -17054,13 +17208,13 @@
         <v>1712.52</v>
       </c>
       <c r="I127" s="13" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J127" s="13">
-        <v>114.7</v>
+        <v>91.79</v>
       </c>
       <c r="K127" s="14">
-        <v>0.28466435185185202</v>
+        <v>0.222615740740741</v>
       </c>
       <c r="L127" s="15" t="s">
         <v>1</v>
@@ -17078,13 +17232,13 @@
     </row>
     <row r="128" spans="1:16">
       <c r="A128" s="12">
-        <v>43675</v>
+        <v>43676</v>
       </c>
       <c r="B128" s="12" t="s">
         <v>300</v>
       </c>
       <c r="C128" s="17" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D128" s="13" t="s">
         <v>325</v>
@@ -17102,13 +17256,13 @@
         <v>1712.52</v>
       </c>
       <c r="I128" s="13" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="J128" s="13">
-        <v>74.14</v>
+        <v>114.7</v>
       </c>
       <c r="K128" s="14">
-        <v>0.19422453703703699</v>
+        <v>0.28466435185185202</v>
       </c>
       <c r="L128" s="15" t="s">
         <v>1</v>
@@ -17126,13 +17280,13 @@
     </row>
     <row r="129" spans="1:16">
       <c r="A129" s="12">
-        <v>43674</v>
+        <v>43675</v>
       </c>
       <c r="B129" s="12" t="s">
         <v>300</v>
       </c>
       <c r="C129" s="17" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D129" s="13" t="s">
         <v>325</v>
@@ -17150,13 +17304,13 @@
         <v>1712.52</v>
       </c>
       <c r="I129" s="13" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="J129" s="13">
-        <v>118.9</v>
+        <v>74.14</v>
       </c>
       <c r="K129" s="14">
-        <v>0.297719907407407</v>
+        <v>0.19422453703703699</v>
       </c>
       <c r="L129" s="15" t="s">
         <v>1</v>
@@ -17174,13 +17328,13 @@
     </row>
     <row r="130" spans="1:16">
       <c r="A130" s="12">
-        <v>43673</v>
+        <v>43674</v>
       </c>
       <c r="B130" s="12" t="s">
         <v>300</v>
       </c>
       <c r="C130" s="17" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D130" s="13" t="s">
         <v>325</v>
@@ -17198,13 +17352,13 @@
         <v>1712.52</v>
       </c>
       <c r="I130" s="13" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="J130" s="13">
-        <v>95.07</v>
+        <v>118.9</v>
       </c>
       <c r="K130" s="14">
-        <v>0.227546296296296</v>
+        <v>0.297719907407407</v>
       </c>
       <c r="L130" s="15" t="s">
         <v>1</v>
@@ -17222,203 +17376,205 @@
     </row>
     <row r="131" spans="1:16">
       <c r="A131" s="12">
-        <v>43668</v>
-      </c>
-      <c r="B131" s="7" t="s">
-        <v>393</v>
+        <v>43673</v>
+      </c>
+      <c r="B131" s="12" t="s">
+        <v>300</v>
       </c>
       <c r="C131" s="17" t="s">
-        <v>264</v>
-      </c>
-      <c r="D131" s="15">
-        <v>4341</v>
-      </c>
-      <c r="E131" s="8" t="s">
-        <v>695</v>
-      </c>
-      <c r="F131" s="8" t="s">
-        <v>696</v>
-      </c>
-      <c r="G131" s="8" t="s">
-        <v>506</v>
+        <v>263</v>
+      </c>
+      <c r="D131" s="13" t="s">
+        <v>325</v>
+      </c>
+      <c r="E131" s="13" t="s">
+        <v>326</v>
+      </c>
+      <c r="F131" s="13" t="s">
+        <v>327</v>
+      </c>
+      <c r="G131" s="13" t="s">
+        <v>325</v>
       </c>
       <c r="H131" s="13">
-        <v>131</v>
-      </c>
-      <c r="I131" s="8" t="s">
-        <v>697</v>
+        <v>1712.52</v>
+      </c>
+      <c r="I131" s="13" t="s">
+        <v>338</v>
       </c>
       <c r="J131" s="13">
-        <v>90</v>
+        <v>95.07</v>
       </c>
       <c r="K131" s="14">
-        <v>8.8888888888888906E-2</v>
+        <v>0.227546296296296</v>
       </c>
       <c r="L131" s="15" t="s">
         <v>1</v>
       </c>
       <c r="M131" s="13" t="s">
-        <v>698</v>
-      </c>
-      <c r="N131" s="16">
-        <v>6</v>
-      </c>
-      <c r="O131" s="13"/>
-      <c r="P131" s="13" t="s">
-        <v>339</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N131" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="O131" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="P131" s="13"/>
     </row>
     <row r="132" spans="1:16">
       <c r="A132" s="12">
         <v>43668</v>
       </c>
       <c r="B132" s="7" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C132" s="17" t="s">
-        <v>265</v>
-      </c>
-      <c r="D132" s="15" t="s">
-        <v>266</v>
+        <v>264</v>
+      </c>
+      <c r="D132" s="15">
+        <v>4341</v>
       </c>
       <c r="E132" s="8" t="s">
-        <v>699</v>
+        <v>691</v>
       </c>
       <c r="F132" s="8" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="G132" s="8" t="s">
-        <v>700</v>
+        <v>502</v>
       </c>
       <c r="H132" s="13">
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="I132" s="8" t="s">
-        <v>701</v>
+        <v>693</v>
       </c>
       <c r="J132" s="13">
-        <v>111</v>
-      </c>
-      <c r="K132" s="14" t="s">
-        <v>373</v>
+        <v>90</v>
+      </c>
+      <c r="K132" s="14">
+        <v>8.8888888888888906E-2</v>
       </c>
       <c r="L132" s="15" t="s">
-        <v>267</v>
+        <v>1</v>
       </c>
       <c r="M132" s="13" t="s">
-        <v>702</v>
+        <v>694</v>
       </c>
       <c r="N132" s="16">
-        <v>31.5</v>
+        <v>6</v>
       </c>
       <c r="O132" s="13"/>
-      <c r="P132" s="8" t="s">
-        <v>703</v>
+      <c r="P132" s="13" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="133" spans="1:16">
       <c r="A133" s="12">
-        <v>43667</v>
+        <v>43668</v>
       </c>
       <c r="B133" s="7" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C133" s="17" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D133" s="15" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="E133" s="8" t="s">
-        <v>704</v>
+        <v>695</v>
       </c>
       <c r="F133" s="8" t="s">
-        <v>699</v>
+        <v>691</v>
       </c>
       <c r="G133" s="8" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="H133" s="13">
-        <v>420</v>
+        <v>111</v>
       </c>
       <c r="I133" s="8" t="s">
-        <v>705</v>
+        <v>697</v>
       </c>
       <c r="J133" s="13">
-        <v>333</v>
-      </c>
-      <c r="K133" s="14">
-        <v>0.109722222222222</v>
+        <v>111</v>
+      </c>
+      <c r="K133" s="14" t="s">
+        <v>373</v>
       </c>
       <c r="L133" s="15" t="s">
-        <v>1</v>
+        <v>267</v>
       </c>
       <c r="M133" s="13" t="s">
-        <v>706</v>
+        <v>698</v>
       </c>
       <c r="N133" s="16">
-        <v>98</v>
+        <v>31.5</v>
       </c>
       <c r="O133" s="13"/>
       <c r="P133" s="8" t="s">
-        <v>707</v>
+        <v>699</v>
       </c>
     </row>
     <row r="134" spans="1:16">
       <c r="A134" s="12">
-        <v>43666</v>
+        <v>43667</v>
       </c>
       <c r="B134" s="7" t="s">
-        <v>679</v>
+        <v>389</v>
       </c>
       <c r="C134" s="17" t="s">
-        <v>270</v>
-      </c>
-      <c r="D134" s="13" t="s">
-        <v>325</v>
-      </c>
-      <c r="E134" s="13" t="s">
-        <v>326</v>
-      </c>
-      <c r="F134" s="13" t="s">
-        <v>327</v>
-      </c>
-      <c r="G134" s="13" t="s">
-        <v>325</v>
+        <v>268</v>
+      </c>
+      <c r="D134" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="E134" s="8" t="s">
+        <v>700</v>
+      </c>
+      <c r="F134" s="8" t="s">
+        <v>695</v>
+      </c>
+      <c r="G134" s="8" t="s">
+        <v>696</v>
       </c>
       <c r="H134" s="13">
-        <v>1712.52</v>
+        <v>420</v>
       </c>
       <c r="I134" s="8" t="s">
-        <v>708</v>
+        <v>701</v>
       </c>
       <c r="J134" s="13">
-        <v>83</v>
-      </c>
-      <c r="K134" s="14"/>
+        <v>333</v>
+      </c>
+      <c r="K134" s="14">
+        <v>0.109722222222222</v>
+      </c>
       <c r="L134" s="15" t="s">
         <v>1</v>
       </c>
       <c r="M134" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="N134" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="O134" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="P134" s="8"/>
+        <v>702</v>
+      </c>
+      <c r="N134" s="16">
+        <v>98</v>
+      </c>
+      <c r="O134" s="13"/>
+      <c r="P134" s="8" t="s">
+        <v>703</v>
+      </c>
     </row>
     <row r="135" spans="1:16">
       <c r="A135" s="12">
-        <v>43665</v>
+        <v>43666</v>
       </c>
       <c r="B135" s="7" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="C135" s="17" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D135" s="13" t="s">
         <v>325</v>
@@ -17436,10 +17592,10 @@
         <v>1712.52</v>
       </c>
       <c r="I135" s="8" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="J135" s="13">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="K135" s="14"/>
       <c r="L135" s="15" t="s">
@@ -17460,14 +17616,14 @@
       <c r="A136" s="12">
         <v>43665</v>
       </c>
-      <c r="B136" s="12" t="s">
-        <v>294</v>
+      <c r="B136" s="7" t="s">
+        <v>675</v>
       </c>
       <c r="C136" s="17" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D136" s="13" t="s">
-        <v>340</v>
+        <v>325</v>
       </c>
       <c r="E136" s="13" t="s">
         <v>326</v>
@@ -17476,36 +17632,44 @@
         <v>327</v>
       </c>
       <c r="G136" s="13" t="s">
-        <v>340</v>
-      </c>
-      <c r="H136" s="13"/>
-      <c r="I136" s="13" t="s">
-        <v>341</v>
+        <v>325</v>
+      </c>
+      <c r="H136" s="13">
+        <v>1712.52</v>
+      </c>
+      <c r="I136" s="8" t="s">
+        <v>705</v>
       </c>
       <c r="J136" s="13">
-        <v>223</v>
-      </c>
-      <c r="K136" s="14">
-        <v>0.12606481481481499</v>
-      </c>
-      <c r="L136" s="15"/>
-      <c r="M136" s="13"/>
-      <c r="N136" s="16"/>
-      <c r="O136" s="13"/>
-      <c r="P136" s="13" t="s">
-        <v>342</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="K136" s="14"/>
+      <c r="L136" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="M136" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="N136" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="O136" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="P136" s="8"/>
     </row>
     <row r="137" spans="1:16">
       <c r="A137" s="12">
-        <v>43664</v>
+        <v>43665</v>
       </c>
       <c r="B137" s="12" t="s">
-        <v>300</v>
-      </c>
-      <c r="C137" s="17"/>
+        <v>294</v>
+      </c>
+      <c r="C137" s="17" t="s">
+        <v>272</v>
+      </c>
       <c r="D137" s="13" t="s">
-        <v>325</v>
+        <v>340</v>
       </c>
       <c r="E137" s="13" t="s">
         <v>326</v>
@@ -17514,35 +17678,29 @@
         <v>327</v>
       </c>
       <c r="G137" s="13" t="s">
-        <v>325</v>
-      </c>
-      <c r="H137" s="13">
-        <v>1712.52</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="H137" s="13"/>
       <c r="I137" s="13" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="J137" s="13">
-        <v>103.3</v>
-      </c>
-      <c r="K137" s="14"/>
-      <c r="L137" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="M137" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="N137" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="O137" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="P137" s="13"/>
+        <v>223</v>
+      </c>
+      <c r="K137" s="14">
+        <v>0.12606481481481499</v>
+      </c>
+      <c r="L137" s="15"/>
+      <c r="M137" s="13"/>
+      <c r="N137" s="16"/>
+      <c r="O137" s="13"/>
+      <c r="P137" s="13" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="138" spans="1:16">
       <c r="A138" s="12">
-        <v>43663</v>
+        <v>43664</v>
       </c>
       <c r="B138" s="12" t="s">
         <v>300</v>
@@ -17564,10 +17722,10 @@
         <v>1712.52</v>
       </c>
       <c r="I138" s="13" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="J138" s="13">
-        <v>75.5</v>
+        <v>103.3</v>
       </c>
       <c r="K138" s="14"/>
       <c r="L138" s="15" t="s">
@@ -17586,7 +17744,7 @@
     </row>
     <row r="139" spans="1:16">
       <c r="A139" s="12">
-        <v>43661</v>
+        <v>43663</v>
       </c>
       <c r="B139" s="12" t="s">
         <v>300</v>
@@ -17608,10 +17766,10 @@
         <v>1712.52</v>
       </c>
       <c r="I139" s="13" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="J139" s="13">
-        <v>128.5</v>
+        <v>75.5</v>
       </c>
       <c r="K139" s="14"/>
       <c r="L139" s="15" t="s">
@@ -17630,98 +17788,94 @@
     </row>
     <row r="140" spans="1:16">
       <c r="A140" s="12">
-        <v>43658</v>
-      </c>
-      <c r="B140" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="C140" s="17" t="s">
-        <v>273</v>
-      </c>
-      <c r="D140" s="15" t="s">
-        <v>274</v>
-      </c>
-      <c r="E140" s="8" t="s">
-        <v>505</v>
-      </c>
-      <c r="F140" s="8" t="s">
-        <v>710</v>
-      </c>
-      <c r="G140" s="8" t="s">
-        <v>711</v>
+        <v>43661</v>
+      </c>
+      <c r="B140" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="C140" s="17"/>
+      <c r="D140" s="13" t="s">
+        <v>325</v>
+      </c>
+      <c r="E140" s="13" t="s">
+        <v>326</v>
+      </c>
+      <c r="F140" s="13" t="s">
+        <v>327</v>
+      </c>
+      <c r="G140" s="13" t="s">
+        <v>325</v>
       </c>
       <c r="H140" s="13">
-        <v>2086</v>
-      </c>
-      <c r="I140" s="8" t="s">
-        <v>712</v>
+        <v>1712.52</v>
+      </c>
+      <c r="I140" s="13" t="s">
+        <v>345</v>
       </c>
       <c r="J140" s="13">
-        <v>2086</v>
-      </c>
-      <c r="K140" s="14" t="s">
-        <v>713</v>
-      </c>
+        <v>128.5</v>
+      </c>
+      <c r="K140" s="14"/>
       <c r="L140" s="15" t="s">
         <v>1</v>
       </c>
       <c r="M140" s="13" t="s">
-        <v>714</v>
-      </c>
-      <c r="N140" s="16">
-        <v>421</v>
-      </c>
-      <c r="O140" s="13"/>
-      <c r="P140" s="13" t="s">
-        <v>346</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N140" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="O140" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="P140" s="13"/>
     </row>
     <row r="141" spans="1:16">
       <c r="A141" s="12">
-        <v>43646</v>
+        <v>43658</v>
       </c>
       <c r="B141" s="7" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C141" s="17" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D141" s="15" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E141" s="8" t="s">
-        <v>715</v>
+        <v>501</v>
       </c>
       <c r="F141" s="8" t="s">
-        <v>456</v>
+        <v>706</v>
       </c>
       <c r="G141" s="8" t="s">
-        <v>540</v>
+        <v>707</v>
       </c>
       <c r="H141" s="13">
-        <v>1279</v>
+        <v>2086</v>
       </c>
       <c r="I141" s="8" t="s">
-        <v>475</v>
+        <v>708</v>
       </c>
       <c r="J141" s="13">
-        <v>1279</v>
-      </c>
-      <c r="K141" s="14">
-        <v>0.19375000000000001</v>
+        <v>2086</v>
+      </c>
+      <c r="K141" s="14" t="s">
+        <v>709</v>
       </c>
       <c r="L141" s="15" t="s">
-        <v>120</v>
+        <v>1</v>
       </c>
       <c r="M141" s="13" t="s">
-        <v>564</v>
+        <v>710</v>
       </c>
       <c r="N141" s="16">
-        <v>404</v>
+        <v>421</v>
       </c>
       <c r="O141" s="13"/>
       <c r="P141" s="13" t="s">
-        <v>374</v>
+        <v>346</v>
       </c>
     </row>
     <row r="142" spans="1:16">
@@ -17729,467 +17883,515 @@
         <v>43646</v>
       </c>
       <c r="B142" s="7" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C142" s="17" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D142" s="15" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E142" s="8" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="F142" s="8" t="s">
-        <v>395</v>
+        <v>452</v>
       </c>
       <c r="G142" s="8" t="s">
-        <v>463</v>
+        <v>536</v>
       </c>
       <c r="H142" s="13">
-        <v>610</v>
+        <v>1279</v>
       </c>
       <c r="I142" s="8" t="s">
-        <v>397</v>
+        <v>471</v>
       </c>
       <c r="J142" s="13">
-        <v>155</v>
-      </c>
-      <c r="K142" s="14" t="s">
-        <v>375</v>
+        <v>1279</v>
+      </c>
+      <c r="K142" s="14">
+        <v>0.19375000000000001</v>
       </c>
       <c r="L142" s="15" t="s">
-        <v>279</v>
+        <v>120</v>
       </c>
       <c r="M142" s="13" t="s">
-        <v>717</v>
+        <v>560</v>
       </c>
       <c r="N142" s="16">
-        <v>53.5</v>
+        <v>404</v>
       </c>
       <c r="O142" s="13"/>
-      <c r="P142" s="8" t="s">
-        <v>718</v>
+      <c r="P142" s="13" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="143" spans="1:16">
       <c r="A143" s="12">
-        <v>43638</v>
+        <v>43646</v>
       </c>
       <c r="B143" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="C143" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="D143" s="15" t="s">
+        <v>278</v>
+      </c>
+      <c r="E143" s="8" t="s">
+        <v>712</v>
+      </c>
+      <c r="F143" s="8" t="s">
+        <v>391</v>
+      </c>
+      <c r="G143" s="8" t="s">
+        <v>459</v>
+      </c>
+      <c r="H143" s="13">
+        <v>610</v>
+      </c>
+      <c r="I143" s="8" t="s">
         <v>393</v>
       </c>
-      <c r="C143" s="17" t="s">
-        <v>236</v>
-      </c>
-      <c r="D143" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="E143" s="8" t="s">
-        <v>456</v>
-      </c>
-      <c r="F143" s="8" t="s">
-        <v>672</v>
-      </c>
-      <c r="G143" s="8" t="s">
-        <v>463</v>
-      </c>
-      <c r="H143" s="13">
-        <v>1709</v>
-      </c>
-      <c r="I143" s="8" t="s">
-        <v>600</v>
-      </c>
       <c r="J143" s="13">
-        <v>1434</v>
-      </c>
-      <c r="K143" s="14">
-        <v>0.28819444444444398</v>
-      </c>
-      <c r="L143" s="15">
-        <v>8</v>
+        <v>155</v>
+      </c>
+      <c r="K143" s="14" t="s">
+        <v>375</v>
+      </c>
+      <c r="L143" s="15" t="s">
+        <v>279</v>
       </c>
       <c r="M143" s="13" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="N143" s="16">
-        <v>446.5</v>
+        <v>53.5</v>
       </c>
       <c r="O143" s="13"/>
-      <c r="P143" s="13" t="s">
-        <v>376</v>
+      <c r="P143" s="8" t="s">
+        <v>714</v>
       </c>
     </row>
     <row r="144" spans="1:16">
       <c r="A144" s="12">
-        <v>43509</v>
+        <v>43638</v>
       </c>
       <c r="B144" s="7" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C144" s="17" t="s">
-        <v>280</v>
+        <v>236</v>
       </c>
       <c r="D144" s="15" t="s">
-        <v>281</v>
+        <v>237</v>
       </c>
       <c r="E144" s="8" t="s">
-        <v>419</v>
+        <v>452</v>
       </c>
       <c r="F144" s="8" t="s">
-        <v>456</v>
+        <v>668</v>
       </c>
       <c r="G144" s="8" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="H144" s="13">
-        <v>1434</v>
+        <v>1709</v>
       </c>
       <c r="I144" s="8" t="s">
-        <v>499</v>
+        <v>596</v>
       </c>
       <c r="J144" s="13">
         <v>1434</v>
       </c>
       <c r="K144" s="14">
-        <v>0.28541666666666698</v>
-      </c>
-      <c r="L144" s="15" t="s">
-        <v>218</v>
+        <v>0.28819444444444398</v>
+      </c>
+      <c r="L144" s="15">
+        <v>8</v>
       </c>
       <c r="M144" s="13" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="N144" s="16">
         <v>446.5</v>
       </c>
       <c r="O144" s="13"/>
       <c r="P144" s="13" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="145" spans="1:16">
       <c r="A145" s="12">
-        <v>43489</v>
+        <v>43509</v>
       </c>
       <c r="B145" s="7" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C145" s="17" t="s">
-        <v>236</v>
+        <v>280</v>
       </c>
       <c r="D145" s="15" t="s">
-        <v>237</v>
+        <v>281</v>
       </c>
       <c r="E145" s="8" t="s">
-        <v>456</v>
+        <v>415</v>
       </c>
       <c r="F145" s="8" t="s">
-        <v>672</v>
+        <v>452</v>
       </c>
       <c r="G145" s="8" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="H145" s="13">
-        <v>1709</v>
+        <v>1434</v>
       </c>
       <c r="I145" s="8" t="s">
-        <v>600</v>
+        <v>495</v>
       </c>
       <c r="J145" s="13">
         <v>1434</v>
       </c>
       <c r="K145" s="14">
-        <v>0.28819444444444398</v>
-      </c>
-      <c r="L145" s="15">
-        <v>8</v>
+        <v>0.28541666666666698</v>
+      </c>
+      <c r="L145" s="15" t="s">
+        <v>218</v>
       </c>
       <c r="M145" s="13" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="N145" s="16">
         <v>446.5</v>
       </c>
       <c r="O145" s="13"/>
       <c r="P145" s="13" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="146" spans="1:16">
       <c r="A146" s="12">
-        <v>43375</v>
+        <v>43489</v>
       </c>
       <c r="B146" s="7" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C146" s="17" t="s">
-        <v>282</v>
+        <v>236</v>
       </c>
       <c r="D146" s="15" t="s">
-        <v>283</v>
+        <v>237</v>
       </c>
       <c r="E146" s="8" t="s">
-        <v>675</v>
+        <v>452</v>
       </c>
       <c r="F146" s="8" t="s">
-        <v>456</v>
+        <v>668</v>
       </c>
       <c r="G146" s="8" t="s">
-        <v>700</v>
+        <v>459</v>
       </c>
       <c r="H146" s="13">
-        <v>127</v>
+        <v>1709</v>
       </c>
       <c r="I146" s="8" t="s">
-        <v>677</v>
+        <v>596</v>
       </c>
       <c r="J146" s="13">
-        <v>127</v>
-      </c>
-      <c r="K146" s="14" t="s">
-        <v>379</v>
-      </c>
-      <c r="L146" s="15" t="s">
-        <v>240</v>
+        <v>1434</v>
+      </c>
+      <c r="K146" s="14">
+        <v>0.28819444444444398</v>
+      </c>
+      <c r="L146" s="15">
+        <v>8</v>
       </c>
       <c r="M146" s="13" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="N146" s="16">
-        <v>54.5</v>
+        <v>446.5</v>
       </c>
       <c r="O146" s="13"/>
       <c r="P146" s="13" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="147" spans="1:16">
       <c r="A147" s="12">
-        <v>43373</v>
+        <v>43375</v>
       </c>
       <c r="B147" s="7" t="s">
-        <v>679</v>
+        <v>389</v>
       </c>
       <c r="C147" s="17" t="s">
-        <v>284</v>
-      </c>
-      <c r="D147" s="8" t="s">
-        <v>723</v>
+        <v>282</v>
+      </c>
+      <c r="D147" s="15" t="s">
+        <v>283</v>
       </c>
       <c r="E147" s="8" t="s">
-        <v>505</v>
+        <v>671</v>
       </c>
       <c r="F147" s="8" t="s">
-        <v>675</v>
+        <v>452</v>
       </c>
       <c r="G147" s="8" t="s">
-        <v>723</v>
+        <v>696</v>
       </c>
       <c r="H147" s="13">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="I147" s="8" t="s">
-        <v>681</v>
+        <v>673</v>
       </c>
       <c r="J147" s="13">
-        <v>144</v>
-      </c>
-      <c r="K147" s="14">
-        <v>0.34564814814814798</v>
+        <v>127</v>
+      </c>
+      <c r="K147" s="14" t="s">
+        <v>379</v>
       </c>
       <c r="L147" s="15" t="s">
-        <v>1</v>
+        <v>240</v>
       </c>
       <c r="M147" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="N147" s="16" t="s">
-        <v>1</v>
+        <v>718</v>
+      </c>
+      <c r="N147" s="16">
+        <v>54.5</v>
       </c>
       <c r="O147" s="13"/>
       <c r="P147" s="13" t="s">
-        <v>347</v>
+        <v>380</v>
       </c>
     </row>
     <row r="148" spans="1:16">
       <c r="A148" s="12">
-        <v>43341</v>
+        <v>43373</v>
       </c>
       <c r="B148" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="C148" s="13" t="s">
-        <v>285</v>
-      </c>
-      <c r="D148" s="15" t="s">
-        <v>286</v>
+        <v>675</v>
+      </c>
+      <c r="C148" s="17" t="s">
+        <v>284</v>
+      </c>
+      <c r="D148" s="8" t="s">
+        <v>719</v>
       </c>
       <c r="E148" s="8" t="s">
-        <v>407</v>
+        <v>501</v>
       </c>
       <c r="F148" s="8" t="s">
-        <v>456</v>
+        <v>671</v>
       </c>
       <c r="G148" s="8" t="s">
-        <v>463</v>
+        <v>719</v>
       </c>
       <c r="H148" s="13">
-        <v>2011</v>
+        <v>144</v>
       </c>
       <c r="I148" s="8" t="s">
-        <v>499</v>
+        <v>677</v>
       </c>
       <c r="J148" s="13">
-        <v>1434</v>
+        <v>144</v>
       </c>
       <c r="K148" s="14">
-        <v>0.28333333333333299</v>
+        <v>0.34564814814814798</v>
       </c>
       <c r="L148" s="15" t="s">
-        <v>218</v>
+        <v>1</v>
       </c>
       <c r="M148" s="13" t="s">
-        <v>724</v>
-      </c>
-      <c r="N148" s="16">
-        <v>446.5</v>
+        <v>1</v>
+      </c>
+      <c r="N148" s="16" t="s">
+        <v>1</v>
       </c>
       <c r="O148" s="13"/>
       <c r="P148" s="13" t="s">
-        <v>381</v>
+        <v>347</v>
       </c>
     </row>
     <row r="149" spans="1:16">
       <c r="A149" s="12">
-        <v>42974</v>
+        <v>43341</v>
       </c>
       <c r="B149" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="C149" s="17" t="s">
-        <v>287</v>
+        <v>389</v>
+      </c>
+      <c r="C149" s="13" t="s">
+        <v>285</v>
       </c>
       <c r="D149" s="15" t="s">
-        <v>237</v>
+        <v>286</v>
       </c>
       <c r="E149" s="8" t="s">
-        <v>456</v>
+        <v>403</v>
       </c>
       <c r="F149" s="8" t="s">
-        <v>672</v>
+        <v>452</v>
       </c>
       <c r="G149" s="8" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="H149" s="13">
-        <v>1691</v>
+        <v>2011</v>
       </c>
       <c r="I149" s="8" t="s">
-        <v>600</v>
+        <v>495</v>
       </c>
       <c r="J149" s="13">
         <v>1434</v>
       </c>
       <c r="K149" s="14">
-        <v>0.28472222222222199</v>
-      </c>
-      <c r="L149" s="15">
-        <v>8</v>
+        <v>0.28333333333333299</v>
+      </c>
+      <c r="L149" s="15" t="s">
+        <v>218</v>
       </c>
       <c r="M149" s="13" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="N149" s="16">
-        <v>595.5</v>
+        <v>446.5</v>
       </c>
       <c r="O149" s="13"/>
-      <c r="P149" s="8" t="s">
-        <v>726</v>
+      <c r="P149" s="13" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="150" spans="1:16">
       <c r="A150" s="12">
-        <v>42967</v>
+        <v>42974</v>
       </c>
       <c r="B150" s="7" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C150" s="17" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D150" s="15" t="s">
-        <v>289</v>
+        <v>237</v>
       </c>
       <c r="E150" s="8" t="s">
-        <v>672</v>
+        <v>452</v>
       </c>
       <c r="F150" s="8" t="s">
-        <v>456</v>
+        <v>668</v>
       </c>
       <c r="G150" s="8" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="H150" s="13">
-        <v>1709</v>
+        <v>1691</v>
       </c>
       <c r="I150" s="8" t="s">
-        <v>499</v>
+        <v>596</v>
       </c>
       <c r="J150" s="13">
         <v>1434</v>
       </c>
       <c r="K150" s="14">
-        <v>0.3125</v>
-      </c>
-      <c r="L150" s="15" t="s">
-        <v>218</v>
+        <v>0.28472222222222199</v>
+      </c>
+      <c r="L150" s="15">
+        <v>8</v>
       </c>
       <c r="M150" s="13" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="N150" s="16">
         <v>595.5</v>
       </c>
       <c r="O150" s="13"/>
       <c r="P150" s="8" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
     </row>
-    <row r="152" spans="1:16">
-      <c r="A152" s="24" t="s">
-        <v>290</v>
-      </c>
-      <c r="B152" s="24"/>
-      <c r="C152" s="24"/>
+    <row r="151" spans="1:16">
+      <c r="A151" s="12">
+        <v>42967</v>
+      </c>
+      <c r="B151" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="C151" s="17" t="s">
+        <v>288</v>
+      </c>
+      <c r="D151" s="15" t="s">
+        <v>289</v>
+      </c>
+      <c r="E151" s="8" t="s">
+        <v>668</v>
+      </c>
+      <c r="F151" s="8" t="s">
+        <v>452</v>
+      </c>
+      <c r="G151" s="8" t="s">
+        <v>459</v>
+      </c>
+      <c r="H151" s="13">
+        <v>1709</v>
+      </c>
+      <c r="I151" s="8" t="s">
+        <v>495</v>
+      </c>
+      <c r="J151" s="13">
+        <v>1434</v>
+      </c>
+      <c r="K151" s="14">
+        <v>0.3125</v>
+      </c>
+      <c r="L151" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="M151" s="13" t="s">
+        <v>723</v>
+      </c>
+      <c r="N151" s="16">
+        <v>595.5</v>
+      </c>
+      <c r="O151" s="13"/>
+      <c r="P151" s="8" t="s">
+        <v>724</v>
+      </c>
     </row>
     <row r="153" spans="1:16">
-      <c r="A153" s="25" t="s">
-        <v>291</v>
-      </c>
-      <c r="B153" s="25"/>
-      <c r="C153" s="25"/>
-      <c r="D153" s="25"/>
+      <c r="A153" s="27" t="s">
+        <v>290</v>
+      </c>
+      <c r="B153" s="27"/>
+      <c r="C153" s="27"/>
     </row>
     <row r="154" spans="1:16">
-      <c r="A154" s="25" t="s">
+      <c r="A154" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="B154" s="28"/>
+      <c r="C154" s="28"/>
+      <c r="D154" s="28"/>
+    </row>
+    <row r="155" spans="1:16">
+      <c r="A155" s="28" t="s">
         <v>292</v>
       </c>
-      <c r="B154" s="25"/>
-      <c r="C154" s="25"/>
-      <c r="D154" s="25"/>
+      <c r="B155" s="28"/>
+      <c r="C155" s="28"/>
+      <c r="D155" s="28"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P150" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:P151" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="3">
-    <mergeCell ref="A152:C152"/>
-    <mergeCell ref="A153:D153"/>
+    <mergeCell ref="A153:C153"/>
     <mergeCell ref="A154:D154"/>
+    <mergeCell ref="A155:D155"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A153" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="A154" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="A154" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A155" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/data/transport_record.xlsx
+++ b/data/transport_record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/winston/mygitrep/transportations/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D8DD1A6-5D85-B641-9373-93B8489E7C82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C3C1659-A32F-4F47-9558-FB15E0EF8D3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9120" yWindow="4880" windowWidth="29220" windowHeight="16160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$P$153</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$P$155</definedName>
   </definedNames>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1533" uniqueCount="860">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1550" uniqueCount="872">
   <si>
     <t>17:00-23:00</t>
   </si>
@@ -10934,6 +10934,95 @@
   </si>
   <si>
     <t>Hanshin Electric Railway</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>15:08-15:31</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sangome-Fujisansekaiisansenta</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>23</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>分</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>富士急</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>バス</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>株式会社</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>富士山五合目</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>To Mt.Fuji Station</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mt. Fuji Gogome (Fifth Station) -Kawa Station-Mt. Fuji Station</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fujikawaguchi kokoko-Fuji Subaru Line 5th Station</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>To Fuji-Subaru Line 5th Station</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mt. Fuji Station-Kawa Station-Mt. Fuji Gogome (Fifth Station)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>10:43-11:30</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>富士山</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -11561,10 +11650,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMJ157"/>
+  <dimension ref="A1:AMJ159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -11974,213 +12063,211 @@
     </row>
     <row r="10" spans="1:16" s="2" customFormat="1" ht="14">
       <c r="A10" s="7">
-        <v>45787</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>778</v>
+        <v>45788</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>758</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>761</v>
+        <v>860</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>764</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>781</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>779</v>
+        <v>865</v>
+      </c>
+      <c r="E10" s="25" t="s">
+        <v>864</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>871</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>763</v>
+        <v>866</v>
       </c>
       <c r="H10" s="8"/>
       <c r="I10" s="8" t="s">
-        <v>759</v>
-      </c>
-      <c r="J10" s="8">
-        <v>59</v>
-      </c>
-      <c r="K10" s="10">
-        <v>6.25E-2</v>
+        <v>861</v>
+      </c>
+      <c r="J10" s="8"/>
+      <c r="K10" s="10" t="s">
+        <v>862</v>
       </c>
       <c r="L10" s="9"/>
       <c r="M10" s="8"/>
       <c r="N10" s="11">
-        <v>136.80000000000001</v>
-      </c>
-      <c r="O10" s="8" t="s">
-        <v>762</v>
-      </c>
-      <c r="P10" s="25" t="s">
-        <v>808</v>
-      </c>
+        <f>1210/20</f>
+        <v>60.5</v>
+      </c>
+      <c r="O10" s="25" t="s">
+        <v>863</v>
+      </c>
+      <c r="P10" s="8"/>
     </row>
     <row r="11" spans="1:16" s="2" customFormat="1" ht="14">
       <c r="A11" s="7">
-        <v>45787</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>728</v>
+        <v>45788</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>758</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>839</v>
+        <v>870</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>840</v>
+        <v>868</v>
       </c>
       <c r="E11" s="25" t="s">
-        <v>841</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>781</v>
+        <v>871</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>864</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>757</v>
+        <v>869</v>
       </c>
       <c r="H11" s="8"/>
       <c r="I11" s="8" t="s">
-        <v>842</v>
+        <v>867</v>
       </c>
       <c r="J11" s="8"/>
-      <c r="K11" s="10">
-        <v>7.013888888888889E-2</v>
-      </c>
+      <c r="K11" s="10"/>
       <c r="L11" s="9"/>
-      <c r="M11" s="8" t="s">
-        <v>845</v>
-      </c>
+      <c r="M11" s="8"/>
       <c r="N11" s="11">
-        <f>8440/20</f>
-        <v>422</v>
-      </c>
-      <c r="O11" s="8" t="s">
-        <v>760</v>
-      </c>
-      <c r="P11" s="25"/>
+        <f>1720/20</f>
+        <v>86</v>
+      </c>
+      <c r="O11" s="25" t="s">
+        <v>863</v>
+      </c>
+      <c r="P11" s="8"/>
     </row>
     <row r="12" spans="1:16" s="2" customFormat="1" ht="14">
       <c r="A12" s="7">
         <v>45787</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>728</v>
+        <v>778</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>838</v>
+        <v>761</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>847</v>
-      </c>
-      <c r="E12" s="25" t="s">
-        <v>837</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>841</v>
+        <v>764</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>781</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>779</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>757</v>
+        <v>763</v>
       </c>
       <c r="H12" s="8"/>
       <c r="I12" s="8" t="s">
-        <v>843</v>
-      </c>
-      <c r="J12" s="8"/>
-      <c r="K12" s="10" t="s">
-        <v>844</v>
+        <v>759</v>
+      </c>
+      <c r="J12" s="8">
+        <v>59</v>
+      </c>
+      <c r="K12" s="10">
+        <v>6.25E-2</v>
       </c>
       <c r="L12" s="9"/>
-      <c r="M12" s="8" t="s">
-        <v>846</v>
-      </c>
+      <c r="M12" s="8"/>
       <c r="N12" s="11">
-        <f>5910/20</f>
-        <v>295.5</v>
+        <v>136.80000000000001</v>
       </c>
       <c r="O12" s="8" t="s">
-        <v>760</v>
-      </c>
-      <c r="P12" s="8"/>
+        <v>762</v>
+      </c>
+      <c r="P12" s="25" t="s">
+        <v>808</v>
+      </c>
     </row>
     <row r="13" spans="1:16" s="2" customFormat="1" ht="14">
       <c r="A13" s="7">
-        <v>45784</v>
+        <v>45787</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>747</v>
+        <v>728</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>753</v>
+        <v>839</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>754</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>782</v>
-      </c>
-      <c r="F13" s="25" t="s">
-        <v>837</v>
+        <v>840</v>
+      </c>
+      <c r="E13" s="25" t="s">
+        <v>841</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>781</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>750</v>
+        <v>757</v>
       </c>
       <c r="H13" s="8"/>
       <c r="I13" s="8" t="s">
-        <v>755</v>
+        <v>842</v>
       </c>
       <c r="J13" s="8"/>
-      <c r="K13" s="10" t="s">
-        <v>756</v>
+      <c r="K13" s="10">
+        <v>7.013888888888889E-2</v>
       </c>
       <c r="L13" s="9"/>
-      <c r="M13" s="8"/>
+      <c r="M13" s="8" t="s">
+        <v>845</v>
+      </c>
       <c r="N13" s="11">
-        <f>240/20</f>
-        <v>12</v>
+        <f>8440/20</f>
+        <v>422</v>
       </c>
       <c r="O13" s="8" t="s">
-        <v>752</v>
-      </c>
-      <c r="P13" s="8"/>
+        <v>760</v>
+      </c>
+      <c r="P13" s="25"/>
     </row>
     <row r="14" spans="1:16" s="2" customFormat="1" ht="14">
       <c r="A14" s="7">
-        <v>45784</v>
+        <v>45787</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>747</v>
+        <v>728</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>848</v>
+        <v>838</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>754</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>749</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>782</v>
+        <v>847</v>
+      </c>
+      <c r="E14" s="25" t="s">
+        <v>837</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>841</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>750</v>
+        <v>757</v>
       </c>
       <c r="H14" s="8"/>
       <c r="I14" s="8" t="s">
-        <v>751</v>
+        <v>843</v>
       </c>
       <c r="J14" s="8"/>
       <c r="K14" s="10" t="s">
-        <v>849</v>
+        <v>844</v>
       </c>
       <c r="L14" s="9"/>
-      <c r="M14" s="8"/>
+      <c r="M14" s="8" t="s">
+        <v>846</v>
+      </c>
       <c r="N14" s="11">
-        <f>510/20</f>
-        <v>25.5</v>
+        <f>5910/20</f>
+        <v>295.5</v>
       </c>
       <c r="O14" s="8" t="s">
-        <v>752</v>
+        <v>760</v>
       </c>
       <c r="P14" s="8"/>
     </row>
@@ -12192,345 +12279,327 @@
         <v>747</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>850</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>727</v>
+        <v>753</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>754</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>748</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>749</v>
+        <v>782</v>
+      </c>
+      <c r="F15" s="25" t="s">
+        <v>837</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>851</v>
+        <v>750</v>
       </c>
       <c r="H15" s="8"/>
       <c r="I15" s="8" t="s">
-        <v>726</v>
+        <v>755</v>
       </c>
       <c r="J15" s="8"/>
       <c r="K15" s="10" t="s">
-        <v>852</v>
+        <v>756</v>
       </c>
       <c r="L15" s="9"/>
       <c r="M15" s="8"/>
-      <c r="N15" s="16">
-        <f>680/20</f>
-        <v>34</v>
-      </c>
-      <c r="O15" s="25" t="s">
-        <v>853</v>
-      </c>
-      <c r="P15" s="13"/>
+      <c r="N15" s="11">
+        <f>240/20</f>
+        <v>12</v>
+      </c>
+      <c r="O15" s="8" t="s">
+        <v>752</v>
+      </c>
+      <c r="P15" s="8"/>
     </row>
     <row r="16" spans="1:16" s="2" customFormat="1" ht="14">
       <c r="A16" s="7">
-        <v>45782</v>
-      </c>
-      <c r="B16" s="24" t="s">
-        <v>725</v>
+        <v>45784</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>747</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>854</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>855</v>
-      </c>
-      <c r="E16" s="25" t="s">
-        <v>793</v>
+        <v>848</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>754</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>749</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>748</v>
+        <v>782</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>856</v>
+        <v>750</v>
       </c>
       <c r="H16" s="8"/>
       <c r="I16" s="8" t="s">
-        <v>857</v>
+        <v>751</v>
       </c>
       <c r="J16" s="8"/>
       <c r="K16" s="10" t="s">
-        <v>858</v>
+        <v>849</v>
       </c>
       <c r="L16" s="9"/>
       <c r="M16" s="8"/>
-      <c r="N16" s="16">
-        <f>420/20</f>
-        <v>21</v>
+      <c r="N16" s="11">
+        <f>510/20</f>
+        <v>25.5</v>
       </c>
       <c r="O16" s="8" t="s">
-        <v>859</v>
-      </c>
-      <c r="P16" s="13"/>
+        <v>752</v>
+      </c>
+      <c r="P16" s="8"/>
     </row>
     <row r="17" spans="1:16" s="2" customFormat="1" ht="14">
-      <c r="A17" s="12">
-        <v>45781</v>
-      </c>
-      <c r="B17" s="24" t="s">
-        <v>794</v>
+      <c r="A17" s="7">
+        <v>45784</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>747</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>796</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>797</v>
-      </c>
-      <c r="E17" s="25" t="s">
-        <v>792</v>
-      </c>
-      <c r="F17" s="25" t="s">
-        <v>793</v>
+        <v>850</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>727</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>748</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>749</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>797</v>
+        <v>851</v>
       </c>
       <c r="H17" s="8"/>
       <c r="I17" s="8" t="s">
-        <v>798</v>
+        <v>726</v>
       </c>
       <c r="J17" s="8"/>
       <c r="K17" s="10" t="s">
-        <v>795</v>
+        <v>852</v>
       </c>
       <c r="L17" s="9"/>
       <c r="M17" s="8"/>
       <c r="N17" s="16">
-        <f>500/20</f>
-        <v>25</v>
-      </c>
-      <c r="O17" s="8"/>
+        <f>680/20</f>
+        <v>34</v>
+      </c>
+      <c r="O17" s="25" t="s">
+        <v>853</v>
+      </c>
       <c r="P17" s="13"/>
     </row>
     <row r="18" spans="1:16" s="2" customFormat="1" ht="14">
       <c r="A18" s="7">
-        <v>45781</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>384</v>
+        <v>45782</v>
+      </c>
+      <c r="B18" s="24" t="s">
+        <v>725</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>382</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>383</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>385</v>
+        <v>854</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>855</v>
+      </c>
+      <c r="E18" s="25" t="s">
+        <v>793</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>386</v>
-      </c>
-      <c r="G18" s="26" t="s">
-        <v>804</v>
-      </c>
-      <c r="H18" s="8">
-        <v>1395</v>
-      </c>
+        <v>748</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>856</v>
+      </c>
+      <c r="H18" s="8"/>
       <c r="I18" s="8" t="s">
-        <v>387</v>
-      </c>
-      <c r="J18" s="8">
-        <v>1395</v>
-      </c>
-      <c r="K18" s="10">
-        <v>0.10416666666666667</v>
+        <v>857</v>
+      </c>
+      <c r="J18" s="8"/>
+      <c r="K18" s="10" t="s">
+        <v>858</v>
       </c>
       <c r="L18" s="9"/>
       <c r="M18" s="8"/>
-      <c r="N18" s="11">
-        <v>590</v>
+      <c r="N18" s="16">
+        <f>420/20</f>
+        <v>21</v>
       </c>
       <c r="O18" s="8" t="s">
-        <v>388</v>
-      </c>
-      <c r="P18" s="26" t="s">
-        <v>806</v>
-      </c>
+        <v>859</v>
+      </c>
+      <c r="P18" s="13"/>
     </row>
     <row r="19" spans="1:16" s="2" customFormat="1" ht="14">
-      <c r="A19" s="7">
+      <c r="A19" s="12">
         <v>45781</v>
       </c>
       <c r="B19" s="24" t="s">
+        <v>794</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>796</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>797</v>
+      </c>
+      <c r="E19" s="25" t="s">
+        <v>792</v>
+      </c>
+      <c r="F19" s="25" t="s">
+        <v>793</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>797</v>
+      </c>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8" t="s">
+        <v>798</v>
+      </c>
+      <c r="J19" s="8"/>
+      <c r="K19" s="10" t="s">
+        <v>795</v>
+      </c>
+      <c r="L19" s="9"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="16">
+        <f>500/20</f>
+        <v>25</v>
+      </c>
+      <c r="O19" s="8"/>
+      <c r="P19" s="13"/>
+    </row>
+    <row r="20" spans="1:16" s="2" customFormat="1" ht="14">
+      <c r="A20" s="7">
+        <v>45781</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>383</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="G20" s="26" t="s">
+        <v>804</v>
+      </c>
+      <c r="H20" s="8">
+        <v>1395</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>387</v>
+      </c>
+      <c r="J20" s="8">
+        <v>1395</v>
+      </c>
+      <c r="K20" s="10">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="L20" s="9"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="11">
+        <v>590</v>
+      </c>
+      <c r="O20" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="P20" s="26" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" s="2" customFormat="1" ht="14">
+      <c r="A21" s="7">
+        <v>45781</v>
+      </c>
+      <c r="B21" s="24" t="s">
         <v>758</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C21" s="8" t="s">
         <v>799</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D21" s="9" t="s">
         <v>800</v>
       </c>
-      <c r="E19" s="25" t="s">
+      <c r="E21" s="25" t="s">
         <v>789</v>
       </c>
-      <c r="F19" s="25" t="s">
+      <c r="F21" s="25" t="s">
         <v>730</v>
       </c>
-      <c r="G19" s="25" t="s">
+      <c r="G21" s="25" t="s">
         <v>788</v>
       </c>
-      <c r="H19" s="8">
+      <c r="H21" s="8">
         <v>104</v>
       </c>
-      <c r="I19" s="26" t="s">
+      <c r="I21" s="26" t="s">
         <v>790</v>
       </c>
-      <c r="J19" s="8">
+      <c r="J21" s="8">
         <v>104</v>
       </c>
-      <c r="K19" s="10" t="s">
+      <c r="K21" s="10" t="s">
         <v>803</v>
       </c>
-      <c r="L19" s="9" t="s">
+      <c r="L21" s="9" t="s">
         <v>801</v>
       </c>
-      <c r="M19" s="8">
+      <c r="M21" s="8">
         <v>3</v>
       </c>
-      <c r="N19" s="11">
+      <c r="N21" s="11">
         <v>64</v>
       </c>
-      <c r="O19" s="25" t="s">
+      <c r="O21" s="25" t="s">
         <v>802</v>
       </c>
-      <c r="P19" s="26"/>
-    </row>
-    <row r="20" spans="1:16">
-      <c r="A20" s="12">
-        <v>45758</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>294</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>295</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>296</v>
-      </c>
-      <c r="F20" s="13" t="s">
-        <v>297</v>
-      </c>
-      <c r="G20" s="13" t="s">
-        <v>295</v>
-      </c>
-      <c r="H20" s="13">
-        <v>233</v>
-      </c>
-      <c r="I20" s="13" t="s">
-        <v>298</v>
-      </c>
-      <c r="J20" s="13">
-        <v>233</v>
-      </c>
-      <c r="K20" s="14"/>
-      <c r="L20" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="M20" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="N20" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="O20" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="P20" s="13" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16">
-      <c r="A21" s="12">
-        <v>45749</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>390</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>391</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>392</v>
-      </c>
-      <c r="H21" s="13">
-        <v>1438</v>
-      </c>
-      <c r="I21" s="8" t="s">
-        <v>393</v>
-      </c>
-      <c r="J21" s="13">
-        <v>155</v>
-      </c>
-      <c r="K21" s="14">
-        <v>4.4444444444444398E-2</v>
-      </c>
-      <c r="L21" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="M21" s="13" t="s">
-        <v>394</v>
-      </c>
-      <c r="N21" s="16">
-        <v>57</v>
-      </c>
-      <c r="O21" s="8" t="s">
-        <v>395</v>
-      </c>
-      <c r="P21" s="8" t="s">
-        <v>396</v>
-      </c>
+      <c r="P21" s="26"/>
     </row>
     <row r="22" spans="1:16">
       <c r="A22" s="12">
-        <v>45749</v>
+        <v>45758</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>6</v>
+        <v>295</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="G22" s="13" t="s">
-        <v>6</v>
+        <v>295</v>
       </c>
       <c r="H22" s="13">
-        <v>150.72999999999999</v>
+        <v>233</v>
       </c>
       <c r="I22" s="13" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="J22" s="13">
-        <v>150.72999999999999</v>
-      </c>
-      <c r="K22" s="14">
-        <v>0.26554398148148101</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="K22" s="14"/>
       <c r="L22" s="15" t="s">
         <v>1</v>
       </c>
@@ -12544,212 +12613,212 @@
         <v>1</v>
       </c>
       <c r="P22" s="13" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
     </row>
     <row r="23" spans="1:16">
       <c r="A23" s="12">
-        <v>45711</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>305</v>
+        <v>45749</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>389</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23" s="13" t="s">
-        <v>306</v>
-      </c>
-      <c r="F23" s="13" t="s">
-        <v>301</v>
-      </c>
-      <c r="G23" s="13" t="s">
-        <v>307</v>
+        <v>3</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>391</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>392</v>
       </c>
       <c r="H23" s="13">
-        <v>1179</v>
+        <v>1438</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="J23" s="13">
-        <v>1179</v>
+        <v>155</v>
       </c>
       <c r="K23" s="14">
-        <v>6.6666666666666693E-2</v>
+        <v>4.4444444444444398E-2</v>
       </c>
       <c r="L23" s="15" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="M23" s="13" t="s">
-        <v>10</v>
+        <v>394</v>
       </c>
       <c r="N23" s="16">
-        <v>490</v>
-      </c>
-      <c r="O23" s="13" t="s">
-        <v>308</v>
-      </c>
-      <c r="P23" s="13" t="s">
-        <v>309</v>
+        <v>57</v>
+      </c>
+      <c r="O23" s="8" t="s">
+        <v>395</v>
+      </c>
+      <c r="P23" s="8" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="24" spans="1:16">
       <c r="A24" s="12">
-        <v>45709</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="C24" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>391</v>
-      </c>
-      <c r="F24" s="8" t="s">
-        <v>398</v>
-      </c>
-      <c r="G24" s="8" t="s">
-        <v>399</v>
+        <v>45749</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>301</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>302</v>
+      </c>
+      <c r="G24" s="13" t="s">
+        <v>6</v>
       </c>
       <c r="H24" s="13">
-        <v>1662</v>
-      </c>
-      <c r="I24" s="8" t="s">
-        <v>400</v>
+        <v>150.72999999999999</v>
+      </c>
+      <c r="I24" s="13" t="s">
+        <v>303</v>
       </c>
       <c r="J24" s="13">
-        <v>1503</v>
+        <v>150.72999999999999</v>
       </c>
       <c r="K24" s="14">
-        <v>0.422916666666667</v>
+        <v>0.26554398148148101</v>
       </c>
       <c r="L24" s="15" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="M24" s="13" t="s">
-        <v>401</v>
-      </c>
-      <c r="N24" s="16">
-        <v>770</v>
-      </c>
-      <c r="O24" s="8" t="s">
-        <v>402</v>
+        <v>1</v>
+      </c>
+      <c r="N24" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="O24" s="13" t="s">
+        <v>1</v>
       </c>
       <c r="P24" s="13" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
     </row>
     <row r="25" spans="1:16">
       <c r="A25" s="12">
-        <v>45627</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>389</v>
+        <v>45711</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>305</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>391</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>403</v>
-      </c>
-      <c r="G25" s="8" t="s">
-        <v>392</v>
+        <v>8</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>306</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>301</v>
+      </c>
+      <c r="G25" s="13" t="s">
+        <v>307</v>
       </c>
       <c r="H25" s="13">
-        <v>891</v>
+        <v>1179</v>
       </c>
       <c r="I25" s="8" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="J25" s="13">
-        <v>159</v>
+        <v>1179</v>
       </c>
       <c r="K25" s="14">
-        <v>4.8611111111111098E-2</v>
+        <v>6.6666666666666693E-2</v>
       </c>
       <c r="L25" s="15" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="M25" s="13" t="s">
-        <v>405</v>
+        <v>10</v>
       </c>
       <c r="N25" s="16">
-        <v>59</v>
-      </c>
-      <c r="O25" s="8" t="s">
-        <v>395</v>
-      </c>
-      <c r="P25" s="8" t="s">
-        <v>406</v>
+        <v>490</v>
+      </c>
+      <c r="O25" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="P25" s="13" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="26" spans="1:16">
       <c r="A26" s="12">
-        <v>45625</v>
+        <v>45709</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="C26" s="13" t="s">
-        <v>17</v>
+      <c r="C26" s="17" t="s">
+        <v>11</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>407</v>
+        <v>391</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="H26" s="13">
-        <v>159</v>
+        <v>1662</v>
       </c>
       <c r="I26" s="8" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="J26" s="13">
-        <v>159</v>
-      </c>
-      <c r="K26" s="14" t="s">
-        <v>348</v>
+        <v>1503</v>
+      </c>
+      <c r="K26" s="14">
+        <v>0.422916666666667</v>
       </c>
       <c r="L26" s="15" t="s">
-        <v>410</v>
+        <v>13</v>
       </c>
       <c r="M26" s="13" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="N26" s="16">
-        <v>80</v>
+        <v>770</v>
       </c>
       <c r="O26" s="8" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="P26" s="13" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="27" spans="1:16">
       <c r="A27" s="12">
-        <v>45606</v>
+        <v>45627</v>
       </c>
       <c r="B27" s="7" t="s">
         <v>389</v>
@@ -12785,7 +12854,7 @@
         <v>16</v>
       </c>
       <c r="M27" s="13" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="N27" s="16">
         <v>59</v>
@@ -12793,35 +12862,37 @@
       <c r="O27" s="8" t="s">
         <v>395</v>
       </c>
-      <c r="P27" s="13"/>
+      <c r="P27" s="8" t="s">
+        <v>406</v>
+      </c>
     </row>
     <row r="28" spans="1:16">
       <c r="A28" s="12">
-        <v>45605</v>
+        <v>45625</v>
       </c>
       <c r="B28" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="C28" s="17" t="s">
-        <v>19</v>
+      <c r="C28" s="13" t="s">
+        <v>17</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>415</v>
+        <v>391</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>392</v>
+        <v>408</v>
       </c>
       <c r="H28" s="13">
-        <v>1084</v>
+        <v>159</v>
       </c>
       <c r="I28" s="8" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="J28" s="13">
         <v>159</v>
@@ -12830,79 +12901,77 @@
         <v>348</v>
       </c>
       <c r="L28" s="15" t="s">
-        <v>21</v>
+        <v>410</v>
       </c>
       <c r="M28" s="13" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="N28" s="16">
-        <v>9</v>
+        <v>80</v>
       </c>
       <c r="O28" s="8" t="s">
         <v>412</v>
       </c>
-      <c r="P28" s="8" t="s">
-        <v>417</v>
+      <c r="P28" s="13" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="29" spans="1:16">
       <c r="A29" s="12">
-        <v>45605</v>
+        <v>45606</v>
       </c>
       <c r="B29" s="7" t="s">
         <v>389</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>418</v>
+        <v>391</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>419</v>
+        <v>403</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="H29" s="13">
-        <v>780</v>
+        <v>891</v>
       </c>
       <c r="I29" s="8" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="J29" s="13">
         <v>159</v>
       </c>
       <c r="K29" s="14">
-        <v>4.1666666666666699E-2</v>
+        <v>4.8611111111111098E-2</v>
       </c>
       <c r="L29" s="15" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="M29" s="13" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="N29" s="16">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="O29" s="8" t="s">
-        <v>412</v>
-      </c>
-      <c r="P29" s="13" t="s">
-        <v>312</v>
-      </c>
+        <v>395</v>
+      </c>
+      <c r="P29" s="13"/>
     </row>
     <row r="30" spans="1:16">
       <c r="A30" s="12">
-        <v>45591</v>
+        <v>45605</v>
       </c>
       <c r="B30" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="C30" s="17" t="s">
         <v>19</v>
       </c>
       <c r="D30" s="15" t="s">
@@ -12930,43 +12999,45 @@
         <v>348</v>
       </c>
       <c r="L30" s="15" t="s">
-        <v>421</v>
+        <v>21</v>
       </c>
       <c r="M30" s="13" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="N30" s="16">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="O30" s="8" t="s">
         <v>412</v>
       </c>
-      <c r="P30" s="13"/>
+      <c r="P30" s="8" t="s">
+        <v>417</v>
+      </c>
     </row>
     <row r="31" spans="1:16">
       <c r="A31" s="12">
-        <v>45590</v>
+        <v>45605</v>
       </c>
       <c r="B31" s="7" t="s">
         <v>389</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>407</v>
+        <v>418</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>391</v>
+        <v>419</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="H31" s="13">
-        <v>159</v>
+        <v>780</v>
       </c>
       <c r="I31" s="8" t="s">
         <v>409</v>
@@ -12974,384 +13045,410 @@
       <c r="J31" s="13">
         <v>159</v>
       </c>
-      <c r="K31" s="14" t="s">
-        <v>348</v>
+      <c r="K31" s="14">
+        <v>4.1666666666666699E-2</v>
       </c>
       <c r="L31" s="15" t="s">
-        <v>410</v>
+        <v>24</v>
       </c>
       <c r="M31" s="13" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="N31" s="16">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="O31" s="8" t="s">
         <v>412</v>
       </c>
       <c r="P31" s="13" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="32" spans="1:16">
       <c r="A32" s="12">
-        <v>45508</v>
+        <v>45591</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>424</v>
+        <v>389</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>425</v>
+        <v>414</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>426</v>
+        <v>415</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>427</v>
+        <v>392</v>
       </c>
       <c r="H32" s="13">
-        <v>1538</v>
+        <v>1084</v>
       </c>
       <c r="I32" s="8" t="s">
-        <v>428</v>
+        <v>404</v>
       </c>
       <c r="J32" s="13">
-        <v>1538</v>
-      </c>
-      <c r="K32" s="14">
-        <v>8.6111111111111097E-2</v>
+        <v>159</v>
+      </c>
+      <c r="K32" s="14" t="s">
+        <v>348</v>
       </c>
       <c r="L32" s="15" t="s">
-        <v>27</v>
+        <v>421</v>
       </c>
       <c r="M32" s="13" t="s">
-        <v>28</v>
+        <v>422</v>
       </c>
       <c r="N32" s="16">
-        <v>1330</v>
+        <v>59</v>
       </c>
       <c r="O32" s="8" t="s">
-        <v>429</v>
+        <v>412</v>
       </c>
       <c r="P32" s="13"/>
     </row>
     <row r="33" spans="1:16">
       <c r="A33" s="12">
-        <v>45505</v>
+        <v>45590</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>424</v>
+        <v>389</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D33" s="15" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>426</v>
+        <v>407</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>425</v>
+        <v>391</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>430</v>
+        <v>408</v>
       </c>
       <c r="H33" s="13">
-        <v>1538</v>
+        <v>159</v>
       </c>
       <c r="I33" s="8" t="s">
-        <v>431</v>
+        <v>409</v>
       </c>
       <c r="J33" s="13">
-        <v>1538</v>
-      </c>
-      <c r="K33" s="14">
-        <v>8.4722222222222199E-2</v>
+        <v>159</v>
+      </c>
+      <c r="K33" s="14" t="s">
+        <v>348</v>
       </c>
       <c r="L33" s="15" t="s">
-        <v>31</v>
+        <v>410</v>
       </c>
       <c r="M33" s="13" t="s">
-        <v>32</v>
+        <v>423</v>
       </c>
       <c r="N33" s="16">
-        <v>1510</v>
+        <v>80</v>
       </c>
       <c r="O33" s="8" t="s">
-        <v>432</v>
-      </c>
-      <c r="P33" s="13"/>
+        <v>412</v>
+      </c>
+      <c r="P33" s="13" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="34" spans="1:16">
       <c r="A34" s="12">
-        <v>45481</v>
+        <v>45508</v>
       </c>
       <c r="B34" s="7" t="s">
         <v>424</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D34" s="15" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="F34" s="8" t="s">
         <v>426</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="H34" s="13">
-        <v>3649</v>
+        <v>1538</v>
       </c>
       <c r="I34" s="8" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="J34" s="13">
-        <v>3649</v>
+        <v>1538</v>
       </c>
       <c r="K34" s="14">
-        <v>0.204166666666667</v>
+        <v>8.6111111111111097E-2</v>
       </c>
       <c r="L34" s="15" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="M34" s="13" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="N34" s="16">
-        <v>1043</v>
-      </c>
-      <c r="O34" s="13" t="s">
-        <v>37</v>
+        <v>1330</v>
+      </c>
+      <c r="O34" s="8" t="s">
+        <v>429</v>
       </c>
       <c r="P34" s="13"/>
     </row>
     <row r="35" spans="1:16">
       <c r="A35" s="12">
-        <v>45479</v>
+        <v>45505</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>436</v>
+        <v>424</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="D35" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="E35" s="13" t="s">
-        <v>40</v>
+        <v>30</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>426</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="G35" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="H35" s="13"/>
+        <v>425</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>430</v>
+      </c>
+      <c r="H35" s="13">
+        <v>1538</v>
+      </c>
       <c r="I35" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="J35" s="13"/>
-      <c r="K35" s="14"/>
-      <c r="L35" s="15"/>
-      <c r="M35" s="13"/>
-      <c r="N35" s="16"/>
-      <c r="O35" s="15" t="s">
-        <v>44</v>
+        <v>431</v>
+      </c>
+      <c r="J35" s="13">
+        <v>1538</v>
+      </c>
+      <c r="K35" s="14">
+        <v>8.4722222222222199E-2</v>
+      </c>
+      <c r="L35" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="M35" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="N35" s="16">
+        <v>1510</v>
+      </c>
+      <c r="O35" s="8" t="s">
+        <v>432</v>
       </c>
       <c r="P35" s="13"/>
     </row>
     <row r="36" spans="1:16">
       <c r="A36" s="12">
-        <v>45476</v>
+        <v>45481</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>436</v>
-      </c>
-      <c r="C36" s="17" t="s">
-        <v>45</v>
+        <v>424</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>33</v>
       </c>
       <c r="D36" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="E36" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="F36" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="G36" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="H36" s="13"/>
+        <v>34</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>433</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>426</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>434</v>
+      </c>
+      <c r="H36" s="13">
+        <v>3649</v>
+      </c>
       <c r="I36" s="8" t="s">
-        <v>314</v>
-      </c>
-      <c r="J36" s="13"/>
-      <c r="K36" s="14"/>
+        <v>435</v>
+      </c>
+      <c r="J36" s="13">
+        <v>3649</v>
+      </c>
+      <c r="K36" s="14">
+        <v>0.204166666666667</v>
+      </c>
       <c r="L36" s="15" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="M36" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="N36" s="16" t="s">
-        <v>51</v>
+        <v>36</v>
+      </c>
+      <c r="N36" s="16">
+        <v>1043</v>
       </c>
       <c r="O36" s="13" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="P36" s="13"/>
     </row>
     <row r="37" spans="1:16">
       <c r="A37" s="12">
-        <v>45474</v>
+        <v>45479</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="C37" s="17" t="s">
-        <v>53</v>
+        <v>436</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>38</v>
       </c>
       <c r="D37" s="15" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="E37" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="F37" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="G37" s="13" t="s">
-        <v>57</v>
+        <v>40</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G37" s="15" t="s">
+        <v>42</v>
       </c>
       <c r="H37" s="13"/>
-      <c r="I37" s="13" t="s">
-        <v>58</v>
+      <c r="I37" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="J37" s="13"/>
       <c r="K37" s="14"/>
       <c r="L37" s="15"/>
       <c r="M37" s="13"/>
       <c r="N37" s="16"/>
-      <c r="O37" s="13"/>
+      <c r="O37" s="15" t="s">
+        <v>44</v>
+      </c>
       <c r="P37" s="13"/>
     </row>
     <row r="38" spans="1:16">
       <c r="A38" s="12">
-        <v>45474</v>
+        <v>45476</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="C38" s="13" t="s">
-        <v>59</v>
+        <v>436</v>
+      </c>
+      <c r="C38" s="17" t="s">
+        <v>45</v>
       </c>
       <c r="D38" s="15" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="E38" s="13" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="F38" s="13" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="G38" s="13" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="H38" s="13"/>
-      <c r="I38" s="13" t="s">
-        <v>63</v>
+      <c r="I38" s="8" t="s">
+        <v>314</v>
       </c>
       <c r="J38" s="13"/>
       <c r="K38" s="14"/>
       <c r="L38" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="M38" s="13"/>
-      <c r="N38" s="16"/>
-      <c r="O38" s="13"/>
+        <v>49</v>
+      </c>
+      <c r="M38" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="N38" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="O38" s="13" t="s">
+        <v>52</v>
+      </c>
       <c r="P38" s="13"/>
     </row>
     <row r="39" spans="1:16">
       <c r="A39" s="12">
-        <v>45471</v>
+        <v>45474</v>
       </c>
       <c r="B39" s="7" t="s">
         <v>389</v>
       </c>
       <c r="C39" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="D39" s="13" t="s">
-        <v>66</v>
+        <v>53</v>
+      </c>
+      <c r="D39" s="15" t="s">
+        <v>54</v>
       </c>
       <c r="E39" s="13" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="F39" s="13" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="G39" s="13" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="H39" s="13"/>
       <c r="I39" s="13" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="J39" s="13"/>
       <c r="K39" s="14"/>
       <c r="L39" s="15"/>
       <c r="M39" s="13"/>
-      <c r="N39" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="O39" s="13" t="s">
-        <v>70</v>
-      </c>
+      <c r="N39" s="16"/>
+      <c r="O39" s="13"/>
       <c r="P39" s="13"/>
     </row>
     <row r="40" spans="1:16">
       <c r="A40" s="12">
-        <v>45470</v>
+        <v>45474</v>
       </c>
       <c r="B40" s="7" t="s">
         <v>389</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="D40" s="15" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="E40" s="13" t="s">
-        <v>293</v>
+        <v>61</v>
       </c>
       <c r="F40" s="13" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="G40" s="13" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="H40" s="13"/>
       <c r="I40" s="13" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="J40" s="13"/>
       <c r="K40" s="14"/>
-      <c r="L40" s="15"/>
+      <c r="L40" s="15" t="s">
+        <v>64</v>
+      </c>
       <c r="M40" s="13"/>
       <c r="N40" s="16"/>
       <c r="O40" s="13"/>
@@ -13359,1527 +13456,1503 @@
     </row>
     <row r="41" spans="1:16">
       <c r="A41" s="12">
-        <v>45466</v>
+        <v>45471</v>
       </c>
       <c r="B41" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="C41" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="D41" s="15" t="s">
-        <v>77</v>
+      <c r="C41" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="D41" s="13" t="s">
+        <v>66</v>
       </c>
       <c r="E41" s="13" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="F41" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="G41" s="15" t="s">
-        <v>79</v>
+        <v>61</v>
+      </c>
+      <c r="G41" s="13" t="s">
+        <v>66</v>
       </c>
       <c r="H41" s="13"/>
-      <c r="I41" s="8" t="s">
-        <v>315</v>
+      <c r="I41" s="13" t="s">
+        <v>68</v>
       </c>
       <c r="J41" s="13"/>
-      <c r="K41" s="14">
-        <v>0.53472222222222199</v>
-      </c>
-      <c r="L41" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="M41" s="13" t="s">
-        <v>437</v>
-      </c>
-      <c r="N41" s="16">
-        <v>188</v>
+      <c r="K41" s="14"/>
+      <c r="L41" s="15"/>
+      <c r="M41" s="13"/>
+      <c r="N41" s="16" t="s">
+        <v>69</v>
       </c>
       <c r="O41" s="13" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="P41" s="13"/>
     </row>
     <row r="42" spans="1:16">
       <c r="A42" s="12">
-        <v>45463</v>
+        <v>45470</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>436</v>
+        <v>389</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="D42" s="15" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="E42" s="13" t="s">
-        <v>83</v>
+        <v>293</v>
       </c>
       <c r="F42" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="G42" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="H42" s="13">
-        <v>182</v>
-      </c>
-      <c r="I42" s="8" t="s">
-        <v>316</v>
-      </c>
-      <c r="J42" s="13">
-        <v>182</v>
-      </c>
-      <c r="K42" s="14">
-        <v>0.13888888888888901</v>
-      </c>
-      <c r="L42" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="M42" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="N42" s="16">
-        <v>61</v>
-      </c>
-      <c r="O42" s="13" t="s">
-        <v>88</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="G42" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="H42" s="13"/>
+      <c r="I42" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="J42" s="13"/>
+      <c r="K42" s="14"/>
+      <c r="L42" s="15"/>
+      <c r="M42" s="13"/>
+      <c r="N42" s="16"/>
+      <c r="O42" s="13"/>
       <c r="P42" s="13"/>
     </row>
     <row r="43" spans="1:16">
       <c r="A43" s="12">
-        <v>45462</v>
-      </c>
-      <c r="B43" s="12" t="s">
-        <v>294</v>
-      </c>
-      <c r="C43" s="17" t="s">
-        <v>89</v>
+        <v>45466</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>76</v>
       </c>
       <c r="D43" s="15" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="E43" s="13" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="F43" s="13" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="G43" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="H43" s="13">
-        <v>103</v>
-      </c>
-      <c r="I43" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="J43" s="13">
-        <v>103</v>
-      </c>
-      <c r="K43" s="14" t="s">
-        <v>349</v>
-      </c>
-      <c r="L43" s="15"/>
-      <c r="M43" s="13"/>
-      <c r="N43" s="16"/>
-      <c r="O43" s="13"/>
-      <c r="P43" s="13" t="s">
-        <v>317</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="H43" s="13"/>
+      <c r="I43" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="J43" s="13"/>
+      <c r="K43" s="14">
+        <v>0.53472222222222199</v>
+      </c>
+      <c r="L43" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="M43" s="13" t="s">
+        <v>437</v>
+      </c>
+      <c r="N43" s="16">
+        <v>188</v>
+      </c>
+      <c r="O43" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="P43" s="13"/>
     </row>
     <row r="44" spans="1:16">
       <c r="A44" s="12">
-        <v>45462</v>
-      </c>
-      <c r="B44" s="12" t="s">
-        <v>318</v>
-      </c>
-      <c r="C44" s="17" t="s">
-        <v>93</v>
+        <v>45463</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>81</v>
       </c>
       <c r="D44" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="E44" s="18" t="s">
-        <v>95</v>
+        <v>82</v>
+      </c>
+      <c r="E44" s="13" t="s">
+        <v>83</v>
       </c>
       <c r="F44" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="G44" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="H44" s="13" t="s">
-        <v>1</v>
+        <v>84</v>
+      </c>
+      <c r="G44" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="H44" s="13">
+        <v>182</v>
       </c>
       <c r="I44" s="8" t="s">
-        <v>319</v>
-      </c>
-      <c r="J44" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="K44" s="14"/>
+        <v>316</v>
+      </c>
+      <c r="J44" s="13">
+        <v>182</v>
+      </c>
+      <c r="K44" s="14">
+        <v>0.13888888888888901</v>
+      </c>
       <c r="L44" s="15" t="s">
-        <v>1</v>
+        <v>86</v>
       </c>
       <c r="M44" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="N44" s="16" t="s">
-        <v>1</v>
+        <v>87</v>
+      </c>
+      <c r="N44" s="16">
+        <v>61</v>
       </c>
       <c r="O44" s="13" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="P44" s="13"/>
     </row>
     <row r="45" spans="1:16">
       <c r="A45" s="12">
-        <v>45461</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>438</v>
+        <v>45462</v>
+      </c>
+      <c r="B45" s="12" t="s">
+        <v>294</v>
       </c>
       <c r="C45" s="17" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="D45" s="15" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E45" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="F45" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="G45" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="H45" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="I45" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="J45" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="K45" s="14"/>
-      <c r="L45" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="M45" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="N45" s="16">
-        <v>122</v>
-      </c>
-      <c r="O45" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="P45" s="8" t="s">
-        <v>439</v>
+        <v>91</v>
+      </c>
+      <c r="F45" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="G45" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="H45" s="13">
+        <v>103</v>
+      </c>
+      <c r="I45" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="J45" s="13">
+        <v>103</v>
+      </c>
+      <c r="K45" s="14" t="s">
+        <v>349</v>
+      </c>
+      <c r="L45" s="15"/>
+      <c r="M45" s="13"/>
+      <c r="N45" s="16"/>
+      <c r="O45" s="13"/>
+      <c r="P45" s="13" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="46" spans="1:16">
       <c r="A46" s="12">
-        <v>45458</v>
-      </c>
-      <c r="B46" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="C46" s="13" t="s">
-        <v>102</v>
+        <v>45462</v>
+      </c>
+      <c r="B46" s="12" t="s">
+        <v>318</v>
+      </c>
+      <c r="C46" s="17" t="s">
+        <v>93</v>
       </c>
       <c r="D46" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="E46" s="8" t="s">
-        <v>440</v>
-      </c>
-      <c r="F46" s="8" t="s">
-        <v>441</v>
-      </c>
-      <c r="G46" s="8" t="s">
-        <v>442</v>
-      </c>
-      <c r="H46" s="13">
-        <v>316</v>
+        <v>94</v>
+      </c>
+      <c r="E46" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="F46" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="G46" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="H46" s="13" t="s">
+        <v>1</v>
       </c>
       <c r="I46" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="J46" s="13">
-        <v>316</v>
-      </c>
-      <c r="K46" s="14">
-        <v>0.209722222222222</v>
-      </c>
-      <c r="L46" s="9" t="s">
-        <v>444</v>
+        <v>319</v>
+      </c>
+      <c r="J46" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="K46" s="14"/>
+      <c r="L46" s="15" t="s">
+        <v>1</v>
       </c>
       <c r="M46" s="13" t="s">
-        <v>445</v>
-      </c>
-      <c r="N46" s="16">
-        <v>174</v>
-      </c>
-      <c r="O46" s="8" t="s">
-        <v>446</v>
+        <v>1</v>
+      </c>
+      <c r="N46" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="O46" s="13" t="s">
+        <v>98</v>
       </c>
       <c r="P46" s="13"/>
     </row>
     <row r="47" spans="1:16">
       <c r="A47" s="12">
-        <v>45453</v>
+        <v>45461</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>424</v>
+        <v>438</v>
       </c>
       <c r="C47" s="17" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D47" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="E47" s="8" t="s">
-        <v>426</v>
-      </c>
-      <c r="F47" s="8" t="s">
-        <v>447</v>
-      </c>
-      <c r="G47" s="8" t="s">
-        <v>448</v>
-      </c>
-      <c r="H47" s="13">
-        <v>2310</v>
+        <v>94</v>
+      </c>
+      <c r="E47" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="F47" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="G47" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="H47" s="13" t="s">
+        <v>1</v>
       </c>
       <c r="I47" s="8" t="s">
-        <v>449</v>
-      </c>
-      <c r="J47" s="13">
-        <v>2310</v>
-      </c>
-      <c r="K47" s="14">
-        <v>0.19097222222222199</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="J47" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="K47" s="14"/>
       <c r="L47" s="15" t="s">
-        <v>106</v>
+        <v>1</v>
       </c>
       <c r="M47" s="13" t="s">
-        <v>107</v>
+        <v>1</v>
       </c>
       <c r="N47" s="16">
-        <v>400</v>
-      </c>
-      <c r="O47" s="8" t="s">
-        <v>450</v>
+        <v>122</v>
+      </c>
+      <c r="O47" s="13" t="s">
+        <v>98</v>
       </c>
       <c r="P47" s="8" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
     </row>
     <row r="48" spans="1:16">
       <c r="A48" s="12">
-        <v>45439</v>
+        <v>45458</v>
       </c>
       <c r="B48" s="7" t="s">
         <v>389</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D48" s="15" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>453</v>
-      </c>
-      <c r="G48" s="13" t="s">
-        <v>320</v>
+        <v>441</v>
+      </c>
+      <c r="G48" s="8" t="s">
+        <v>442</v>
       </c>
       <c r="H48" s="13">
-        <v>1586</v>
+        <v>316</v>
       </c>
       <c r="I48" s="8" t="s">
-        <v>454</v>
+        <v>443</v>
       </c>
       <c r="J48" s="13">
-        <v>1279</v>
+        <v>316</v>
       </c>
       <c r="K48" s="14">
-        <v>0.25277777777777799</v>
-      </c>
-      <c r="L48" s="15" t="s">
-        <v>455</v>
+        <v>0.209722222222222</v>
+      </c>
+      <c r="L48" s="9" t="s">
+        <v>444</v>
       </c>
       <c r="M48" s="13" t="s">
-        <v>456</v>
+        <v>445</v>
       </c>
       <c r="N48" s="16">
-        <v>623</v>
+        <v>174</v>
       </c>
       <c r="O48" s="8" t="s">
-        <v>412</v>
-      </c>
-      <c r="P48" s="8" t="s">
-        <v>457</v>
-      </c>
+        <v>446</v>
+      </c>
+      <c r="P48" s="13"/>
     </row>
     <row r="49" spans="1:16">
       <c r="A49" s="12">
-        <v>45438</v>
+        <v>45453</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="C49" s="13" t="s">
-        <v>110</v>
+        <v>424</v>
+      </c>
+      <c r="C49" s="17" t="s">
+        <v>104</v>
       </c>
       <c r="D49" s="15" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>452</v>
+        <v>426</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>458</v>
+        <v>447</v>
       </c>
       <c r="G49" s="8" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="H49" s="13">
-        <v>1416</v>
+        <v>2310</v>
       </c>
       <c r="I49" s="8" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="J49" s="13">
-        <v>1277</v>
+        <v>2310</v>
       </c>
       <c r="K49" s="14">
-        <v>0.2</v>
+        <v>0.19097222222222199</v>
       </c>
       <c r="L49" s="15" t="s">
-        <v>461</v>
+        <v>106</v>
       </c>
       <c r="M49" s="13" t="s">
-        <v>462</v>
+        <v>107</v>
       </c>
       <c r="N49" s="16">
-        <v>10</v>
+        <v>400</v>
       </c>
       <c r="O49" s="8" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
       <c r="P49" s="8" t="s">
-        <v>464</v>
+        <v>451</v>
       </c>
     </row>
     <row r="50" spans="1:16">
       <c r="A50" s="12">
-        <v>45438</v>
+        <v>45439</v>
       </c>
       <c r="B50" s="7" t="s">
         <v>389</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D50" s="15" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E50" s="8" t="s">
         <v>452</v>
       </c>
       <c r="F50" s="8" t="s">
-        <v>458</v>
-      </c>
-      <c r="G50" s="8" t="s">
-        <v>459</v>
+        <v>453</v>
+      </c>
+      <c r="G50" s="13" t="s">
+        <v>320</v>
       </c>
       <c r="H50" s="13">
-        <v>1416</v>
+        <v>1586</v>
       </c>
       <c r="I50" s="8" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="J50" s="13">
-        <v>1277</v>
+        <v>1279</v>
       </c>
       <c r="K50" s="14">
-        <v>0.2</v>
+        <v>0.25277777777777799</v>
       </c>
       <c r="L50" s="15" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="M50" s="13" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="N50" s="16">
-        <v>93.5</v>
+        <v>623</v>
       </c>
       <c r="O50" s="8" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="P50" s="8" t="s">
-        <v>417</v>
+        <v>457</v>
       </c>
     </row>
     <row r="51" spans="1:16">
       <c r="A51" s="12">
-        <v>45434</v>
+        <v>45438</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>424</v>
+        <v>389</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D51" s="15" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>426</v>
+        <v>452</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="G51" s="8" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="H51" s="13">
-        <v>1200</v>
+        <v>1416</v>
       </c>
       <c r="I51" s="8" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="J51" s="13">
-        <v>1200</v>
+        <v>1277</v>
       </c>
       <c r="K51" s="14">
-        <v>7.7083333333333295E-2</v>
+        <v>0.2</v>
       </c>
       <c r="L51" s="15" t="s">
-        <v>114</v>
+        <v>461</v>
       </c>
       <c r="M51" s="13" t="s">
-        <v>115</v>
+        <v>462</v>
       </c>
       <c r="N51" s="16">
-        <v>460</v>
+        <v>10</v>
       </c>
       <c r="O51" s="8" t="s">
-        <v>468</v>
-      </c>
-      <c r="P51" s="13" t="s">
-        <v>350</v>
+        <v>463</v>
+      </c>
+      <c r="P51" s="8" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="52" spans="1:16">
       <c r="A52" s="12">
-        <v>45341</v>
+        <v>45438</v>
       </c>
       <c r="B52" s="7" t="s">
         <v>389</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D52" s="15" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="E52" s="8" t="s">
         <v>452</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>407</v>
+        <v>458</v>
       </c>
       <c r="G52" s="8" t="s">
-        <v>399</v>
+        <v>459</v>
       </c>
       <c r="H52" s="13">
-        <v>1279</v>
+        <v>1416</v>
       </c>
       <c r="I52" s="8" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="J52" s="13">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="K52" s="14">
-        <v>0.179166666666667</v>
+        <v>0.2</v>
       </c>
       <c r="L52" s="15" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="M52" s="13" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="N52" s="16">
-        <v>506</v>
+        <v>93.5</v>
       </c>
       <c r="O52" s="8" t="s">
         <v>463</v>
       </c>
-      <c r="P52" s="13" t="s">
-        <v>351</v>
+      <c r="P52" s="8" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="53" spans="1:16">
       <c r="A53" s="12">
-        <v>45340</v>
+        <v>45434</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>389</v>
+        <v>424</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D53" s="15" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>407</v>
+        <v>426</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>452</v>
+        <v>465</v>
       </c>
       <c r="G53" s="8" t="s">
-        <v>399</v>
+        <v>466</v>
       </c>
       <c r="H53" s="13">
-        <v>1279</v>
+        <v>1200</v>
       </c>
       <c r="I53" s="8" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="J53" s="13">
-        <v>1279</v>
+        <v>1200</v>
       </c>
       <c r="K53" s="14">
-        <v>0.23958333333333301</v>
+        <v>7.7083333333333295E-2</v>
       </c>
       <c r="L53" s="15" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="M53" s="13" t="s">
-        <v>394</v>
+        <v>115</v>
       </c>
       <c r="N53" s="16">
-        <v>506</v>
+        <v>460</v>
       </c>
       <c r="O53" s="8" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="P53" s="13" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="54" spans="1:16">
       <c r="A54" s="12">
-        <v>45271</v>
+        <v>45341</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>424</v>
+        <v>389</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D54" s="15" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>472</v>
+        <v>452</v>
       </c>
       <c r="F54" s="8" t="s">
-        <v>426</v>
+        <v>407</v>
       </c>
       <c r="G54" s="8" t="s">
-        <v>466</v>
+        <v>399</v>
       </c>
       <c r="H54" s="13">
-        <v>1099</v>
+        <v>1279</v>
       </c>
       <c r="I54" s="8" t="s">
-        <v>473</v>
+        <v>454</v>
       </c>
       <c r="J54" s="13">
-        <v>1099</v>
+        <v>1279</v>
       </c>
       <c r="K54" s="14">
-        <v>7.0833333333333304E-2</v>
+        <v>0.179166666666667</v>
       </c>
       <c r="L54" s="15" t="s">
-        <v>123</v>
+        <v>469</v>
       </c>
       <c r="M54" s="13" t="s">
-        <v>124</v>
+        <v>470</v>
       </c>
       <c r="N54" s="16">
-        <v>536</v>
+        <v>506</v>
       </c>
       <c r="O54" s="8" t="s">
-        <v>474</v>
-      </c>
-      <c r="P54" s="8" t="s">
-        <v>475</v>
+        <v>463</v>
+      </c>
+      <c r="P54" s="13" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="55" spans="1:16">
       <c r="A55" s="12">
-        <v>45268</v>
+        <v>45340</v>
       </c>
       <c r="B55" s="7" t="s">
         <v>389</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="D55" s="15" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>476</v>
+        <v>407</v>
       </c>
       <c r="F55" s="8" t="s">
-        <v>477</v>
+        <v>452</v>
       </c>
       <c r="G55" s="8" t="s">
-        <v>478</v>
+        <v>399</v>
       </c>
       <c r="H55" s="13">
-        <v>1598</v>
+        <v>1279</v>
       </c>
       <c r="I55" s="8" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="J55" s="13">
-        <v>1410</v>
-      </c>
-      <c r="K55" s="14" t="s">
-        <v>480</v>
+        <v>1279</v>
+      </c>
+      <c r="K55" s="14">
+        <v>0.23958333333333301</v>
       </c>
       <c r="L55" s="15" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="M55" s="13" t="s">
-        <v>481</v>
+        <v>394</v>
       </c>
       <c r="N55" s="16">
-        <v>296.5</v>
+        <v>506</v>
       </c>
       <c r="O55" s="8" t="s">
-        <v>402</v>
-      </c>
-      <c r="P55" s="8" t="s">
-        <v>482</v>
+        <v>463</v>
+      </c>
+      <c r="P55" s="13" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="56" spans="1:16">
       <c r="A56" s="12">
-        <v>45252</v>
+        <v>45271</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>389</v>
+        <v>424</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D56" s="15" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>452</v>
+        <v>472</v>
       </c>
       <c r="F56" s="8" t="s">
-        <v>483</v>
+        <v>426</v>
       </c>
       <c r="G56" s="8" t="s">
-        <v>408</v>
+        <v>466</v>
       </c>
       <c r="H56" s="13">
-        <v>1506</v>
+        <v>1099</v>
       </c>
       <c r="I56" s="8" t="s">
-        <v>454</v>
+        <v>473</v>
       </c>
       <c r="J56" s="13">
-        <v>1279</v>
+        <v>1099</v>
       </c>
       <c r="K56" s="14">
-        <v>0.24722222222222201</v>
+        <v>7.0833333333333304E-2</v>
       </c>
       <c r="L56" s="15" t="s">
-        <v>484</v>
+        <v>123</v>
       </c>
       <c r="M56" s="13" t="s">
-        <v>485</v>
+        <v>124</v>
       </c>
       <c r="N56" s="16">
-        <v>506</v>
+        <v>536</v>
       </c>
       <c r="O56" s="8" t="s">
-        <v>412</v>
-      </c>
-      <c r="P56" s="13" t="s">
-        <v>353</v>
+        <v>474</v>
+      </c>
+      <c r="P56" s="8" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="57" spans="1:16">
       <c r="A57" s="12">
-        <v>45236</v>
+        <v>45268</v>
       </c>
       <c r="B57" s="7" t="s">
         <v>389</v>
       </c>
       <c r="C57" s="13" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D57" s="15" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>391</v>
+        <v>476</v>
       </c>
       <c r="F57" s="8" t="s">
-        <v>452</v>
+        <v>477</v>
       </c>
       <c r="G57" s="8" t="s">
-        <v>399</v>
+        <v>478</v>
       </c>
       <c r="H57" s="13">
-        <v>1318</v>
+        <v>1598</v>
       </c>
       <c r="I57" s="8" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="J57" s="13">
-        <v>692</v>
-      </c>
-      <c r="K57" s="14">
-        <v>0.125694444444444</v>
+        <v>1410</v>
+      </c>
+      <c r="K57" s="14" t="s">
+        <v>480</v>
       </c>
       <c r="L57" s="15" t="s">
-        <v>487</v>
+        <v>107</v>
       </c>
       <c r="M57" s="13" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="N57" s="16">
-        <v>322</v>
+        <v>296.5</v>
       </c>
       <c r="O57" s="8" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="P57" s="8" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
     </row>
     <row r="58" spans="1:16">
       <c r="A58" s="12">
-        <v>45234</v>
+        <v>45252</v>
       </c>
       <c r="B58" s="7" t="s">
         <v>389</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D58" s="15" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="E58" s="8" t="s">
         <v>452</v>
       </c>
       <c r="F58" s="8" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="G58" s="8" t="s">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="H58" s="13">
-        <v>1416</v>
+        <v>1506</v>
       </c>
       <c r="I58" s="8" t="s">
-        <v>491</v>
+        <v>454</v>
       </c>
       <c r="J58" s="13">
-        <v>692</v>
+        <v>1279</v>
       </c>
       <c r="K58" s="14">
-        <v>9.7916666666666693E-2</v>
+        <v>0.24722222222222201</v>
       </c>
       <c r="L58" s="15" t="s">
-        <v>461</v>
+        <v>484</v>
       </c>
       <c r="M58" s="13" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="N58" s="16">
-        <v>350</v>
+        <v>506</v>
       </c>
       <c r="O58" s="8" t="s">
-        <v>463</v>
-      </c>
-      <c r="P58" s="8" t="s">
-        <v>493</v>
+        <v>412</v>
+      </c>
+      <c r="P58" s="13" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="59" spans="1:16">
       <c r="A59" s="12">
-        <v>45207</v>
+        <v>45236</v>
       </c>
       <c r="B59" s="7" t="s">
         <v>389</v>
       </c>
       <c r="C59" s="13" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D59" s="15" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E59" s="8" t="s">
-        <v>415</v>
+        <v>391</v>
       </c>
       <c r="F59" s="8" t="s">
         <v>452</v>
       </c>
       <c r="G59" s="8" t="s">
-        <v>494</v>
+        <v>399</v>
       </c>
       <c r="H59" s="13">
-        <v>1434</v>
+        <v>1318</v>
       </c>
       <c r="I59" s="8" t="s">
-        <v>495</v>
+        <v>486</v>
       </c>
       <c r="J59" s="13">
-        <v>1434</v>
+        <v>692</v>
       </c>
       <c r="K59" s="14">
-        <v>0.27638888888888902</v>
+        <v>0.125694444444444</v>
       </c>
       <c r="L59" s="15" t="s">
-        <v>134</v>
+        <v>487</v>
       </c>
       <c r="M59" s="13" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="N59" s="16">
-        <v>559</v>
+        <v>322</v>
       </c>
       <c r="O59" s="8" t="s">
         <v>412</v>
       </c>
-      <c r="P59" s="13" t="s">
-        <v>354</v>
+      <c r="P59" s="8" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="60" spans="1:16">
       <c r="A60" s="12">
-        <v>45200</v>
+        <v>45234</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>436</v>
+        <v>389</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="D60" s="8" t="s">
-        <v>497</v>
+        <v>131</v>
+      </c>
+      <c r="D60" s="15" t="s">
+        <v>111</v>
       </c>
       <c r="E60" s="8" t="s">
-        <v>498</v>
+        <v>452</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
       <c r="G60" s="8" t="s">
-        <v>497</v>
+        <v>399</v>
       </c>
       <c r="H60" s="13">
-        <v>246</v>
+        <v>1416</v>
       </c>
       <c r="I60" s="8" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="J60" s="13">
-        <v>246</v>
-      </c>
-      <c r="K60" s="14"/>
-      <c r="L60" s="15"/>
-      <c r="M60" s="13"/>
+        <v>692</v>
+      </c>
+      <c r="K60" s="14">
+        <v>9.7916666666666693E-2</v>
+      </c>
+      <c r="L60" s="15" t="s">
+        <v>461</v>
+      </c>
+      <c r="M60" s="13" t="s">
+        <v>492</v>
+      </c>
       <c r="N60" s="16">
-        <v>150</v>
-      </c>
-      <c r="O60" s="8"/>
-      <c r="P60" s="13" t="s">
-        <v>355</v>
+        <v>350</v>
+      </c>
+      <c r="O60" s="8" t="s">
+        <v>463</v>
+      </c>
+      <c r="P60" s="8" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="61" spans="1:16">
       <c r="A61" s="12">
-        <v>45199</v>
+        <v>45207</v>
       </c>
       <c r="B61" s="7" t="s">
         <v>389</v>
       </c>
       <c r="C61" s="13" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D61" s="15" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E61" s="8" t="s">
-        <v>501</v>
+        <v>415</v>
       </c>
       <c r="F61" s="8" t="s">
-        <v>498</v>
+        <v>452</v>
       </c>
       <c r="G61" s="8" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="H61" s="13">
-        <v>1463</v>
+        <v>1434</v>
       </c>
       <c r="I61" s="8" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="J61" s="13">
-        <v>1463</v>
+        <v>1434</v>
       </c>
       <c r="K61" s="14">
-        <v>0.78402777777777799</v>
+        <v>0.27638888888888902</v>
       </c>
       <c r="L61" s="15" t="s">
-        <v>356</v>
+        <v>134</v>
       </c>
       <c r="M61" s="13" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="N61" s="16">
-        <v>226.5</v>
+        <v>559</v>
       </c>
       <c r="O61" s="8" t="s">
         <v>412</v>
       </c>
       <c r="P61" s="13" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="62" spans="1:16">
       <c r="A62" s="12">
-        <v>45179</v>
+        <v>45200</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>389</v>
+        <v>436</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="D62" s="15" t="s">
-        <v>139</v>
+        <v>135</v>
+      </c>
+      <c r="D62" s="8" t="s">
+        <v>497</v>
       </c>
       <c r="E62" s="8" t="s">
         <v>498</v>
       </c>
       <c r="F62" s="8" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="G62" s="8" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="H62" s="13">
-        <v>1463</v>
+        <v>246</v>
       </c>
       <c r="I62" s="8" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="J62" s="13">
-        <v>1463</v>
-      </c>
-      <c r="K62" s="14">
-        <v>0.66805555555555496</v>
-      </c>
-      <c r="L62" s="15" t="s">
-        <v>357</v>
-      </c>
-      <c r="M62" s="13" t="s">
-        <v>507</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="K62" s="14"/>
+      <c r="L62" s="15"/>
+      <c r="M62" s="13"/>
       <c r="N62" s="16">
-        <v>476.5</v>
-      </c>
-      <c r="O62" s="8" t="s">
-        <v>463</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="O62" s="8"/>
       <c r="P62" s="13" t="s">
-        <v>508</v>
+        <v>355</v>
       </c>
     </row>
     <row r="63" spans="1:16">
       <c r="A63" s="12">
-        <v>45152</v>
+        <v>45199</v>
       </c>
       <c r="B63" s="7" t="s">
         <v>389</v>
       </c>
       <c r="C63" s="13" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D63" s="15" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="E63" s="8" t="s">
-        <v>452</v>
+        <v>501</v>
       </c>
       <c r="F63" s="8" t="s">
-        <v>391</v>
+        <v>498</v>
       </c>
       <c r="G63" s="8" t="s">
-        <v>399</v>
+        <v>502</v>
       </c>
       <c r="H63" s="13">
-        <v>1318</v>
+        <v>1463</v>
       </c>
       <c r="I63" s="8" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="J63" s="13">
-        <v>295</v>
+        <v>1463</v>
       </c>
       <c r="K63" s="14">
-        <v>4.7916666666666698E-2</v>
+        <v>0.78402777777777799</v>
       </c>
       <c r="L63" s="15" t="s">
-        <v>142</v>
+        <v>356</v>
       </c>
       <c r="M63" s="13" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="N63" s="16">
-        <v>153</v>
+        <v>226.5</v>
       </c>
       <c r="O63" s="8" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="P63" s="13" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="64" spans="1:16">
       <c r="A64" s="12">
-        <v>45152</v>
+        <v>45179</v>
       </c>
       <c r="B64" s="7" t="s">
         <v>389</v>
       </c>
       <c r="C64" s="13" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D64" s="15" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E64" s="8" t="s">
-        <v>452</v>
+        <v>498</v>
       </c>
       <c r="F64" s="8" t="s">
-        <v>391</v>
+        <v>501</v>
       </c>
       <c r="G64" s="8" t="s">
-        <v>399</v>
+        <v>505</v>
       </c>
       <c r="H64" s="13">
-        <v>1318</v>
+        <v>1463</v>
       </c>
       <c r="I64" s="8" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="J64" s="13">
-        <v>1023</v>
+        <v>1463</v>
       </c>
       <c r="K64" s="14">
-        <v>0.18333333333333299</v>
+        <v>0.66805555555555496</v>
       </c>
       <c r="L64" s="15" t="s">
-        <v>469</v>
+        <v>357</v>
       </c>
       <c r="M64" s="13" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="N64" s="16">
-        <v>400</v>
+        <v>476.5</v>
       </c>
       <c r="O64" s="8" t="s">
         <v>463</v>
       </c>
       <c r="P64" s="13" t="s">
-        <v>359</v>
+        <v>508</v>
       </c>
     </row>
     <row r="65" spans="1:16">
       <c r="A65" s="12">
-        <v>45143</v>
+        <v>45152</v>
       </c>
       <c r="B65" s="7" t="s">
         <v>389</v>
       </c>
       <c r="C65" s="13" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D65" s="15" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>415</v>
+        <v>452</v>
       </c>
       <c r="F65" s="8" t="s">
-        <v>452</v>
+        <v>391</v>
       </c>
       <c r="G65" s="8" t="s">
         <v>399</v>
       </c>
       <c r="H65" s="13">
-        <v>1434</v>
+        <v>1318</v>
       </c>
       <c r="I65" s="8" t="s">
-        <v>495</v>
+        <v>509</v>
       </c>
       <c r="J65" s="13">
-        <v>1434</v>
+        <v>295</v>
       </c>
       <c r="K65" s="14">
-        <v>0.22430555555555601</v>
+        <v>4.7916666666666698E-2</v>
       </c>
       <c r="L65" s="15" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="M65" s="13" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="N65" s="16">
-        <v>559</v>
+        <v>153</v>
       </c>
       <c r="O65" s="8" t="s">
         <v>463</v>
       </c>
       <c r="P65" s="13" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="66" spans="1:16">
       <c r="A66" s="12">
-        <v>45130</v>
+        <v>45152</v>
       </c>
       <c r="B66" s="7" t="s">
         <v>389</v>
       </c>
       <c r="C66" s="13" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D66" s="15" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="E66" s="8" t="s">
-        <v>514</v>
+        <v>452</v>
       </c>
       <c r="F66" s="8" t="s">
-        <v>515</v>
+        <v>391</v>
       </c>
       <c r="G66" s="8" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="H66" s="13">
-        <v>1549</v>
+        <v>1318</v>
       </c>
       <c r="I66" s="8" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="J66" s="13">
-        <v>314</v>
+        <v>1023</v>
       </c>
       <c r="K66" s="14">
-        <v>8.8194444444444395E-2</v>
+        <v>0.18333333333333299</v>
       </c>
       <c r="L66" s="15" t="s">
-        <v>149</v>
+        <v>469</v>
       </c>
       <c r="M66" s="13" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="N66" s="16">
-        <v>116</v>
+        <v>400</v>
       </c>
       <c r="O66" s="8" t="s">
-        <v>412</v>
+        <v>463</v>
       </c>
       <c r="P66" s="13" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="67" spans="1:16">
       <c r="A67" s="12">
-        <v>45088</v>
+        <v>45143</v>
       </c>
       <c r="B67" s="7" t="s">
         <v>389</v>
       </c>
       <c r="C67" s="13" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D67" s="15" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="E67" s="8" t="s">
+        <v>415</v>
+      </c>
+      <c r="F67" s="8" t="s">
         <v>452</v>
       </c>
-      <c r="F67" s="8" t="s">
-        <v>391</v>
-      </c>
       <c r="G67" s="8" t="s">
-        <v>459</v>
+        <v>399</v>
       </c>
       <c r="H67" s="13">
-        <v>1318</v>
+        <v>1434</v>
       </c>
       <c r="I67" s="8" t="s">
-        <v>518</v>
+        <v>495</v>
       </c>
       <c r="J67" s="13">
-        <v>1318</v>
+        <v>1434</v>
       </c>
       <c r="K67" s="14">
-        <v>0.19305555555555601</v>
+        <v>0.22430555555555601</v>
       </c>
       <c r="L67" s="15" t="s">
-        <v>519</v>
+        <v>146</v>
       </c>
       <c r="M67" s="13" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="N67" s="16">
-        <v>662</v>
-      </c>
-      <c r="O67" s="13"/>
+        <v>559</v>
+      </c>
+      <c r="O67" s="8" t="s">
+        <v>463</v>
+      </c>
       <c r="P67" s="13" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="68" spans="1:16">
       <c r="A68" s="12">
-        <v>45045</v>
+        <v>45130</v>
       </c>
       <c r="B68" s="7" t="s">
         <v>389</v>
       </c>
       <c r="C68" s="13" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="D68" s="15" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="E68" s="8" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="F68" s="8" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="G68" s="8" t="s">
-        <v>523</v>
+        <v>392</v>
       </c>
       <c r="H68" s="13">
-        <v>338</v>
+        <v>1549</v>
       </c>
       <c r="I68" s="8" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="J68" s="13">
-        <v>338</v>
+        <v>314</v>
       </c>
       <c r="K68" s="14">
-        <v>7.2916666666666699E-2</v>
+        <v>8.8194444444444395E-2</v>
       </c>
       <c r="L68" s="15" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="M68" s="13" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="N68" s="16">
-        <v>156</v>
-      </c>
-      <c r="O68" s="13"/>
-      <c r="P68" s="8" t="s">
-        <v>526</v>
+        <v>116</v>
+      </c>
+      <c r="O68" s="8" t="s">
+        <v>412</v>
+      </c>
+      <c r="P68" s="13" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="69" spans="1:16">
       <c r="A69" s="12">
-        <v>45044</v>
+        <v>45088</v>
       </c>
       <c r="B69" s="7" t="s">
         <v>389</v>
       </c>
       <c r="C69" s="13" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D69" s="15" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="E69" s="8" t="s">
-        <v>522</v>
+        <v>452</v>
       </c>
       <c r="F69" s="8" t="s">
-        <v>521</v>
+        <v>391</v>
       </c>
       <c r="G69" s="8" t="s">
-        <v>523</v>
+        <v>459</v>
       </c>
       <c r="H69" s="13">
-        <v>338</v>
+        <v>1318</v>
       </c>
       <c r="I69" s="8" t="s">
-        <v>527</v>
+        <v>518</v>
       </c>
       <c r="J69" s="13">
-        <v>338</v>
+        <v>1318</v>
       </c>
       <c r="K69" s="14">
-        <v>9.2361111111111102E-2</v>
-      </c>
-      <c r="L69" s="9" t="s">
-        <v>528</v>
+        <v>0.19305555555555601</v>
+      </c>
+      <c r="L69" s="15" t="s">
+        <v>519</v>
       </c>
       <c r="M69" s="13" t="s">
-        <v>529</v>
+        <v>520</v>
       </c>
       <c r="N69" s="16">
-        <v>170</v>
+        <v>662</v>
       </c>
       <c r="O69" s="13"/>
-      <c r="P69" s="8" t="s">
-        <v>530</v>
+      <c r="P69" s="13" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="70" spans="1:16">
       <c r="A70" s="12">
-        <v>45004</v>
+        <v>45045</v>
       </c>
       <c r="B70" s="7" t="s">
         <v>389</v>
       </c>
       <c r="C70" s="13" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D70" s="15" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="E70" s="8" t="s">
-        <v>414</v>
+        <v>521</v>
       </c>
       <c r="F70" s="8" t="s">
-        <v>452</v>
+        <v>522</v>
       </c>
       <c r="G70" s="8" t="s">
-        <v>459</v>
+        <v>523</v>
       </c>
       <c r="H70" s="13">
-        <v>804</v>
+        <v>338</v>
       </c>
       <c r="I70" s="8" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="J70" s="13">
-        <v>804</v>
+        <v>338</v>
       </c>
       <c r="K70" s="14">
-        <v>0.140972222222222</v>
+        <v>7.2916666666666699E-2</v>
       </c>
       <c r="L70" s="15" t="s">
-        <v>532</v>
+        <v>154</v>
       </c>
       <c r="M70" s="13" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="N70" s="16">
-        <v>336</v>
+        <v>156</v>
       </c>
       <c r="O70" s="13"/>
       <c r="P70" s="8" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
     </row>
     <row r="71" spans="1:16">
       <c r="A71" s="12">
-        <v>45003</v>
+        <v>45044</v>
       </c>
       <c r="B71" s="7" t="s">
         <v>389</v>
       </c>
       <c r="C71" s="13" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D71" s="15" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E71" s="8" t="s">
-        <v>452</v>
+        <v>522</v>
       </c>
       <c r="F71" s="8" t="s">
-        <v>535</v>
+        <v>521</v>
       </c>
       <c r="G71" s="8" t="s">
-        <v>536</v>
+        <v>523</v>
       </c>
       <c r="H71" s="13">
-        <v>819</v>
+        <v>338</v>
       </c>
       <c r="I71" s="8" t="s">
-        <v>537</v>
+        <v>527</v>
       </c>
       <c r="J71" s="13">
-        <v>819</v>
+        <v>338</v>
       </c>
       <c r="K71" s="14">
-        <v>0.15902777777777799</v>
-      </c>
-      <c r="L71" s="15" t="s">
-        <v>484</v>
+        <v>9.2361111111111102E-2</v>
+      </c>
+      <c r="L71" s="9" t="s">
+        <v>528</v>
       </c>
       <c r="M71" s="13" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
       <c r="N71" s="16">
-        <v>349</v>
+        <v>170</v>
       </c>
       <c r="O71" s="13"/>
       <c r="P71" s="8" t="s">
-        <v>539</v>
+        <v>530</v>
       </c>
     </row>
     <row r="72" spans="1:16">
       <c r="A72" s="12">
-        <v>44964</v>
+        <v>45004</v>
       </c>
       <c r="B72" s="7" t="s">
         <v>389</v>
       </c>
       <c r="C72" s="13" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="D72" s="15" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="E72" s="8" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F72" s="8" t="s">
         <v>452</v>
@@ -14888,93 +14961,91 @@
         <v>459</v>
       </c>
       <c r="H72" s="13">
-        <v>1434</v>
+        <v>804</v>
       </c>
       <c r="I72" s="8" t="s">
-        <v>495</v>
+        <v>531</v>
       </c>
       <c r="J72" s="13">
-        <v>1434</v>
+        <v>804</v>
       </c>
       <c r="K72" s="14">
-        <v>0.22430555555555601</v>
+        <v>0.140972222222222</v>
       </c>
       <c r="L72" s="15" t="s">
-        <v>146</v>
+        <v>532</v>
       </c>
       <c r="M72" s="13" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="N72" s="16">
-        <v>541</v>
+        <v>336</v>
       </c>
       <c r="O72" s="13"/>
-      <c r="P72" s="13" t="s">
-        <v>361</v>
+      <c r="P72" s="8" t="s">
+        <v>534</v>
       </c>
     </row>
-    <row r="73" spans="1:16" ht="13.5" customHeight="1">
+    <row r="73" spans="1:16">
       <c r="A73" s="12">
-        <v>44944</v>
+        <v>45003</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>424</v>
+        <v>389</v>
       </c>
       <c r="C73" s="13" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D73" s="15" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E73" s="8" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
       <c r="F73" s="8" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="G73" s="8" t="s">
-        <v>448</v>
+        <v>536</v>
       </c>
       <c r="H73" s="13">
-        <v>1338</v>
+        <v>819</v>
       </c>
       <c r="I73" s="8" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="J73" s="13">
-        <v>1338</v>
+        <v>819</v>
       </c>
       <c r="K73" s="14">
-        <v>8.9583333333333307E-2</v>
+        <v>0.15902777777777799</v>
       </c>
       <c r="L73" s="15" t="s">
-        <v>163</v>
+        <v>484</v>
       </c>
       <c r="M73" s="13" t="s">
-        <v>164</v>
+        <v>538</v>
       </c>
       <c r="N73" s="16">
-        <v>362</v>
-      </c>
-      <c r="O73" s="8" t="s">
-        <v>543</v>
-      </c>
-      <c r="P73" s="13" t="s">
-        <v>362</v>
+        <v>349</v>
+      </c>
+      <c r="O73" s="13"/>
+      <c r="P73" s="8" t="s">
+        <v>539</v>
       </c>
     </row>
     <row r="74" spans="1:16">
       <c r="A74" s="12">
-        <v>44796</v>
+        <v>44964</v>
       </c>
       <c r="B74" s="7" t="s">
         <v>389</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="D74" s="15" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="E74" s="8" t="s">
         <v>415</v>
@@ -14983,7 +15054,7 @@
         <v>452</v>
       </c>
       <c r="G74" s="8" t="s">
-        <v>536</v>
+        <v>459</v>
       </c>
       <c r="H74" s="13">
         <v>1434</v>
@@ -14995,369 +15066,403 @@
         <v>1434</v>
       </c>
       <c r="K74" s="14">
-        <v>0.27638888888888902</v>
+        <v>0.22430555555555601</v>
       </c>
       <c r="L74" s="15" t="s">
-        <v>120</v>
+        <v>146</v>
       </c>
       <c r="M74" s="13" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="N74" s="16">
         <v>541</v>
       </c>
       <c r="O74" s="13"/>
       <c r="P74" s="13" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
-    <row r="75" spans="1:16">
+    <row r="75" spans="1:16" ht="13.5" customHeight="1">
       <c r="A75" s="12">
-        <v>44771</v>
+        <v>44944</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>389</v>
+        <v>424</v>
       </c>
       <c r="C75" s="13" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D75" s="15" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="E75" s="8" t="s">
-        <v>545</v>
+        <v>465</v>
       </c>
       <c r="F75" s="8" t="s">
-        <v>483</v>
+        <v>541</v>
       </c>
       <c r="G75" s="8" t="s">
-        <v>536</v>
+        <v>448</v>
       </c>
       <c r="H75" s="13">
-        <v>1857</v>
+        <v>1338</v>
       </c>
       <c r="I75" s="8" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="J75" s="13">
-        <v>316</v>
+        <v>1338</v>
       </c>
       <c r="K75" s="14">
-        <v>0.100694444444444</v>
+        <v>8.9583333333333307E-2</v>
       </c>
       <c r="L75" s="15" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="M75" s="13" t="s">
-        <v>547</v>
+        <v>164</v>
       </c>
       <c r="N75" s="16">
-        <v>130.5</v>
-      </c>
-      <c r="O75" s="13"/>
-      <c r="P75" s="8" t="s">
-        <v>548</v>
+        <v>362</v>
+      </c>
+      <c r="O75" s="8" t="s">
+        <v>543</v>
+      </c>
+      <c r="P75" s="13" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="76" spans="1:16">
       <c r="A76" s="12">
-        <v>44770</v>
+        <v>44796</v>
       </c>
       <c r="B76" s="7" t="s">
         <v>389</v>
       </c>
       <c r="C76" s="13" t="s">
-        <v>168</v>
+        <v>132</v>
       </c>
       <c r="D76" s="15" t="s">
-        <v>169</v>
+        <v>133</v>
       </c>
       <c r="E76" s="8" t="s">
-        <v>549</v>
+        <v>415</v>
       </c>
       <c r="F76" s="8" t="s">
-        <v>391</v>
+        <v>452</v>
       </c>
       <c r="G76" s="8" t="s">
-        <v>459</v>
+        <v>536</v>
       </c>
       <c r="H76" s="13">
-        <v>1083</v>
+        <v>1434</v>
       </c>
       <c r="I76" s="8" t="s">
-        <v>550</v>
+        <v>495</v>
       </c>
       <c r="J76" s="13">
-        <v>763</v>
+        <v>1434</v>
       </c>
       <c r="K76" s="14">
-        <v>0.14236111111111099</v>
+        <v>0.27638888888888902</v>
       </c>
       <c r="L76" s="15" t="s">
-        <v>170</v>
+        <v>120</v>
       </c>
       <c r="M76" s="13" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="N76" s="16">
-        <v>338</v>
+        <v>541</v>
       </c>
       <c r="O76" s="13"/>
-      <c r="P76" s="8" t="s">
-        <v>552</v>
+      <c r="P76" s="13" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="77" spans="1:16">
       <c r="A77" s="12">
-        <v>44769</v>
+        <v>44771</v>
       </c>
       <c r="B77" s="7" t="s">
         <v>389</v>
       </c>
       <c r="C77" s="13" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="D77" s="15" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="E77" s="8" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="F77" s="8" t="s">
-        <v>403</v>
+        <v>483</v>
       </c>
       <c r="G77" s="8" t="s">
-        <v>459</v>
+        <v>536</v>
       </c>
       <c r="H77" s="13">
-        <v>2092</v>
+        <v>1857</v>
       </c>
       <c r="I77" s="8" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="J77" s="13">
-        <v>1169</v>
+        <v>316</v>
       </c>
       <c r="K77" s="14">
-        <v>0.26041666666666702</v>
-      </c>
-      <c r="L77" s="9" t="s">
-        <v>555</v>
+        <v>0.100694444444444</v>
+      </c>
+      <c r="L77" s="15" t="s">
+        <v>167</v>
       </c>
       <c r="M77" s="13" t="s">
-        <v>556</v>
+        <v>547</v>
       </c>
       <c r="N77" s="16">
-        <v>498.5</v>
+        <v>130.5</v>
       </c>
       <c r="O77" s="13"/>
       <c r="P77" s="8" t="s">
-        <v>557</v>
+        <v>548</v>
       </c>
     </row>
     <row r="78" spans="1:16">
       <c r="A78" s="12">
-        <v>44767</v>
+        <v>44770</v>
       </c>
       <c r="B78" s="7" t="s">
         <v>389</v>
       </c>
       <c r="C78" s="13" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D78" s="15" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="E78" s="8" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="F78" s="8" t="s">
-        <v>553</v>
+        <v>391</v>
       </c>
       <c r="G78" s="8" t="s">
-        <v>523</v>
-      </c>
-      <c r="H78" s="13"/>
+        <v>459</v>
+      </c>
+      <c r="H78" s="13">
+        <v>1083</v>
+      </c>
       <c r="I78" s="8" t="s">
-        <v>559</v>
-      </c>
-      <c r="J78" s="13"/>
+        <v>550</v>
+      </c>
+      <c r="J78" s="13">
+        <v>763</v>
+      </c>
       <c r="K78" s="14">
-        <v>8.6111111111111097E-2</v>
+        <v>0.14236111111111099</v>
       </c>
       <c r="L78" s="15" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="M78" s="13" t="s">
-        <v>560</v>
+        <v>551</v>
       </c>
       <c r="N78" s="16">
-        <v>212.5</v>
+        <v>338</v>
       </c>
       <c r="O78" s="13"/>
       <c r="P78" s="8" t="s">
-        <v>561</v>
+        <v>552</v>
       </c>
     </row>
     <row r="79" spans="1:16">
       <c r="A79" s="12">
-        <v>44765</v>
+        <v>44769</v>
       </c>
       <c r="B79" s="7" t="s">
         <v>389</v>
       </c>
       <c r="C79" s="13" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D79" s="15" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="E79" s="8" t="s">
-        <v>562</v>
+        <v>553</v>
       </c>
       <c r="F79" s="8" t="s">
-        <v>563</v>
+        <v>403</v>
       </c>
       <c r="G79" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="H79" s="13"/>
+        <v>459</v>
+      </c>
+      <c r="H79" s="13">
+        <v>2092</v>
+      </c>
       <c r="I79" s="8" t="s">
-        <v>565</v>
-      </c>
-      <c r="J79" s="13"/>
+        <v>554</v>
+      </c>
+      <c r="J79" s="13">
+        <v>1169</v>
+      </c>
       <c r="K79" s="14">
-        <v>9.2361111111111102E-2</v>
-      </c>
-      <c r="L79" s="15" t="s">
-        <v>1</v>
+        <v>0.26041666666666702</v>
+      </c>
+      <c r="L79" s="9" t="s">
+        <v>555</v>
       </c>
       <c r="M79" s="13" t="s">
-        <v>566</v>
+        <v>556</v>
       </c>
       <c r="N79" s="16">
-        <v>139</v>
+        <v>498.5</v>
       </c>
       <c r="O79" s="13"/>
       <c r="P79" s="8" t="s">
-        <v>567</v>
+        <v>557</v>
       </c>
     </row>
     <row r="80" spans="1:16">
       <c r="A80" s="12">
-        <v>44763</v>
+        <v>44767</v>
       </c>
       <c r="B80" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="C80" s="17" t="s">
-        <v>178</v>
+      <c r="C80" s="13" t="s">
+        <v>173</v>
       </c>
       <c r="D80" s="15" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="E80" s="8" t="s">
         <v>558</v>
       </c>
       <c r="F80" s="8" t="s">
-        <v>568</v>
+        <v>553</v>
       </c>
       <c r="G80" s="8" t="s">
-        <v>536</v>
-      </c>
-      <c r="H80" s="13">
-        <v>299</v>
-      </c>
+        <v>523</v>
+      </c>
+      <c r="H80" s="13"/>
       <c r="I80" s="8" t="s">
-        <v>569</v>
-      </c>
-      <c r="J80" s="13">
-        <v>299</v>
-      </c>
+        <v>559</v>
+      </c>
+      <c r="J80" s="13"/>
       <c r="K80" s="14">
-        <v>5.4166666666666703E-2</v>
+        <v>8.6111111111111097E-2</v>
       </c>
       <c r="L80" s="15" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="M80" s="13" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="N80" s="16">
-        <v>164</v>
+        <v>212.5</v>
       </c>
       <c r="O80" s="13"/>
       <c r="P80" s="8" t="s">
-        <v>571</v>
+        <v>561</v>
       </c>
     </row>
     <row r="81" spans="1:16">
       <c r="A81" s="12">
-        <v>44762</v>
+        <v>44765</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>436</v>
-      </c>
-      <c r="C81" s="17"/>
+        <v>389</v>
+      </c>
+      <c r="C81" s="13" t="s">
+        <v>176</v>
+      </c>
       <c r="D81" s="15" t="s">
-        <v>321</v>
+        <v>177</v>
       </c>
       <c r="E81" s="8" t="s">
-        <v>572</v>
+        <v>562</v>
       </c>
       <c r="F81" s="8" t="s">
-        <v>573</v>
-      </c>
-      <c r="G81" s="8"/>
+        <v>563</v>
+      </c>
+      <c r="G81" s="8" t="s">
+        <v>564</v>
+      </c>
       <c r="H81" s="13"/>
       <c r="I81" s="8" t="s">
-        <v>574</v>
+        <v>565</v>
       </c>
       <c r="J81" s="13"/>
-      <c r="K81" s="14"/>
-      <c r="L81" s="15"/>
-      <c r="M81" s="13"/>
-      <c r="N81" s="16"/>
+      <c r="K81" s="14">
+        <v>9.2361111111111102E-2</v>
+      </c>
+      <c r="L81" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="M81" s="13" t="s">
+        <v>566</v>
+      </c>
+      <c r="N81" s="16">
+        <v>139</v>
+      </c>
       <c r="O81" s="13"/>
       <c r="P81" s="8" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
     </row>
     <row r="82" spans="1:16">
       <c r="A82" s="12">
-        <v>44761</v>
+        <v>44763</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>436</v>
-      </c>
-      <c r="C82" s="17"/>
+        <v>389</v>
+      </c>
+      <c r="C82" s="17" t="s">
+        <v>178</v>
+      </c>
       <c r="D82" s="15" t="s">
-        <v>321</v>
+        <v>179</v>
       </c>
       <c r="E82" s="8" t="s">
-        <v>572</v>
+        <v>558</v>
       </c>
       <c r="F82" s="8" t="s">
-        <v>573</v>
-      </c>
-      <c r="G82" s="8"/>
-      <c r="H82" s="13"/>
+        <v>568</v>
+      </c>
+      <c r="G82" s="8" t="s">
+        <v>536</v>
+      </c>
+      <c r="H82" s="13">
+        <v>299</v>
+      </c>
       <c r="I82" s="8" t="s">
-        <v>576</v>
-      </c>
-      <c r="J82" s="13"/>
-      <c r="K82" s="14"/>
-      <c r="L82" s="15"/>
-      <c r="M82" s="13"/>
-      <c r="N82" s="16"/>
+        <v>569</v>
+      </c>
+      <c r="J82" s="13">
+        <v>299</v>
+      </c>
+      <c r="K82" s="14">
+        <v>5.4166666666666703E-2</v>
+      </c>
+      <c r="L82" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="M82" s="13" t="s">
+        <v>570</v>
+      </c>
+      <c r="N82" s="16">
+        <v>164</v>
+      </c>
       <c r="O82" s="13"/>
       <c r="P82" s="8" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
     </row>
     <row r="83" spans="1:16">
       <c r="A83" s="12">
-        <v>44760</v>
+        <v>44762</v>
       </c>
       <c r="B83" s="7" t="s">
         <v>436</v>
@@ -15375,7 +15480,7 @@
       <c r="G83" s="8"/>
       <c r="H83" s="13"/>
       <c r="I83" s="8" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="J83" s="13"/>
       <c r="K83" s="14"/>
@@ -15384,12 +15489,12 @@
       <c r="N83" s="16"/>
       <c r="O83" s="13"/>
       <c r="P83" s="8" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
     </row>
     <row r="84" spans="1:16">
       <c r="A84" s="12">
-        <v>44760</v>
+        <v>44761</v>
       </c>
       <c r="B84" s="7" t="s">
         <v>436</v>
@@ -15399,15 +15504,15 @@
         <v>321</v>
       </c>
       <c r="E84" s="8" t="s">
+        <v>572</v>
+      </c>
+      <c r="F84" s="8" t="s">
         <v>573</v>
-      </c>
-      <c r="F84" s="8" t="s">
-        <v>572</v>
       </c>
       <c r="G84" s="8"/>
       <c r="H84" s="13"/>
       <c r="I84" s="8" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="J84" s="13"/>
       <c r="K84" s="14"/>
@@ -15416,12 +15521,12 @@
       <c r="N84" s="16"/>
       <c r="O84" s="13"/>
       <c r="P84" s="8" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
     </row>
     <row r="85" spans="1:16">
       <c r="A85" s="12">
-        <v>44759</v>
+        <v>44760</v>
       </c>
       <c r="B85" s="7" t="s">
         <v>436</v>
@@ -15431,15 +15536,15 @@
         <v>321</v>
       </c>
       <c r="E85" s="8" t="s">
+        <v>572</v>
+      </c>
+      <c r="F85" s="8" t="s">
         <v>573</v>
-      </c>
-      <c r="F85" s="8" t="s">
-        <v>572</v>
       </c>
       <c r="G85" s="8"/>
       <c r="H85" s="13"/>
       <c r="I85" s="8" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="J85" s="13"/>
       <c r="K85" s="14"/>
@@ -15447,13 +15552,13 @@
       <c r="M85" s="13"/>
       <c r="N85" s="16"/>
       <c r="O85" s="13"/>
-      <c r="P85" s="18" t="s">
-        <v>583</v>
+      <c r="P85" s="8" t="s">
+        <v>579</v>
       </c>
     </row>
     <row r="86" spans="1:16">
       <c r="A86" s="12">
-        <v>44758</v>
+        <v>44760</v>
       </c>
       <c r="B86" s="7" t="s">
         <v>436</v>
@@ -15471,7 +15576,7 @@
       <c r="G86" s="8"/>
       <c r="H86" s="13"/>
       <c r="I86" s="8" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="J86" s="13"/>
       <c r="K86" s="14"/>
@@ -15480,12 +15585,12 @@
       <c r="N86" s="16"/>
       <c r="O86" s="13"/>
       <c r="P86" s="8" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
     </row>
     <row r="87" spans="1:16">
       <c r="A87" s="12">
-        <v>44757</v>
+        <v>44759</v>
       </c>
       <c r="B87" s="7" t="s">
         <v>436</v>
@@ -15495,15 +15600,15 @@
         <v>321</v>
       </c>
       <c r="E87" s="8" t="s">
-        <v>586</v>
+        <v>573</v>
       </c>
       <c r="F87" s="8" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="G87" s="8"/>
       <c r="H87" s="13"/>
       <c r="I87" s="8" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="J87" s="13"/>
       <c r="K87" s="14"/>
@@ -15511,13 +15616,13 @@
       <c r="M87" s="13"/>
       <c r="N87" s="16"/>
       <c r="O87" s="13"/>
-      <c r="P87" s="8" t="s">
-        <v>588</v>
+      <c r="P87" s="18" t="s">
+        <v>583</v>
       </c>
     </row>
     <row r="88" spans="1:16">
       <c r="A88" s="12">
-        <v>44755</v>
+        <v>44758</v>
       </c>
       <c r="B88" s="7" t="s">
         <v>436</v>
@@ -15530,12 +15635,12 @@
         <v>573</v>
       </c>
       <c r="F88" s="8" t="s">
-        <v>586</v>
+        <v>572</v>
       </c>
       <c r="G88" s="8"/>
       <c r="H88" s="13"/>
       <c r="I88" s="8" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="J88" s="13"/>
       <c r="K88" s="14"/>
@@ -15544,672 +15649,642 @@
       <c r="N88" s="16"/>
       <c r="O88" s="13"/>
       <c r="P88" s="8" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
     </row>
     <row r="89" spans="1:16">
       <c r="A89" s="12">
-        <v>44751</v>
+        <v>44757</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="C89" s="13" t="s">
-        <v>181</v>
-      </c>
+        <v>436</v>
+      </c>
+      <c r="C89" s="17"/>
       <c r="D89" s="15" t="s">
-        <v>182</v>
+        <v>321</v>
       </c>
       <c r="E89" s="8" t="s">
-        <v>541</v>
+        <v>586</v>
       </c>
       <c r="F89" s="8" t="s">
-        <v>591</v>
-      </c>
-      <c r="G89" s="8" t="s">
-        <v>592</v>
-      </c>
-      <c r="H89" s="13">
-        <v>1803</v>
-      </c>
+        <v>573</v>
+      </c>
+      <c r="G89" s="8"/>
+      <c r="H89" s="13"/>
       <c r="I89" s="8" t="s">
-        <v>593</v>
-      </c>
-      <c r="J89" s="13">
-        <v>1803</v>
-      </c>
-      <c r="K89" s="14">
-        <v>0.101388888888889</v>
-      </c>
-      <c r="L89" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="M89" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="N89" s="16">
-        <v>920</v>
-      </c>
-      <c r="O89" s="8" t="s">
-        <v>594</v>
-      </c>
+        <v>587</v>
+      </c>
+      <c r="J89" s="13"/>
+      <c r="K89" s="14"/>
+      <c r="L89" s="15"/>
+      <c r="M89" s="13"/>
+      <c r="N89" s="16"/>
+      <c r="O89" s="13"/>
       <c r="P89" s="8" t="s">
-        <v>595</v>
+        <v>588</v>
       </c>
     </row>
     <row r="90" spans="1:16">
       <c r="A90" s="12">
-        <v>44744</v>
+        <v>44755</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="C90" s="13" t="s">
-        <v>185</v>
-      </c>
+        <v>436</v>
+      </c>
+      <c r="C90" s="17"/>
       <c r="D90" s="15" t="s">
-        <v>186</v>
+        <v>321</v>
       </c>
       <c r="E90" s="8" t="s">
-        <v>452</v>
+        <v>573</v>
       </c>
       <c r="F90" s="8" t="s">
-        <v>415</v>
-      </c>
-      <c r="G90" s="8" t="s">
-        <v>459</v>
-      </c>
-      <c r="H90" s="13">
-        <v>1434</v>
-      </c>
+        <v>586</v>
+      </c>
+      <c r="G90" s="8"/>
+      <c r="H90" s="13"/>
       <c r="I90" s="8" t="s">
-        <v>596</v>
-      </c>
-      <c r="J90" s="13">
-        <v>1434</v>
-      </c>
-      <c r="K90" s="14">
-        <v>0.22083333333333299</v>
-      </c>
-      <c r="L90" s="15" t="s">
-        <v>187</v>
-      </c>
-      <c r="M90" s="13" t="s">
-        <v>597</v>
-      </c>
-      <c r="N90" s="16">
-        <v>541</v>
-      </c>
+        <v>589</v>
+      </c>
+      <c r="J90" s="13"/>
+      <c r="K90" s="14"/>
+      <c r="L90" s="15"/>
+      <c r="M90" s="13"/>
+      <c r="N90" s="16"/>
       <c r="O90" s="13"/>
-      <c r="P90" s="13" t="s">
-        <v>364</v>
+      <c r="P90" s="8" t="s">
+        <v>590</v>
       </c>
     </row>
     <row r="91" spans="1:16">
       <c r="A91" s="12">
-        <v>44598</v>
+        <v>44751</v>
       </c>
       <c r="B91" s="7" t="s">
         <v>424</v>
       </c>
-      <c r="C91" s="17" t="s">
-        <v>188</v>
+      <c r="C91" s="13" t="s">
+        <v>181</v>
       </c>
       <c r="D91" s="15" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="E91" s="8" t="s">
-        <v>598</v>
+        <v>541</v>
       </c>
       <c r="F91" s="8" t="s">
-        <v>465</v>
+        <v>591</v>
       </c>
       <c r="G91" s="8" t="s">
-        <v>466</v>
+        <v>592</v>
       </c>
       <c r="H91" s="13">
-        <v>1178</v>
+        <v>1803</v>
       </c>
       <c r="I91" s="8" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="J91" s="13">
-        <v>1178</v>
+        <v>1803</v>
       </c>
       <c r="K91" s="14">
-        <v>7.7083333333333295E-2</v>
+        <v>0.101388888888889</v>
       </c>
       <c r="L91" s="15" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="M91" s="13" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="N91" s="16">
-        <v>380</v>
+        <v>920</v>
       </c>
       <c r="O91" s="8" t="s">
-        <v>429</v>
-      </c>
-      <c r="P91" s="13" t="s">
-        <v>365</v>
+        <v>594</v>
+      </c>
+      <c r="P91" s="8" t="s">
+        <v>595</v>
       </c>
     </row>
     <row r="92" spans="1:16">
       <c r="A92" s="12">
-        <v>44590</v>
+        <v>44744</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="C92" s="17" t="s">
-        <v>192</v>
+        <v>389</v>
+      </c>
+      <c r="C92" s="13" t="s">
+        <v>185</v>
       </c>
       <c r="D92" s="15" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="E92" s="8" t="s">
-        <v>600</v>
+        <v>452</v>
       </c>
       <c r="F92" s="8" t="s">
+        <v>415</v>
+      </c>
+      <c r="G92" s="8" t="s">
+        <v>459</v>
+      </c>
+      <c r="H92" s="13">
+        <v>1434</v>
+      </c>
+      <c r="I92" s="8" t="s">
+        <v>596</v>
+      </c>
+      <c r="J92" s="13">
+        <v>1434</v>
+      </c>
+      <c r="K92" s="14">
+        <v>0.22083333333333299</v>
+      </c>
+      <c r="L92" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="M92" s="13" t="s">
+        <v>597</v>
+      </c>
+      <c r="N92" s="16">
         <v>541</v>
       </c>
-      <c r="G92" s="8" t="s">
-        <v>466</v>
-      </c>
-      <c r="H92" s="13">
-        <v>1338</v>
-      </c>
-      <c r="I92" s="8" t="s">
-        <v>601</v>
-      </c>
-      <c r="J92" s="13">
-        <v>1338</v>
-      </c>
-      <c r="K92" s="14">
-        <v>8.1944444444444403E-2</v>
-      </c>
-      <c r="L92" s="15" t="s">
-        <v>194</v>
-      </c>
-      <c r="M92" s="15" t="s">
-        <v>195</v>
-      </c>
-      <c r="N92" s="16">
-        <v>470</v>
-      </c>
-      <c r="O92" s="8" t="s">
-        <v>432</v>
-      </c>
+      <c r="O92" s="13"/>
       <c r="P92" s="13" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="93" spans="1:16">
       <c r="A93" s="12">
-        <v>44389</v>
+        <v>44598</v>
       </c>
       <c r="B93" s="7" t="s">
         <v>424</v>
       </c>
       <c r="C93" s="17" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="D93" s="15" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="E93" s="8" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="F93" s="8" t="s">
-        <v>600</v>
+        <v>465</v>
       </c>
       <c r="G93" s="8" t="s">
-        <v>603</v>
+        <v>466</v>
       </c>
       <c r="H93" s="13">
-        <v>2842</v>
+        <v>1178</v>
       </c>
       <c r="I93" s="8" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="J93" s="13">
-        <v>2842</v>
+        <v>1178</v>
       </c>
       <c r="K93" s="14">
-        <v>0.13472222222222199</v>
+        <v>7.7083333333333295E-2</v>
       </c>
       <c r="L93" s="15" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="M93" s="13" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="N93" s="16">
-        <v>860</v>
+        <v>380</v>
       </c>
       <c r="O93" s="8" t="s">
-        <v>474</v>
-      </c>
-      <c r="P93" s="8" t="s">
-        <v>605</v>
+        <v>429</v>
+      </c>
+      <c r="P93" s="13" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="94" spans="1:16">
       <c r="A94" s="12">
-        <v>44387</v>
+        <v>44590</v>
       </c>
       <c r="B94" s="7" t="s">
         <v>424</v>
       </c>
       <c r="C94" s="17" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="D94" s="15" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="E94" s="8" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="F94" s="8" t="s">
-        <v>602</v>
+        <v>541</v>
       </c>
       <c r="G94" s="8" t="s">
         <v>466</v>
       </c>
       <c r="H94" s="13">
-        <v>1311</v>
+        <v>1338</v>
       </c>
       <c r="I94" s="8" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="J94" s="13">
-        <v>1311</v>
+        <v>1338</v>
       </c>
       <c r="K94" s="14">
-        <v>7.4305555555555597E-2</v>
+        <v>8.1944444444444403E-2</v>
       </c>
       <c r="L94" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="M94" s="13" t="s">
-        <v>202</v>
+        <v>194</v>
+      </c>
+      <c r="M94" s="15" t="s">
+        <v>195</v>
       </c>
       <c r="N94" s="16">
-        <v>420</v>
+        <v>470</v>
       </c>
       <c r="O94" s="8" t="s">
         <v>432</v>
       </c>
-      <c r="P94" s="8" t="s">
-        <v>608</v>
+      <c r="P94" s="13" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="95" spans="1:16">
       <c r="A95" s="12">
-        <v>44385</v>
+        <v>44389</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>436</v>
-      </c>
-      <c r="C95" s="17"/>
+        <v>424</v>
+      </c>
+      <c r="C95" s="17" t="s">
+        <v>196</v>
+      </c>
       <c r="D95" s="15" t="s">
-        <v>321</v>
+        <v>197</v>
       </c>
       <c r="E95" s="8" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="F95" s="8" t="s">
-        <v>610</v>
+        <v>600</v>
       </c>
       <c r="G95" s="8" t="s">
-        <v>1</v>
+        <v>603</v>
       </c>
       <c r="H95" s="13">
-        <v>292</v>
+        <v>2842</v>
       </c>
       <c r="I95" s="8" t="s">
-        <v>611</v>
+        <v>604</v>
       </c>
       <c r="J95" s="13">
-        <v>292</v>
-      </c>
-      <c r="K95" s="14"/>
+        <v>2842</v>
+      </c>
+      <c r="K95" s="14">
+        <v>0.13472222222222199</v>
+      </c>
       <c r="L95" s="15" t="s">
-        <v>1</v>
+        <v>198</v>
       </c>
       <c r="M95" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="N95" s="16"/>
+        <v>199</v>
+      </c>
+      <c r="N95" s="16">
+        <v>860</v>
+      </c>
       <c r="O95" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="P95" s="8"/>
+        <v>474</v>
+      </c>
+      <c r="P95" s="8" t="s">
+        <v>605</v>
+      </c>
     </row>
     <row r="96" spans="1:16">
       <c r="A96" s="12">
-        <v>44384</v>
+        <v>44387</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>436</v>
-      </c>
-      <c r="C96" s="17"/>
+        <v>424</v>
+      </c>
+      <c r="C96" s="17" t="s">
+        <v>200</v>
+      </c>
       <c r="D96" s="15" t="s">
-        <v>321</v>
+        <v>201</v>
       </c>
       <c r="E96" s="8" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="F96" s="8" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="G96" s="8" t="s">
-        <v>1</v>
+        <v>466</v>
       </c>
       <c r="H96" s="13">
-        <v>292</v>
+        <v>1311</v>
       </c>
       <c r="I96" s="8" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="J96" s="13">
-        <v>292</v>
-      </c>
-      <c r="K96" s="14"/>
+        <v>1311</v>
+      </c>
+      <c r="K96" s="14">
+        <v>7.4305555555555597E-2</v>
+      </c>
       <c r="L96" s="15" t="s">
-        <v>1</v>
+        <v>64</v>
       </c>
       <c r="M96" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="N96" s="16"/>
+        <v>202</v>
+      </c>
+      <c r="N96" s="16">
+        <v>420</v>
+      </c>
       <c r="O96" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="P96" s="8"/>
+        <v>432</v>
+      </c>
+      <c r="P96" s="8" t="s">
+        <v>608</v>
+      </c>
     </row>
     <row r="97" spans="1:16">
       <c r="A97" s="12">
-        <v>44382</v>
+        <v>44385</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="C97" s="17" t="s">
-        <v>203</v>
-      </c>
+        <v>436</v>
+      </c>
+      <c r="C97" s="17"/>
       <c r="D97" s="15" t="s">
-        <v>204</v>
+        <v>321</v>
       </c>
       <c r="E97" s="8" t="s">
-        <v>600</v>
+        <v>609</v>
       </c>
       <c r="F97" s="8" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="G97" s="8" t="s">
-        <v>466</v>
+        <v>1</v>
       </c>
       <c r="H97" s="13">
-        <v>3752</v>
+        <v>292</v>
       </c>
       <c r="I97" s="8" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="J97" s="13">
-        <v>3752</v>
-      </c>
-      <c r="K97" s="14">
-        <v>0.28402777777777799</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="K97" s="14"/>
       <c r="L97" s="15" t="s">
-        <v>205</v>
+        <v>1</v>
       </c>
       <c r="M97" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="N97" s="16">
-        <v>1740</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N97" s="16"/>
       <c r="O97" s="8" t="s">
-        <v>432</v>
-      </c>
-      <c r="P97" s="8" t="s">
-        <v>614</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="P97" s="8"/>
     </row>
     <row r="98" spans="1:16">
       <c r="A98" s="12">
-        <v>44376</v>
+        <v>44384</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="C98" s="17" t="s">
-        <v>207</v>
-      </c>
+        <v>436</v>
+      </c>
+      <c r="C98" s="17"/>
       <c r="D98" s="15" t="s">
-        <v>133</v>
+        <v>321</v>
       </c>
       <c r="E98" s="8" t="s">
-        <v>415</v>
+        <v>610</v>
       </c>
       <c r="F98" s="8" t="s">
-        <v>452</v>
+        <v>609</v>
       </c>
       <c r="G98" s="8" t="s">
-        <v>536</v>
+        <v>1</v>
       </c>
       <c r="H98" s="13">
-        <v>1434</v>
+        <v>292</v>
       </c>
       <c r="I98" s="8" t="s">
-        <v>495</v>
+        <v>612</v>
       </c>
       <c r="J98" s="13">
-        <v>1434</v>
-      </c>
-      <c r="K98" s="14">
-        <v>0.27638888888888902</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="K98" s="14"/>
       <c r="L98" s="15" t="s">
-        <v>134</v>
+        <v>1</v>
       </c>
       <c r="M98" s="13" t="s">
-        <v>615</v>
-      </c>
-      <c r="N98" s="16">
-        <v>541</v>
-      </c>
-      <c r="O98" s="13"/>
-      <c r="P98" s="13" t="s">
-        <v>366</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N98" s="16"/>
+      <c r="O98" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="P98" s="8"/>
     </row>
     <row r="99" spans="1:16">
       <c r="A99" s="12">
-        <v>44368</v>
+        <v>44382</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>616</v>
-      </c>
-      <c r="C99" s="17"/>
-      <c r="D99" s="8" t="s">
-        <v>617</v>
+        <v>424</v>
+      </c>
+      <c r="C99" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="D99" s="15" t="s">
+        <v>204</v>
       </c>
       <c r="E99" s="8" t="s">
-        <v>618</v>
+        <v>600</v>
       </c>
       <c r="F99" s="8" t="s">
-        <v>619</v>
+        <v>606</v>
       </c>
       <c r="G99" s="8" t="s">
-        <v>617</v>
-      </c>
-      <c r="H99" s="13"/>
+        <v>466</v>
+      </c>
+      <c r="H99" s="13">
+        <v>3752</v>
+      </c>
       <c r="I99" s="8" t="s">
-        <v>620</v>
-      </c>
-      <c r="J99" s="13"/>
-      <c r="K99" s="14"/>
-      <c r="L99" s="15"/>
-      <c r="M99" s="13"/>
-      <c r="N99" s="16"/>
-      <c r="O99" s="13"/>
-      <c r="P99" s="13"/>
+        <v>613</v>
+      </c>
+      <c r="J99" s="13">
+        <v>3752</v>
+      </c>
+      <c r="K99" s="14">
+        <v>0.28402777777777799</v>
+      </c>
+      <c r="L99" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="M99" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="N99" s="16">
+        <v>1740</v>
+      </c>
+      <c r="O99" s="8" t="s">
+        <v>432</v>
+      </c>
+      <c r="P99" s="8" t="s">
+        <v>614</v>
+      </c>
     </row>
     <row r="100" spans="1:16">
       <c r="A100" s="12">
-        <v>44364</v>
+        <v>44376</v>
       </c>
       <c r="B100" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="C100" s="13" t="s">
-        <v>208</v>
+      <c r="C100" s="17" t="s">
+        <v>207</v>
       </c>
       <c r="D100" s="15" t="s">
-        <v>209</v>
+        <v>133</v>
       </c>
       <c r="E100" s="8" t="s">
+        <v>415</v>
+      </c>
+      <c r="F100" s="8" t="s">
         <v>452</v>
       </c>
-      <c r="F100" s="8" t="s">
-        <v>391</v>
-      </c>
       <c r="G100" s="8" t="s">
-        <v>459</v>
+        <v>536</v>
       </c>
       <c r="H100" s="13">
-        <v>1318</v>
+        <v>1434</v>
       </c>
       <c r="I100" s="8" t="s">
-        <v>518</v>
+        <v>495</v>
       </c>
       <c r="J100" s="13">
-        <v>1318</v>
+        <v>1434</v>
       </c>
       <c r="K100" s="14">
-        <v>0.24861111111111101</v>
+        <v>0.27638888888888902</v>
       </c>
       <c r="L100" s="15" t="s">
-        <v>187</v>
+        <v>134</v>
       </c>
       <c r="M100" s="13" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="N100" s="16">
-        <v>526</v>
+        <v>541</v>
       </c>
       <c r="O100" s="13"/>
-      <c r="P100" s="8" t="s">
-        <v>622</v>
+      <c r="P100" s="13" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="101" spans="1:16">
       <c r="A101" s="12">
-        <v>44261</v>
+        <v>44368</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="C101" s="13" t="s">
-        <v>210</v>
-      </c>
-      <c r="D101" s="15" t="s">
-        <v>211</v>
+        <v>616</v>
+      </c>
+      <c r="C101" s="17"/>
+      <c r="D101" s="8" t="s">
+        <v>617</v>
       </c>
       <c r="E101" s="8" t="s">
-        <v>415</v>
+        <v>618</v>
       </c>
       <c r="F101" s="8" t="s">
-        <v>452</v>
-      </c>
-      <c r="G101" s="13"/>
-      <c r="H101" s="13">
-        <v>1434</v>
-      </c>
+        <v>619</v>
+      </c>
+      <c r="G101" s="8" t="s">
+        <v>617</v>
+      </c>
+      <c r="H101" s="13"/>
       <c r="I101" s="8" t="s">
-        <v>495</v>
-      </c>
-      <c r="J101" s="13">
-        <v>1434</v>
-      </c>
+        <v>620</v>
+      </c>
+      <c r="J101" s="13"/>
       <c r="K101" s="14"/>
-      <c r="L101" s="15" t="s">
-        <v>212</v>
-      </c>
-      <c r="M101" s="13" t="s">
-        <v>322</v>
-      </c>
-      <c r="N101" s="16">
-        <v>541</v>
-      </c>
+      <c r="L101" s="15"/>
+      <c r="M101" s="13"/>
+      <c r="N101" s="16"/>
       <c r="O101" s="13"/>
-      <c r="P101" s="13" t="s">
-        <v>367</v>
-      </c>
+      <c r="P101" s="13"/>
     </row>
     <row r="102" spans="1:16">
       <c r="A102" s="12">
-        <v>44231</v>
+        <v>44364</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>424</v>
+        <v>389</v>
       </c>
       <c r="C102" s="13" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D102" s="15" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="E102" s="8" t="s">
-        <v>600</v>
+        <v>452</v>
       </c>
       <c r="F102" s="8" t="s">
-        <v>541</v>
+        <v>391</v>
       </c>
       <c r="G102" s="8" t="s">
-        <v>448</v>
+        <v>459</v>
       </c>
       <c r="H102" s="13">
-        <v>1338</v>
+        <v>1318</v>
       </c>
       <c r="I102" s="8" t="s">
-        <v>623</v>
+        <v>518</v>
       </c>
       <c r="J102" s="13">
-        <v>1338</v>
+        <v>1318</v>
       </c>
       <c r="K102" s="14">
-        <v>8.4722222222222199E-2</v>
+        <v>0.24861111111111101</v>
       </c>
       <c r="L102" s="15" t="s">
-        <v>215</v>
+        <v>187</v>
       </c>
       <c r="M102" s="13" t="s">
-        <v>216</v>
+        <v>621</v>
       </c>
       <c r="N102" s="16">
-        <v>370</v>
-      </c>
-      <c r="O102" s="8" t="s">
-        <v>543</v>
-      </c>
-      <c r="P102" s="13" t="s">
-        <v>368</v>
+        <v>526</v>
+      </c>
+      <c r="O102" s="13"/>
+      <c r="P102" s="8" t="s">
+        <v>622</v>
       </c>
     </row>
     <row r="103" spans="1:16">
       <c r="A103" s="12">
-        <v>44087</v>
+        <v>44261</v>
       </c>
       <c r="B103" s="7" t="s">
         <v>389</v>
       </c>
       <c r="C103" s="13" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="D103" s="15" t="s">
         <v>211</v>
@@ -16230,244 +16305,260 @@
       <c r="J103" s="13">
         <v>1434</v>
       </c>
-      <c r="K103" s="14">
-        <v>0.27916666666666701</v>
-      </c>
+      <c r="K103" s="14"/>
       <c r="L103" s="15" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="M103" s="13" t="s">
-        <v>597</v>
+        <v>322</v>
       </c>
       <c r="N103" s="16">
-        <v>446.5</v>
+        <v>541</v>
       </c>
       <c r="O103" s="13"/>
       <c r="P103" s="13" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="104" spans="1:16">
       <c r="A104" s="12">
-        <v>44080</v>
+        <v>44231</v>
       </c>
       <c r="B104" s="7" t="s">
         <v>424</v>
       </c>
       <c r="C104" s="13" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="D104" s="15" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="E104" s="8" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
       <c r="F104" s="8" t="s">
         <v>541</v>
       </c>
       <c r="G104" s="8" t="s">
-        <v>624</v>
-      </c>
-      <c r="H104" s="13"/>
+        <v>448</v>
+      </c>
+      <c r="H104" s="13">
+        <v>1338</v>
+      </c>
       <c r="I104" s="8" t="s">
-        <v>625</v>
-      </c>
-      <c r="J104" s="13"/>
+        <v>623</v>
+      </c>
+      <c r="J104" s="13">
+        <v>1338</v>
+      </c>
       <c r="K104" s="14">
-        <v>0.121527777777778</v>
-      </c>
-      <c r="L104" s="15"/>
-      <c r="M104" s="13"/>
+        <v>8.4722222222222199E-2</v>
+      </c>
+      <c r="L104" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="M104" s="13" t="s">
+        <v>216</v>
+      </c>
       <c r="N104" s="16">
-        <v>560</v>
+        <v>370</v>
       </c>
       <c r="O104" s="8" t="s">
-        <v>626</v>
-      </c>
-      <c r="P104" s="8" t="s">
-        <v>627</v>
+        <v>543</v>
+      </c>
+      <c r="P104" s="13" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="105" spans="1:16">
       <c r="A105" s="12">
-        <v>44077</v>
+        <v>44087</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>424</v>
+        <v>389</v>
       </c>
       <c r="C105" s="13" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D105" s="15" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="E105" s="8" t="s">
-        <v>628</v>
+        <v>415</v>
       </c>
       <c r="F105" s="8" t="s">
-        <v>591</v>
-      </c>
-      <c r="G105" s="8" t="s">
-        <v>427</v>
-      </c>
+        <v>452</v>
+      </c>
+      <c r="G105" s="13"/>
       <c r="H105" s="13">
-        <v>1334</v>
+        <v>1434</v>
       </c>
       <c r="I105" s="8" t="s">
-        <v>629</v>
+        <v>495</v>
       </c>
       <c r="J105" s="13">
-        <v>1334</v>
+        <v>1434</v>
       </c>
       <c r="K105" s="14">
-        <v>8.0555555555555602E-2</v>
+        <v>0.27916666666666701</v>
       </c>
       <c r="L105" s="15" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="M105" s="13" t="s">
-        <v>224</v>
+        <v>597</v>
       </c>
       <c r="N105" s="16">
-        <v>1020</v>
-      </c>
-      <c r="O105" s="8" t="s">
-        <v>630</v>
-      </c>
-      <c r="P105" s="8" t="s">
-        <v>631</v>
+        <v>446.5</v>
+      </c>
+      <c r="O105" s="13"/>
+      <c r="P105" s="13" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="106" spans="1:16">
       <c r="A106" s="12">
-        <v>44075</v>
+        <v>44080</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>389</v>
+        <v>424</v>
       </c>
       <c r="C106" s="13" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="D106" s="15" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="E106" s="8" t="s">
-        <v>632</v>
+        <v>591</v>
       </c>
       <c r="F106" s="8" t="s">
-        <v>633</v>
+        <v>541</v>
       </c>
       <c r="G106" s="8" t="s">
-        <v>634</v>
-      </c>
-      <c r="H106" s="13">
-        <v>248</v>
-      </c>
+        <v>624</v>
+      </c>
+      <c r="H106" s="13"/>
       <c r="I106" s="8" t="s">
-        <v>635</v>
-      </c>
-      <c r="J106" s="13">
-        <v>248</v>
-      </c>
+        <v>625</v>
+      </c>
+      <c r="J106" s="13"/>
       <c r="K106" s="14">
-        <v>0.120138888888889</v>
-      </c>
-      <c r="L106" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="M106" s="8" t="s">
-        <v>636</v>
-      </c>
+        <v>0.121527777777778</v>
+      </c>
+      <c r="L106" s="15"/>
+      <c r="M106" s="13"/>
       <c r="N106" s="16">
-        <v>40.5</v>
-      </c>
-      <c r="O106" s="13"/>
+        <v>560</v>
+      </c>
+      <c r="O106" s="8" t="s">
+        <v>626</v>
+      </c>
       <c r="P106" s="8" t="s">
-        <v>637</v>
+        <v>627</v>
       </c>
     </row>
     <row r="107" spans="1:16">
       <c r="A107" s="12">
-        <v>44075</v>
+        <v>44077</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>436</v>
-      </c>
-      <c r="C107" s="13"/>
-      <c r="D107" s="8" t="s">
-        <v>638</v>
+        <v>424</v>
+      </c>
+      <c r="C107" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="D107" s="15" t="s">
+        <v>222</v>
       </c>
       <c r="E107" s="8" t="s">
-        <v>639</v>
+        <v>628</v>
       </c>
       <c r="F107" s="8" t="s">
-        <v>632</v>
+        <v>591</v>
       </c>
       <c r="G107" s="8" t="s">
-        <v>638</v>
-      </c>
-      <c r="H107" s="13"/>
+        <v>427</v>
+      </c>
+      <c r="H107" s="13">
+        <v>1334</v>
+      </c>
       <c r="I107" s="8" t="s">
-        <v>640</v>
-      </c>
-      <c r="J107" s="13"/>
-      <c r="K107" s="14"/>
+        <v>629</v>
+      </c>
+      <c r="J107" s="13">
+        <v>1334</v>
+      </c>
+      <c r="K107" s="14">
+        <v>8.0555555555555602E-2</v>
+      </c>
       <c r="L107" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="M107" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="N107" s="16"/>
-      <c r="O107" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="P107" s="8"/>
+        <v>223</v>
+      </c>
+      <c r="M107" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="N107" s="16">
+        <v>1020</v>
+      </c>
+      <c r="O107" s="8" t="s">
+        <v>630</v>
+      </c>
+      <c r="P107" s="8" t="s">
+        <v>631</v>
+      </c>
     </row>
     <row r="108" spans="1:16">
       <c r="A108" s="12">
-        <v>44074</v>
+        <v>44075</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>436</v>
-      </c>
-      <c r="C108" s="13"/>
-      <c r="D108" s="8" t="s">
-        <v>638</v>
+        <v>389</v>
+      </c>
+      <c r="C108" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="D108" s="15" t="s">
+        <v>226</v>
       </c>
       <c r="E108" s="8" t="s">
         <v>632</v>
       </c>
       <c r="F108" s="8" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="G108" s="8" t="s">
-        <v>638</v>
-      </c>
-      <c r="H108" s="13"/>
+        <v>634</v>
+      </c>
+      <c r="H108" s="13">
+        <v>248</v>
+      </c>
       <c r="I108" s="8" t="s">
-        <v>641</v>
-      </c>
-      <c r="J108" s="13"/>
-      <c r="K108" s="14"/>
+        <v>635</v>
+      </c>
+      <c r="J108" s="13">
+        <v>248</v>
+      </c>
+      <c r="K108" s="14">
+        <v>0.120138888888889</v>
+      </c>
       <c r="L108" s="15" t="s">
         <v>1</v>
       </c>
       <c r="M108" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="N108" s="16"/>
-      <c r="O108" s="13" t="s">
-        <v>1</v>
-      </c>
+        <v>636</v>
+      </c>
+      <c r="N108" s="16">
+        <v>40.5</v>
+      </c>
+      <c r="O108" s="13"/>
       <c r="P108" s="8" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
     </row>
     <row r="109" spans="1:16">
       <c r="A109" s="12">
-        <v>44073</v>
+        <v>44075</v>
       </c>
       <c r="B109" s="7" t="s">
         <v>436</v>
@@ -16477,7 +16568,7 @@
         <v>638</v>
       </c>
       <c r="E109" s="8" t="s">
-        <v>633</v>
+        <v>639</v>
       </c>
       <c r="F109" s="8" t="s">
         <v>632</v>
@@ -16487,7 +16578,7 @@
       </c>
       <c r="H109" s="13"/>
       <c r="I109" s="8" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="J109" s="13"/>
       <c r="K109" s="14"/>
@@ -16501,13 +16592,11 @@
       <c r="O109" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="P109" s="8" t="s">
-        <v>644</v>
-      </c>
+      <c r="P109" s="8"/>
     </row>
     <row r="110" spans="1:16">
       <c r="A110" s="12">
-        <v>44072</v>
+        <v>44074</v>
       </c>
       <c r="B110" s="7" t="s">
         <v>436</v>
@@ -16517,17 +16606,17 @@
         <v>638</v>
       </c>
       <c r="E110" s="8" t="s">
-        <v>645</v>
+        <v>632</v>
       </c>
       <c r="F110" s="8" t="s">
-        <v>633</v>
+        <v>639</v>
       </c>
       <c r="G110" s="8" t="s">
         <v>638</v>
       </c>
       <c r="H110" s="13"/>
       <c r="I110" s="8" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="J110" s="13"/>
       <c r="K110" s="14"/>
@@ -16542,12 +16631,12 @@
         <v>1</v>
       </c>
       <c r="P110" s="8" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
     </row>
     <row r="111" spans="1:16">
       <c r="A111" s="12">
-        <v>44071</v>
+        <v>44073</v>
       </c>
       <c r="B111" s="7" t="s">
         <v>436</v>
@@ -16560,14 +16649,14 @@
         <v>633</v>
       </c>
       <c r="F111" s="8" t="s">
-        <v>645</v>
+        <v>632</v>
       </c>
       <c r="G111" s="8" t="s">
         <v>638</v>
       </c>
       <c r="H111" s="13"/>
       <c r="I111" s="8" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="J111" s="13"/>
       <c r="K111" s="14"/>
@@ -16582,168 +16671,152 @@
         <v>1</v>
       </c>
       <c r="P111" s="8" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
     </row>
     <row r="112" spans="1:16">
       <c r="A112" s="12">
-        <v>44066</v>
+        <v>44072</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="C112" s="13" t="s">
-        <v>227</v>
-      </c>
-      <c r="D112" s="15" t="s">
-        <v>228</v>
+        <v>436</v>
+      </c>
+      <c r="C112" s="13"/>
+      <c r="D112" s="8" t="s">
+        <v>638</v>
       </c>
       <c r="E112" s="8" t="s">
-        <v>498</v>
+        <v>645</v>
       </c>
       <c r="F112" s="8" t="s">
         <v>633</v>
       </c>
       <c r="G112" s="8" t="s">
-        <v>650</v>
-      </c>
-      <c r="H112" s="13">
-        <v>4373</v>
-      </c>
+        <v>638</v>
+      </c>
+      <c r="H112" s="13"/>
       <c r="I112" s="8" t="s">
-        <v>651</v>
-      </c>
-      <c r="J112" s="13">
-        <v>4373</v>
-      </c>
-      <c r="K112" s="14" t="s">
-        <v>652</v>
-      </c>
-      <c r="L112" s="9" t="s">
-        <v>653</v>
-      </c>
-      <c r="M112" s="13" t="s">
-        <v>654</v>
-      </c>
-      <c r="N112" s="16">
-        <v>793.5</v>
-      </c>
-      <c r="O112" s="13"/>
+        <v>646</v>
+      </c>
+      <c r="J112" s="13"/>
+      <c r="K112" s="14"/>
+      <c r="L112" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="M112" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="N112" s="16"/>
+      <c r="O112" s="13" t="s">
+        <v>1</v>
+      </c>
       <c r="P112" s="8" t="s">
-        <v>655</v>
+        <v>647</v>
       </c>
     </row>
     <row r="113" spans="1:16">
       <c r="A113" s="12">
-        <v>44066</v>
+        <v>44071</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="C113" s="13" t="s">
-        <v>229</v>
-      </c>
-      <c r="D113" s="15" t="s">
-        <v>230</v>
+        <v>436</v>
+      </c>
+      <c r="C113" s="13"/>
+      <c r="D113" s="8" t="s">
+        <v>638</v>
       </c>
       <c r="E113" s="8" t="s">
-        <v>656</v>
+        <v>633</v>
       </c>
       <c r="F113" s="8" t="s">
-        <v>391</v>
+        <v>645</v>
       </c>
       <c r="G113" s="8" t="s">
-        <v>459</v>
-      </c>
-      <c r="H113" s="13">
-        <v>490</v>
-      </c>
+        <v>638</v>
+      </c>
+      <c r="H113" s="13"/>
       <c r="I113" s="8" t="s">
-        <v>657</v>
-      </c>
-      <c r="J113" s="13">
-        <v>314</v>
-      </c>
-      <c r="K113" s="14">
-        <v>7.9166666666666705E-2</v>
-      </c>
+        <v>648</v>
+      </c>
+      <c r="J113" s="13"/>
+      <c r="K113" s="14"/>
       <c r="L113" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="M113" s="13" t="s">
-        <v>658</v>
-      </c>
-      <c r="N113" s="16">
-        <v>144</v>
-      </c>
-      <c r="O113" s="13"/>
+        <v>1</v>
+      </c>
+      <c r="M113" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="N113" s="16"/>
+      <c r="O113" s="13" t="s">
+        <v>1</v>
+      </c>
       <c r="P113" s="8" t="s">
-        <v>659</v>
+        <v>649</v>
       </c>
     </row>
     <row r="114" spans="1:16">
       <c r="A114" s="12">
-        <v>44038</v>
+        <v>44066</v>
       </c>
       <c r="B114" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="C114" s="17" t="s">
-        <v>231</v>
+      <c r="C114" s="13" t="s">
+        <v>227</v>
       </c>
       <c r="D114" s="15" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="E114" s="8" t="s">
-        <v>660</v>
+        <v>498</v>
       </c>
       <c r="F114" s="8" t="s">
-        <v>415</v>
+        <v>633</v>
       </c>
       <c r="G114" s="8" t="s">
-        <v>459</v>
+        <v>650</v>
       </c>
       <c r="H114" s="13">
-        <v>479</v>
+        <v>4373</v>
       </c>
       <c r="I114" s="8" t="s">
-        <v>661</v>
+        <v>651</v>
       </c>
       <c r="J114" s="13">
-        <v>202</v>
-      </c>
-      <c r="K114" s="14">
-        <v>5.1388888888888901E-2</v>
-      </c>
-      <c r="L114" s="15" t="s">
-        <v>1</v>
+        <v>4373</v>
+      </c>
+      <c r="K114" s="14" t="s">
+        <v>652</v>
+      </c>
+      <c r="L114" s="9" t="s">
+        <v>653</v>
       </c>
       <c r="M114" s="13" t="s">
-        <v>662</v>
+        <v>654</v>
       </c>
       <c r="N114" s="16">
-        <v>92.5</v>
+        <v>793.5</v>
       </c>
       <c r="O114" s="13"/>
       <c r="P114" s="8" t="s">
-        <v>663</v>
+        <v>655</v>
       </c>
     </row>
     <row r="115" spans="1:16">
       <c r="A115" s="12">
-        <v>44037</v>
+        <v>44066</v>
       </c>
       <c r="B115" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="C115" s="17" t="s">
-        <v>233</v>
+      <c r="C115" s="13" t="s">
+        <v>229</v>
       </c>
       <c r="D115" s="15" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E115" s="8" t="s">
-        <v>664</v>
+        <v>656</v>
       </c>
       <c r="F115" s="8" t="s">
         <v>391</v>
@@ -16752,476 +16825,476 @@
         <v>459</v>
       </c>
       <c r="H115" s="13">
-        <v>466</v>
+        <v>490</v>
       </c>
       <c r="I115" s="8" t="s">
-        <v>665</v>
+        <v>657</v>
       </c>
       <c r="J115" s="13">
-        <v>202</v>
+        <v>314</v>
       </c>
       <c r="K115" s="14">
-        <v>5.5555555555555601E-2</v>
+        <v>7.9166666666666705E-2</v>
       </c>
       <c r="L115" s="15" t="s">
-        <v>235</v>
+        <v>107</v>
       </c>
       <c r="M115" s="13" t="s">
-        <v>666</v>
+        <v>658</v>
       </c>
       <c r="N115" s="16">
-        <v>92.5</v>
+        <v>144</v>
       </c>
       <c r="O115" s="13"/>
       <c r="P115" s="8" t="s">
-        <v>667</v>
+        <v>659</v>
       </c>
     </row>
     <row r="116" spans="1:16">
       <c r="A116" s="12">
-        <v>43845</v>
+        <v>44038</v>
       </c>
       <c r="B116" s="7" t="s">
         <v>389</v>
       </c>
       <c r="C116" s="17" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="D116" s="15" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="E116" s="8" t="s">
-        <v>452</v>
+        <v>660</v>
       </c>
       <c r="F116" s="8" t="s">
-        <v>668</v>
+        <v>415</v>
       </c>
       <c r="G116" s="8" t="s">
         <v>459</v>
       </c>
       <c r="H116" s="13">
-        <v>1709</v>
+        <v>479</v>
       </c>
       <c r="I116" s="8" t="s">
-        <v>596</v>
+        <v>661</v>
       </c>
       <c r="J116" s="13">
-        <v>1434</v>
+        <v>202</v>
       </c>
       <c r="K116" s="14">
-        <v>0.28819444444444398</v>
-      </c>
-      <c r="L116" s="15">
-        <v>8</v>
+        <v>5.1388888888888901E-2</v>
+      </c>
+      <c r="L116" s="15" t="s">
+        <v>1</v>
       </c>
       <c r="M116" s="13" t="s">
-        <v>669</v>
+        <v>662</v>
       </c>
       <c r="N116" s="16">
-        <v>446.5</v>
+        <v>92.5</v>
       </c>
       <c r="O116" s="13"/>
-      <c r="P116" s="13" t="s">
-        <v>670</v>
+      <c r="P116" s="8" t="s">
+        <v>663</v>
       </c>
     </row>
     <row r="117" spans="1:16">
       <c r="A117" s="12">
-        <v>43744</v>
+        <v>44037</v>
       </c>
       <c r="B117" s="7" t="s">
         <v>389</v>
       </c>
       <c r="C117" s="17" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D117" s="15" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="E117" s="8" t="s">
-        <v>671</v>
+        <v>664</v>
       </c>
       <c r="F117" s="8" t="s">
-        <v>452</v>
+        <v>391</v>
       </c>
       <c r="G117" s="8" t="s">
-        <v>672</v>
+        <v>459</v>
       </c>
       <c r="H117" s="13">
-        <v>120</v>
+        <v>466</v>
       </c>
       <c r="I117" s="8" t="s">
-        <v>673</v>
+        <v>665</v>
       </c>
       <c r="J117" s="13">
-        <v>120</v>
-      </c>
-      <c r="K117" s="14" t="s">
-        <v>370</v>
+        <v>202</v>
+      </c>
+      <c r="K117" s="14">
+        <v>5.5555555555555601E-2</v>
       </c>
       <c r="L117" s="15" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="M117" s="13" t="s">
-        <v>674</v>
+        <v>666</v>
       </c>
       <c r="N117" s="16">
-        <v>54.5</v>
+        <v>92.5</v>
       </c>
       <c r="O117" s="13"/>
-      <c r="P117" s="13" t="s">
-        <v>371</v>
+      <c r="P117" s="8" t="s">
+        <v>667</v>
       </c>
     </row>
     <row r="118" spans="1:16">
       <c r="A118" s="12">
-        <v>43742</v>
+        <v>43845</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>675</v>
+        <v>389</v>
       </c>
       <c r="C118" s="17" t="s">
-        <v>241</v>
-      </c>
-      <c r="D118" s="8" t="s">
-        <v>676</v>
+        <v>236</v>
+      </c>
+      <c r="D118" s="15" t="s">
+        <v>237</v>
       </c>
       <c r="E118" s="8" t="s">
-        <v>501</v>
+        <v>452</v>
       </c>
       <c r="F118" s="8" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="G118" s="8" t="s">
-        <v>676</v>
+        <v>459</v>
       </c>
       <c r="H118" s="13">
-        <v>163.74</v>
+        <v>1709</v>
       </c>
       <c r="I118" s="8" t="s">
-        <v>677</v>
+        <v>596</v>
       </c>
       <c r="J118" s="13">
-        <v>163.74</v>
+        <v>1434</v>
       </c>
       <c r="K118" s="14">
-        <v>0.466018518518519</v>
-      </c>
-      <c r="L118" s="15" t="s">
-        <v>1</v>
+        <v>0.28819444444444398</v>
+      </c>
+      <c r="L118" s="15">
+        <v>8</v>
       </c>
       <c r="M118" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="N118" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="O118" s="13" t="s">
-        <v>1</v>
-      </c>
+        <v>669</v>
+      </c>
+      <c r="N118" s="16">
+        <v>446.5</v>
+      </c>
+      <c r="O118" s="13"/>
       <c r="P118" s="13" t="s">
-        <v>323</v>
+        <v>670</v>
       </c>
     </row>
     <row r="119" spans="1:16">
       <c r="A119" s="12">
-        <v>43741</v>
+        <v>43744</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>424</v>
+        <v>389</v>
       </c>
       <c r="C119" s="17" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D119" s="15" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="E119" s="8" t="s">
-        <v>426</v>
+        <v>671</v>
       </c>
       <c r="F119" s="8" t="s">
-        <v>600</v>
-      </c>
-      <c r="G119" s="9" t="s">
-        <v>430</v>
+        <v>452</v>
+      </c>
+      <c r="G119" s="8" t="s">
+        <v>672</v>
       </c>
       <c r="H119" s="13">
-        <v>1200</v>
+        <v>120</v>
       </c>
       <c r="I119" s="8" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="J119" s="13">
-        <v>1200</v>
-      </c>
-      <c r="K119" s="14">
-        <v>7.5694444444444398E-2</v>
+        <v>120</v>
+      </c>
+      <c r="K119" s="14" t="s">
+        <v>370</v>
       </c>
       <c r="L119" s="15" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="M119" s="13" t="s">
-        <v>245</v>
+        <v>674</v>
       </c>
       <c r="N119" s="16">
-        <v>410</v>
-      </c>
-      <c r="O119" s="8" t="s">
-        <v>432</v>
-      </c>
-      <c r="P119" s="8" t="s">
-        <v>679</v>
+        <v>54.5</v>
+      </c>
+      <c r="O119" s="13"/>
+      <c r="P119" s="13" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="120" spans="1:16">
       <c r="A120" s="12">
-        <v>43739</v>
+        <v>43742</v>
       </c>
       <c r="B120" s="7" t="s">
-        <v>389</v>
+        <v>675</v>
       </c>
       <c r="C120" s="17" t="s">
-        <v>246</v>
-      </c>
-      <c r="D120" s="15" t="s">
-        <v>247</v>
+        <v>241</v>
+      </c>
+      <c r="D120" s="8" t="s">
+        <v>676</v>
       </c>
       <c r="E120" s="8" t="s">
-        <v>476</v>
+        <v>501</v>
       </c>
       <c r="F120" s="8" t="s">
-        <v>680</v>
+        <v>671</v>
       </c>
       <c r="G120" s="8" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="H120" s="13">
-        <v>2510</v>
+        <v>163.74</v>
       </c>
       <c r="I120" s="8" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="J120" s="13">
-        <v>167</v>
+        <v>163.74</v>
       </c>
       <c r="K120" s="14">
-        <v>9.7222222222222196E-2</v>
+        <v>0.466018518518519</v>
       </c>
       <c r="L120" s="15" t="s">
-        <v>372</v>
+        <v>1</v>
       </c>
       <c r="M120" s="13" t="s">
-        <v>683</v>
-      </c>
-      <c r="N120" s="16">
-        <v>24.5</v>
-      </c>
-      <c r="O120" s="13"/>
-      <c r="P120" s="8" t="s">
-        <v>684</v>
+        <v>1</v>
+      </c>
+      <c r="N120" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="O120" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="P120" s="13" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="121" spans="1:16">
       <c r="A121" s="12">
-        <v>43735</v>
+        <v>43741</v>
       </c>
       <c r="B121" s="7" t="s">
-        <v>389</v>
+        <v>424</v>
       </c>
       <c r="C121" s="17" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="D121" s="15" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="E121" s="8" t="s">
-        <v>501</v>
+        <v>426</v>
       </c>
       <c r="F121" s="8" t="s">
-        <v>498</v>
-      </c>
-      <c r="G121" s="8" t="s">
-        <v>685</v>
+        <v>600</v>
+      </c>
+      <c r="G121" s="9" t="s">
+        <v>430</v>
       </c>
       <c r="H121" s="13">
-        <v>1463</v>
+        <v>1200</v>
       </c>
       <c r="I121" s="8" t="s">
-        <v>503</v>
+        <v>678</v>
       </c>
       <c r="J121" s="13">
-        <v>1463</v>
+        <v>1200</v>
       </c>
       <c r="K121" s="14">
-        <v>0.50277777777777799</v>
+        <v>7.5694444444444398E-2</v>
       </c>
       <c r="L121" s="15" t="s">
-        <v>1</v>
+        <v>244</v>
       </c>
       <c r="M121" s="13" t="s">
-        <v>686</v>
+        <v>245</v>
       </c>
       <c r="N121" s="16">
-        <v>440</v>
-      </c>
-      <c r="O121" s="13"/>
+        <v>410</v>
+      </c>
+      <c r="O121" s="8" t="s">
+        <v>432</v>
+      </c>
       <c r="P121" s="8" t="s">
-        <v>687</v>
+        <v>679</v>
       </c>
     </row>
     <row r="122" spans="1:16">
       <c r="A122" s="12">
-        <v>43690</v>
+        <v>43739</v>
       </c>
       <c r="B122" s="7" t="s">
         <v>389</v>
       </c>
       <c r="C122" s="17" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="D122" s="15" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="E122" s="8" t="s">
-        <v>688</v>
+        <v>476</v>
       </c>
       <c r="F122" s="8" t="s">
-        <v>452</v>
+        <v>680</v>
       </c>
       <c r="G122" s="8" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="H122" s="13">
-        <v>774</v>
+        <v>2510</v>
       </c>
       <c r="I122" s="8" t="s">
-        <v>689</v>
+        <v>682</v>
       </c>
       <c r="J122" s="13">
-        <v>774</v>
+        <v>167</v>
       </c>
       <c r="K122" s="14">
-        <v>0.27500000000000002</v>
+        <v>9.7222222222222196E-2</v>
       </c>
       <c r="L122" s="15" t="s">
-        <v>252</v>
+        <v>372</v>
       </c>
       <c r="M122" s="13" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="N122" s="16">
-        <v>261</v>
+        <v>24.5</v>
       </c>
       <c r="O122" s="13"/>
-      <c r="P122" s="13" t="s">
-        <v>324</v>
+      <c r="P122" s="8" t="s">
+        <v>684</v>
       </c>
     </row>
     <row r="123" spans="1:16">
       <c r="A123" s="12">
-        <v>43687</v>
-      </c>
-      <c r="B123" s="12" t="s">
-        <v>300</v>
+        <v>43735</v>
+      </c>
+      <c r="B123" s="7" t="s">
+        <v>389</v>
       </c>
       <c r="C123" s="17" t="s">
-        <v>253</v>
-      </c>
-      <c r="D123" s="13" t="s">
-        <v>325</v>
-      </c>
-      <c r="E123" s="13" t="s">
-        <v>326</v>
-      </c>
-      <c r="F123" s="13" t="s">
-        <v>327</v>
-      </c>
-      <c r="G123" s="13" t="s">
-        <v>325</v>
+        <v>248</v>
+      </c>
+      <c r="D123" s="15" t="s">
+        <v>249</v>
+      </c>
+      <c r="E123" s="8" t="s">
+        <v>501</v>
+      </c>
+      <c r="F123" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="G123" s="8" t="s">
+        <v>685</v>
       </c>
       <c r="H123" s="13">
-        <v>1712.52</v>
-      </c>
-      <c r="I123" s="13" t="s">
-        <v>328</v>
+        <v>1463</v>
+      </c>
+      <c r="I123" s="8" t="s">
+        <v>503</v>
       </c>
       <c r="J123" s="13">
-        <v>145.19999999999999</v>
+        <v>1463</v>
       </c>
       <c r="K123" s="14">
-        <v>0.37678240740740698</v>
+        <v>0.50277777777777799</v>
       </c>
       <c r="L123" s="15" t="s">
         <v>1</v>
       </c>
       <c r="M123" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="N123" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="O123" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="P123" s="13"/>
+        <v>686</v>
+      </c>
+      <c r="N123" s="16">
+        <v>440</v>
+      </c>
+      <c r="O123" s="13"/>
+      <c r="P123" s="8" t="s">
+        <v>687</v>
+      </c>
     </row>
     <row r="124" spans="1:16">
       <c r="A124" s="12">
-        <v>43686</v>
-      </c>
-      <c r="B124" s="12" t="s">
-        <v>300</v>
+        <v>43690</v>
+      </c>
+      <c r="B124" s="7" t="s">
+        <v>389</v>
       </c>
       <c r="C124" s="17" t="s">
-        <v>254</v>
-      </c>
-      <c r="D124" s="13" t="s">
-        <v>325</v>
-      </c>
-      <c r="E124" s="13" t="s">
-        <v>326</v>
-      </c>
-      <c r="F124" s="13" t="s">
-        <v>327</v>
-      </c>
-      <c r="G124" s="13" t="s">
-        <v>325</v>
+        <v>250</v>
+      </c>
+      <c r="D124" s="15" t="s">
+        <v>251</v>
+      </c>
+      <c r="E124" s="8" t="s">
+        <v>688</v>
+      </c>
+      <c r="F124" s="8" t="s">
+        <v>452</v>
+      </c>
+      <c r="G124" s="8" t="s">
+        <v>685</v>
       </c>
       <c r="H124" s="13">
-        <v>1712.52</v>
-      </c>
-      <c r="I124" s="13" t="s">
-        <v>329</v>
+        <v>774</v>
+      </c>
+      <c r="I124" s="8" t="s">
+        <v>689</v>
       </c>
       <c r="J124" s="13">
-        <v>153.85</v>
+        <v>774</v>
       </c>
       <c r="K124" s="14">
-        <v>0.36333333333333301</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="L124" s="15" t="s">
-        <v>1</v>
+        <v>252</v>
       </c>
       <c r="M124" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="N124" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="O124" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="P124" s="13"/>
+        <v>690</v>
+      </c>
+      <c r="N124" s="16">
+        <v>261</v>
+      </c>
+      <c r="O124" s="13"/>
+      <c r="P124" s="13" t="s">
+        <v>324</v>
+      </c>
     </row>
     <row r="125" spans="1:16">
       <c r="A125" s="12">
-        <v>43684</v>
+        <v>43687</v>
       </c>
       <c r="B125" s="12" t="s">
         <v>300</v>
       </c>
       <c r="C125" s="17" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D125" s="13" t="s">
         <v>325</v>
@@ -17239,13 +17312,13 @@
         <v>1712.52</v>
       </c>
       <c r="I125" s="13" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="J125" s="13">
-        <v>122.95</v>
+        <v>145.19999999999999</v>
       </c>
       <c r="K125" s="14">
-        <v>0.33018518518518503</v>
+        <v>0.37678240740740698</v>
       </c>
       <c r="L125" s="15" t="s">
         <v>1</v>
@@ -17263,13 +17336,13 @@
     </row>
     <row r="126" spans="1:16">
       <c r="A126" s="12">
-        <v>43683</v>
+        <v>43686</v>
       </c>
       <c r="B126" s="12" t="s">
         <v>300</v>
       </c>
       <c r="C126" s="17" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D126" s="13" t="s">
         <v>325</v>
@@ -17287,13 +17360,13 @@
         <v>1712.52</v>
       </c>
       <c r="I126" s="13" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="J126" s="13">
-        <v>122.1</v>
+        <v>153.85</v>
       </c>
       <c r="K126" s="14">
-        <v>0.30446759259259298</v>
+        <v>0.36333333333333301</v>
       </c>
       <c r="L126" s="15" t="s">
         <v>1</v>
@@ -17311,13 +17384,13 @@
     </row>
     <row r="127" spans="1:16">
       <c r="A127" s="12">
-        <v>43682</v>
+        <v>43684</v>
       </c>
       <c r="B127" s="12" t="s">
         <v>300</v>
       </c>
       <c r="C127" s="17" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D127" s="13" t="s">
         <v>325</v>
@@ -17335,12 +17408,14 @@
         <v>1712.52</v>
       </c>
       <c r="I127" s="13" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="J127" s="13">
-        <v>95.1</v>
-      </c>
-      <c r="K127" s="14"/>
+        <v>122.95</v>
+      </c>
+      <c r="K127" s="14">
+        <v>0.33018518518518503</v>
+      </c>
       <c r="L127" s="15" t="s">
         <v>1</v>
       </c>
@@ -17357,13 +17432,13 @@
     </row>
     <row r="128" spans="1:16">
       <c r="A128" s="12">
-        <v>43680</v>
+        <v>43683</v>
       </c>
       <c r="B128" s="12" t="s">
         <v>300</v>
       </c>
       <c r="C128" s="17" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D128" s="13" t="s">
         <v>325</v>
@@ -17381,13 +17456,13 @@
         <v>1712.52</v>
       </c>
       <c r="I128" s="13" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="J128" s="13">
-        <v>116.42</v>
+        <v>122.1</v>
       </c>
       <c r="K128" s="14">
-        <v>0.28943287037037002</v>
+        <v>0.30446759259259298</v>
       </c>
       <c r="L128" s="15" t="s">
         <v>1</v>
@@ -17405,13 +17480,13 @@
     </row>
     <row r="129" spans="1:16">
       <c r="A129" s="12">
-        <v>43679</v>
+        <v>43682</v>
       </c>
       <c r="B129" s="12" t="s">
         <v>300</v>
       </c>
       <c r="C129" s="17" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D129" s="13" t="s">
         <v>325</v>
@@ -17429,14 +17504,12 @@
         <v>1712.52</v>
       </c>
       <c r="I129" s="13" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="J129" s="13">
-        <v>91.79</v>
-      </c>
-      <c r="K129" s="14">
-        <v>0.222615740740741</v>
-      </c>
+        <v>95.1</v>
+      </c>
+      <c r="K129" s="14"/>
       <c r="L129" s="15" t="s">
         <v>1</v>
       </c>
@@ -17453,13 +17526,13 @@
     </row>
     <row r="130" spans="1:16">
       <c r="A130" s="12">
-        <v>43676</v>
+        <v>43680</v>
       </c>
       <c r="B130" s="12" t="s">
         <v>300</v>
       </c>
       <c r="C130" s="17" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D130" s="13" t="s">
         <v>325</v>
@@ -17477,13 +17550,13 @@
         <v>1712.52</v>
       </c>
       <c r="I130" s="13" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="J130" s="13">
-        <v>114.7</v>
+        <v>116.42</v>
       </c>
       <c r="K130" s="14">
-        <v>0.28466435185185202</v>
+        <v>0.28943287037037002</v>
       </c>
       <c r="L130" s="15" t="s">
         <v>1</v>
@@ -17501,13 +17574,13 @@
     </row>
     <row r="131" spans="1:16">
       <c r="A131" s="12">
-        <v>43675</v>
+        <v>43679</v>
       </c>
       <c r="B131" s="12" t="s">
         <v>300</v>
       </c>
       <c r="C131" s="17" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D131" s="13" t="s">
         <v>325</v>
@@ -17525,13 +17598,13 @@
         <v>1712.52</v>
       </c>
       <c r="I131" s="13" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="J131" s="13">
-        <v>74.14</v>
+        <v>91.79</v>
       </c>
       <c r="K131" s="14">
-        <v>0.19422453703703699</v>
+        <v>0.222615740740741</v>
       </c>
       <c r="L131" s="15" t="s">
         <v>1</v>
@@ -17549,13 +17622,13 @@
     </row>
     <row r="132" spans="1:16">
       <c r="A132" s="12">
-        <v>43674</v>
+        <v>43676</v>
       </c>
       <c r="B132" s="12" t="s">
         <v>300</v>
       </c>
       <c r="C132" s="17" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D132" s="13" t="s">
         <v>325</v>
@@ -17573,13 +17646,13 @@
         <v>1712.52</v>
       </c>
       <c r="I132" s="13" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="J132" s="13">
-        <v>118.9</v>
+        <v>114.7</v>
       </c>
       <c r="K132" s="14">
-        <v>0.297719907407407</v>
+        <v>0.28466435185185202</v>
       </c>
       <c r="L132" s="15" t="s">
         <v>1</v>
@@ -17597,13 +17670,13 @@
     </row>
     <row r="133" spans="1:16">
       <c r="A133" s="12">
-        <v>43673</v>
+        <v>43675</v>
       </c>
       <c r="B133" s="12" t="s">
         <v>300</v>
       </c>
       <c r="C133" s="17" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D133" s="13" t="s">
         <v>325</v>
@@ -17621,13 +17694,13 @@
         <v>1712.52</v>
       </c>
       <c r="I133" s="13" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="J133" s="13">
-        <v>95.07</v>
+        <v>74.14</v>
       </c>
       <c r="K133" s="14">
-        <v>0.227546296296296</v>
+        <v>0.19422453703703699</v>
       </c>
       <c r="L133" s="15" t="s">
         <v>1</v>
@@ -17645,252 +17718,256 @@
     </row>
     <row r="134" spans="1:16">
       <c r="A134" s="12">
-        <v>43668</v>
-      </c>
-      <c r="B134" s="7" t="s">
-        <v>389</v>
+        <v>43674</v>
+      </c>
+      <c r="B134" s="12" t="s">
+        <v>300</v>
       </c>
       <c r="C134" s="17" t="s">
-        <v>264</v>
-      </c>
-      <c r="D134" s="15">
-        <v>4341</v>
-      </c>
-      <c r="E134" s="8" t="s">
-        <v>691</v>
-      </c>
-      <c r="F134" s="8" t="s">
-        <v>692</v>
-      </c>
-      <c r="G134" s="8" t="s">
-        <v>502</v>
+        <v>262</v>
+      </c>
+      <c r="D134" s="13" t="s">
+        <v>325</v>
+      </c>
+      <c r="E134" s="13" t="s">
+        <v>326</v>
+      </c>
+      <c r="F134" s="13" t="s">
+        <v>327</v>
+      </c>
+      <c r="G134" s="13" t="s">
+        <v>325</v>
       </c>
       <c r="H134" s="13">
-        <v>131</v>
-      </c>
-      <c r="I134" s="8" t="s">
-        <v>693</v>
+        <v>1712.52</v>
+      </c>
+      <c r="I134" s="13" t="s">
+        <v>337</v>
       </c>
       <c r="J134" s="13">
-        <v>90</v>
+        <v>118.9</v>
       </c>
       <c r="K134" s="14">
-        <v>8.8888888888888906E-2</v>
+        <v>0.297719907407407</v>
       </c>
       <c r="L134" s="15" t="s">
         <v>1</v>
       </c>
       <c r="M134" s="13" t="s">
-        <v>694</v>
-      </c>
-      <c r="N134" s="16">
-        <v>6</v>
-      </c>
-      <c r="O134" s="13"/>
-      <c r="P134" s="13" t="s">
-        <v>339</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N134" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="O134" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="P134" s="13"/>
     </row>
     <row r="135" spans="1:16">
       <c r="A135" s="12">
-        <v>43668</v>
-      </c>
-      <c r="B135" s="7" t="s">
-        <v>389</v>
+        <v>43673</v>
+      </c>
+      <c r="B135" s="12" t="s">
+        <v>300</v>
       </c>
       <c r="C135" s="17" t="s">
-        <v>265</v>
-      </c>
-      <c r="D135" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="E135" s="8" t="s">
-        <v>695</v>
-      </c>
-      <c r="F135" s="8" t="s">
-        <v>691</v>
-      </c>
-      <c r="G135" s="8" t="s">
-        <v>696</v>
+        <v>263</v>
+      </c>
+      <c r="D135" s="13" t="s">
+        <v>325</v>
+      </c>
+      <c r="E135" s="13" t="s">
+        <v>326</v>
+      </c>
+      <c r="F135" s="13" t="s">
+        <v>327</v>
+      </c>
+      <c r="G135" s="13" t="s">
+        <v>325</v>
       </c>
       <c r="H135" s="13">
-        <v>111</v>
-      </c>
-      <c r="I135" s="8" t="s">
-        <v>697</v>
+        <v>1712.52</v>
+      </c>
+      <c r="I135" s="13" t="s">
+        <v>338</v>
       </c>
       <c r="J135" s="13">
-        <v>111</v>
-      </c>
-      <c r="K135" s="14" t="s">
-        <v>373</v>
+        <v>95.07</v>
+      </c>
+      <c r="K135" s="14">
+        <v>0.227546296296296</v>
       </c>
       <c r="L135" s="15" t="s">
-        <v>267</v>
+        <v>1</v>
       </c>
       <c r="M135" s="13" t="s">
-        <v>698</v>
-      </c>
-      <c r="N135" s="16">
-        <v>31.5</v>
-      </c>
-      <c r="O135" s="13"/>
-      <c r="P135" s="8" t="s">
-        <v>699</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N135" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="O135" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="P135" s="13"/>
     </row>
     <row r="136" spans="1:16">
       <c r="A136" s="12">
-        <v>43667</v>
+        <v>43668</v>
       </c>
       <c r="B136" s="7" t="s">
         <v>389</v>
       </c>
       <c r="C136" s="17" t="s">
-        <v>268</v>
-      </c>
-      <c r="D136" s="15" t="s">
-        <v>269</v>
+        <v>264</v>
+      </c>
+      <c r="D136" s="15">
+        <v>4341</v>
       </c>
       <c r="E136" s="8" t="s">
-        <v>700</v>
+        <v>691</v>
       </c>
       <c r="F136" s="8" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="G136" s="8" t="s">
-        <v>696</v>
+        <v>502</v>
       </c>
       <c r="H136" s="13">
-        <v>420</v>
+        <v>131</v>
       </c>
       <c r="I136" s="8" t="s">
-        <v>701</v>
+        <v>693</v>
       </c>
       <c r="J136" s="13">
-        <v>333</v>
+        <v>90</v>
       </c>
       <c r="K136" s="14">
-        <v>0.109722222222222</v>
+        <v>8.8888888888888906E-2</v>
       </c>
       <c r="L136" s="15" t="s">
         <v>1</v>
       </c>
       <c r="M136" s="13" t="s">
-        <v>702</v>
+        <v>694</v>
       </c>
       <c r="N136" s="16">
-        <v>98</v>
+        <v>6</v>
       </c>
       <c r="O136" s="13"/>
-      <c r="P136" s="8" t="s">
-        <v>703</v>
+      <c r="P136" s="13" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="137" spans="1:16">
       <c r="A137" s="12">
-        <v>43666</v>
+        <v>43668</v>
       </c>
       <c r="B137" s="7" t="s">
-        <v>675</v>
+        <v>389</v>
       </c>
       <c r="C137" s="17" t="s">
-        <v>270</v>
-      </c>
-      <c r="D137" s="13" t="s">
-        <v>325</v>
-      </c>
-      <c r="E137" s="13" t="s">
-        <v>326</v>
-      </c>
-      <c r="F137" s="13" t="s">
-        <v>327</v>
-      </c>
-      <c r="G137" s="13" t="s">
-        <v>325</v>
+        <v>265</v>
+      </c>
+      <c r="D137" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="E137" s="8" t="s">
+        <v>695</v>
+      </c>
+      <c r="F137" s="8" t="s">
+        <v>691</v>
+      </c>
+      <c r="G137" s="8" t="s">
+        <v>696</v>
       </c>
       <c r="H137" s="13">
-        <v>1712.52</v>
+        <v>111</v>
       </c>
       <c r="I137" s="8" t="s">
-        <v>704</v>
+        <v>697</v>
       </c>
       <c r="J137" s="13">
-        <v>83</v>
-      </c>
-      <c r="K137" s="14"/>
+        <v>111</v>
+      </c>
+      <c r="K137" s="14" t="s">
+        <v>373</v>
+      </c>
       <c r="L137" s="15" t="s">
-        <v>1</v>
+        <v>267</v>
       </c>
       <c r="M137" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="N137" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="O137" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="P137" s="8"/>
+        <v>698</v>
+      </c>
+      <c r="N137" s="16">
+        <v>31.5</v>
+      </c>
+      <c r="O137" s="13"/>
+      <c r="P137" s="8" t="s">
+        <v>699</v>
+      </c>
     </row>
     <row r="138" spans="1:16">
       <c r="A138" s="12">
-        <v>43665</v>
+        <v>43667</v>
       </c>
       <c r="B138" s="7" t="s">
-        <v>675</v>
+        <v>389</v>
       </c>
       <c r="C138" s="17" t="s">
-        <v>271</v>
-      </c>
-      <c r="D138" s="13" t="s">
-        <v>325</v>
-      </c>
-      <c r="E138" s="13" t="s">
-        <v>326</v>
-      </c>
-      <c r="F138" s="13" t="s">
-        <v>327</v>
-      </c>
-      <c r="G138" s="13" t="s">
-        <v>325</v>
+        <v>268</v>
+      </c>
+      <c r="D138" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="E138" s="8" t="s">
+        <v>700</v>
+      </c>
+      <c r="F138" s="8" t="s">
+        <v>695</v>
+      </c>
+      <c r="G138" s="8" t="s">
+        <v>696</v>
       </c>
       <c r="H138" s="13">
-        <v>1712.52</v>
+        <v>420</v>
       </c>
       <c r="I138" s="8" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="J138" s="13">
-        <v>72</v>
-      </c>
-      <c r="K138" s="14"/>
+        <v>333</v>
+      </c>
+      <c r="K138" s="14">
+        <v>0.109722222222222</v>
+      </c>
       <c r="L138" s="15" t="s">
         <v>1</v>
       </c>
       <c r="M138" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="N138" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="O138" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="P138" s="8"/>
+        <v>702</v>
+      </c>
+      <c r="N138" s="16">
+        <v>98</v>
+      </c>
+      <c r="O138" s="13"/>
+      <c r="P138" s="8" t="s">
+        <v>703</v>
+      </c>
     </row>
     <row r="139" spans="1:16">
       <c r="A139" s="12">
-        <v>43665</v>
-      </c>
-      <c r="B139" s="12" t="s">
-        <v>294</v>
+        <v>43666</v>
+      </c>
+      <c r="B139" s="7" t="s">
+        <v>675</v>
       </c>
       <c r="C139" s="17" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D139" s="13" t="s">
-        <v>340</v>
+        <v>325</v>
       </c>
       <c r="E139" s="13" t="s">
         <v>326</v>
@@ -17899,34 +17976,42 @@
         <v>327</v>
       </c>
       <c r="G139" s="13" t="s">
-        <v>340</v>
-      </c>
-      <c r="H139" s="13"/>
-      <c r="I139" s="13" t="s">
-        <v>341</v>
+        <v>325</v>
+      </c>
+      <c r="H139" s="13">
+        <v>1712.52</v>
+      </c>
+      <c r="I139" s="8" t="s">
+        <v>704</v>
       </c>
       <c r="J139" s="13">
-        <v>223</v>
-      </c>
-      <c r="K139" s="14">
-        <v>0.12606481481481499</v>
-      </c>
-      <c r="L139" s="15"/>
-      <c r="M139" s="13"/>
-      <c r="N139" s="16"/>
-      <c r="O139" s="13"/>
-      <c r="P139" s="13" t="s">
-        <v>342</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="K139" s="14"/>
+      <c r="L139" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="M139" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="N139" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="O139" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="P139" s="8"/>
     </row>
     <row r="140" spans="1:16">
       <c r="A140" s="12">
-        <v>43664</v>
-      </c>
-      <c r="B140" s="12" t="s">
-        <v>300</v>
-      </c>
-      <c r="C140" s="17"/>
+        <v>43665</v>
+      </c>
+      <c r="B140" s="7" t="s">
+        <v>675</v>
+      </c>
+      <c r="C140" s="17" t="s">
+        <v>271</v>
+      </c>
       <c r="D140" s="13" t="s">
         <v>325</v>
       </c>
@@ -17942,11 +18027,11 @@
       <c r="H140" s="13">
         <v>1712.52</v>
       </c>
-      <c r="I140" s="13" t="s">
-        <v>343</v>
+      <c r="I140" s="8" t="s">
+        <v>705</v>
       </c>
       <c r="J140" s="13">
-        <v>103.3</v>
+        <v>72</v>
       </c>
       <c r="K140" s="14"/>
       <c r="L140" s="15" t="s">
@@ -17961,18 +18046,20 @@
       <c r="O140" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="P140" s="13"/>
+      <c r="P140" s="8"/>
     </row>
     <row r="141" spans="1:16">
       <c r="A141" s="12">
-        <v>43663</v>
+        <v>43665</v>
       </c>
       <c r="B141" s="12" t="s">
-        <v>300</v>
-      </c>
-      <c r="C141" s="17"/>
+        <v>294</v>
+      </c>
+      <c r="C141" s="17" t="s">
+        <v>272</v>
+      </c>
       <c r="D141" s="13" t="s">
-        <v>325</v>
+        <v>340</v>
       </c>
       <c r="E141" s="13" t="s">
         <v>326</v>
@@ -17981,35 +18068,29 @@
         <v>327</v>
       </c>
       <c r="G141" s="13" t="s">
-        <v>325</v>
-      </c>
-      <c r="H141" s="13">
-        <v>1712.52</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="H141" s="13"/>
       <c r="I141" s="13" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="J141" s="13">
-        <v>75.5</v>
-      </c>
-      <c r="K141" s="14"/>
-      <c r="L141" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="M141" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="N141" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="O141" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="P141" s="13"/>
+        <v>223</v>
+      </c>
+      <c r="K141" s="14">
+        <v>0.12606481481481499</v>
+      </c>
+      <c r="L141" s="15"/>
+      <c r="M141" s="13"/>
+      <c r="N141" s="16"/>
+      <c r="O141" s="13"/>
+      <c r="P141" s="13" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="142" spans="1:16">
       <c r="A142" s="12">
-        <v>43661</v>
+        <v>43664</v>
       </c>
       <c r="B142" s="12" t="s">
         <v>300</v>
@@ -18031,10 +18112,10 @@
         <v>1712.52</v>
       </c>
       <c r="I142" s="13" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="J142" s="13">
-        <v>128.5</v>
+        <v>103.3</v>
       </c>
       <c r="K142" s="14"/>
       <c r="L142" s="15" t="s">
@@ -18053,247 +18134,239 @@
     </row>
     <row r="143" spans="1:16">
       <c r="A143" s="12">
-        <v>43658</v>
-      </c>
-      <c r="B143" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="C143" s="17" t="s">
-        <v>273</v>
-      </c>
-      <c r="D143" s="15" t="s">
-        <v>274</v>
-      </c>
-      <c r="E143" s="8" t="s">
-        <v>501</v>
-      </c>
-      <c r="F143" s="8" t="s">
-        <v>706</v>
-      </c>
-      <c r="G143" s="8" t="s">
-        <v>707</v>
+        <v>43663</v>
+      </c>
+      <c r="B143" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="C143" s="17"/>
+      <c r="D143" s="13" t="s">
+        <v>325</v>
+      </c>
+      <c r="E143" s="13" t="s">
+        <v>326</v>
+      </c>
+      <c r="F143" s="13" t="s">
+        <v>327</v>
+      </c>
+      <c r="G143" s="13" t="s">
+        <v>325</v>
       </c>
       <c r="H143" s="13">
-        <v>2086</v>
-      </c>
-      <c r="I143" s="8" t="s">
-        <v>708</v>
+        <v>1712.52</v>
+      </c>
+      <c r="I143" s="13" t="s">
+        <v>344</v>
       </c>
       <c r="J143" s="13">
-        <v>2086</v>
-      </c>
-      <c r="K143" s="14" t="s">
-        <v>709</v>
-      </c>
+        <v>75.5</v>
+      </c>
+      <c r="K143" s="14"/>
       <c r="L143" s="15" t="s">
         <v>1</v>
       </c>
       <c r="M143" s="13" t="s">
-        <v>710</v>
-      </c>
-      <c r="N143" s="16">
-        <v>421</v>
-      </c>
-      <c r="O143" s="13"/>
-      <c r="P143" s="13" t="s">
-        <v>346</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N143" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="O143" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="P143" s="13"/>
     </row>
     <row r="144" spans="1:16">
       <c r="A144" s="12">
-        <v>43646</v>
-      </c>
-      <c r="B144" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="C144" s="17" t="s">
-        <v>275</v>
-      </c>
-      <c r="D144" s="15" t="s">
-        <v>276</v>
-      </c>
-      <c r="E144" s="8" t="s">
-        <v>711</v>
-      </c>
-      <c r="F144" s="8" t="s">
-        <v>452</v>
-      </c>
-      <c r="G144" s="8" t="s">
-        <v>536</v>
+        <v>43661</v>
+      </c>
+      <c r="B144" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="C144" s="17"/>
+      <c r="D144" s="13" t="s">
+        <v>325</v>
+      </c>
+      <c r="E144" s="13" t="s">
+        <v>326</v>
+      </c>
+      <c r="F144" s="13" t="s">
+        <v>327</v>
+      </c>
+      <c r="G144" s="13" t="s">
+        <v>325</v>
       </c>
       <c r="H144" s="13">
-        <v>1279</v>
-      </c>
-      <c r="I144" s="8" t="s">
-        <v>471</v>
+        <v>1712.52</v>
+      </c>
+      <c r="I144" s="13" t="s">
+        <v>345</v>
       </c>
       <c r="J144" s="13">
-        <v>1279</v>
-      </c>
-      <c r="K144" s="14">
-        <v>0.19375000000000001</v>
-      </c>
+        <v>128.5</v>
+      </c>
+      <c r="K144" s="14"/>
       <c r="L144" s="15" t="s">
-        <v>120</v>
+        <v>1</v>
       </c>
       <c r="M144" s="13" t="s">
-        <v>560</v>
-      </c>
-      <c r="N144" s="16">
-        <v>404</v>
-      </c>
-      <c r="O144" s="13"/>
-      <c r="P144" s="13" t="s">
-        <v>374</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N144" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="O144" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="P144" s="13"/>
     </row>
     <row r="145" spans="1:16">
       <c r="A145" s="12">
-        <v>43646</v>
+        <v>43658</v>
       </c>
       <c r="B145" s="7" t="s">
         <v>389</v>
       </c>
       <c r="C145" s="17" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="D145" s="15" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="E145" s="8" t="s">
-        <v>712</v>
+        <v>501</v>
       </c>
       <c r="F145" s="8" t="s">
-        <v>391</v>
+        <v>706</v>
       </c>
       <c r="G145" s="8" t="s">
-        <v>459</v>
+        <v>707</v>
       </c>
       <c r="H145" s="13">
-        <v>610</v>
+        <v>2086</v>
       </c>
       <c r="I145" s="8" t="s">
-        <v>393</v>
+        <v>708</v>
       </c>
       <c r="J145" s="13">
-        <v>155</v>
+        <v>2086</v>
       </c>
       <c r="K145" s="14" t="s">
-        <v>375</v>
+        <v>709</v>
       </c>
       <c r="L145" s="15" t="s">
-        <v>279</v>
+        <v>1</v>
       </c>
       <c r="M145" s="13" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="N145" s="16">
-        <v>53.5</v>
+        <v>421</v>
       </c>
       <c r="O145" s="13"/>
-      <c r="P145" s="8" t="s">
-        <v>714</v>
+      <c r="P145" s="13" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="146" spans="1:16">
       <c r="A146" s="12">
-        <v>43638</v>
+        <v>43646</v>
       </c>
       <c r="B146" s="7" t="s">
         <v>389</v>
       </c>
       <c r="C146" s="17" t="s">
-        <v>236</v>
+        <v>275</v>
       </c>
       <c r="D146" s="15" t="s">
-        <v>237</v>
+        <v>276</v>
       </c>
       <c r="E146" s="8" t="s">
+        <v>711</v>
+      </c>
+      <c r="F146" s="8" t="s">
         <v>452</v>
       </c>
-      <c r="F146" s="8" t="s">
-        <v>668</v>
-      </c>
       <c r="G146" s="8" t="s">
-        <v>459</v>
+        <v>536</v>
       </c>
       <c r="H146" s="13">
-        <v>1709</v>
+        <v>1279</v>
       </c>
       <c r="I146" s="8" t="s">
-        <v>596</v>
+        <v>471</v>
       </c>
       <c r="J146" s="13">
-        <v>1434</v>
+        <v>1279</v>
       </c>
       <c r="K146" s="14">
-        <v>0.28819444444444398</v>
-      </c>
-      <c r="L146" s="15">
-        <v>8</v>
+        <v>0.19375000000000001</v>
+      </c>
+      <c r="L146" s="15" t="s">
+        <v>120</v>
       </c>
       <c r="M146" s="13" t="s">
-        <v>715</v>
+        <v>560</v>
       </c>
       <c r="N146" s="16">
-        <v>446.5</v>
+        <v>404</v>
       </c>
       <c r="O146" s="13"/>
       <c r="P146" s="13" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="147" spans="1:16">
       <c r="A147" s="12">
-        <v>43509</v>
+        <v>43646</v>
       </c>
       <c r="B147" s="7" t="s">
         <v>389</v>
       </c>
       <c r="C147" s="17" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D147" s="15" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="E147" s="8" t="s">
-        <v>415</v>
+        <v>712</v>
       </c>
       <c r="F147" s="8" t="s">
-        <v>452</v>
+        <v>391</v>
       </c>
       <c r="G147" s="8" t="s">
         <v>459</v>
       </c>
       <c r="H147" s="13">
-        <v>1434</v>
+        <v>610</v>
       </c>
       <c r="I147" s="8" t="s">
-        <v>495</v>
+        <v>393</v>
       </c>
       <c r="J147" s="13">
-        <v>1434</v>
-      </c>
-      <c r="K147" s="14">
-        <v>0.28541666666666698</v>
+        <v>155</v>
+      </c>
+      <c r="K147" s="14" t="s">
+        <v>375</v>
       </c>
       <c r="L147" s="15" t="s">
-        <v>218</v>
+        <v>279</v>
       </c>
       <c r="M147" s="13" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="N147" s="16">
-        <v>446.5</v>
+        <v>53.5</v>
       </c>
       <c r="O147" s="13"/>
-      <c r="P147" s="13" t="s">
-        <v>377</v>
+      <c r="P147" s="8" t="s">
+        <v>714</v>
       </c>
     </row>
     <row r="148" spans="1:16">
       <c r="A148" s="12">
-        <v>43489</v>
+        <v>43638</v>
       </c>
       <c r="B148" s="7" t="s">
         <v>389</v>
@@ -18329,223 +18402,223 @@
         <v>8</v>
       </c>
       <c r="M148" s="13" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="N148" s="16">
         <v>446.5</v>
       </c>
       <c r="O148" s="13"/>
       <c r="P148" s="13" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="149" spans="1:16">
       <c r="A149" s="12">
-        <v>43375</v>
+        <v>43509</v>
       </c>
       <c r="B149" s="7" t="s">
         <v>389</v>
       </c>
       <c r="C149" s="17" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D149" s="15" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E149" s="8" t="s">
-        <v>671</v>
+        <v>415</v>
       </c>
       <c r="F149" s="8" t="s">
         <v>452</v>
       </c>
       <c r="G149" s="8" t="s">
-        <v>696</v>
+        <v>459</v>
       </c>
       <c r="H149" s="13">
-        <v>127</v>
+        <v>1434</v>
       </c>
       <c r="I149" s="8" t="s">
-        <v>673</v>
+        <v>495</v>
       </c>
       <c r="J149" s="13">
-        <v>127</v>
-      </c>
-      <c r="K149" s="14" t="s">
-        <v>379</v>
+        <v>1434</v>
+      </c>
+      <c r="K149" s="14">
+        <v>0.28541666666666698</v>
       </c>
       <c r="L149" s="15" t="s">
-        <v>240</v>
+        <v>218</v>
       </c>
       <c r="M149" s="13" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="N149" s="16">
-        <v>54.5</v>
+        <v>446.5</v>
       </c>
       <c r="O149" s="13"/>
       <c r="P149" s="13" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="150" spans="1:16">
       <c r="A150" s="12">
-        <v>43373</v>
+        <v>43489</v>
       </c>
       <c r="B150" s="7" t="s">
-        <v>675</v>
+        <v>389</v>
       </c>
       <c r="C150" s="17" t="s">
-        <v>284</v>
-      </c>
-      <c r="D150" s="8" t="s">
-        <v>719</v>
+        <v>236</v>
+      </c>
+      <c r="D150" s="15" t="s">
+        <v>237</v>
       </c>
       <c r="E150" s="8" t="s">
-        <v>501</v>
+        <v>452</v>
       </c>
       <c r="F150" s="8" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="G150" s="8" t="s">
-        <v>719</v>
+        <v>459</v>
       </c>
       <c r="H150" s="13">
-        <v>144</v>
+        <v>1709</v>
       </c>
       <c r="I150" s="8" t="s">
-        <v>677</v>
+        <v>596</v>
       </c>
       <c r="J150" s="13">
-        <v>144</v>
+        <v>1434</v>
       </c>
       <c r="K150" s="14">
-        <v>0.34564814814814798</v>
-      </c>
-      <c r="L150" s="15" t="s">
-        <v>1</v>
+        <v>0.28819444444444398</v>
+      </c>
+      <c r="L150" s="15">
+        <v>8</v>
       </c>
       <c r="M150" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="N150" s="16" t="s">
-        <v>1</v>
+        <v>717</v>
+      </c>
+      <c r="N150" s="16">
+        <v>446.5</v>
       </c>
       <c r="O150" s="13"/>
       <c r="P150" s="13" t="s">
-        <v>347</v>
+        <v>378</v>
       </c>
     </row>
     <row r="151" spans="1:16">
       <c r="A151" s="12">
-        <v>43341</v>
+        <v>43375</v>
       </c>
       <c r="B151" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="C151" s="13" t="s">
-        <v>285</v>
+      <c r="C151" s="17" t="s">
+        <v>282</v>
       </c>
       <c r="D151" s="15" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="E151" s="8" t="s">
-        <v>403</v>
+        <v>671</v>
       </c>
       <c r="F151" s="8" t="s">
         <v>452</v>
       </c>
       <c r="G151" s="8" t="s">
-        <v>459</v>
+        <v>696</v>
       </c>
       <c r="H151" s="13">
-        <v>2011</v>
+        <v>127</v>
       </c>
       <c r="I151" s="8" t="s">
-        <v>495</v>
+        <v>673</v>
       </c>
       <c r="J151" s="13">
-        <v>1434</v>
-      </c>
-      <c r="K151" s="14">
-        <v>0.28333333333333299</v>
+        <v>127</v>
+      </c>
+      <c r="K151" s="14" t="s">
+        <v>379</v>
       </c>
       <c r="L151" s="15" t="s">
-        <v>218</v>
+        <v>240</v>
       </c>
       <c r="M151" s="13" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="N151" s="16">
-        <v>446.5</v>
+        <v>54.5</v>
       </c>
       <c r="O151" s="13"/>
       <c r="P151" s="13" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="152" spans="1:16">
       <c r="A152" s="12">
-        <v>42974</v>
+        <v>43373</v>
       </c>
       <c r="B152" s="7" t="s">
-        <v>389</v>
+        <v>675</v>
       </c>
       <c r="C152" s="17" t="s">
-        <v>287</v>
-      </c>
-      <c r="D152" s="15" t="s">
-        <v>237</v>
+        <v>284</v>
+      </c>
+      <c r="D152" s="8" t="s">
+        <v>719</v>
       </c>
       <c r="E152" s="8" t="s">
-        <v>452</v>
+        <v>501</v>
       </c>
       <c r="F152" s="8" t="s">
-        <v>668</v>
+        <v>671</v>
       </c>
       <c r="G152" s="8" t="s">
-        <v>459</v>
+        <v>719</v>
       </c>
       <c r="H152" s="13">
-        <v>1691</v>
+        <v>144</v>
       </c>
       <c r="I152" s="8" t="s">
-        <v>596</v>
+        <v>677</v>
       </c>
       <c r="J152" s="13">
-        <v>1434</v>
+        <v>144</v>
       </c>
       <c r="K152" s="14">
-        <v>0.28472222222222199</v>
-      </c>
-      <c r="L152" s="15">
-        <v>8</v>
+        <v>0.34564814814814798</v>
+      </c>
+      <c r="L152" s="15" t="s">
+        <v>1</v>
       </c>
       <c r="M152" s="13" t="s">
-        <v>721</v>
-      </c>
-      <c r="N152" s="16">
-        <v>595.5</v>
+        <v>1</v>
+      </c>
+      <c r="N152" s="16" t="s">
+        <v>1</v>
       </c>
       <c r="O152" s="13"/>
-      <c r="P152" s="8" t="s">
-        <v>722</v>
+      <c r="P152" s="13" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="153" spans="1:16">
       <c r="A153" s="12">
-        <v>42967</v>
+        <v>43341</v>
       </c>
       <c r="B153" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="C153" s="17" t="s">
-        <v>288</v>
+      <c r="C153" s="13" t="s">
+        <v>285</v>
       </c>
       <c r="D153" s="15" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="E153" s="8" t="s">
-        <v>668</v>
+        <v>403</v>
       </c>
       <c r="F153" s="8" t="s">
         <v>452</v>
@@ -18554,7 +18627,7 @@
         <v>459</v>
       </c>
       <c r="H153" s="13">
-        <v>1709</v>
+        <v>2011</v>
       </c>
       <c r="I153" s="8" t="s">
         <v>495</v>
@@ -18563,56 +18636,152 @@
         <v>1434</v>
       </c>
       <c r="K153" s="14">
-        <v>0.3125</v>
+        <v>0.28333333333333299</v>
       </c>
       <c r="L153" s="15" t="s">
         <v>218</v>
       </c>
       <c r="M153" s="13" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="N153" s="16">
+        <v>446.5</v>
+      </c>
+      <c r="O153" s="13"/>
+      <c r="P153" s="13" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="154" spans="1:16">
+      <c r="A154" s="12">
+        <v>42974</v>
+      </c>
+      <c r="B154" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="C154" s="17" t="s">
+        <v>287</v>
+      </c>
+      <c r="D154" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="E154" s="8" t="s">
+        <v>452</v>
+      </c>
+      <c r="F154" s="8" t="s">
+        <v>668</v>
+      </c>
+      <c r="G154" s="8" t="s">
+        <v>459</v>
+      </c>
+      <c r="H154" s="13">
+        <v>1691</v>
+      </c>
+      <c r="I154" s="8" t="s">
+        <v>596</v>
+      </c>
+      <c r="J154" s="13">
+        <v>1434</v>
+      </c>
+      <c r="K154" s="14">
+        <v>0.28472222222222199</v>
+      </c>
+      <c r="L154" s="15">
+        <v>8</v>
+      </c>
+      <c r="M154" s="13" t="s">
+        <v>721</v>
+      </c>
+      <c r="N154" s="16">
         <v>595.5</v>
       </c>
-      <c r="O153" s="13"/>
-      <c r="P153" s="8" t="s">
-        <v>724</v>
+      <c r="O154" s="13"/>
+      <c r="P154" s="8" t="s">
+        <v>722</v>
       </c>
     </row>
     <row r="155" spans="1:16">
-      <c r="A155" s="28" t="s">
-        <v>290</v>
-      </c>
-      <c r="B155" s="28"/>
-      <c r="C155" s="28"/>
-    </row>
-    <row r="156" spans="1:16">
-      <c r="A156" s="29" t="s">
-        <v>291</v>
-      </c>
-      <c r="B156" s="29"/>
-      <c r="C156" s="29"/>
-      <c r="D156" s="29"/>
+      <c r="A155" s="12">
+        <v>42967</v>
+      </c>
+      <c r="B155" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="C155" s="17" t="s">
+        <v>288</v>
+      </c>
+      <c r="D155" s="15" t="s">
+        <v>289</v>
+      </c>
+      <c r="E155" s="8" t="s">
+        <v>668</v>
+      </c>
+      <c r="F155" s="8" t="s">
+        <v>452</v>
+      </c>
+      <c r="G155" s="8" t="s">
+        <v>459</v>
+      </c>
+      <c r="H155" s="13">
+        <v>1709</v>
+      </c>
+      <c r="I155" s="8" t="s">
+        <v>495</v>
+      </c>
+      <c r="J155" s="13">
+        <v>1434</v>
+      </c>
+      <c r="K155" s="14">
+        <v>0.3125</v>
+      </c>
+      <c r="L155" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="M155" s="13" t="s">
+        <v>723</v>
+      </c>
+      <c r="N155" s="16">
+        <v>595.5</v>
+      </c>
+      <c r="O155" s="13"/>
+      <c r="P155" s="8" t="s">
+        <v>724</v>
+      </c>
     </row>
     <row r="157" spans="1:16">
-      <c r="A157" s="29" t="s">
+      <c r="A157" s="28" t="s">
+        <v>290</v>
+      </c>
+      <c r="B157" s="28"/>
+      <c r="C157" s="28"/>
+    </row>
+    <row r="158" spans="1:16">
+      <c r="A158" s="29" t="s">
+        <v>291</v>
+      </c>
+      <c r="B158" s="29"/>
+      <c r="C158" s="29"/>
+      <c r="D158" s="29"/>
+    </row>
+    <row r="159" spans="1:16">
+      <c r="A159" s="29" t="s">
         <v>292</v>
       </c>
-      <c r="B157" s="29"/>
-      <c r="C157" s="29"/>
-      <c r="D157" s="29"/>
+      <c r="B159" s="29"/>
+      <c r="C159" s="29"/>
+      <c r="D159" s="29"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P153" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:P155" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="3">
-    <mergeCell ref="A155:C155"/>
-    <mergeCell ref="A156:D156"/>
-    <mergeCell ref="A157:D157"/>
+    <mergeCell ref="A157:C157"/>
+    <mergeCell ref="A158:D158"/>
+    <mergeCell ref="A159:D159"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A156" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="A157" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="A158" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A159" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/data/transport_record.xlsx
+++ b/data/transport_record.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16540" tabRatio="500"/>
+    <workbookView windowHeight="17000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1798" uniqueCount="911">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1820" uniqueCount="917">
   <si>
     <t>日期</t>
   </si>
@@ -2492,6 +2492,9 @@
     <t>Melaka Sentral-Queen Street Bus Terminal</t>
   </si>
   <si>
+    <t>RM 80.15</t>
+  </si>
+  <si>
     <t>707 Travel Group</t>
   </si>
   <si>
@@ -2540,6 +2543,9 @@
     <t>Ipoh-KL Sentral</t>
   </si>
   <si>
+    <t>RM 46.0</t>
+  </si>
+  <si>
     <t>09:10-11:06</t>
   </si>
   <si>
@@ -2555,6 +2561,9 @@
     <t>Butterworth-Ipoh</t>
   </si>
   <si>
+    <t>RM 12.8</t>
+  </si>
+  <si>
     <t>09:30-12:30</t>
   </si>
   <si>
@@ -2573,6 +2582,9 @@
     <t>KTMB</t>
   </si>
   <si>
+    <t>购票机断网给了 THB 107</t>
+  </si>
+  <si>
     <t>16:10-07:59(+1)</t>
   </si>
   <si>
@@ -2588,6 +2600,9 @@
     <t>Krung Thep Aphiwat-Padang Besar (Thailand)</t>
   </si>
   <si>
+    <t>THB 848</t>
+  </si>
+  <si>
     <t>18:00-06:50(+1)</t>
   </si>
   <si>
@@ -2701,6 +2716,9 @@
       </rPr>
       <t>时</t>
     </r>
+  </si>
+  <si>
+    <t>THB 1200</t>
   </si>
   <si>
     <t>和一群白人包车</t>
@@ -10899,8 +10917,8 @@
   <sheetPr/>
   <dimension ref="A1:AMJ182"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:C22"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" topLeftCell="A107" workbookViewId="0">
+      <selection activeCell="N132" sqref="N132:N136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83088235294118" defaultRowHeight="16.8"/>
@@ -13843,6 +13861,9 @@
       <c r="J45" s="2">
         <v>233</v>
       </c>
+      <c r="N45" s="6" t="s">
+        <v>45</v>
+      </c>
       <c r="P45" s="2" t="s">
         <v>219</v>
       </c>
@@ -14557,8 +14578,11 @@
       <c r="I60" s="11" t="s">
         <v>317</v>
       </c>
+      <c r="N60" s="6" t="s">
+        <v>318</v>
+      </c>
       <c r="O60" s="4" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="61" spans="1:15">
@@ -14569,37 +14593,37 @@
         <v>16</v>
       </c>
       <c r="C61" s="13" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>314</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="I61" s="11" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L61" s="4" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M61" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="N61" s="6" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="O61" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
-    <row r="62" spans="1:9">
+    <row r="62" spans="1:14">
       <c r="A62" s="3">
         <v>45474</v>
       </c>
@@ -14607,25 +14631,28 @@
         <v>35</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
+      </c>
+      <c r="N62" s="6" t="s">
+        <v>335</v>
       </c>
     </row>
-    <row r="63" spans="1:12">
+    <row r="63" spans="1:14">
       <c r="A63" s="3">
         <v>45474</v>
       </c>
@@ -14633,28 +14660,31 @@
         <v>35</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="L63" s="4" t="s">
         <v>214</v>
       </c>
+      <c r="N63" s="6" t="s">
+        <v>341</v>
+      </c>
     </row>
-    <row r="64" spans="1:15">
+    <row r="64" spans="1:16">
       <c r="A64" s="3">
         <v>45471</v>
       </c>
@@ -14662,31 +14692,34 @@
         <v>35</v>
       </c>
       <c r="C64" s="13" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="N64" s="6" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="O64" s="2" t="s">
-        <v>344</v>
+        <v>347</v>
+      </c>
+      <c r="P64" s="2" t="s">
+        <v>348</v>
       </c>
     </row>
-    <row r="65" spans="1:9">
+    <row r="65" spans="1:14">
       <c r="A65" s="3">
         <v>45470</v>
       </c>
@@ -14694,22 +14727,25 @@
         <v>35</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>349</v>
+        <v>353</v>
+      </c>
+      <c r="N65" s="6" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="66" ht="17" spans="1:15">
@@ -14720,22 +14756,22 @@
         <v>35</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="D66" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="F66" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="E66" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>347</v>
-      </c>
       <c r="G66" s="4" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="I66" s="11" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="K66" s="5">
         <v>0.534722222222222</v>
@@ -14744,13 +14780,13 @@
         <v>214</v>
       </c>
       <c r="M66" s="27" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="N66" s="6">
         <v>188</v>
       </c>
       <c r="O66" s="2" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
     </row>
     <row r="67" spans="1:15">
@@ -14761,25 +14797,25 @@
         <v>16</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="H67" s="2">
         <v>182</v>
       </c>
       <c r="I67" s="11" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="J67" s="2">
         <v>182</v>
@@ -14788,16 +14824,16 @@
         <v>0.138888888888889</v>
       </c>
       <c r="L67" s="4" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="M67" s="2" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="N67" s="6">
         <v>61</v>
       </c>
       <c r="O67" s="2" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
     </row>
     <row r="68" ht="17" spans="1:16">
@@ -14808,34 +14844,37 @@
         <v>16</v>
       </c>
       <c r="C68" s="13" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="H68" s="2">
         <v>103</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="J68" s="2">
         <v>103</v>
       </c>
       <c r="K68" s="21" t="s">
-        <v>370</v>
+        <v>375</v>
+      </c>
+      <c r="N68" s="6" t="s">
+        <v>376</v>
       </c>
       <c r="P68" s="2" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
     </row>
     <row r="69" spans="1:15">
@@ -14846,25 +14885,25 @@
         <v>199</v>
       </c>
       <c r="C69" s="13" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="E69" s="28" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="H69" s="2" t="s">
         <v>45</v>
       </c>
       <c r="I69" s="11" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="J69" s="2" t="s">
         <v>45</v>
@@ -14879,7 +14918,7 @@
         <v>45</v>
       </c>
       <c r="O69" s="2" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
     </row>
     <row r="70" ht="17" spans="1:16">
@@ -14890,25 +14929,25 @@
         <v>199</v>
       </c>
       <c r="C70" s="13" t="s">
+        <v>385</v>
+      </c>
+      <c r="D70" s="4" t="s">
         <v>379</v>
       </c>
-      <c r="D70" s="4" t="s">
-        <v>373</v>
-      </c>
       <c r="E70" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="F70" s="28" t="s">
         <v>380</v>
       </c>
-      <c r="F70" s="28" t="s">
-        <v>374</v>
-      </c>
       <c r="G70" s="2" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="H70" s="2" t="s">
         <v>45</v>
       </c>
       <c r="I70" s="11" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="J70" s="2" t="s">
         <v>45</v>
@@ -14923,10 +14962,10 @@
         <v>122</v>
       </c>
       <c r="O70" s="2" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="P70" s="15" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
     </row>
     <row r="71" ht="17" spans="1:15">
@@ -14937,25 +14976,25 @@
         <v>35</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="E71" s="11" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="F71" s="11" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="G71" s="15" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="H71" s="2">
         <v>316</v>
       </c>
       <c r="I71" s="15" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="J71" s="2">
         <v>316</v>
@@ -14964,16 +15003,16 @@
         <v>0.209722222222222</v>
       </c>
       <c r="L71" s="12" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="M71" s="27" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="N71" s="6">
         <v>174</v>
       </c>
       <c r="O71" s="11" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
     </row>
     <row r="72" ht="17" spans="1:16">
@@ -14984,25 +15023,25 @@
         <v>25</v>
       </c>
       <c r="C72" s="13" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="E72" s="11" t="s">
         <v>233</v>
       </c>
       <c r="F72" s="11" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="G72" s="15" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="H72" s="2">
         <v>2310</v>
       </c>
       <c r="I72" s="15" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="J72" s="2">
         <v>2310</v>
@@ -15011,19 +15050,19 @@
         <v>0.190972222222222</v>
       </c>
       <c r="L72" s="4" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="M72" s="2" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="N72" s="6">
         <v>400</v>
       </c>
       <c r="O72" s="11" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="P72" s="11" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
     </row>
     <row r="73" ht="17" spans="1:16">
@@ -15034,25 +15073,25 @@
         <v>35</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="E73" s="11" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="F73" s="11" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="H73" s="2">
         <v>1586</v>
       </c>
       <c r="I73" s="15" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="J73" s="2">
         <v>1279</v>
@@ -15061,10 +15100,10 @@
         <v>0.252777777777778</v>
       </c>
       <c r="L73" s="22" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="M73" s="27" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="N73" s="6">
         <v>623</v>
@@ -15073,7 +15112,7 @@
         <v>269</v>
       </c>
       <c r="P73" s="11" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
     </row>
     <row r="74" ht="17" spans="1:16">
@@ -15084,25 +15123,25 @@
         <v>35</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="D74" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="E74" s="11" t="s">
+        <v>409</v>
+      </c>
+      <c r="F74" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="G74" s="11" t="s">
         <v>411</v>
-      </c>
-      <c r="E74" s="11" t="s">
-        <v>403</v>
-      </c>
-      <c r="F74" s="11" t="s">
-        <v>412</v>
-      </c>
-      <c r="G74" s="11" t="s">
-        <v>405</v>
       </c>
       <c r="H74" s="2">
         <v>1416</v>
       </c>
       <c r="I74" s="15" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="J74" s="2">
         <v>1277</v>
@@ -15111,19 +15150,19 @@
         <v>0.2</v>
       </c>
       <c r="L74" s="22" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="M74" s="27" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="N74" s="6">
         <v>10</v>
       </c>
       <c r="O74" s="11" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="P74" s="11" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
     </row>
     <row r="75" ht="17" spans="1:16">
@@ -15134,25 +15173,25 @@
         <v>35</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="D75" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="E75" s="11" t="s">
+        <v>409</v>
+      </c>
+      <c r="F75" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="G75" s="11" t="s">
         <v>411</v>
-      </c>
-      <c r="E75" s="11" t="s">
-        <v>403</v>
-      </c>
-      <c r="F75" s="11" t="s">
-        <v>412</v>
-      </c>
-      <c r="G75" s="11" t="s">
-        <v>405</v>
       </c>
       <c r="H75" s="2">
         <v>1416</v>
       </c>
       <c r="I75" s="15" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="J75" s="2">
         <v>1277</v>
@@ -15161,16 +15200,16 @@
         <v>0.2</v>
       </c>
       <c r="L75" s="22" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="M75" s="27" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="N75" s="6">
         <v>93.5</v>
       </c>
       <c r="O75" s="11" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="P75" s="11" t="s">
         <v>278</v>
@@ -15184,25 +15223,25 @@
         <v>25</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="E76" s="11" t="s">
         <v>233</v>
       </c>
       <c r="F76" s="11" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="G76" s="15" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="H76" s="2">
         <v>1200</v>
       </c>
       <c r="I76" s="15" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="J76" s="2">
         <v>1200</v>
@@ -15211,19 +15250,19 @@
         <v>0.0770833333333333</v>
       </c>
       <c r="L76" s="4" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="M76" s="2" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="N76" s="6">
         <v>460</v>
       </c>
       <c r="O76" s="11" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="P76" s="27" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
     </row>
     <row r="77" ht="17" spans="1:16">
@@ -15234,13 +15273,13 @@
         <v>35</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="E77" s="11" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="F77" s="11" t="s">
         <v>263</v>
@@ -15252,7 +15291,7 @@
         <v>1279</v>
       </c>
       <c r="I77" s="15" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="J77" s="2">
         <v>1279</v>
@@ -15261,19 +15300,19 @@
         <v>0.179166666666667</v>
       </c>
       <c r="L77" s="22" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="M77" s="27" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="N77" s="6">
         <v>506</v>
       </c>
       <c r="O77" s="11" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="P77" s="27" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
     </row>
     <row r="78" ht="17" spans="1:16">
@@ -15284,16 +15323,16 @@
         <v>35</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="E78" s="11" t="s">
         <v>263</v>
       </c>
       <c r="F78" s="11" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="G78" s="15" t="s">
         <v>248</v>
@@ -15302,7 +15341,7 @@
         <v>1279</v>
       </c>
       <c r="I78" s="15" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="J78" s="2">
         <v>1279</v>
@@ -15311,7 +15350,7 @@
         <v>0.239583333333333</v>
       </c>
       <c r="L78" s="4" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="M78" s="27" t="s">
         <v>227</v>
@@ -15320,10 +15359,10 @@
         <v>506</v>
       </c>
       <c r="O78" s="11" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="P78" s="27" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
     </row>
     <row r="79" ht="17" spans="1:16">
@@ -15334,25 +15373,25 @@
         <v>25</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="E79" s="11" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="F79" s="11" t="s">
         <v>233</v>
       </c>
       <c r="G79" s="15" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="H79" s="2">
         <v>1099</v>
       </c>
       <c r="I79" s="15" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="J79" s="2">
         <v>1099</v>
@@ -15361,19 +15400,19 @@
         <v>0.0708333333333333</v>
       </c>
       <c r="L79" s="4" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="M79" s="2" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="N79" s="6">
         <v>536</v>
       </c>
       <c r="O79" s="11" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="P79" s="11" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
     </row>
     <row r="80" ht="17" spans="1:16">
@@ -15384,37 +15423,37 @@
         <v>35</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="E80" s="11" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="F80" s="11" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="G80" s="11" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="H80" s="2">
         <v>1598</v>
       </c>
       <c r="I80" s="15" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="J80" s="2">
         <v>1410</v>
       </c>
       <c r="K80" s="21" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="L80" s="4" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="M80" s="27" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="N80" s="6">
         <v>296.5</v>
@@ -15423,7 +15462,7 @@
         <v>252</v>
       </c>
       <c r="P80" s="11" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
     </row>
     <row r="81" ht="17" spans="1:16">
@@ -15434,16 +15473,16 @@
         <v>35</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="E81" s="11" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="F81" s="11" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="G81" s="15" t="s">
         <v>264</v>
@@ -15452,7 +15491,7 @@
         <v>1506</v>
       </c>
       <c r="I81" s="15" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="J81" s="2">
         <v>1279</v>
@@ -15461,10 +15500,10 @@
         <v>0.247222222222222</v>
       </c>
       <c r="L81" s="22" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="M81" s="27" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="N81" s="6">
         <v>506</v>
@@ -15473,7 +15512,7 @@
         <v>269</v>
       </c>
       <c r="P81" s="27" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
     </row>
     <row r="82" ht="17" spans="1:16">
@@ -15484,16 +15523,16 @@
         <v>35</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="E82" s="11" t="s">
         <v>223</v>
       </c>
       <c r="F82" s="11" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="G82" s="15" t="s">
         <v>248</v>
@@ -15502,7 +15541,7 @@
         <v>1318</v>
       </c>
       <c r="I82" s="15" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="J82" s="2">
         <v>692</v>
@@ -15511,10 +15550,10 @@
         <v>0.125694444444444</v>
       </c>
       <c r="L82" s="22" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="M82" s="27" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="N82" s="6">
         <v>322</v>
@@ -15523,7 +15562,7 @@
         <v>269</v>
       </c>
       <c r="P82" s="15" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
     </row>
     <row r="83" ht="17" spans="1:16">
@@ -15534,16 +15573,16 @@
         <v>35</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="E83" s="11" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="F83" s="11" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="G83" s="15" t="s">
         <v>248</v>
@@ -15552,7 +15591,7 @@
         <v>1416</v>
       </c>
       <c r="I83" s="15" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="J83" s="2">
         <v>692</v>
@@ -15561,19 +15600,19 @@
         <v>0.0979166666666667</v>
       </c>
       <c r="L83" s="22" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="M83" s="27" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="N83" s="6">
         <v>350</v>
       </c>
       <c r="O83" s="11" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="P83" s="11" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
     </row>
     <row r="84" ht="17" spans="1:16">
@@ -15584,25 +15623,25 @@
         <v>35</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="E84" s="11" t="s">
         <v>275</v>
       </c>
       <c r="F84" s="11" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="G84" s="15" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="H84" s="2">
         <v>1434</v>
       </c>
       <c r="I84" s="15" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="J84" s="2">
         <v>1434</v>
@@ -15611,10 +15650,10 @@
         <v>0.276388888888889</v>
       </c>
       <c r="L84" s="4" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="M84" s="27" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="N84" s="6">
         <v>559</v>
@@ -15623,7 +15662,7 @@
         <v>269</v>
       </c>
       <c r="P84" s="27" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
     </row>
     <row r="85" ht="17" spans="1:16">
@@ -15634,16 +15673,16 @@
         <v>16</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="D85" s="11" t="s">
         <v>21</v>
       </c>
       <c r="E85" s="11" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="F85" s="11" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="G85" s="11" t="s">
         <v>21</v>
@@ -15652,7 +15691,7 @@
         <v>246</v>
       </c>
       <c r="I85" s="15" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="J85" s="2">
         <v>246</v>
@@ -15662,7 +15701,7 @@
       </c>
       <c r="O85" s="11"/>
       <c r="P85" s="27" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
     </row>
     <row r="86" ht="17" spans="1:16">
@@ -15673,25 +15712,25 @@
         <v>35</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="E86" s="11" t="s">
+        <v>491</v>
+      </c>
+      <c r="F86" s="11" t="s">
         <v>485</v>
       </c>
-      <c r="F86" s="11" t="s">
-        <v>479</v>
-      </c>
       <c r="G86" s="11" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="H86" s="2">
         <v>1463</v>
       </c>
       <c r="I86" s="15" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="J86" s="2">
         <v>1463</v>
@@ -15700,10 +15739,10 @@
         <v>0.784027777777778</v>
       </c>
       <c r="L86" s="22" t="s">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="M86" s="27" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="N86" s="6">
         <v>226.5</v>
@@ -15712,7 +15751,7 @@
         <v>269</v>
       </c>
       <c r="P86" s="27" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
     </row>
     <row r="87" ht="17" spans="1:16">
@@ -15723,25 +15762,25 @@
         <v>35</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="D87" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="E87" s="11" t="s">
+        <v>485</v>
+      </c>
+      <c r="F87" s="11" t="s">
         <v>491</v>
       </c>
-      <c r="E87" s="11" t="s">
-        <v>479</v>
-      </c>
-      <c r="F87" s="11" t="s">
-        <v>485</v>
-      </c>
       <c r="G87" s="11" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="H87" s="2">
         <v>1463</v>
       </c>
       <c r="I87" s="15" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="J87" s="2">
         <v>1463</v>
@@ -15750,19 +15789,19 @@
         <v>0.668055555555555</v>
       </c>
       <c r="L87" s="22" t="s">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="M87" s="27" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="N87" s="6">
         <v>476.5</v>
       </c>
       <c r="O87" s="11" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="P87" s="27" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
     </row>
     <row r="88" ht="17" spans="1:16">
@@ -15773,13 +15812,13 @@
         <v>35</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="E88" s="11" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="F88" s="11" t="s">
         <v>223</v>
@@ -15791,7 +15830,7 @@
         <v>1318</v>
       </c>
       <c r="I88" s="15" t="s">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="J88" s="2">
         <v>295</v>
@@ -15800,19 +15839,19 @@
         <v>0.0479166666666667</v>
       </c>
       <c r="L88" s="4" t="s">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="M88" s="27" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="N88" s="6">
         <v>153</v>
       </c>
       <c r="O88" s="11" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="P88" s="27" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
     </row>
     <row r="89" ht="17" spans="1:16">
@@ -15823,13 +15862,13 @@
         <v>35</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="E89" s="11" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="F89" s="11" t="s">
         <v>223</v>
@@ -15841,7 +15880,7 @@
         <v>1318</v>
       </c>
       <c r="I89" s="15" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="J89" s="2">
         <v>1023</v>
@@ -15850,19 +15889,19 @@
         <v>0.183333333333333</v>
       </c>
       <c r="L89" s="22" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="M89" s="27" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="N89" s="6">
         <v>400</v>
       </c>
       <c r="O89" s="11" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="P89" s="27" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
     </row>
     <row r="90" ht="17" spans="1:16">
@@ -15873,16 +15912,16 @@
         <v>35</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>508</v>
+        <v>514</v>
       </c>
       <c r="E90" s="11" t="s">
         <v>275</v>
       </c>
       <c r="F90" s="11" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="G90" s="15" t="s">
         <v>248</v>
@@ -15891,7 +15930,7 @@
         <v>1434</v>
       </c>
       <c r="I90" s="15" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="J90" s="2">
         <v>1434</v>
@@ -15900,19 +15939,19 @@
         <v>0.224305555555556</v>
       </c>
       <c r="L90" s="4" t="s">
-        <v>509</v>
+        <v>515</v>
       </c>
       <c r="M90" s="27" t="s">
-        <v>510</v>
+        <v>516</v>
       </c>
       <c r="N90" s="6">
         <v>559</v>
       </c>
       <c r="O90" s="11" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="P90" s="27" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
     </row>
     <row r="91" ht="17" spans="1:16">
@@ -15923,16 +15962,16 @@
         <v>35</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>511</v>
+        <v>517</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>512</v>
+        <v>518</v>
       </c>
       <c r="E91" s="11" t="s">
-        <v>513</v>
+        <v>519</v>
       </c>
       <c r="F91" s="11" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="G91" s="15" t="s">
         <v>224</v>
@@ -15941,7 +15980,7 @@
         <v>1549</v>
       </c>
       <c r="I91" s="15" t="s">
-        <v>515</v>
+        <v>521</v>
       </c>
       <c r="J91" s="2">
         <v>314</v>
@@ -15950,10 +15989,10 @@
         <v>0.0881944444444444</v>
       </c>
       <c r="L91" s="4" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
       <c r="M91" s="27" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="N91" s="6">
         <v>116</v>
@@ -15962,7 +16001,7 @@
         <v>269</v>
       </c>
       <c r="P91" s="27" t="s">
-        <v>518</v>
+        <v>524</v>
       </c>
     </row>
     <row r="92" ht="17" spans="1:16">
@@ -15973,25 +16012,25 @@
         <v>35</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>519</v>
+        <v>525</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>520</v>
+        <v>526</v>
       </c>
       <c r="E92" s="11" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="F92" s="11" t="s">
         <v>223</v>
       </c>
       <c r="G92" s="11" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="H92" s="2">
         <v>1318</v>
       </c>
       <c r="I92" s="15" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="J92" s="2">
         <v>1318</v>
@@ -16000,16 +16039,16 @@
         <v>0.193055555555556</v>
       </c>
       <c r="L92" s="22" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="M92" s="27" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="N92" s="6">
         <v>662</v>
       </c>
       <c r="P92" s="27" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
     </row>
     <row r="93" ht="17" spans="1:16">
@@ -16020,25 +16059,25 @@
         <v>35</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="E93" s="11" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="F93" s="11" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="G93" s="11" t="s">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="H93" s="2">
         <v>338</v>
       </c>
       <c r="I93" s="15" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="J93" s="2">
         <v>338</v>
@@ -16047,16 +16086,16 @@
         <v>0.0729166666666667</v>
       </c>
       <c r="L93" s="4" t="s">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="M93" s="27" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="N93" s="6">
         <v>156</v>
       </c>
       <c r="P93" s="11" t="s">
-        <v>532</v>
+        <v>538</v>
       </c>
     </row>
     <row r="94" ht="17" spans="1:16">
@@ -16067,25 +16106,25 @@
         <v>35</v>
       </c>
       <c r="C94" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>540</v>
+      </c>
+      <c r="E94" s="11" t="s">
         <v>533</v>
       </c>
-      <c r="D94" s="4" t="s">
+      <c r="F94" s="11" t="s">
+        <v>532</v>
+      </c>
+      <c r="G94" s="11" t="s">
         <v>534</v>
-      </c>
-      <c r="E94" s="11" t="s">
-        <v>527</v>
-      </c>
-      <c r="F94" s="11" t="s">
-        <v>526</v>
-      </c>
-      <c r="G94" s="11" t="s">
-        <v>528</v>
       </c>
       <c r="H94" s="2">
         <v>338</v>
       </c>
       <c r="I94" s="15" t="s">
-        <v>535</v>
+        <v>541</v>
       </c>
       <c r="J94" s="2">
         <v>338</v>
@@ -16094,16 +16133,16 @@
         <v>0.0923611111111111</v>
       </c>
       <c r="L94" s="29" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="M94" s="27" t="s">
-        <v>537</v>
+        <v>543</v>
       </c>
       <c r="N94" s="6">
         <v>170</v>
       </c>
       <c r="P94" s="11" t="s">
-        <v>538</v>
+        <v>544</v>
       </c>
     </row>
     <row r="95" ht="17" spans="1:16">
@@ -16114,25 +16153,25 @@
         <v>35</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>540</v>
+        <v>546</v>
       </c>
       <c r="E95" s="11" t="s">
         <v>274</v>
       </c>
       <c r="F95" s="11" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="G95" s="11" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="H95" s="2">
         <v>804</v>
       </c>
       <c r="I95" s="15" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
       <c r="J95" s="2">
         <v>804</v>
@@ -16141,16 +16180,16 @@
         <v>0.140972222222222</v>
       </c>
       <c r="L95" s="22" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="M95" s="27" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
       <c r="N95" s="6">
         <v>336</v>
       </c>
       <c r="P95" s="11" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
     </row>
     <row r="96" ht="17" spans="1:16">
@@ -16161,25 +16200,25 @@
         <v>35</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>545</v>
+        <v>551</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>546</v>
+        <v>552</v>
       </c>
       <c r="E96" s="11" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="F96" s="11" t="s">
-        <v>547</v>
+        <v>553</v>
       </c>
       <c r="G96" s="11" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="H96" s="2">
         <v>819</v>
       </c>
       <c r="I96" s="15" t="s">
-        <v>549</v>
+        <v>555</v>
       </c>
       <c r="J96" s="2">
         <v>819</v>
@@ -16188,16 +16227,16 @@
         <v>0.159027777777778</v>
       </c>
       <c r="L96" s="22" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="M96" s="27" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
       <c r="N96" s="6">
         <v>349</v>
       </c>
       <c r="P96" s="11" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
     </row>
     <row r="97" ht="17" spans="1:16">
@@ -16208,25 +16247,25 @@
         <v>35</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>508</v>
+        <v>514</v>
       </c>
       <c r="E97" s="11" t="s">
         <v>275</v>
       </c>
       <c r="F97" s="11" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="G97" s="11" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="H97" s="2">
         <v>1434</v>
       </c>
       <c r="I97" s="15" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="J97" s="2">
         <v>1434</v>
@@ -16235,16 +16274,16 @@
         <v>0.224305555555556</v>
       </c>
       <c r="L97" s="4" t="s">
-        <v>509</v>
+        <v>515</v>
       </c>
       <c r="M97" s="27" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
       <c r="N97" s="6">
         <v>541</v>
       </c>
       <c r="P97" s="27" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="98" ht="13.5" customHeight="1" spans="1:16">
@@ -16255,25 +16294,25 @@
         <v>25</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>555</v>
+        <v>561</v>
       </c>
       <c r="E98" s="11" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="F98" s="11" t="s">
         <v>29</v>
       </c>
       <c r="G98" s="15" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="H98" s="2">
         <v>1338</v>
       </c>
       <c r="I98" s="15" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="J98" s="2">
         <v>1338</v>
@@ -16282,19 +16321,19 @@
         <v>0.0895833333333333</v>
       </c>
       <c r="L98" s="4" t="s">
-        <v>557</v>
+        <v>563</v>
       </c>
       <c r="M98" s="2" t="s">
-        <v>558</v>
+        <v>564</v>
       </c>
       <c r="N98" s="6">
         <v>362</v>
       </c>
       <c r="O98" s="11" t="s">
-        <v>559</v>
+        <v>565</v>
       </c>
       <c r="P98" s="27" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
     </row>
     <row r="99" ht="17" spans="1:16">
@@ -16305,25 +16344,25 @@
         <v>35</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="E99" s="11" t="s">
         <v>275</v>
       </c>
       <c r="F99" s="11" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="G99" s="11" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="H99" s="2">
         <v>1434</v>
       </c>
       <c r="I99" s="15" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="J99" s="2">
         <v>1434</v>
@@ -16332,16 +16371,16 @@
         <v>0.276388888888889</v>
       </c>
       <c r="L99" s="4" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="M99" s="27" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="N99" s="6">
         <v>541</v>
       </c>
       <c r="P99" s="27" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
     </row>
     <row r="100" ht="17" spans="1:16">
@@ -16352,25 +16391,25 @@
         <v>35</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="E100" s="11" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="F100" s="11" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="G100" s="11" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="H100" s="2">
         <v>1857</v>
       </c>
       <c r="I100" s="15" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
       <c r="J100" s="2">
         <v>316</v>
@@ -16379,16 +16418,16 @@
         <v>0.100694444444444</v>
       </c>
       <c r="L100" s="4" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
       <c r="M100" s="27" t="s">
-        <v>568</v>
+        <v>574</v>
       </c>
       <c r="N100" s="6">
         <v>130.5</v>
       </c>
       <c r="P100" s="11" t="s">
-        <v>569</v>
+        <v>575</v>
       </c>
     </row>
     <row r="101" ht="17" spans="1:16">
@@ -16399,25 +16438,25 @@
         <v>35</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>570</v>
+        <v>576</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
       <c r="E101" s="11" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
       <c r="F101" s="11" t="s">
         <v>223</v>
       </c>
       <c r="G101" s="11" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="H101" s="2">
         <v>1083</v>
       </c>
       <c r="I101" s="15" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
       <c r="J101" s="2">
         <v>763</v>
@@ -16426,16 +16465,16 @@
         <v>0.142361111111111</v>
       </c>
       <c r="L101" s="4" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
       <c r="M101" s="27" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
       <c r="N101" s="6">
         <v>338</v>
       </c>
       <c r="P101" s="11" t="s">
-        <v>576</v>
+        <v>582</v>
       </c>
     </row>
     <row r="102" ht="17" spans="1:16">
@@ -16446,25 +16485,25 @@
         <v>35</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>577</v>
+        <v>583</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
       <c r="E102" s="11" t="s">
-        <v>579</v>
+        <v>585</v>
       </c>
       <c r="F102" s="11" t="s">
         <v>256</v>
       </c>
       <c r="G102" s="11" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="H102" s="2">
         <v>2092</v>
       </c>
       <c r="I102" s="15" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
       <c r="J102" s="2">
         <v>1169</v>
@@ -16473,16 +16512,16 @@
         <v>0.260416666666667</v>
       </c>
       <c r="L102" s="29" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
       <c r="M102" s="27" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
       <c r="N102" s="6">
         <v>498.5</v>
       </c>
       <c r="P102" s="11" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
     </row>
     <row r="103" ht="17" spans="1:16">
@@ -16493,37 +16532,37 @@
         <v>35</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
       <c r="D103" s="4" t="s">
+        <v>591</v>
+      </c>
+      <c r="E103" s="11" t="s">
+        <v>592</v>
+      </c>
+      <c r="F103" s="11" t="s">
         <v>585</v>
       </c>
-      <c r="E103" s="11" t="s">
-        <v>586</v>
-      </c>
-      <c r="F103" s="11" t="s">
-        <v>579</v>
-      </c>
       <c r="G103" s="11" t="s">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="I103" s="15" t="s">
-        <v>587</v>
+        <v>593</v>
       </c>
       <c r="K103" s="5">
         <v>0.0861111111111111</v>
       </c>
       <c r="L103" s="4" t="s">
-        <v>588</v>
+        <v>594</v>
       </c>
       <c r="M103" s="27" t="s">
-        <v>589</v>
+        <v>595</v>
       </c>
       <c r="N103" s="6">
         <v>212.5</v>
       </c>
       <c r="P103" s="11" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
     </row>
     <row r="104" ht="17" spans="1:16">
@@ -16534,22 +16573,22 @@
         <v>35</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>592</v>
+        <v>598</v>
       </c>
       <c r="E104" s="11" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
       <c r="F104" s="11" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
       <c r="G104" s="11" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
       <c r="I104" s="15" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
       <c r="K104" s="5">
         <v>0.0923611111111111</v>
@@ -16558,13 +16597,13 @@
         <v>45</v>
       </c>
       <c r="M104" s="27" t="s">
-        <v>597</v>
+        <v>603</v>
       </c>
       <c r="N104" s="6">
         <v>139</v>
       </c>
       <c r="P104" s="11" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
     </row>
     <row r="105" ht="17" spans="1:16">
@@ -16575,25 +16614,25 @@
         <v>35</v>
       </c>
       <c r="C105" s="13" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>600</v>
+        <v>606</v>
       </c>
       <c r="E105" s="11" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
       <c r="F105" s="11" t="s">
-        <v>601</v>
+        <v>607</v>
       </c>
       <c r="G105" s="11" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="H105" s="2">
         <v>299</v>
       </c>
       <c r="I105" s="15" t="s">
-        <v>602</v>
+        <v>608</v>
       </c>
       <c r="J105" s="2">
         <v>299</v>
@@ -16602,16 +16641,16 @@
         <v>0.0541666666666667</v>
       </c>
       <c r="L105" s="4" t="s">
-        <v>603</v>
+        <v>609</v>
       </c>
       <c r="M105" s="27" t="s">
-        <v>604</v>
+        <v>610</v>
       </c>
       <c r="N105" s="6">
         <v>164</v>
       </c>
       <c r="P105" s="11" t="s">
-        <v>605</v>
+        <v>611</v>
       </c>
     </row>
     <row r="106" ht="17" spans="1:16">
@@ -16623,22 +16662,25 @@
       </c>
       <c r="C106" s="13"/>
       <c r="D106" s="4" t="s">
-        <v>606</v>
+        <v>612</v>
       </c>
       <c r="E106" s="11" t="s">
-        <v>607</v>
+        <v>613</v>
       </c>
       <c r="F106" s="11" t="s">
-        <v>608</v>
+        <v>614</v>
       </c>
       <c r="G106" s="11" t="s">
-        <v>606</v>
+        <v>612</v>
       </c>
       <c r="I106" s="15" t="s">
-        <v>609</v>
+        <v>615</v>
+      </c>
+      <c r="N106" s="6" t="s">
+        <v>45</v>
       </c>
       <c r="P106" s="11" t="s">
-        <v>610</v>
+        <v>616</v>
       </c>
     </row>
     <row r="107" ht="17" spans="1:16">
@@ -16650,22 +16692,25 @@
       </c>
       <c r="C107" s="13"/>
       <c r="D107" s="4" t="s">
-        <v>606</v>
+        <v>612</v>
       </c>
       <c r="E107" s="11" t="s">
-        <v>607</v>
+        <v>613</v>
       </c>
       <c r="F107" s="11" t="s">
-        <v>608</v>
+        <v>614</v>
       </c>
       <c r="G107" s="11" t="s">
-        <v>606</v>
+        <v>612</v>
       </c>
       <c r="I107" s="15" t="s">
-        <v>611</v>
+        <v>617</v>
+      </c>
+      <c r="N107" s="6" t="s">
+        <v>45</v>
       </c>
       <c r="P107" s="11" t="s">
-        <v>612</v>
+        <v>618</v>
       </c>
     </row>
     <row r="108" ht="17" spans="1:16">
@@ -16677,22 +16722,25 @@
       </c>
       <c r="C108" s="13"/>
       <c r="D108" s="4" t="s">
-        <v>606</v>
+        <v>612</v>
       </c>
       <c r="E108" s="11" t="s">
-        <v>607</v>
+        <v>613</v>
       </c>
       <c r="F108" s="11" t="s">
-        <v>608</v>
+        <v>614</v>
       </c>
       <c r="G108" s="11" t="s">
-        <v>606</v>
+        <v>612</v>
       </c>
       <c r="I108" s="15" t="s">
-        <v>613</v>
+        <v>619</v>
+      </c>
+      <c r="N108" s="6" t="s">
+        <v>45</v>
       </c>
       <c r="P108" s="11" t="s">
-        <v>614</v>
+        <v>620</v>
       </c>
     </row>
     <row r="109" ht="17" spans="1:16">
@@ -16704,22 +16752,25 @@
       </c>
       <c r="C109" s="13"/>
       <c r="D109" s="4" t="s">
-        <v>606</v>
+        <v>612</v>
       </c>
       <c r="E109" s="11" t="s">
-        <v>608</v>
+        <v>614</v>
       </c>
       <c r="F109" s="11" t="s">
-        <v>607</v>
+        <v>613</v>
       </c>
       <c r="G109" s="11" t="s">
-        <v>606</v>
+        <v>612</v>
       </c>
       <c r="I109" s="15" t="s">
-        <v>615</v>
+        <v>621</v>
+      </c>
+      <c r="N109" s="6" t="s">
+        <v>45</v>
       </c>
       <c r="P109" s="11" t="s">
-        <v>616</v>
+        <v>622</v>
       </c>
     </row>
     <row r="110" ht="17" spans="1:16">
@@ -16731,22 +16782,25 @@
       </c>
       <c r="C110" s="13"/>
       <c r="D110" s="4" t="s">
-        <v>606</v>
+        <v>612</v>
       </c>
       <c r="E110" s="11" t="s">
-        <v>608</v>
+        <v>614</v>
       </c>
       <c r="F110" s="11" t="s">
-        <v>607</v>
+        <v>613</v>
       </c>
       <c r="G110" s="11" t="s">
-        <v>606</v>
+        <v>612</v>
       </c>
       <c r="I110" s="15" t="s">
-        <v>617</v>
+        <v>623</v>
+      </c>
+      <c r="N110" s="6" t="s">
+        <v>45</v>
       </c>
       <c r="P110" s="28" t="s">
-        <v>618</v>
+        <v>624</v>
       </c>
     </row>
     <row r="111" ht="17" spans="1:16">
@@ -16758,22 +16812,25 @@
       </c>
       <c r="C111" s="13"/>
       <c r="D111" s="4" t="s">
-        <v>606</v>
+        <v>612</v>
       </c>
       <c r="E111" s="11" t="s">
-        <v>608</v>
+        <v>614</v>
       </c>
       <c r="F111" s="11" t="s">
-        <v>607</v>
+        <v>613</v>
       </c>
       <c r="G111" s="11" t="s">
-        <v>606</v>
+        <v>612</v>
       </c>
       <c r="I111" s="15" t="s">
-        <v>619</v>
+        <v>625</v>
+      </c>
+      <c r="N111" s="6" t="s">
+        <v>45</v>
       </c>
       <c r="P111" s="11" t="s">
-        <v>620</v>
+        <v>626</v>
       </c>
     </row>
     <row r="112" ht="17" spans="1:16">
@@ -16785,22 +16842,25 @@
       </c>
       <c r="C112" s="13"/>
       <c r="D112" s="4" t="s">
-        <v>606</v>
+        <v>612</v>
       </c>
       <c r="E112" s="11" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="F112" s="11" t="s">
-        <v>608</v>
+        <v>614</v>
       </c>
       <c r="G112" s="11" t="s">
-        <v>606</v>
+        <v>612</v>
       </c>
       <c r="I112" s="15" t="s">
-        <v>622</v>
+        <v>628</v>
+      </c>
+      <c r="N112" s="6" t="s">
+        <v>45</v>
       </c>
       <c r="P112" s="11" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
     </row>
     <row r="113" ht="17" spans="1:16">
@@ -16812,22 +16872,25 @@
       </c>
       <c r="C113" s="13"/>
       <c r="D113" s="4" t="s">
-        <v>606</v>
+        <v>612</v>
       </c>
       <c r="E113" s="11" t="s">
-        <v>608</v>
+        <v>614</v>
       </c>
       <c r="F113" s="11" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="G113" s="11" t="s">
-        <v>606</v>
+        <v>612</v>
       </c>
       <c r="I113" s="15" t="s">
-        <v>624</v>
+        <v>630</v>
+      </c>
+      <c r="N113" s="6" t="s">
+        <v>45</v>
       </c>
       <c r="P113" s="11" t="s">
-        <v>625</v>
+        <v>631</v>
       </c>
     </row>
     <row r="114" ht="17" spans="1:16">
@@ -16838,25 +16901,25 @@
         <v>25</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>626</v>
+        <v>632</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>627</v>
+        <v>633</v>
       </c>
       <c r="E114" s="11" t="s">
         <v>29</v>
       </c>
       <c r="F114" s="11" t="s">
-        <v>628</v>
+        <v>634</v>
       </c>
       <c r="G114" s="15" t="s">
-        <v>629</v>
+        <v>635</v>
       </c>
       <c r="H114" s="2">
         <v>1803</v>
       </c>
       <c r="I114" s="15" t="s">
-        <v>630</v>
+        <v>636</v>
       </c>
       <c r="J114" s="2">
         <v>1803</v>
@@ -16865,19 +16928,19 @@
         <v>0.101388888888889</v>
       </c>
       <c r="L114" s="4" t="s">
-        <v>631</v>
+        <v>637</v>
       </c>
       <c r="M114" s="2" t="s">
-        <v>632</v>
+        <v>638</v>
       </c>
       <c r="N114" s="6">
         <v>920</v>
       </c>
       <c r="O114" s="11" t="s">
-        <v>633</v>
+        <v>639</v>
       </c>
       <c r="P114" s="11" t="s">
-        <v>634</v>
+        <v>640</v>
       </c>
     </row>
     <row r="115" ht="17" spans="1:16">
@@ -16888,25 +16951,25 @@
         <v>35</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>635</v>
+        <v>641</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>636</v>
+        <v>642</v>
       </c>
       <c r="E115" s="11" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="F115" s="11" t="s">
         <v>275</v>
       </c>
       <c r="G115" s="11" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="H115" s="2">
         <v>1434</v>
       </c>
       <c r="I115" s="15" t="s">
-        <v>637</v>
+        <v>643</v>
       </c>
       <c r="J115" s="2">
         <v>1434</v>
@@ -16915,16 +16978,16 @@
         <v>0.220833333333333</v>
       </c>
       <c r="L115" s="4" t="s">
-        <v>638</v>
+        <v>644</v>
       </c>
       <c r="M115" s="27" t="s">
-        <v>639</v>
+        <v>645</v>
       </c>
       <c r="N115" s="6">
         <v>541</v>
       </c>
       <c r="P115" s="27" t="s">
-        <v>640</v>
+        <v>646</v>
       </c>
     </row>
     <row r="116" ht="17" spans="1:16">
@@ -16935,25 +16998,25 @@
         <v>25</v>
       </c>
       <c r="C116" s="13" t="s">
-        <v>641</v>
+        <v>647</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>642</v>
+        <v>648</v>
       </c>
       <c r="E116" s="11" t="s">
-        <v>643</v>
+        <v>649</v>
       </c>
       <c r="F116" s="11" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="G116" s="15" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="H116" s="2">
         <v>1178</v>
       </c>
       <c r="I116" s="15" t="s">
-        <v>644</v>
+        <v>650</v>
       </c>
       <c r="J116" s="2">
         <v>1178</v>
@@ -16962,10 +17025,10 @@
         <v>0.0770833333333333</v>
       </c>
       <c r="L116" s="4" t="s">
-        <v>645</v>
+        <v>651</v>
       </c>
       <c r="M116" s="2" t="s">
-        <v>646</v>
+        <v>652</v>
       </c>
       <c r="N116" s="6">
         <v>380</v>
@@ -16974,7 +17037,7 @@
         <v>297</v>
       </c>
       <c r="P116" s="27" t="s">
-        <v>647</v>
+        <v>653</v>
       </c>
     </row>
     <row r="117" ht="17" spans="1:16">
@@ -16985,25 +17048,25 @@
         <v>25</v>
       </c>
       <c r="C117" s="13" t="s">
-        <v>648</v>
+        <v>654</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>649</v>
+        <v>655</v>
       </c>
       <c r="E117" s="11" t="s">
-        <v>650</v>
+        <v>656</v>
       </c>
       <c r="F117" s="11" t="s">
         <v>29</v>
       </c>
       <c r="G117" s="15" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="H117" s="2">
         <v>1338</v>
       </c>
       <c r="I117" s="15" t="s">
-        <v>651</v>
+        <v>657</v>
       </c>
       <c r="J117" s="2">
         <v>1338</v>
@@ -17012,10 +17075,10 @@
         <v>0.0819444444444444</v>
       </c>
       <c r="L117" s="4" t="s">
-        <v>652</v>
+        <v>658</v>
       </c>
       <c r="M117" s="4" t="s">
-        <v>653</v>
+        <v>659</v>
       </c>
       <c r="N117" s="6">
         <v>470</v>
@@ -17024,7 +17087,7 @@
         <v>243</v>
       </c>
       <c r="P117" s="27" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
     </row>
     <row r="118" ht="17" spans="1:16">
@@ -17035,25 +17098,25 @@
         <v>25</v>
       </c>
       <c r="C118" s="13" t="s">
-        <v>654</v>
+        <v>660</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="E118" s="11" t="s">
+        <v>662</v>
+      </c>
+      <c r="F118" s="11" t="s">
         <v>656</v>
       </c>
-      <c r="F118" s="11" t="s">
-        <v>650</v>
-      </c>
       <c r="G118" s="15" t="s">
-        <v>657</v>
+        <v>663</v>
       </c>
       <c r="H118" s="2">
         <v>2842</v>
       </c>
       <c r="I118" s="15" t="s">
-        <v>658</v>
+        <v>664</v>
       </c>
       <c r="J118" s="2">
         <v>2842</v>
@@ -17062,19 +17125,19 @@
         <v>0.134722222222222</v>
       </c>
       <c r="L118" s="4" t="s">
-        <v>659</v>
+        <v>665</v>
       </c>
       <c r="M118" s="2" t="s">
-        <v>660</v>
+        <v>666</v>
       </c>
       <c r="N118" s="6">
         <v>860</v>
       </c>
       <c r="O118" s="11" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="P118" s="11" t="s">
-        <v>661</v>
+        <v>667</v>
       </c>
     </row>
     <row r="119" ht="17" spans="1:16">
@@ -17085,25 +17148,25 @@
         <v>25</v>
       </c>
       <c r="C119" s="13" t="s">
+        <v>668</v>
+      </c>
+      <c r="D119" s="4" t="s">
+        <v>669</v>
+      </c>
+      <c r="E119" s="11" t="s">
+        <v>670</v>
+      </c>
+      <c r="F119" s="11" t="s">
         <v>662</v>
       </c>
-      <c r="D119" s="4" t="s">
-        <v>663</v>
-      </c>
-      <c r="E119" s="11" t="s">
-        <v>664</v>
-      </c>
-      <c r="F119" s="11" t="s">
-        <v>656</v>
-      </c>
       <c r="G119" s="15" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="H119" s="2">
         <v>1311</v>
       </c>
       <c r="I119" s="15" t="s">
-        <v>665</v>
+        <v>671</v>
       </c>
       <c r="J119" s="2">
         <v>1311</v>
@@ -17124,7 +17187,7 @@
         <v>243</v>
       </c>
       <c r="P119" s="11" t="s">
-        <v>666</v>
+        <v>672</v>
       </c>
     </row>
     <row r="120" ht="17" spans="1:16">
@@ -17136,13 +17199,13 @@
       </c>
       <c r="C120" s="13"/>
       <c r="D120" s="4" t="s">
-        <v>606</v>
+        <v>612</v>
       </c>
       <c r="E120" s="11" t="s">
-        <v>667</v>
+        <v>673</v>
       </c>
       <c r="F120" s="11" t="s">
-        <v>668</v>
+        <v>674</v>
       </c>
       <c r="G120" s="11" t="s">
         <v>45</v>
@@ -17151,7 +17214,7 @@
         <v>292</v>
       </c>
       <c r="I120" s="15" t="s">
-        <v>669</v>
+        <v>675</v>
       </c>
       <c r="J120" s="2">
         <v>292</v>
@@ -17160,6 +17223,9 @@
         <v>45</v>
       </c>
       <c r="M120" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="N120" s="6" t="s">
         <v>45</v>
       </c>
       <c r="O120" s="11" t="s">
@@ -17176,13 +17242,13 @@
       </c>
       <c r="C121" s="13"/>
       <c r="D121" s="4" t="s">
-        <v>606</v>
+        <v>612</v>
       </c>
       <c r="E121" s="11" t="s">
-        <v>668</v>
+        <v>674</v>
       </c>
       <c r="F121" s="11" t="s">
-        <v>667</v>
+        <v>673</v>
       </c>
       <c r="G121" s="11" t="s">
         <v>45</v>
@@ -17191,7 +17257,7 @@
         <v>292</v>
       </c>
       <c r="I121" s="15" t="s">
-        <v>670</v>
+        <v>676</v>
       </c>
       <c r="J121" s="2">
         <v>292</v>
@@ -17200,6 +17266,9 @@
         <v>45</v>
       </c>
       <c r="M121" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="N121" s="6" t="s">
         <v>45</v>
       </c>
       <c r="O121" s="11" t="s">
@@ -17215,25 +17284,25 @@
         <v>25</v>
       </c>
       <c r="C122" s="13" t="s">
-        <v>671</v>
+        <v>677</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>672</v>
+        <v>678</v>
       </c>
       <c r="E122" s="11" t="s">
-        <v>650</v>
+        <v>656</v>
       </c>
       <c r="F122" s="11" t="s">
-        <v>664</v>
+        <v>670</v>
       </c>
       <c r="G122" s="15" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="H122" s="2">
         <v>3752</v>
       </c>
       <c r="I122" s="15" t="s">
-        <v>673</v>
+        <v>679</v>
       </c>
       <c r="J122" s="2">
         <v>3752</v>
@@ -17242,10 +17311,10 @@
         <v>0.284027777777778</v>
       </c>
       <c r="L122" s="4" t="s">
-        <v>674</v>
+        <v>680</v>
       </c>
       <c r="M122" s="2" t="s">
-        <v>675</v>
+        <v>681</v>
       </c>
       <c r="N122" s="6">
         <v>1740</v>
@@ -17254,7 +17323,7 @@
         <v>243</v>
       </c>
       <c r="P122" s="11" t="s">
-        <v>676</v>
+        <v>682</v>
       </c>
     </row>
     <row r="123" ht="17" spans="1:16">
@@ -17265,25 +17334,25 @@
         <v>35</v>
       </c>
       <c r="C123" s="13" t="s">
-        <v>677</v>
+        <v>683</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="E123" s="11" t="s">
         <v>275</v>
       </c>
       <c r="F123" s="11" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="G123" s="11" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="H123" s="2">
         <v>1434</v>
       </c>
       <c r="I123" s="15" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="J123" s="2">
         <v>1434</v>
@@ -17292,16 +17361,16 @@
         <v>0.276388888888889</v>
       </c>
       <c r="L123" s="4" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="M123" s="27" t="s">
-        <v>678</v>
+        <v>684</v>
       </c>
       <c r="N123" s="6">
         <v>541</v>
       </c>
       <c r="P123" s="27" t="s">
-        <v>679</v>
+        <v>685</v>
       </c>
     </row>
     <row r="124" ht="17" spans="1:9">
@@ -17309,23 +17378,23 @@
         <v>44368</v>
       </c>
       <c r="B124" s="10" t="s">
-        <v>680</v>
+        <v>686</v>
       </c>
       <c r="C124" s="13"/>
       <c r="D124" s="15" t="s">
-        <v>681</v>
+        <v>687</v>
       </c>
       <c r="E124" s="11" t="s">
-        <v>682</v>
+        <v>688</v>
       </c>
       <c r="F124" s="11" t="s">
-        <v>683</v>
+        <v>689</v>
       </c>
       <c r="G124" s="15" t="s">
-        <v>681</v>
+        <v>687</v>
       </c>
       <c r="I124" s="15" t="s">
-        <v>684</v>
+        <v>690</v>
       </c>
     </row>
     <row r="125" ht="17" spans="1:16">
@@ -17336,25 +17405,25 @@
         <v>35</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>685</v>
+        <v>691</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>686</v>
+        <v>692</v>
       </c>
       <c r="E125" s="11" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="F125" s="11" t="s">
         <v>223</v>
       </c>
       <c r="G125" s="11" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="H125" s="2">
         <v>1318</v>
       </c>
       <c r="I125" s="15" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="J125" s="2">
         <v>1318</v>
@@ -17363,16 +17432,16 @@
         <v>0.248611111111111</v>
       </c>
       <c r="L125" s="4" t="s">
-        <v>638</v>
+        <v>644</v>
       </c>
       <c r="M125" s="27" t="s">
-        <v>687</v>
+        <v>693</v>
       </c>
       <c r="N125" s="6">
         <v>526</v>
       </c>
       <c r="P125" s="11" t="s">
-        <v>688</v>
+        <v>694</v>
       </c>
     </row>
     <row r="126" ht="17" spans="1:16">
@@ -17383,37 +17452,37 @@
         <v>35</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>689</v>
+        <v>695</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>690</v>
+        <v>696</v>
       </c>
       <c r="E126" s="11" t="s">
         <v>275</v>
       </c>
       <c r="F126" s="11" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="H126" s="2">
         <v>1434</v>
       </c>
       <c r="I126" s="15" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="J126" s="2">
         <v>1434</v>
       </c>
       <c r="L126" s="4" t="s">
-        <v>691</v>
+        <v>697</v>
       </c>
       <c r="M126" s="27" t="s">
-        <v>692</v>
+        <v>698</v>
       </c>
       <c r="N126" s="6">
         <v>541</v>
       </c>
       <c r="P126" s="27" t="s">
-        <v>693</v>
+        <v>699</v>
       </c>
     </row>
     <row r="127" ht="17" spans="1:16">
@@ -17424,25 +17493,25 @@
         <v>25</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>694</v>
+        <v>700</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>695</v>
+        <v>701</v>
       </c>
       <c r="E127" s="11" t="s">
-        <v>650</v>
+        <v>656</v>
       </c>
       <c r="F127" s="11" t="s">
         <v>29</v>
       </c>
       <c r="G127" s="15" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="H127" s="2">
         <v>1338</v>
       </c>
       <c r="I127" s="15" t="s">
-        <v>696</v>
+        <v>702</v>
       </c>
       <c r="J127" s="2">
         <v>1338</v>
@@ -17451,19 +17520,19 @@
         <v>0.0847222222222222</v>
       </c>
       <c r="L127" s="4" t="s">
-        <v>697</v>
+        <v>703</v>
       </c>
       <c r="M127" s="2" t="s">
-        <v>698</v>
+        <v>704</v>
       </c>
       <c r="N127" s="6">
         <v>370</v>
       </c>
       <c r="O127" s="11" t="s">
-        <v>559</v>
+        <v>565</v>
       </c>
       <c r="P127" s="27" t="s">
-        <v>699</v>
+        <v>705</v>
       </c>
     </row>
     <row r="128" ht="17" spans="1:16">
@@ -17474,22 +17543,22 @@
         <v>35</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>700</v>
+        <v>706</v>
       </c>
       <c r="D128" s="4" t="s">
-        <v>690</v>
+        <v>696</v>
       </c>
       <c r="E128" s="11" t="s">
         <v>275</v>
       </c>
       <c r="F128" s="11" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="H128" s="2">
         <v>1434</v>
       </c>
       <c r="I128" s="15" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="J128" s="2">
         <v>1434</v>
@@ -17498,16 +17567,16 @@
         <v>0.279166666666667</v>
       </c>
       <c r="L128" s="4" t="s">
-        <v>701</v>
+        <v>707</v>
       </c>
       <c r="M128" s="27" t="s">
-        <v>639</v>
+        <v>645</v>
       </c>
       <c r="N128" s="6">
         <v>446.5</v>
       </c>
       <c r="P128" s="27" t="s">
-        <v>702</v>
+        <v>708</v>
       </c>
     </row>
     <row r="129" ht="17" spans="1:16">
@@ -17518,22 +17587,22 @@
         <v>25</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>703</v>
+        <v>709</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>704</v>
+        <v>710</v>
       </c>
       <c r="E129" s="11" t="s">
-        <v>628</v>
+        <v>634</v>
       </c>
       <c r="F129" s="11" t="s">
         <v>29</v>
       </c>
       <c r="G129" s="15" t="s">
-        <v>705</v>
+        <v>711</v>
       </c>
       <c r="I129" s="15" t="s">
-        <v>706</v>
+        <v>712</v>
       </c>
       <c r="K129" s="5">
         <v>0.121527777777778</v>
@@ -17545,7 +17614,7 @@
         <v>34</v>
       </c>
       <c r="P129" s="11" t="s">
-        <v>707</v>
+        <v>713</v>
       </c>
     </row>
     <row r="130" ht="17" spans="1:16">
@@ -17556,16 +17625,16 @@
         <v>25</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>708</v>
+        <v>714</v>
       </c>
       <c r="D130" s="4" t="s">
-        <v>709</v>
+        <v>715</v>
       </c>
       <c r="E130" s="11" t="s">
-        <v>710</v>
+        <v>716</v>
       </c>
       <c r="F130" s="11" t="s">
-        <v>628</v>
+        <v>634</v>
       </c>
       <c r="G130" s="15" t="s">
         <v>293</v>
@@ -17574,7 +17643,7 @@
         <v>1334</v>
       </c>
       <c r="I130" s="15" t="s">
-        <v>711</v>
+        <v>717</v>
       </c>
       <c r="J130" s="2">
         <v>1334</v>
@@ -17583,19 +17652,19 @@
         <v>0.0805555555555556</v>
       </c>
       <c r="L130" s="4" t="s">
-        <v>712</v>
+        <v>718</v>
       </c>
       <c r="M130" s="2" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
       <c r="N130" s="6">
         <v>1020</v>
       </c>
       <c r="O130" s="11" t="s">
-        <v>714</v>
+        <v>720</v>
       </c>
       <c r="P130" s="11" t="s">
-        <v>715</v>
+        <v>721</v>
       </c>
     </row>
     <row r="131" ht="17" spans="1:16">
@@ -17606,25 +17675,25 @@
         <v>35</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>716</v>
+        <v>722</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>717</v>
+        <v>723</v>
       </c>
       <c r="E131" s="11" t="s">
-        <v>718</v>
+        <v>724</v>
       </c>
       <c r="F131" s="11" t="s">
-        <v>719</v>
+        <v>725</v>
       </c>
       <c r="G131" s="11" t="s">
-        <v>720</v>
+        <v>726</v>
       </c>
       <c r="H131" s="2">
         <v>248</v>
       </c>
       <c r="I131" s="15" t="s">
-        <v>721</v>
+        <v>727</v>
       </c>
       <c r="J131" s="2">
         <v>248</v>
@@ -17636,13 +17705,13 @@
         <v>45</v>
       </c>
       <c r="M131" s="15" t="s">
-        <v>722</v>
+        <v>728</v>
       </c>
       <c r="N131" s="6">
         <v>40.5</v>
       </c>
       <c r="P131" s="11" t="s">
-        <v>723</v>
+        <v>729</v>
       </c>
     </row>
     <row r="132" ht="17" spans="1:16">
@@ -17653,24 +17722,27 @@
         <v>16</v>
       </c>
       <c r="D132" s="11" t="s">
-        <v>606</v>
+        <v>612</v>
       </c>
       <c r="E132" s="11" t="s">
+        <v>730</v>
+      </c>
+      <c r="F132" s="11" t="s">
         <v>724</v>
       </c>
-      <c r="F132" s="11" t="s">
-        <v>718</v>
-      </c>
       <c r="G132" s="11" t="s">
-        <v>606</v>
+        <v>612</v>
       </c>
       <c r="I132" s="15" t="s">
-        <v>725</v>
+        <v>731</v>
       </c>
       <c r="L132" s="4" t="s">
         <v>45</v>
       </c>
       <c r="M132" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="N132" s="6" t="s">
         <v>45</v>
       </c>
       <c r="O132" s="2" t="s">
@@ -17686,19 +17758,19 @@
         <v>16</v>
       </c>
       <c r="D133" s="11" t="s">
-        <v>606</v>
+        <v>612</v>
       </c>
       <c r="E133" s="11" t="s">
-        <v>718</v>
+        <v>724</v>
       </c>
       <c r="F133" s="11" t="s">
-        <v>724</v>
+        <v>730</v>
       </c>
       <c r="G133" s="11" t="s">
-        <v>606</v>
+        <v>612</v>
       </c>
       <c r="I133" s="15" t="s">
-        <v>726</v>
+        <v>732</v>
       </c>
       <c r="L133" s="4" t="s">
         <v>45</v>
@@ -17706,11 +17778,14 @@
       <c r="M133" s="11" t="s">
         <v>45</v>
       </c>
+      <c r="N133" s="6" t="s">
+        <v>45</v>
+      </c>
       <c r="O133" s="2" t="s">
         <v>45</v>
       </c>
       <c r="P133" s="11" t="s">
-        <v>727</v>
+        <v>733</v>
       </c>
     </row>
     <row r="134" ht="17" spans="1:16">
@@ -17721,19 +17796,19 @@
         <v>16</v>
       </c>
       <c r="D134" s="11" t="s">
-        <v>606</v>
+        <v>612</v>
       </c>
       <c r="E134" s="11" t="s">
-        <v>719</v>
+        <v>725</v>
       </c>
       <c r="F134" s="11" t="s">
-        <v>718</v>
+        <v>724</v>
       </c>
       <c r="G134" s="11" t="s">
-        <v>606</v>
+        <v>612</v>
       </c>
       <c r="I134" s="15" t="s">
-        <v>728</v>
+        <v>734</v>
       </c>
       <c r="L134" s="4" t="s">
         <v>45</v>
@@ -17741,11 +17816,14 @@
       <c r="M134" s="11" t="s">
         <v>45</v>
       </c>
+      <c r="N134" s="6" t="s">
+        <v>45</v>
+      </c>
       <c r="O134" s="2" t="s">
         <v>45</v>
       </c>
       <c r="P134" s="11" t="s">
-        <v>729</v>
+        <v>735</v>
       </c>
     </row>
     <row r="135" ht="17" spans="1:16">
@@ -17756,19 +17834,19 @@
         <v>16</v>
       </c>
       <c r="D135" s="11" t="s">
-        <v>606</v>
+        <v>612</v>
       </c>
       <c r="E135" s="11" t="s">
-        <v>730</v>
+        <v>736</v>
       </c>
       <c r="F135" s="11" t="s">
-        <v>719</v>
+        <v>725</v>
       </c>
       <c r="G135" s="11" t="s">
-        <v>606</v>
+        <v>612</v>
       </c>
       <c r="I135" s="15" t="s">
-        <v>731</v>
+        <v>737</v>
       </c>
       <c r="L135" s="4" t="s">
         <v>45</v>
@@ -17776,11 +17854,14 @@
       <c r="M135" s="11" t="s">
         <v>45</v>
       </c>
+      <c r="N135" s="6" t="s">
+        <v>45</v>
+      </c>
       <c r="O135" s="2" t="s">
         <v>45</v>
       </c>
       <c r="P135" s="11" t="s">
-        <v>732</v>
+        <v>738</v>
       </c>
     </row>
     <row r="136" ht="17" spans="1:16">
@@ -17791,19 +17872,19 @@
         <v>16</v>
       </c>
       <c r="D136" s="11" t="s">
-        <v>606</v>
+        <v>612</v>
       </c>
       <c r="E136" s="11" t="s">
-        <v>719</v>
+        <v>725</v>
       </c>
       <c r="F136" s="11" t="s">
-        <v>730</v>
+        <v>736</v>
       </c>
       <c r="G136" s="11" t="s">
-        <v>606</v>
+        <v>612</v>
       </c>
       <c r="I136" s="15" t="s">
-        <v>733</v>
+        <v>739</v>
       </c>
       <c r="L136" s="4" t="s">
         <v>45</v>
@@ -17811,11 +17892,14 @@
       <c r="M136" s="11" t="s">
         <v>45</v>
       </c>
+      <c r="N136" s="6" t="s">
+        <v>45</v>
+      </c>
       <c r="O136" s="2" t="s">
         <v>45</v>
       </c>
       <c r="P136" s="11" t="s">
-        <v>734</v>
+        <v>740</v>
       </c>
     </row>
     <row r="137" ht="17" spans="1:16">
@@ -17826,43 +17910,43 @@
         <v>35</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>735</v>
+        <v>741</v>
       </c>
       <c r="D137" s="4" t="s">
-        <v>736</v>
+        <v>742</v>
       </c>
       <c r="E137" s="11" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="F137" s="11" t="s">
-        <v>719</v>
+        <v>725</v>
       </c>
       <c r="G137" s="11" t="s">
-        <v>737</v>
+        <v>743</v>
       </c>
       <c r="H137" s="2">
         <v>4373</v>
       </c>
       <c r="I137" s="15" t="s">
-        <v>738</v>
+        <v>744</v>
       </c>
       <c r="J137" s="2">
         <v>4373</v>
       </c>
       <c r="K137" s="21" t="s">
-        <v>739</v>
+        <v>745</v>
       </c>
       <c r="L137" s="29" t="s">
-        <v>740</v>
+        <v>746</v>
       </c>
       <c r="M137" s="27" t="s">
-        <v>741</v>
+        <v>747</v>
       </c>
       <c r="N137" s="6">
         <v>793.5</v>
       </c>
       <c r="P137" s="11" t="s">
-        <v>742</v>
+        <v>748</v>
       </c>
     </row>
     <row r="138" ht="17" spans="1:16">
@@ -17873,25 +17957,25 @@
         <v>35</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>743</v>
+        <v>749</v>
       </c>
       <c r="D138" s="4" t="s">
-        <v>744</v>
+        <v>750</v>
       </c>
       <c r="E138" s="11" t="s">
-        <v>745</v>
+        <v>751</v>
       </c>
       <c r="F138" s="11" t="s">
         <v>223</v>
       </c>
       <c r="G138" s="11" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="H138" s="2">
         <v>490</v>
       </c>
       <c r="I138" s="15" t="s">
-        <v>746</v>
+        <v>752</v>
       </c>
       <c r="J138" s="2">
         <v>314</v>
@@ -17900,16 +17984,16 @@
         <v>0.0791666666666667</v>
       </c>
       <c r="L138" s="4" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="M138" s="27" t="s">
-        <v>747</v>
+        <v>753</v>
       </c>
       <c r="N138" s="6">
         <v>144</v>
       </c>
       <c r="P138" s="11" t="s">
-        <v>748</v>
+        <v>754</v>
       </c>
     </row>
     <row r="139" ht="17" spans="1:16">
@@ -17920,25 +18004,25 @@
         <v>35</v>
       </c>
       <c r="C139" s="13" t="s">
-        <v>749</v>
+        <v>755</v>
       </c>
       <c r="D139" s="4" t="s">
-        <v>750</v>
+        <v>756</v>
       </c>
       <c r="E139" s="11" t="s">
-        <v>751</v>
+        <v>757</v>
       </c>
       <c r="F139" s="11" t="s">
         <v>275</v>
       </c>
       <c r="G139" s="11" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="H139" s="2">
         <v>479</v>
       </c>
       <c r="I139" s="15" t="s">
-        <v>752</v>
+        <v>758</v>
       </c>
       <c r="J139" s="2">
         <v>202</v>
@@ -17950,13 +18034,13 @@
         <v>45</v>
       </c>
       <c r="M139" s="27" t="s">
-        <v>753</v>
+        <v>759</v>
       </c>
       <c r="N139" s="6">
         <v>92.5</v>
       </c>
       <c r="P139" s="11" t="s">
-        <v>754</v>
+        <v>760</v>
       </c>
     </row>
     <row r="140" ht="17" spans="1:16">
@@ -17967,25 +18051,25 @@
         <v>35</v>
       </c>
       <c r="C140" s="13" t="s">
-        <v>755</v>
+        <v>761</v>
       </c>
       <c r="D140" s="4" t="s">
-        <v>756</v>
+        <v>762</v>
       </c>
       <c r="E140" s="11" t="s">
-        <v>757</v>
+        <v>763</v>
       </c>
       <c r="F140" s="11" t="s">
         <v>223</v>
       </c>
       <c r="G140" s="11" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="H140" s="2">
         <v>466</v>
       </c>
       <c r="I140" s="15" t="s">
-        <v>758</v>
+        <v>764</v>
       </c>
       <c r="J140" s="2">
         <v>202</v>
@@ -17994,16 +18078,16 @@
         <v>0.0555555555555556</v>
       </c>
       <c r="L140" s="4" t="s">
-        <v>759</v>
+        <v>765</v>
       </c>
       <c r="M140" s="27" t="s">
-        <v>760</v>
+        <v>766</v>
       </c>
       <c r="N140" s="6">
         <v>92.5</v>
       </c>
       <c r="P140" s="11" t="s">
-        <v>761</v>
+        <v>767</v>
       </c>
     </row>
     <row r="141" ht="17" spans="1:16">
@@ -18014,25 +18098,25 @@
         <v>35</v>
       </c>
       <c r="C141" s="13" t="s">
-        <v>762</v>
+        <v>768</v>
       </c>
       <c r="D141" s="4" t="s">
-        <v>763</v>
+        <v>769</v>
       </c>
       <c r="E141" s="11" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="F141" s="11" t="s">
-        <v>764</v>
+        <v>770</v>
       </c>
       <c r="G141" s="11" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="H141" s="2">
         <v>1709</v>
       </c>
       <c r="I141" s="15" t="s">
-        <v>637</v>
+        <v>643</v>
       </c>
       <c r="J141" s="2">
         <v>1434</v>
@@ -18044,13 +18128,13 @@
         <v>8</v>
       </c>
       <c r="M141" s="27" t="s">
-        <v>765</v>
+        <v>771</v>
       </c>
       <c r="N141" s="6">
         <v>446.5</v>
       </c>
       <c r="P141" s="27" t="s">
-        <v>766</v>
+        <v>772</v>
       </c>
     </row>
     <row r="142" ht="17" spans="1:16">
@@ -18061,43 +18145,43 @@
         <v>35</v>
       </c>
       <c r="C142" s="13" t="s">
-        <v>767</v>
+        <v>773</v>
       </c>
       <c r="D142" s="4" t="s">
-        <v>768</v>
+        <v>774</v>
       </c>
       <c r="E142" s="11" t="s">
-        <v>769</v>
+        <v>775</v>
       </c>
       <c r="F142" s="11" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="G142" s="11" t="s">
-        <v>770</v>
+        <v>776</v>
       </c>
       <c r="H142" s="2">
         <v>120</v>
       </c>
       <c r="I142" s="15" t="s">
-        <v>771</v>
+        <v>777</v>
       </c>
       <c r="J142" s="2">
         <v>120</v>
       </c>
       <c r="K142" s="21" t="s">
-        <v>772</v>
+        <v>778</v>
       </c>
       <c r="L142" s="4" t="s">
-        <v>773</v>
+        <v>779</v>
       </c>
       <c r="M142" s="27" t="s">
-        <v>774</v>
+        <v>780</v>
       </c>
       <c r="N142" s="6">
         <v>54.5</v>
       </c>
       <c r="P142" s="27" t="s">
-        <v>775</v>
+        <v>781</v>
       </c>
     </row>
     <row r="143" ht="17" spans="1:16">
@@ -18108,25 +18192,25 @@
         <v>230</v>
       </c>
       <c r="C143" s="13" t="s">
-        <v>776</v>
+        <v>782</v>
       </c>
       <c r="D143" s="20" t="s">
-        <v>777</v>
+        <v>783</v>
       </c>
       <c r="E143" s="11" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="F143" s="11" t="s">
-        <v>769</v>
+        <v>775</v>
       </c>
       <c r="G143" s="20" t="s">
-        <v>777</v>
+        <v>783</v>
       </c>
       <c r="H143" s="2">
         <v>163.74</v>
       </c>
       <c r="I143" s="15" t="s">
-        <v>778</v>
+        <v>784</v>
       </c>
       <c r="J143" s="2">
         <v>163.74</v>
@@ -18147,7 +18231,7 @@
         <v>45</v>
       </c>
       <c r="P143" s="27" t="s">
-        <v>779</v>
+        <v>785</v>
       </c>
     </row>
     <row r="144" ht="17" spans="1:16">
@@ -18158,16 +18242,16 @@
         <v>25</v>
       </c>
       <c r="C144" s="13" t="s">
-        <v>780</v>
+        <v>786</v>
       </c>
       <c r="D144" s="4" t="s">
-        <v>781</v>
+        <v>787</v>
       </c>
       <c r="E144" s="11" t="s">
         <v>233</v>
       </c>
       <c r="F144" s="11" t="s">
-        <v>650</v>
+        <v>656</v>
       </c>
       <c r="G144" s="29" t="s">
         <v>300</v>
@@ -18176,7 +18260,7 @@
         <v>1200</v>
       </c>
       <c r="I144" s="15" t="s">
-        <v>782</v>
+        <v>788</v>
       </c>
       <c r="J144" s="2">
         <v>1200</v>
@@ -18185,10 +18269,10 @@
         <v>0.0756944444444444</v>
       </c>
       <c r="L144" s="4" t="s">
-        <v>783</v>
+        <v>789</v>
       </c>
       <c r="M144" s="2" t="s">
-        <v>784</v>
+        <v>790</v>
       </c>
       <c r="N144" s="6">
         <v>410</v>
@@ -18197,7 +18281,7 @@
         <v>243</v>
       </c>
       <c r="P144" s="11" t="s">
-        <v>785</v>
+        <v>791</v>
       </c>
     </row>
     <row r="145" ht="17" spans="1:16">
@@ -18208,25 +18292,25 @@
         <v>35</v>
       </c>
       <c r="C145" s="13" t="s">
-        <v>786</v>
+        <v>792</v>
       </c>
       <c r="D145" s="4" t="s">
-        <v>787</v>
+        <v>793</v>
       </c>
       <c r="E145" s="11" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="F145" s="11" t="s">
-        <v>788</v>
+        <v>794</v>
       </c>
       <c r="G145" s="11" t="s">
-        <v>789</v>
+        <v>795</v>
       </c>
       <c r="H145" s="2">
         <v>2510</v>
       </c>
       <c r="I145" s="15" t="s">
-        <v>790</v>
+        <v>796</v>
       </c>
       <c r="J145" s="2">
         <v>167</v>
@@ -18235,16 +18319,16 @@
         <v>0.0972222222222222</v>
       </c>
       <c r="L145" s="22" t="s">
-        <v>791</v>
+        <v>797</v>
       </c>
       <c r="M145" s="27" t="s">
-        <v>792</v>
+        <v>798</v>
       </c>
       <c r="N145" s="6">
         <v>24.5</v>
       </c>
       <c r="P145" s="11" t="s">
-        <v>793</v>
+        <v>799</v>
       </c>
     </row>
     <row r="146" ht="17" spans="1:16">
@@ -18255,25 +18339,25 @@
         <v>35</v>
       </c>
       <c r="C146" s="13" t="s">
-        <v>794</v>
+        <v>800</v>
       </c>
       <c r="D146" s="4" t="s">
-        <v>795</v>
+        <v>801</v>
       </c>
       <c r="E146" s="11" t="s">
+        <v>491</v>
+      </c>
+      <c r="F146" s="11" t="s">
         <v>485</v>
       </c>
-      <c r="F146" s="11" t="s">
-        <v>479</v>
-      </c>
       <c r="G146" s="11" t="s">
-        <v>796</v>
+        <v>802</v>
       </c>
       <c r="H146" s="2">
         <v>1463</v>
       </c>
       <c r="I146" s="15" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="J146" s="2">
         <v>1463</v>
@@ -18285,13 +18369,13 @@
         <v>45</v>
       </c>
       <c r="M146" s="27" t="s">
-        <v>797</v>
+        <v>803</v>
       </c>
       <c r="N146" s="6">
         <v>440</v>
       </c>
       <c r="P146" s="11" t="s">
-        <v>798</v>
+        <v>804</v>
       </c>
     </row>
     <row r="147" ht="17" spans="1:16">
@@ -18302,25 +18386,25 @@
         <v>35</v>
       </c>
       <c r="C147" s="13" t="s">
-        <v>799</v>
+        <v>805</v>
       </c>
       <c r="D147" s="4" t="s">
-        <v>800</v>
+        <v>806</v>
       </c>
       <c r="E147" s="11" t="s">
-        <v>801</v>
+        <v>807</v>
       </c>
       <c r="F147" s="11" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="G147" s="11" t="s">
-        <v>796</v>
+        <v>802</v>
       </c>
       <c r="H147" s="2">
         <v>774</v>
       </c>
       <c r="I147" s="15" t="s">
-        <v>802</v>
+        <v>808</v>
       </c>
       <c r="J147" s="2">
         <v>774</v>
@@ -18329,16 +18413,16 @@
         <v>0.275</v>
       </c>
       <c r="L147" s="4" t="s">
-        <v>803</v>
+        <v>809</v>
       </c>
       <c r="M147" s="27" t="s">
-        <v>804</v>
+        <v>810</v>
       </c>
       <c r="N147" s="6">
         <v>261</v>
       </c>
       <c r="P147" s="27" t="s">
-        <v>805</v>
+        <v>811</v>
       </c>
     </row>
     <row r="148" spans="1:15">
@@ -18349,25 +18433,25 @@
         <v>230</v>
       </c>
       <c r="C148" s="13" t="s">
-        <v>806</v>
+        <v>812</v>
       </c>
       <c r="D148" s="27" t="s">
-        <v>807</v>
+        <v>813</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>808</v>
+        <v>814</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>809</v>
+        <v>815</v>
       </c>
       <c r="G148" s="27" t="s">
-        <v>807</v>
+        <v>813</v>
       </c>
       <c r="H148" s="2">
         <v>1712.52</v>
       </c>
       <c r="I148" s="16" t="s">
-        <v>810</v>
+        <v>816</v>
       </c>
       <c r="J148" s="2">
         <v>145.2</v>
@@ -18396,25 +18480,25 @@
         <v>230</v>
       </c>
       <c r="C149" s="13" t="s">
-        <v>811</v>
+        <v>817</v>
       </c>
       <c r="D149" s="27" t="s">
-        <v>807</v>
+        <v>813</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>808</v>
+        <v>814</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>809</v>
+        <v>815</v>
       </c>
       <c r="G149" s="27" t="s">
-        <v>807</v>
+        <v>813</v>
       </c>
       <c r="H149" s="2">
         <v>1712.52</v>
       </c>
       <c r="I149" s="16" t="s">
-        <v>812</v>
+        <v>818</v>
       </c>
       <c r="J149" s="2">
         <v>153.85</v>
@@ -18443,25 +18527,25 @@
         <v>230</v>
       </c>
       <c r="C150" s="13" t="s">
+        <v>819</v>
+      </c>
+      <c r="D150" s="27" t="s">
         <v>813</v>
       </c>
-      <c r="D150" s="27" t="s">
-        <v>807</v>
-      </c>
       <c r="E150" s="2" t="s">
-        <v>808</v>
+        <v>814</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>809</v>
+        <v>815</v>
       </c>
       <c r="G150" s="27" t="s">
-        <v>807</v>
+        <v>813</v>
       </c>
       <c r="H150" s="2">
         <v>1712.52</v>
       </c>
       <c r="I150" s="16" t="s">
-        <v>814</v>
+        <v>820</v>
       </c>
       <c r="J150" s="2">
         <v>122.95</v>
@@ -18490,25 +18574,25 @@
         <v>230</v>
       </c>
       <c r="C151" s="13" t="s">
+        <v>821</v>
+      </c>
+      <c r="D151" s="27" t="s">
+        <v>813</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>814</v>
+      </c>
+      <c r="F151" s="2" t="s">
         <v>815</v>
       </c>
-      <c r="D151" s="27" t="s">
-        <v>807</v>
-      </c>
-      <c r="E151" s="2" t="s">
-        <v>808</v>
-      </c>
-      <c r="F151" s="2" t="s">
-        <v>809</v>
-      </c>
       <c r="G151" s="27" t="s">
-        <v>807</v>
+        <v>813</v>
       </c>
       <c r="H151" s="2">
         <v>1712.52</v>
       </c>
       <c r="I151" s="16" t="s">
-        <v>816</v>
+        <v>822</v>
       </c>
       <c r="J151" s="2">
         <v>122.1</v>
@@ -18537,25 +18621,25 @@
         <v>230</v>
       </c>
       <c r="C152" s="13" t="s">
-        <v>817</v>
+        <v>823</v>
       </c>
       <c r="D152" s="27" t="s">
-        <v>807</v>
+        <v>813</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>808</v>
+        <v>814</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>809</v>
+        <v>815</v>
       </c>
       <c r="G152" s="27" t="s">
-        <v>807</v>
+        <v>813</v>
       </c>
       <c r="H152" s="2">
         <v>1712.52</v>
       </c>
       <c r="I152" s="16" t="s">
-        <v>818</v>
+        <v>824</v>
       </c>
       <c r="J152" s="2">
         <v>95.1</v>
@@ -18581,25 +18665,25 @@
         <v>230</v>
       </c>
       <c r="C153" s="13" t="s">
-        <v>819</v>
+        <v>825</v>
       </c>
       <c r="D153" s="27" t="s">
-        <v>807</v>
+        <v>813</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>808</v>
+        <v>814</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>809</v>
+        <v>815</v>
       </c>
       <c r="G153" s="27" t="s">
-        <v>807</v>
+        <v>813</v>
       </c>
       <c r="H153" s="2">
         <v>1712.52</v>
       </c>
       <c r="I153" s="16" t="s">
-        <v>820</v>
+        <v>826</v>
       </c>
       <c r="J153" s="2">
         <v>116.42</v>
@@ -18628,25 +18712,25 @@
         <v>230</v>
       </c>
       <c r="C154" s="13" t="s">
-        <v>821</v>
+        <v>827</v>
       </c>
       <c r="D154" s="27" t="s">
-        <v>807</v>
+        <v>813</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>808</v>
+        <v>814</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>809</v>
+        <v>815</v>
       </c>
       <c r="G154" s="27" t="s">
-        <v>807</v>
+        <v>813</v>
       </c>
       <c r="H154" s="2">
         <v>1712.52</v>
       </c>
       <c r="I154" s="16" t="s">
-        <v>822</v>
+        <v>828</v>
       </c>
       <c r="J154" s="2">
         <v>91.79</v>
@@ -18675,25 +18759,25 @@
         <v>230</v>
       </c>
       <c r="C155" s="13" t="s">
-        <v>823</v>
+        <v>829</v>
       </c>
       <c r="D155" s="27" t="s">
-        <v>807</v>
+        <v>813</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>808</v>
+        <v>814</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>809</v>
+        <v>815</v>
       </c>
       <c r="G155" s="27" t="s">
-        <v>807</v>
+        <v>813</v>
       </c>
       <c r="H155" s="2">
         <v>1712.52</v>
       </c>
       <c r="I155" s="16" t="s">
-        <v>824</v>
+        <v>830</v>
       </c>
       <c r="J155" s="2">
         <v>114.7</v>
@@ -18722,25 +18806,25 @@
         <v>230</v>
       </c>
       <c r="C156" s="13" t="s">
-        <v>825</v>
+        <v>831</v>
       </c>
       <c r="D156" s="27" t="s">
-        <v>807</v>
+        <v>813</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>808</v>
+        <v>814</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>809</v>
+        <v>815</v>
       </c>
       <c r="G156" s="27" t="s">
-        <v>807</v>
+        <v>813</v>
       </c>
       <c r="H156" s="2">
         <v>1712.52</v>
       </c>
       <c r="I156" s="16" t="s">
-        <v>826</v>
+        <v>832</v>
       </c>
       <c r="J156" s="2">
         <v>74.14</v>
@@ -18769,25 +18853,25 @@
         <v>230</v>
       </c>
       <c r="C157" s="13" t="s">
-        <v>827</v>
+        <v>833</v>
       </c>
       <c r="D157" s="27" t="s">
-        <v>807</v>
+        <v>813</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>808</v>
+        <v>814</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>809</v>
+        <v>815</v>
       </c>
       <c r="G157" s="27" t="s">
-        <v>807</v>
+        <v>813</v>
       </c>
       <c r="H157" s="2">
         <v>1712.52</v>
       </c>
       <c r="I157" s="16" t="s">
-        <v>828</v>
+        <v>834</v>
       </c>
       <c r="J157" s="2">
         <v>118.9</v>
@@ -18816,25 +18900,25 @@
         <v>230</v>
       </c>
       <c r="C158" s="13" t="s">
-        <v>829</v>
+        <v>835</v>
       </c>
       <c r="D158" s="27" t="s">
-        <v>807</v>
+        <v>813</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>808</v>
+        <v>814</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>809</v>
+        <v>815</v>
       </c>
       <c r="G158" s="27" t="s">
-        <v>807</v>
+        <v>813</v>
       </c>
       <c r="H158" s="2">
         <v>1712.52</v>
       </c>
       <c r="I158" s="16" t="s">
-        <v>830</v>
+        <v>836</v>
       </c>
       <c r="J158" s="2">
         <v>95.07</v>
@@ -18863,25 +18947,25 @@
         <v>35</v>
       </c>
       <c r="C159" s="13" t="s">
-        <v>831</v>
+        <v>837</v>
       </c>
       <c r="D159" s="4">
         <v>4341</v>
       </c>
       <c r="E159" s="11" t="s">
-        <v>832</v>
+        <v>838</v>
       </c>
       <c r="F159" s="11" t="s">
-        <v>833</v>
+        <v>839</v>
       </c>
       <c r="G159" s="11" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="H159" s="2">
         <v>131</v>
       </c>
       <c r="I159" s="15" t="s">
-        <v>834</v>
+        <v>840</v>
       </c>
       <c r="J159" s="2">
         <v>90</v>
@@ -18893,13 +18977,13 @@
         <v>45</v>
       </c>
       <c r="M159" s="27" t="s">
-        <v>835</v>
+        <v>841</v>
       </c>
       <c r="N159" s="6">
         <v>6</v>
       </c>
       <c r="P159" s="2" t="s">
-        <v>836</v>
+        <v>842</v>
       </c>
     </row>
     <row r="160" ht="17" spans="1:16">
@@ -18910,43 +18994,43 @@
         <v>35</v>
       </c>
       <c r="C160" s="13" t="s">
-        <v>837</v>
+        <v>843</v>
       </c>
       <c r="D160" s="4" t="s">
+        <v>844</v>
+      </c>
+      <c r="E160" s="11" t="s">
+        <v>845</v>
+      </c>
+      <c r="F160" s="11" t="s">
         <v>838</v>
       </c>
-      <c r="E160" s="11" t="s">
-        <v>839</v>
-      </c>
-      <c r="F160" s="11" t="s">
-        <v>832</v>
-      </c>
       <c r="G160" s="11" t="s">
-        <v>840</v>
+        <v>846</v>
       </c>
       <c r="H160" s="2">
         <v>111</v>
       </c>
       <c r="I160" s="15" t="s">
-        <v>841</v>
+        <v>847</v>
       </c>
       <c r="J160" s="2">
         <v>111</v>
       </c>
       <c r="K160" s="21" t="s">
-        <v>842</v>
+        <v>848</v>
       </c>
       <c r="L160" s="4" t="s">
-        <v>843</v>
+        <v>849</v>
       </c>
       <c r="M160" s="27" t="s">
-        <v>844</v>
+        <v>850</v>
       </c>
       <c r="N160" s="6">
         <v>31.5</v>
       </c>
       <c r="P160" s="11" t="s">
-        <v>845</v>
+        <v>851</v>
       </c>
     </row>
     <row r="161" ht="17" spans="1:16">
@@ -18957,25 +19041,25 @@
         <v>35</v>
       </c>
       <c r="C161" s="13" t="s">
+        <v>852</v>
+      </c>
+      <c r="D161" s="4" t="s">
+        <v>853</v>
+      </c>
+      <c r="E161" s="11" t="s">
+        <v>854</v>
+      </c>
+      <c r="F161" s="11" t="s">
+        <v>845</v>
+      </c>
+      <c r="G161" s="11" t="s">
         <v>846</v>
-      </c>
-      <c r="D161" s="4" t="s">
-        <v>847</v>
-      </c>
-      <c r="E161" s="11" t="s">
-        <v>848</v>
-      </c>
-      <c r="F161" s="11" t="s">
-        <v>839</v>
-      </c>
-      <c r="G161" s="11" t="s">
-        <v>840</v>
       </c>
       <c r="H161" s="2">
         <v>420</v>
       </c>
       <c r="I161" s="15" t="s">
-        <v>849</v>
+        <v>855</v>
       </c>
       <c r="J161" s="2">
         <v>333</v>
@@ -18987,13 +19071,13 @@
         <v>45</v>
       </c>
       <c r="M161" s="27" t="s">
-        <v>850</v>
+        <v>856</v>
       </c>
       <c r="N161" s="6">
         <v>98</v>
       </c>
       <c r="P161" s="11" t="s">
-        <v>851</v>
+        <v>857</v>
       </c>
     </row>
     <row r="162" ht="17" spans="1:16">
@@ -19004,25 +19088,25 @@
         <v>230</v>
       </c>
       <c r="C162" s="13" t="s">
-        <v>852</v>
+        <v>858</v>
       </c>
       <c r="D162" s="27" t="s">
-        <v>807</v>
+        <v>813</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>808</v>
+        <v>814</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>809</v>
+        <v>815</v>
       </c>
       <c r="G162" s="27" t="s">
-        <v>807</v>
+        <v>813</v>
       </c>
       <c r="H162" s="2">
         <v>1712.52</v>
       </c>
       <c r="I162" s="15" t="s">
-        <v>853</v>
+        <v>859</v>
       </c>
       <c r="J162" s="2">
         <v>83</v>
@@ -19049,25 +19133,25 @@
         <v>230</v>
       </c>
       <c r="C163" s="13" t="s">
-        <v>854</v>
+        <v>860</v>
       </c>
       <c r="D163" s="27" t="s">
-        <v>807</v>
+        <v>813</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>808</v>
+        <v>814</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>809</v>
+        <v>815</v>
       </c>
       <c r="G163" s="27" t="s">
-        <v>807</v>
+        <v>813</v>
       </c>
       <c r="H163" s="2">
         <v>1712.52</v>
       </c>
       <c r="I163" s="15" t="s">
-        <v>855</v>
+        <v>861</v>
       </c>
       <c r="J163" s="2">
         <v>72</v>
@@ -19094,22 +19178,22 @@
         <v>16</v>
       </c>
       <c r="C164" s="13" t="s">
-        <v>856</v>
+        <v>862</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>857</v>
+        <v>863</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>808</v>
+        <v>814</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>809</v>
+        <v>815</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>857</v>
+        <v>863</v>
       </c>
       <c r="I164" s="16" t="s">
-        <v>858</v>
+        <v>864</v>
       </c>
       <c r="J164" s="2">
         <v>223</v>
@@ -19118,7 +19202,7 @@
         <v>0.126064814814815</v>
       </c>
       <c r="P164" s="2" t="s">
-        <v>859</v>
+        <v>865</v>
       </c>
     </row>
     <row r="165" spans="1:15">
@@ -19130,22 +19214,22 @@
       </c>
       <c r="C165" s="13"/>
       <c r="D165" s="27" t="s">
-        <v>807</v>
+        <v>813</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>808</v>
+        <v>814</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>809</v>
+        <v>815</v>
       </c>
       <c r="G165" s="27" t="s">
-        <v>807</v>
+        <v>813</v>
       </c>
       <c r="H165" s="2">
         <v>1712.52</v>
       </c>
       <c r="I165" s="16" t="s">
-        <v>860</v>
+        <v>866</v>
       </c>
       <c r="J165" s="2">
         <v>103.3</v>
@@ -19172,22 +19256,22 @@
       </c>
       <c r="C166" s="13"/>
       <c r="D166" s="27" t="s">
-        <v>807</v>
+        <v>813</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>808</v>
+        <v>814</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>809</v>
+        <v>815</v>
       </c>
       <c r="G166" s="27" t="s">
-        <v>807</v>
+        <v>813</v>
       </c>
       <c r="H166" s="2">
         <v>1712.52</v>
       </c>
       <c r="I166" s="16" t="s">
-        <v>861</v>
+        <v>867</v>
       </c>
       <c r="J166" s="2">
         <v>75.5</v>
@@ -19214,22 +19298,22 @@
       </c>
       <c r="C167" s="13"/>
       <c r="D167" s="27" t="s">
-        <v>807</v>
+        <v>813</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>808</v>
+        <v>814</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>809</v>
+        <v>815</v>
       </c>
       <c r="G167" s="27" t="s">
-        <v>807</v>
+        <v>813</v>
       </c>
       <c r="H167" s="2">
         <v>1712.52</v>
       </c>
       <c r="I167" s="16" t="s">
-        <v>862</v>
+        <v>868</v>
       </c>
       <c r="J167" s="2">
         <v>128.5</v>
@@ -19255,43 +19339,43 @@
         <v>35</v>
       </c>
       <c r="C168" s="13" t="s">
-        <v>863</v>
+        <v>869</v>
       </c>
       <c r="D168" s="4" t="s">
-        <v>864</v>
+        <v>870</v>
       </c>
       <c r="E168" s="11" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="F168" s="11" t="s">
-        <v>808</v>
+        <v>814</v>
       </c>
       <c r="G168" s="11" t="s">
-        <v>865</v>
+        <v>871</v>
       </c>
       <c r="H168" s="2">
         <v>2086</v>
       </c>
       <c r="I168" s="15" t="s">
-        <v>866</v>
+        <v>872</v>
       </c>
       <c r="J168" s="2">
         <v>2086</v>
       </c>
       <c r="K168" s="21" t="s">
-        <v>867</v>
+        <v>873</v>
       </c>
       <c r="L168" s="4" t="s">
         <v>45</v>
       </c>
       <c r="M168" s="27" t="s">
-        <v>868</v>
+        <v>874</v>
       </c>
       <c r="N168" s="6">
         <v>421</v>
       </c>
       <c r="P168" s="27" t="s">
-        <v>869</v>
+        <v>875</v>
       </c>
     </row>
     <row r="169" ht="17" spans="1:16">
@@ -19302,25 +19386,25 @@
         <v>35</v>
       </c>
       <c r="C169" s="13" t="s">
-        <v>870</v>
+        <v>876</v>
       </c>
       <c r="D169" s="4" t="s">
-        <v>871</v>
+        <v>877</v>
       </c>
       <c r="E169" s="11" t="s">
-        <v>872</v>
+        <v>878</v>
       </c>
       <c r="F169" s="11" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="G169" s="11" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="H169" s="2">
         <v>1279</v>
       </c>
       <c r="I169" s="15" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="J169" s="2">
         <v>1279</v>
@@ -19329,16 +19413,16 @@
         <v>0.19375</v>
       </c>
       <c r="L169" s="4" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="M169" s="27" t="s">
-        <v>589</v>
+        <v>595</v>
       </c>
       <c r="N169" s="6">
         <v>404</v>
       </c>
       <c r="P169" s="27" t="s">
-        <v>873</v>
+        <v>879</v>
       </c>
     </row>
     <row r="170" ht="17" spans="1:16">
@@ -19349,19 +19433,19 @@
         <v>35</v>
       </c>
       <c r="C170" s="13" t="s">
-        <v>874</v>
+        <v>880</v>
       </c>
       <c r="D170" s="4" t="s">
-        <v>875</v>
+        <v>881</v>
       </c>
       <c r="E170" s="11" t="s">
-        <v>876</v>
+        <v>882</v>
       </c>
       <c r="F170" s="11" t="s">
         <v>223</v>
       </c>
       <c r="G170" s="11" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="H170" s="2">
         <v>610</v>
@@ -19373,19 +19457,19 @@
         <v>155</v>
       </c>
       <c r="K170" s="21" t="s">
-        <v>877</v>
+        <v>883</v>
       </c>
       <c r="L170" s="4" t="s">
-        <v>878</v>
+        <v>884</v>
       </c>
       <c r="M170" s="27" t="s">
-        <v>879</v>
+        <v>885</v>
       </c>
       <c r="N170" s="6">
         <v>53.5</v>
       </c>
       <c r="P170" s="11" t="s">
-        <v>880</v>
+        <v>886</v>
       </c>
     </row>
     <row r="171" ht="17" spans="1:16">
@@ -19396,25 +19480,25 @@
         <v>35</v>
       </c>
       <c r="C171" s="13" t="s">
-        <v>762</v>
+        <v>768</v>
       </c>
       <c r="D171" s="4" t="s">
-        <v>763</v>
+        <v>769</v>
       </c>
       <c r="E171" s="11" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="F171" s="11" t="s">
-        <v>764</v>
+        <v>770</v>
       </c>
       <c r="G171" s="11" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="H171" s="2">
         <v>1709</v>
       </c>
       <c r="I171" s="15" t="s">
-        <v>637</v>
+        <v>643</v>
       </c>
       <c r="J171" s="2">
         <v>1434</v>
@@ -19426,13 +19510,13 @@
         <v>8</v>
       </c>
       <c r="M171" s="27" t="s">
-        <v>881</v>
+        <v>887</v>
       </c>
       <c r="N171" s="6">
         <v>446.5</v>
       </c>
       <c r="P171" s="27" t="s">
-        <v>882</v>
+        <v>888</v>
       </c>
     </row>
     <row r="172" ht="17" spans="1:16">
@@ -19443,25 +19527,25 @@
         <v>35</v>
       </c>
       <c r="C172" s="13" t="s">
-        <v>883</v>
+        <v>889</v>
       </c>
       <c r="D172" s="4" t="s">
-        <v>884</v>
+        <v>890</v>
       </c>
       <c r="E172" s="11" t="s">
         <v>275</v>
       </c>
       <c r="F172" s="11" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="G172" s="11" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="H172" s="2">
         <v>1434</v>
       </c>
       <c r="I172" s="15" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="J172" s="2">
         <v>1434</v>
@@ -19470,16 +19554,16 @@
         <v>0.285416666666667</v>
       </c>
       <c r="L172" s="4" t="s">
-        <v>701</v>
+        <v>707</v>
       </c>
       <c r="M172" s="27" t="s">
-        <v>885</v>
+        <v>891</v>
       </c>
       <c r="N172" s="6">
         <v>446.5</v>
       </c>
       <c r="P172" s="27" t="s">
-        <v>886</v>
+        <v>892</v>
       </c>
     </row>
     <row r="173" ht="17" spans="1:16">
@@ -19490,25 +19574,25 @@
         <v>35</v>
       </c>
       <c r="C173" s="13" t="s">
-        <v>762</v>
+        <v>768</v>
       </c>
       <c r="D173" s="4" t="s">
-        <v>763</v>
+        <v>769</v>
       </c>
       <c r="E173" s="11" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="F173" s="11" t="s">
-        <v>764</v>
+        <v>770</v>
       </c>
       <c r="G173" s="11" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="H173" s="2">
         <v>1709</v>
       </c>
       <c r="I173" s="15" t="s">
-        <v>637</v>
+        <v>643</v>
       </c>
       <c r="J173" s="2">
         <v>1434</v>
@@ -19520,13 +19604,13 @@
         <v>8</v>
       </c>
       <c r="M173" s="27" t="s">
-        <v>887</v>
+        <v>893</v>
       </c>
       <c r="N173" s="6">
         <v>446.5</v>
       </c>
       <c r="P173" s="27" t="s">
-        <v>888</v>
+        <v>894</v>
       </c>
     </row>
     <row r="174" ht="17" spans="1:16">
@@ -19537,43 +19621,43 @@
         <v>35</v>
       </c>
       <c r="C174" s="13" t="s">
-        <v>889</v>
+        <v>895</v>
       </c>
       <c r="D174" s="4" t="s">
-        <v>890</v>
+        <v>896</v>
       </c>
       <c r="E174" s="11" t="s">
-        <v>769</v>
+        <v>775</v>
       </c>
       <c r="F174" s="11" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="G174" s="11" t="s">
-        <v>840</v>
+        <v>846</v>
       </c>
       <c r="H174" s="2">
         <v>127</v>
       </c>
       <c r="I174" s="15" t="s">
-        <v>771</v>
+        <v>777</v>
       </c>
       <c r="J174" s="2">
         <v>127</v>
       </c>
       <c r="K174" s="21" t="s">
-        <v>891</v>
+        <v>897</v>
       </c>
       <c r="L174" s="4" t="s">
-        <v>773</v>
+        <v>779</v>
       </c>
       <c r="M174" s="27" t="s">
-        <v>892</v>
+        <v>898</v>
       </c>
       <c r="N174" s="6">
         <v>54.5</v>
       </c>
       <c r="P174" s="27" t="s">
-        <v>893</v>
+        <v>899</v>
       </c>
     </row>
     <row r="175" ht="17" spans="1:16">
@@ -19584,25 +19668,25 @@
         <v>230</v>
       </c>
       <c r="C175" s="13" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="D175" s="15" t="s">
-        <v>895</v>
+        <v>901</v>
       </c>
       <c r="E175" s="11" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="F175" s="11" t="s">
-        <v>769</v>
+        <v>775</v>
       </c>
       <c r="G175" s="15" t="s">
-        <v>895</v>
+        <v>901</v>
       </c>
       <c r="H175" s="2">
         <v>144</v>
       </c>
       <c r="I175" s="15" t="s">
-        <v>778</v>
+        <v>784</v>
       </c>
       <c r="J175" s="2">
         <v>144</v>
@@ -19620,7 +19704,7 @@
         <v>45</v>
       </c>
       <c r="P175" s="27" t="s">
-        <v>896</v>
+        <v>902</v>
       </c>
     </row>
     <row r="176" ht="17" spans="1:16">
@@ -19631,25 +19715,25 @@
         <v>35</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>897</v>
+        <v>903</v>
       </c>
       <c r="D176" s="4" t="s">
-        <v>898</v>
+        <v>904</v>
       </c>
       <c r="E176" s="11" t="s">
         <v>256</v>
       </c>
       <c r="F176" s="11" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="G176" s="11" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="H176" s="2">
         <v>2011</v>
       </c>
       <c r="I176" s="15" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="J176" s="2">
         <v>1434</v>
@@ -19658,16 +19742,16 @@
         <v>0.283333333333333</v>
       </c>
       <c r="L176" s="4" t="s">
-        <v>701</v>
+        <v>707</v>
       </c>
       <c r="M176" s="27" t="s">
-        <v>899</v>
+        <v>905</v>
       </c>
       <c r="N176" s="6">
         <v>446.5</v>
       </c>
       <c r="P176" s="27" t="s">
-        <v>900</v>
+        <v>906</v>
       </c>
     </row>
     <row r="177" ht="17" spans="1:16">
@@ -19678,25 +19762,25 @@
         <v>35</v>
       </c>
       <c r="C177" s="13" t="s">
-        <v>901</v>
+        <v>907</v>
       </c>
       <c r="D177" s="4" t="s">
-        <v>763</v>
+        <v>769</v>
       </c>
       <c r="E177" s="11" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="F177" s="11" t="s">
-        <v>764</v>
+        <v>770</v>
       </c>
       <c r="G177" s="11" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="H177" s="2">
         <v>1691</v>
       </c>
       <c r="I177" s="15" t="s">
-        <v>637</v>
+        <v>643</v>
       </c>
       <c r="J177" s="2">
         <v>1434</v>
@@ -19708,13 +19792,13 @@
         <v>8</v>
       </c>
       <c r="M177" s="27" t="s">
-        <v>902</v>
+        <v>908</v>
       </c>
       <c r="N177" s="6">
         <v>595.5</v>
       </c>
       <c r="P177" s="15" t="s">
-        <v>903</v>
+        <v>909</v>
       </c>
     </row>
     <row r="178" ht="17" spans="1:16">
@@ -19725,25 +19809,25 @@
         <v>35</v>
       </c>
       <c r="C178" s="13" t="s">
-        <v>904</v>
+        <v>910</v>
       </c>
       <c r="D178" s="4" t="s">
-        <v>905</v>
+        <v>911</v>
       </c>
       <c r="E178" s="11" t="s">
-        <v>764</v>
+        <v>770</v>
       </c>
       <c r="F178" s="11" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="G178" s="11" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="H178" s="2">
         <v>1709</v>
       </c>
       <c r="I178" s="15" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="J178" s="2">
         <v>1434</v>
@@ -19752,28 +19836,28 @@
         <v>0.3125</v>
       </c>
       <c r="L178" s="4" t="s">
-        <v>701</v>
+        <v>707</v>
       </c>
       <c r="M178" s="27" t="s">
-        <v>906</v>
+        <v>912</v>
       </c>
       <c r="N178" s="6">
         <v>595.5</v>
       </c>
       <c r="P178" s="11" t="s">
-        <v>907</v>
+        <v>913</v>
       </c>
     </row>
     <row r="180" spans="1:3">
       <c r="A180" s="30" t="s">
-        <v>908</v>
+        <v>914</v>
       </c>
       <c r="B180" s="30"/>
       <c r="C180" s="30"/>
     </row>
     <row r="181" spans="1:4">
       <c r="A181" s="31" t="s">
-        <v>909</v>
+        <v>915</v>
       </c>
       <c r="B181" s="32"/>
       <c r="C181" s="32"/>
@@ -19781,7 +19865,7 @@
     </row>
     <row r="182" spans="1:4">
       <c r="A182" s="31" t="s">
-        <v>910</v>
+        <v>916</v>
       </c>
       <c r="B182" s="32"/>
       <c r="C182" s="32"/>
